--- a/Báo cáo/Thiết kế giao diện (Design layout)/TaiLieuThietKeChiTiet/BOOKSELLING_01_LogIn.xlsx
+++ b/Báo cáo/Thiết kế giao diện (Design layout)/TaiLieuThietKeChiTiet/BOOKSELLING_01_LogIn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr saveExternalLinkValues="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\KTLTHDT\Báo cáo\Thiết kế giao diện (Design layout)\TaiLieuThietKeChiTiet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9534A-FE9B-4A01-9ACB-5F9AB3BAFD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274847E1-D0CB-4A57-A970-B1DBD7D1AC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="826" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bìa" sheetId="19" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="152">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -670,9 +670,6 @@
     <t>Có thể</t>
   </si>
   <si>
-    <t>Trường hợp password không đúng định dạng (6 kí tự trở lên, bao gồm chữ hoa, chữ thường và kí tự số)</t>
-  </si>
-  <si>
     <t>3. Xử lý đăng nhập</t>
   </si>
   <si>
@@ -727,24 +724,6 @@
     <t>Trường hợp username không đúng định dạng email (example@mail.com)</t>
   </si>
   <si>
-    <t>ERR_USERNAME_E001</t>
-  </si>
-  <si>
-    <t>ERR_PASSWORD_E001</t>
-  </si>
-  <si>
-    <t>ERR_USERNAME_E002</t>
-  </si>
-  <si>
-    <t>ERR_PASSWORD_E002</t>
-  </si>
-  <si>
-    <t>MSG_LOGIN_SUCCESS</t>
-  </si>
-  <si>
-    <t>MSG_LOGIN_E001</t>
-  </si>
-  <si>
     <t>users</t>
   </si>
   <si>
@@ -769,28 +748,16 @@
     <t>- Hệ thống dựa vào phân quyền của tài khoản để chuyển đến menu khách hàng hoặc quản trị viên.</t>
   </si>
   <si>
-    <t>Quên mật khẩu</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
     <t>Mật khẩu</t>
   </si>
   <si>
-    <t>Text Button</t>
-  </si>
-  <si>
     <t>HoangDV</t>
   </si>
   <si>
     <t>2. Đăng nhập thành công thì di chuyển sang màn hình trang chủ.</t>
-  </si>
-  <si>
-    <t>(3) Chức năng khác</t>
-  </si>
-  <si>
-    <t>1. Nhấn nút quên mật khẩu sẽ chuyển sang màn hình quên mật khẩu.</t>
   </si>
   <si>
     <t>Đăng nhập</t>
@@ -820,17 +787,49 @@
   <si>
     <t>Câu truy vấn: .formLogin().loginPage("/customer/login").usernameParameter("email").passwordParameter("password").permitAll().loginProcessingUrl("/j_spring_security_check")</t>
   </si>
+  <si>
+    <t>ERROR_LOGIN_EMPTY_EMAIL</t>
+  </si>
+  <si>
+    <t>ERROR_LOGIN_EMPTY_PASSWORD</t>
+  </si>
+  <si>
+    <t>ERROR_LOGIN_WRONG_EMAIL_FORMAT</t>
+  </si>
+  <si>
+    <t>NT_LOGIN_FAILED</t>
+  </si>
+  <si>
+    <t>Không có</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>Table quản lý role</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Cập nhật</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -947,6 +946,13 @@
       <color rgb="FF660E7A"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF9876AA"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1762,7 +1768,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="389">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2293,8 +2299,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2328,7 +2332,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2344,6 +2347,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2576,42 +2585,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2780,30 +2753,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2922,6 +2871,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3021,14 +2974,39 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3146,14 +3124,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>136</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>127635</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
       <xdr:row>140</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
@@ -3172,7 +3150,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3939540" y="23798213"/>
+          <a:off x="4678680" y="23798213"/>
           <a:ext cx="942975" cy="632460"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -3210,14 +3188,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>21908</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>27623</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>27623</xdr:colOff>
+      <xdr:colOff>29528</xdr:colOff>
       <xdr:row>136</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
@@ -3237,9 +3215,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="4411028" y="23304818"/>
-          <a:ext cx="737235" cy="493395"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5148263" y="23304818"/>
+          <a:ext cx="1905" cy="493395"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4090,136 +4068,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>54293</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>127635</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>16193</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C405241B-E39B-44D7-8318-B9183523D2D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5219700" y="23790593"/>
-          <a:ext cx="942975" cy="632460"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 25000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>role</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>27623</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>21908</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>54293</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3A8175-4456-46E0-A945-882750EBDA09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="6" idx="1"/>
-          <a:endCxn id="138246" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5148263" y="23304818"/>
-          <a:ext cx="542925" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4315,8 +4163,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="410086" y="1451676"/>
-          <a:ext cx="7541941" cy="4476130"/>
+          <a:off x="417732" y="1417781"/>
+          <a:ext cx="7698673" cy="4363487"/>
           <a:chOff x="2229422" y="1519238"/>
           <a:chExt cx="7907867" cy="4515733"/>
         </a:xfrm>
@@ -5459,79 +5307,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>40772</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>8064</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>19462</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>35961</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="TextBox 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4112029" y="3774521"/>
-          <a:ext cx="1274090" cy="191183"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="vi-VN" sz="1100"/>
-            <a:t>Quên</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="vi-VN" sz="1100" baseline="0"/>
-            <a:t> mật khẩu</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>17353</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -5618,119 +5393,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>21958</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>36951</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1532521" cy="321589"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Shape 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6313901" y="4293265"/>
-          <a:ext cx="1532521" cy="321589"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="120000" h="120000" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="120000" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="120000" y="120000"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="120000"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-            <a:path w="120000" h="120000" fill="none" extrusionOk="0">
-              <a:moveTo>
-                <a:pt x="-10000" y="22500"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="-20000" y="22500"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="-93386" y="-97682"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="D6E3BC"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="C2D59B"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="vi-VN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Nút </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="vi-VN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>quên mật khẩu</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
@@ -19724,8 +19386,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AX161"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A124" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL141" sqref="AL141"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE57" sqref="AE57:AI58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -19736,187 +19398,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="230" t="s">
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="223"/>
-      <c r="P1" s="230" t="s">
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="222"/>
-      <c r="T1" s="222"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="236" t="s">
+      <c r="Q1" s="221"/>
+      <c r="R1" s="221"/>
+      <c r="S1" s="221"/>
+      <c r="T1" s="221"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="242" t="s">
-        <v>130</v>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="241" t="s">
+        <v>123</v>
       </c>
-      <c r="AB1" s="222"/>
-      <c r="AC1" s="222"/>
-      <c r="AD1" s="222"/>
-      <c r="AE1" s="222"/>
-      <c r="AF1" s="222"/>
-      <c r="AG1" s="222"/>
-      <c r="AH1" s="222"/>
-      <c r="AI1" s="222"/>
-      <c r="AJ1" s="222"/>
-      <c r="AK1" s="222"/>
-      <c r="AL1" s="223"/>
-      <c r="AM1" s="231" t="s">
+      <c r="AB1" s="221"/>
+      <c r="AC1" s="221"/>
+      <c r="AD1" s="221"/>
+      <c r="AE1" s="221"/>
+      <c r="AF1" s="221"/>
+      <c r="AG1" s="221"/>
+      <c r="AH1" s="221"/>
+      <c r="AI1" s="221"/>
+      <c r="AJ1" s="221"/>
+      <c r="AK1" s="221"/>
+      <c r="AL1" s="222"/>
+      <c r="AM1" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="AN1" s="232"/>
-      <c r="AO1" s="244" t="s">
-        <v>131</v>
+      <c r="AN1" s="231"/>
+      <c r="AO1" s="243" t="s">
+        <v>124</v>
       </c>
-      <c r="AP1" s="245"/>
-      <c r="AQ1" s="246"/>
-      <c r="AR1" s="231" t="s">
+      <c r="AP1" s="244"/>
+      <c r="AQ1" s="245"/>
+      <c r="AR1" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="AS1" s="232"/>
-      <c r="AT1" s="233">
+      <c r="AS1" s="231"/>
+      <c r="AT1" s="232">
         <v>45204</v>
       </c>
-      <c r="AU1" s="234"/>
-      <c r="AV1" s="234"/>
-      <c r="AW1" s="235"/>
+      <c r="AU1" s="233"/>
+      <c r="AV1" s="233"/>
+      <c r="AW1" s="234"/>
     </row>
     <row r="2" spans="1:49" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="224"/>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="225"/>
-      <c r="L2" s="225"/>
-      <c r="M2" s="225"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="226"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="239"/>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="241"/>
-      <c r="AA2" s="243"/>
-      <c r="AB2" s="225"/>
-      <c r="AC2" s="225"/>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="225"/>
-      <c r="AF2" s="225"/>
-      <c r="AG2" s="225"/>
-      <c r="AH2" s="225"/>
-      <c r="AI2" s="225"/>
-      <c r="AJ2" s="225"/>
-      <c r="AK2" s="225"/>
-      <c r="AL2" s="226"/>
-      <c r="AM2" s="257" t="s">
+      <c r="A2" s="223"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="225"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="240"/>
+      <c r="AA2" s="242"/>
+      <c r="AB2" s="224"/>
+      <c r="AC2" s="224"/>
+      <c r="AD2" s="224"/>
+      <c r="AE2" s="224"/>
+      <c r="AF2" s="224"/>
+      <c r="AG2" s="224"/>
+      <c r="AH2" s="224"/>
+      <c r="AI2" s="224"/>
+      <c r="AJ2" s="224"/>
+      <c r="AK2" s="224"/>
+      <c r="AL2" s="225"/>
+      <c r="AM2" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AN2" s="258"/>
-      <c r="AO2" s="259"/>
-      <c r="AP2" s="260"/>
-      <c r="AQ2" s="261"/>
-      <c r="AR2" s="257" t="s">
+      <c r="AN2" s="257"/>
+      <c r="AO2" s="258"/>
+      <c r="AP2" s="259"/>
+      <c r="AQ2" s="260"/>
+      <c r="AR2" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="258"/>
-      <c r="AT2" s="262"/>
-      <c r="AU2" s="263"/>
-      <c r="AV2" s="263"/>
-      <c r="AW2" s="264"/>
+      <c r="AS2" s="257"/>
+      <c r="AT2" s="261"/>
+      <c r="AU2" s="262"/>
+      <c r="AV2" s="262"/>
+      <c r="AW2" s="263"/>
     </row>
     <row r="3" spans="1:49" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="227"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="228"/>
-      <c r="O3" s="229"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="247" t="s">
+      <c r="A3" s="226"/>
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="228"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="248"/>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="248"/>
-      <c r="Z3" s="249"/>
-      <c r="AA3" s="250" t="s">
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="247"/>
+      <c r="Z3" s="248"/>
+      <c r="AA3" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="251"/>
-      <c r="AC3" s="251"/>
-      <c r="AD3" s="251"/>
-      <c r="AE3" s="251"/>
-      <c r="AF3" s="251"/>
-      <c r="AG3" s="252"/>
-      <c r="AH3" s="253" t="s">
+      <c r="AB3" s="250"/>
+      <c r="AC3" s="250"/>
+      <c r="AD3" s="250"/>
+      <c r="AE3" s="250"/>
+      <c r="AF3" s="250"/>
+      <c r="AG3" s="251"/>
+      <c r="AH3" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="AI3" s="254"/>
-      <c r="AJ3" s="254"/>
-      <c r="AK3" s="254"/>
-      <c r="AL3" s="255"/>
-      <c r="AM3" s="250" t="s">
-        <v>132</v>
+      <c r="AI3" s="253"/>
+      <c r="AJ3" s="253"/>
+      <c r="AK3" s="253"/>
+      <c r="AL3" s="254"/>
+      <c r="AM3" s="249" t="s">
+        <v>125</v>
       </c>
-      <c r="AN3" s="251"/>
-      <c r="AO3" s="251"/>
-      <c r="AP3" s="251"/>
-      <c r="AQ3" s="251"/>
-      <c r="AR3" s="251"/>
-      <c r="AS3" s="251"/>
-      <c r="AT3" s="251"/>
-      <c r="AU3" s="251"/>
-      <c r="AV3" s="251"/>
-      <c r="AW3" s="256"/>
+      <c r="AN3" s="250"/>
+      <c r="AO3" s="250"/>
+      <c r="AP3" s="250"/>
+      <c r="AQ3" s="250"/>
+      <c r="AR3" s="250"/>
+      <c r="AS3" s="250"/>
+      <c r="AT3" s="250"/>
+      <c r="AU3" s="250"/>
+      <c r="AV3" s="250"/>
+      <c r="AW3" s="255"/>
     </row>
     <row r="4" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="21"/>
@@ -20144,259 +19806,259 @@
     </row>
     <row r="13" spans="1:49" ht="13.5" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="327" t="s">
-        <v>146</v>
+      <c r="B13" s="311" t="s">
+        <v>135</v>
       </c>
-      <c r="C13" s="328"/>
-      <c r="D13" s="328"/>
-      <c r="E13" s="328"/>
-      <c r="F13" s="328"/>
-      <c r="G13" s="328"/>
-      <c r="H13" s="328"/>
-      <c r="I13" s="328"/>
-      <c r="J13" s="328"/>
-      <c r="K13" s="328"/>
-      <c r="L13" s="328"/>
-      <c r="M13" s="328"/>
-      <c r="N13" s="328"/>
-      <c r="O13" s="328"/>
-      <c r="P13" s="328"/>
-      <c r="Q13" s="328"/>
-      <c r="R13" s="328"/>
-      <c r="S13" s="328"/>
-      <c r="T13" s="328"/>
-      <c r="U13" s="328"/>
-      <c r="V13" s="328"/>
-      <c r="W13" s="328"/>
-      <c r="X13" s="328"/>
-      <c r="Y13" s="328"/>
-      <c r="Z13" s="328"/>
-      <c r="AA13" s="328"/>
-      <c r="AB13" s="328"/>
-      <c r="AC13" s="328"/>
-      <c r="AD13" s="328"/>
-      <c r="AE13" s="328"/>
-      <c r="AF13" s="328"/>
-      <c r="AG13" s="328"/>
-      <c r="AH13" s="328"/>
-      <c r="AI13" s="328"/>
-      <c r="AJ13" s="328"/>
-      <c r="AK13" s="328"/>
-      <c r="AL13" s="328"/>
-      <c r="AM13" s="328"/>
-      <c r="AN13" s="328"/>
-      <c r="AO13" s="328"/>
-      <c r="AP13" s="328"/>
-      <c r="AQ13" s="328"/>
-      <c r="AR13" s="328"/>
-      <c r="AS13" s="328"/>
-      <c r="AT13" s="328"/>
-      <c r="AU13" s="328"/>
-      <c r="AV13" s="328"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="312"/>
+      <c r="L13" s="312"/>
+      <c r="M13" s="312"/>
+      <c r="N13" s="312"/>
+      <c r="O13" s="312"/>
+      <c r="P13" s="312"/>
+      <c r="Q13" s="312"/>
+      <c r="R13" s="312"/>
+      <c r="S13" s="312"/>
+      <c r="T13" s="312"/>
+      <c r="U13" s="312"/>
+      <c r="V13" s="312"/>
+      <c r="W13" s="312"/>
+      <c r="X13" s="312"/>
+      <c r="Y13" s="312"/>
+      <c r="Z13" s="312"/>
+      <c r="AA13" s="312"/>
+      <c r="AB13" s="312"/>
+      <c r="AC13" s="312"/>
+      <c r="AD13" s="312"/>
+      <c r="AE13" s="312"/>
+      <c r="AF13" s="312"/>
+      <c r="AG13" s="312"/>
+      <c r="AH13" s="312"/>
+      <c r="AI13" s="312"/>
+      <c r="AJ13" s="312"/>
+      <c r="AK13" s="312"/>
+      <c r="AL13" s="312"/>
+      <c r="AM13" s="312"/>
+      <c r="AN13" s="312"/>
+      <c r="AO13" s="312"/>
+      <c r="AP13" s="312"/>
+      <c r="AQ13" s="312"/>
+      <c r="AR13" s="312"/>
+      <c r="AS13" s="312"/>
+      <c r="AT13" s="312"/>
+      <c r="AU13" s="312"/>
+      <c r="AV13" s="312"/>
       <c r="AW13" s="163"/>
     </row>
     <row r="14" spans="1:49" ht="13.5" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="328"/>
-      <c r="C14" s="328"/>
-      <c r="D14" s="328"/>
-      <c r="E14" s="328"/>
-      <c r="F14" s="328"/>
-      <c r="G14" s="328"/>
-      <c r="H14" s="328"/>
-      <c r="I14" s="328"/>
-      <c r="J14" s="328"/>
-      <c r="K14" s="328"/>
-      <c r="L14" s="328"/>
-      <c r="M14" s="328"/>
-      <c r="N14" s="328"/>
-      <c r="O14" s="328"/>
-      <c r="P14" s="328"/>
-      <c r="Q14" s="328"/>
-      <c r="R14" s="328"/>
-      <c r="S14" s="328"/>
-      <c r="T14" s="328"/>
-      <c r="U14" s="328"/>
-      <c r="V14" s="328"/>
-      <c r="W14" s="328"/>
-      <c r="X14" s="328"/>
-      <c r="Y14" s="328"/>
-      <c r="Z14" s="328"/>
-      <c r="AA14" s="328"/>
-      <c r="AB14" s="328"/>
-      <c r="AC14" s="328"/>
-      <c r="AD14" s="328"/>
-      <c r="AE14" s="328"/>
-      <c r="AF14" s="328"/>
-      <c r="AG14" s="328"/>
-      <c r="AH14" s="328"/>
-      <c r="AI14" s="328"/>
-      <c r="AJ14" s="328"/>
-      <c r="AK14" s="328"/>
-      <c r="AL14" s="328"/>
-      <c r="AM14" s="328"/>
-      <c r="AN14" s="328"/>
-      <c r="AO14" s="328"/>
-      <c r="AP14" s="328"/>
-      <c r="AQ14" s="328"/>
-      <c r="AR14" s="328"/>
-      <c r="AS14" s="328"/>
-      <c r="AT14" s="328"/>
-      <c r="AU14" s="328"/>
-      <c r="AV14" s="328"/>
+      <c r="B14" s="312"/>
+      <c r="C14" s="312"/>
+      <c r="D14" s="312"/>
+      <c r="E14" s="312"/>
+      <c r="F14" s="312"/>
+      <c r="G14" s="312"/>
+      <c r="H14" s="312"/>
+      <c r="I14" s="312"/>
+      <c r="J14" s="312"/>
+      <c r="K14" s="312"/>
+      <c r="L14" s="312"/>
+      <c r="M14" s="312"/>
+      <c r="N14" s="312"/>
+      <c r="O14" s="312"/>
+      <c r="P14" s="312"/>
+      <c r="Q14" s="312"/>
+      <c r="R14" s="312"/>
+      <c r="S14" s="312"/>
+      <c r="T14" s="312"/>
+      <c r="U14" s="312"/>
+      <c r="V14" s="312"/>
+      <c r="W14" s="312"/>
+      <c r="X14" s="312"/>
+      <c r="Y14" s="312"/>
+      <c r="Z14" s="312"/>
+      <c r="AA14" s="312"/>
+      <c r="AB14" s="312"/>
+      <c r="AC14" s="312"/>
+      <c r="AD14" s="312"/>
+      <c r="AE14" s="312"/>
+      <c r="AF14" s="312"/>
+      <c r="AG14" s="312"/>
+      <c r="AH14" s="312"/>
+      <c r="AI14" s="312"/>
+      <c r="AJ14" s="312"/>
+      <c r="AK14" s="312"/>
+      <c r="AL14" s="312"/>
+      <c r="AM14" s="312"/>
+      <c r="AN14" s="312"/>
+      <c r="AO14" s="312"/>
+      <c r="AP14" s="312"/>
+      <c r="AQ14" s="312"/>
+      <c r="AR14" s="312"/>
+      <c r="AS14" s="312"/>
+      <c r="AT14" s="312"/>
+      <c r="AU14" s="312"/>
+      <c r="AV14" s="312"/>
       <c r="AW14" s="163"/>
     </row>
     <row r="15" spans="1:49" ht="13.5" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="328"/>
-      <c r="C15" s="328"/>
-      <c r="D15" s="328"/>
-      <c r="E15" s="328"/>
-      <c r="F15" s="328"/>
-      <c r="G15" s="328"/>
-      <c r="H15" s="328"/>
-      <c r="I15" s="328"/>
-      <c r="J15" s="328"/>
-      <c r="K15" s="328"/>
-      <c r="L15" s="328"/>
-      <c r="M15" s="328"/>
-      <c r="N15" s="328"/>
-      <c r="O15" s="328"/>
-      <c r="P15" s="328"/>
-      <c r="Q15" s="328"/>
-      <c r="R15" s="328"/>
-      <c r="S15" s="328"/>
-      <c r="T15" s="328"/>
-      <c r="U15" s="328"/>
-      <c r="V15" s="328"/>
-      <c r="W15" s="328"/>
-      <c r="X15" s="328"/>
-      <c r="Y15" s="328"/>
-      <c r="Z15" s="328"/>
-      <c r="AA15" s="328"/>
-      <c r="AB15" s="328"/>
-      <c r="AC15" s="328"/>
-      <c r="AD15" s="328"/>
-      <c r="AE15" s="328"/>
-      <c r="AF15" s="328"/>
-      <c r="AG15" s="328"/>
-      <c r="AH15" s="328"/>
-      <c r="AI15" s="328"/>
-      <c r="AJ15" s="328"/>
-      <c r="AK15" s="328"/>
-      <c r="AL15" s="328"/>
-      <c r="AM15" s="328"/>
-      <c r="AN15" s="328"/>
-      <c r="AO15" s="328"/>
-      <c r="AP15" s="328"/>
-      <c r="AQ15" s="328"/>
-      <c r="AR15" s="328"/>
-      <c r="AS15" s="328"/>
-      <c r="AT15" s="328"/>
-      <c r="AU15" s="328"/>
-      <c r="AV15" s="328"/>
+      <c r="B15" s="312"/>
+      <c r="C15" s="312"/>
+      <c r="D15" s="312"/>
+      <c r="E15" s="312"/>
+      <c r="F15" s="312"/>
+      <c r="G15" s="312"/>
+      <c r="H15" s="312"/>
+      <c r="I15" s="312"/>
+      <c r="J15" s="312"/>
+      <c r="K15" s="312"/>
+      <c r="L15" s="312"/>
+      <c r="M15" s="312"/>
+      <c r="N15" s="312"/>
+      <c r="O15" s="312"/>
+      <c r="P15" s="312"/>
+      <c r="Q15" s="312"/>
+      <c r="R15" s="312"/>
+      <c r="S15" s="312"/>
+      <c r="T15" s="312"/>
+      <c r="U15" s="312"/>
+      <c r="V15" s="312"/>
+      <c r="W15" s="312"/>
+      <c r="X15" s="312"/>
+      <c r="Y15" s="312"/>
+      <c r="Z15" s="312"/>
+      <c r="AA15" s="312"/>
+      <c r="AB15" s="312"/>
+      <c r="AC15" s="312"/>
+      <c r="AD15" s="312"/>
+      <c r="AE15" s="312"/>
+      <c r="AF15" s="312"/>
+      <c r="AG15" s="312"/>
+      <c r="AH15" s="312"/>
+      <c r="AI15" s="312"/>
+      <c r="AJ15" s="312"/>
+      <c r="AK15" s="312"/>
+      <c r="AL15" s="312"/>
+      <c r="AM15" s="312"/>
+      <c r="AN15" s="312"/>
+      <c r="AO15" s="312"/>
+      <c r="AP15" s="312"/>
+      <c r="AQ15" s="312"/>
+      <c r="AR15" s="312"/>
+      <c r="AS15" s="312"/>
+      <c r="AT15" s="312"/>
+      <c r="AU15" s="312"/>
+      <c r="AV15" s="312"/>
       <c r="AW15" s="163"/>
     </row>
     <row r="16" spans="1:49" ht="13.5" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="328"/>
-      <c r="C16" s="328"/>
-      <c r="D16" s="328"/>
-      <c r="E16" s="328"/>
-      <c r="F16" s="328"/>
-      <c r="G16" s="328"/>
-      <c r="H16" s="328"/>
-      <c r="I16" s="328"/>
-      <c r="J16" s="328"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="328"/>
-      <c r="M16" s="328"/>
-      <c r="N16" s="328"/>
-      <c r="O16" s="328"/>
-      <c r="P16" s="328"/>
-      <c r="Q16" s="328"/>
-      <c r="R16" s="328"/>
-      <c r="S16" s="328"/>
-      <c r="T16" s="328"/>
-      <c r="U16" s="328"/>
-      <c r="V16" s="328"/>
-      <c r="W16" s="328"/>
-      <c r="X16" s="328"/>
-      <c r="Y16" s="328"/>
-      <c r="Z16" s="328"/>
-      <c r="AA16" s="328"/>
-      <c r="AB16" s="328"/>
-      <c r="AC16" s="328"/>
-      <c r="AD16" s="328"/>
-      <c r="AE16" s="328"/>
-      <c r="AF16" s="328"/>
-      <c r="AG16" s="328"/>
-      <c r="AH16" s="328"/>
-      <c r="AI16" s="328"/>
-      <c r="AJ16" s="328"/>
-      <c r="AK16" s="328"/>
-      <c r="AL16" s="328"/>
-      <c r="AM16" s="328"/>
-      <c r="AN16" s="328"/>
-      <c r="AO16" s="328"/>
-      <c r="AP16" s="328"/>
-      <c r="AQ16" s="328"/>
-      <c r="AR16" s="328"/>
-      <c r="AS16" s="328"/>
-      <c r="AT16" s="328"/>
-      <c r="AU16" s="328"/>
-      <c r="AV16" s="328"/>
+      <c r="B16" s="312"/>
+      <c r="C16" s="312"/>
+      <c r="D16" s="312"/>
+      <c r="E16" s="312"/>
+      <c r="F16" s="312"/>
+      <c r="G16" s="312"/>
+      <c r="H16" s="312"/>
+      <c r="I16" s="312"/>
+      <c r="J16" s="312"/>
+      <c r="K16" s="312"/>
+      <c r="L16" s="312"/>
+      <c r="M16" s="312"/>
+      <c r="N16" s="312"/>
+      <c r="O16" s="312"/>
+      <c r="P16" s="312"/>
+      <c r="Q16" s="312"/>
+      <c r="R16" s="312"/>
+      <c r="S16" s="312"/>
+      <c r="T16" s="312"/>
+      <c r="U16" s="312"/>
+      <c r="V16" s="312"/>
+      <c r="W16" s="312"/>
+      <c r="X16" s="312"/>
+      <c r="Y16" s="312"/>
+      <c r="Z16" s="312"/>
+      <c r="AA16" s="312"/>
+      <c r="AB16" s="312"/>
+      <c r="AC16" s="312"/>
+      <c r="AD16" s="312"/>
+      <c r="AE16" s="312"/>
+      <c r="AF16" s="312"/>
+      <c r="AG16" s="312"/>
+      <c r="AH16" s="312"/>
+      <c r="AI16" s="312"/>
+      <c r="AJ16" s="312"/>
+      <c r="AK16" s="312"/>
+      <c r="AL16" s="312"/>
+      <c r="AM16" s="312"/>
+      <c r="AN16" s="312"/>
+      <c r="AO16" s="312"/>
+      <c r="AP16" s="312"/>
+      <c r="AQ16" s="312"/>
+      <c r="AR16" s="312"/>
+      <c r="AS16" s="312"/>
+      <c r="AT16" s="312"/>
+      <c r="AU16" s="312"/>
+      <c r="AV16" s="312"/>
       <c r="AW16" s="163"/>
     </row>
     <row r="17" spans="1:49" ht="13.5" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="328"/>
-      <c r="C17" s="328"/>
-      <c r="D17" s="328"/>
-      <c r="E17" s="328"/>
-      <c r="F17" s="328"/>
-      <c r="G17" s="328"/>
-      <c r="H17" s="328"/>
-      <c r="I17" s="328"/>
-      <c r="J17" s="328"/>
-      <c r="K17" s="328"/>
-      <c r="L17" s="328"/>
-      <c r="M17" s="328"/>
-      <c r="N17" s="328"/>
-      <c r="O17" s="328"/>
-      <c r="P17" s="328"/>
-      <c r="Q17" s="328"/>
-      <c r="R17" s="328"/>
-      <c r="S17" s="328"/>
-      <c r="T17" s="328"/>
-      <c r="U17" s="328"/>
-      <c r="V17" s="328"/>
-      <c r="W17" s="328"/>
-      <c r="X17" s="328"/>
-      <c r="Y17" s="328"/>
-      <c r="Z17" s="328"/>
-      <c r="AA17" s="328"/>
-      <c r="AB17" s="328"/>
-      <c r="AC17" s="328"/>
-      <c r="AD17" s="328"/>
-      <c r="AE17" s="328"/>
-      <c r="AF17" s="328"/>
-      <c r="AG17" s="328"/>
-      <c r="AH17" s="328"/>
-      <c r="AI17" s="328"/>
-      <c r="AJ17" s="328"/>
-      <c r="AK17" s="328"/>
-      <c r="AL17" s="328"/>
-      <c r="AM17" s="328"/>
-      <c r="AN17" s="328"/>
-      <c r="AO17" s="328"/>
-      <c r="AP17" s="328"/>
-      <c r="AQ17" s="328"/>
-      <c r="AR17" s="328"/>
-      <c r="AS17" s="328"/>
-      <c r="AT17" s="328"/>
-      <c r="AU17" s="328"/>
-      <c r="AV17" s="328"/>
+      <c r="B17" s="312"/>
+      <c r="C17" s="312"/>
+      <c r="D17" s="312"/>
+      <c r="E17" s="312"/>
+      <c r="F17" s="312"/>
+      <c r="G17" s="312"/>
+      <c r="H17" s="312"/>
+      <c r="I17" s="312"/>
+      <c r="J17" s="312"/>
+      <c r="K17" s="312"/>
+      <c r="L17" s="312"/>
+      <c r="M17" s="312"/>
+      <c r="N17" s="312"/>
+      <c r="O17" s="312"/>
+      <c r="P17" s="312"/>
+      <c r="Q17" s="312"/>
+      <c r="R17" s="312"/>
+      <c r="S17" s="312"/>
+      <c r="T17" s="312"/>
+      <c r="U17" s="312"/>
+      <c r="V17" s="312"/>
+      <c r="W17" s="312"/>
+      <c r="X17" s="312"/>
+      <c r="Y17" s="312"/>
+      <c r="Z17" s="312"/>
+      <c r="AA17" s="312"/>
+      <c r="AB17" s="312"/>
+      <c r="AC17" s="312"/>
+      <c r="AD17" s="312"/>
+      <c r="AE17" s="312"/>
+      <c r="AF17" s="312"/>
+      <c r="AG17" s="312"/>
+      <c r="AH17" s="312"/>
+      <c r="AI17" s="312"/>
+      <c r="AJ17" s="312"/>
+      <c r="AK17" s="312"/>
+      <c r="AL17" s="312"/>
+      <c r="AM17" s="312"/>
+      <c r="AN17" s="312"/>
+      <c r="AO17" s="312"/>
+      <c r="AP17" s="312"/>
+      <c r="AQ17" s="312"/>
+      <c r="AR17" s="312"/>
+      <c r="AS17" s="312"/>
+      <c r="AT17" s="312"/>
+      <c r="AU17" s="312"/>
+      <c r="AV17" s="312"/>
       <c r="AW17" s="163"/>
     </row>
     <row r="18" spans="1:49" ht="13.5" customHeight="1">
@@ -20468,208 +20130,208 @@
     </row>
     <row r="23" spans="1:49" ht="13.5" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="329" t="s">
+      <c r="B23" s="313" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="329"/>
-      <c r="D23" s="329"/>
-      <c r="E23" s="329"/>
-      <c r="F23" s="329"/>
-      <c r="G23" s="329"/>
-      <c r="H23" s="329"/>
-      <c r="I23" s="329"/>
-      <c r="J23" s="329"/>
-      <c r="K23" s="329"/>
-      <c r="L23" s="329"/>
-      <c r="M23" s="329"/>
-      <c r="N23" s="329"/>
-      <c r="O23" s="329"/>
-      <c r="P23" s="329"/>
-      <c r="Q23" s="329"/>
-      <c r="R23" s="329"/>
-      <c r="S23" s="329"/>
-      <c r="T23" s="329"/>
-      <c r="U23" s="329"/>
-      <c r="V23" s="329"/>
-      <c r="W23" s="329"/>
-      <c r="X23" s="329"/>
-      <c r="Y23" s="329"/>
-      <c r="Z23" s="329"/>
-      <c r="AA23" s="329"/>
-      <c r="AB23" s="329"/>
-      <c r="AC23" s="329"/>
-      <c r="AD23" s="329"/>
-      <c r="AE23" s="329"/>
-      <c r="AF23" s="329"/>
-      <c r="AG23" s="329"/>
-      <c r="AH23" s="329"/>
-      <c r="AI23" s="329"/>
-      <c r="AJ23" s="329"/>
-      <c r="AK23" s="329"/>
-      <c r="AL23" s="329"/>
-      <c r="AM23" s="329"/>
-      <c r="AN23" s="329"/>
-      <c r="AO23" s="329"/>
-      <c r="AP23" s="329"/>
-      <c r="AQ23" s="329"/>
-      <c r="AR23" s="329"/>
-      <c r="AS23" s="329"/>
-      <c r="AT23" s="329"/>
-      <c r="AU23" s="329"/>
-      <c r="AV23" s="329"/>
+      <c r="C23" s="313"/>
+      <c r="D23" s="313"/>
+      <c r="E23" s="313"/>
+      <c r="F23" s="313"/>
+      <c r="G23" s="313"/>
+      <c r="H23" s="313"/>
+      <c r="I23" s="313"/>
+      <c r="J23" s="313"/>
+      <c r="K23" s="313"/>
+      <c r="L23" s="313"/>
+      <c r="M23" s="313"/>
+      <c r="N23" s="313"/>
+      <c r="O23" s="313"/>
+      <c r="P23" s="313"/>
+      <c r="Q23" s="313"/>
+      <c r="R23" s="313"/>
+      <c r="S23" s="313"/>
+      <c r="T23" s="313"/>
+      <c r="U23" s="313"/>
+      <c r="V23" s="313"/>
+      <c r="W23" s="313"/>
+      <c r="X23" s="313"/>
+      <c r="Y23" s="313"/>
+      <c r="Z23" s="313"/>
+      <c r="AA23" s="313"/>
+      <c r="AB23" s="313"/>
+      <c r="AC23" s="313"/>
+      <c r="AD23" s="313"/>
+      <c r="AE23" s="313"/>
+      <c r="AF23" s="313"/>
+      <c r="AG23" s="313"/>
+      <c r="AH23" s="313"/>
+      <c r="AI23" s="313"/>
+      <c r="AJ23" s="313"/>
+      <c r="AK23" s="313"/>
+      <c r="AL23" s="313"/>
+      <c r="AM23" s="313"/>
+      <c r="AN23" s="313"/>
+      <c r="AO23" s="313"/>
+      <c r="AP23" s="313"/>
+      <c r="AQ23" s="313"/>
+      <c r="AR23" s="313"/>
+      <c r="AS23" s="313"/>
+      <c r="AT23" s="313"/>
+      <c r="AU23" s="313"/>
+      <c r="AV23" s="313"/>
       <c r="AW23" s="163"/>
     </row>
     <row r="24" spans="1:49" ht="13.5" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="329"/>
-      <c r="C24" s="329"/>
-      <c r="D24" s="329"/>
-      <c r="E24" s="329"/>
-      <c r="F24" s="329"/>
-      <c r="G24" s="329"/>
-      <c r="H24" s="329"/>
-      <c r="I24" s="329"/>
-      <c r="J24" s="329"/>
-      <c r="K24" s="329"/>
-      <c r="L24" s="329"/>
-      <c r="M24" s="329"/>
-      <c r="N24" s="329"/>
-      <c r="O24" s="329"/>
-      <c r="P24" s="329"/>
-      <c r="Q24" s="329"/>
-      <c r="R24" s="329"/>
-      <c r="S24" s="329"/>
-      <c r="T24" s="329"/>
-      <c r="U24" s="329"/>
-      <c r="V24" s="329"/>
-      <c r="W24" s="329"/>
-      <c r="X24" s="329"/>
-      <c r="Y24" s="329"/>
-      <c r="Z24" s="329"/>
-      <c r="AA24" s="329"/>
-      <c r="AB24" s="329"/>
-      <c r="AC24" s="329"/>
-      <c r="AD24" s="329"/>
-      <c r="AE24" s="329"/>
-      <c r="AF24" s="329"/>
-      <c r="AG24" s="329"/>
-      <c r="AH24" s="329"/>
-      <c r="AI24" s="329"/>
-      <c r="AJ24" s="329"/>
-      <c r="AK24" s="329"/>
-      <c r="AL24" s="329"/>
-      <c r="AM24" s="329"/>
-      <c r="AN24" s="329"/>
-      <c r="AO24" s="329"/>
-      <c r="AP24" s="329"/>
-      <c r="AQ24" s="329"/>
-      <c r="AR24" s="329"/>
-      <c r="AS24" s="329"/>
-      <c r="AT24" s="329"/>
-      <c r="AU24" s="329"/>
-      <c r="AV24" s="329"/>
+      <c r="B24" s="313"/>
+      <c r="C24" s="313"/>
+      <c r="D24" s="313"/>
+      <c r="E24" s="313"/>
+      <c r="F24" s="313"/>
+      <c r="G24" s="313"/>
+      <c r="H24" s="313"/>
+      <c r="I24" s="313"/>
+      <c r="J24" s="313"/>
+      <c r="K24" s="313"/>
+      <c r="L24" s="313"/>
+      <c r="M24" s="313"/>
+      <c r="N24" s="313"/>
+      <c r="O24" s="313"/>
+      <c r="P24" s="313"/>
+      <c r="Q24" s="313"/>
+      <c r="R24" s="313"/>
+      <c r="S24" s="313"/>
+      <c r="T24" s="313"/>
+      <c r="U24" s="313"/>
+      <c r="V24" s="313"/>
+      <c r="W24" s="313"/>
+      <c r="X24" s="313"/>
+      <c r="Y24" s="313"/>
+      <c r="Z24" s="313"/>
+      <c r="AA24" s="313"/>
+      <c r="AB24" s="313"/>
+      <c r="AC24" s="313"/>
+      <c r="AD24" s="313"/>
+      <c r="AE24" s="313"/>
+      <c r="AF24" s="313"/>
+      <c r="AG24" s="313"/>
+      <c r="AH24" s="313"/>
+      <c r="AI24" s="313"/>
+      <c r="AJ24" s="313"/>
+      <c r="AK24" s="313"/>
+      <c r="AL24" s="313"/>
+      <c r="AM24" s="313"/>
+      <c r="AN24" s="313"/>
+      <c r="AO24" s="313"/>
+      <c r="AP24" s="313"/>
+      <c r="AQ24" s="313"/>
+      <c r="AR24" s="313"/>
+      <c r="AS24" s="313"/>
+      <c r="AT24" s="313"/>
+      <c r="AU24" s="313"/>
+      <c r="AV24" s="313"/>
       <c r="AW24" s="163"/>
     </row>
     <row r="25" spans="1:49" ht="13.5" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="329"/>
-      <c r="C25" s="329"/>
-      <c r="D25" s="329"/>
-      <c r="E25" s="329"/>
-      <c r="F25" s="329"/>
-      <c r="G25" s="329"/>
-      <c r="H25" s="329"/>
-      <c r="I25" s="329"/>
-      <c r="J25" s="329"/>
-      <c r="K25" s="329"/>
-      <c r="L25" s="329"/>
-      <c r="M25" s="329"/>
-      <c r="N25" s="329"/>
-      <c r="O25" s="329"/>
-      <c r="P25" s="329"/>
-      <c r="Q25" s="329"/>
-      <c r="R25" s="329"/>
-      <c r="S25" s="329"/>
-      <c r="T25" s="329"/>
-      <c r="U25" s="329"/>
-      <c r="V25" s="329"/>
-      <c r="W25" s="329"/>
-      <c r="X25" s="329"/>
-      <c r="Y25" s="329"/>
-      <c r="Z25" s="329"/>
-      <c r="AA25" s="329"/>
-      <c r="AB25" s="329"/>
-      <c r="AC25" s="329"/>
-      <c r="AD25" s="329"/>
-      <c r="AE25" s="329"/>
-      <c r="AF25" s="329"/>
-      <c r="AG25" s="329"/>
-      <c r="AH25" s="329"/>
-      <c r="AI25" s="329"/>
-      <c r="AJ25" s="329"/>
-      <c r="AK25" s="329"/>
-      <c r="AL25" s="329"/>
-      <c r="AM25" s="329"/>
-      <c r="AN25" s="329"/>
-      <c r="AO25" s="329"/>
-      <c r="AP25" s="329"/>
-      <c r="AQ25" s="329"/>
-      <c r="AR25" s="329"/>
-      <c r="AS25" s="329"/>
-      <c r="AT25" s="329"/>
-      <c r="AU25" s="329"/>
-      <c r="AV25" s="329"/>
+      <c r="B25" s="313"/>
+      <c r="C25" s="313"/>
+      <c r="D25" s="313"/>
+      <c r="E25" s="313"/>
+      <c r="F25" s="313"/>
+      <c r="G25" s="313"/>
+      <c r="H25" s="313"/>
+      <c r="I25" s="313"/>
+      <c r="J25" s="313"/>
+      <c r="K25" s="313"/>
+      <c r="L25" s="313"/>
+      <c r="M25" s="313"/>
+      <c r="N25" s="313"/>
+      <c r="O25" s="313"/>
+      <c r="P25" s="313"/>
+      <c r="Q25" s="313"/>
+      <c r="R25" s="313"/>
+      <c r="S25" s="313"/>
+      <c r="T25" s="313"/>
+      <c r="U25" s="313"/>
+      <c r="V25" s="313"/>
+      <c r="W25" s="313"/>
+      <c r="X25" s="313"/>
+      <c r="Y25" s="313"/>
+      <c r="Z25" s="313"/>
+      <c r="AA25" s="313"/>
+      <c r="AB25" s="313"/>
+      <c r="AC25" s="313"/>
+      <c r="AD25" s="313"/>
+      <c r="AE25" s="313"/>
+      <c r="AF25" s="313"/>
+      <c r="AG25" s="313"/>
+      <c r="AH25" s="313"/>
+      <c r="AI25" s="313"/>
+      <c r="AJ25" s="313"/>
+      <c r="AK25" s="313"/>
+      <c r="AL25" s="313"/>
+      <c r="AM25" s="313"/>
+      <c r="AN25" s="313"/>
+      <c r="AO25" s="313"/>
+      <c r="AP25" s="313"/>
+      <c r="AQ25" s="313"/>
+      <c r="AR25" s="313"/>
+      <c r="AS25" s="313"/>
+      <c r="AT25" s="313"/>
+      <c r="AU25" s="313"/>
+      <c r="AV25" s="313"/>
       <c r="AW25" s="163"/>
     </row>
     <row r="26" spans="1:49" ht="13.5" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="329"/>
-      <c r="C26" s="329"/>
-      <c r="D26" s="329"/>
-      <c r="E26" s="329"/>
-      <c r="F26" s="329"/>
-      <c r="G26" s="329"/>
-      <c r="H26" s="329"/>
-      <c r="I26" s="329"/>
-      <c r="J26" s="329"/>
-      <c r="K26" s="329"/>
-      <c r="L26" s="329"/>
-      <c r="M26" s="329"/>
-      <c r="N26" s="329"/>
-      <c r="O26" s="329"/>
-      <c r="P26" s="329"/>
-      <c r="Q26" s="329"/>
-      <c r="R26" s="329"/>
-      <c r="S26" s="329"/>
-      <c r="T26" s="329"/>
-      <c r="U26" s="329"/>
-      <c r="V26" s="329"/>
-      <c r="W26" s="329"/>
-      <c r="X26" s="329"/>
-      <c r="Y26" s="329"/>
-      <c r="Z26" s="329"/>
-      <c r="AA26" s="329"/>
-      <c r="AB26" s="329"/>
-      <c r="AC26" s="329"/>
-      <c r="AD26" s="329"/>
-      <c r="AE26" s="329"/>
-      <c r="AF26" s="329"/>
-      <c r="AG26" s="329"/>
-      <c r="AH26" s="329"/>
-      <c r="AI26" s="329"/>
-      <c r="AJ26" s="329"/>
-      <c r="AK26" s="329"/>
-      <c r="AL26" s="329"/>
-      <c r="AM26" s="329"/>
-      <c r="AN26" s="329"/>
-      <c r="AO26" s="329"/>
-      <c r="AP26" s="329"/>
-      <c r="AQ26" s="329"/>
-      <c r="AR26" s="329"/>
-      <c r="AS26" s="329"/>
-      <c r="AT26" s="329"/>
-      <c r="AU26" s="329"/>
-      <c r="AV26" s="329"/>
+      <c r="B26" s="313"/>
+      <c r="C26" s="313"/>
+      <c r="D26" s="313"/>
+      <c r="E26" s="313"/>
+      <c r="F26" s="313"/>
+      <c r="G26" s="313"/>
+      <c r="H26" s="313"/>
+      <c r="I26" s="313"/>
+      <c r="J26" s="313"/>
+      <c r="K26" s="313"/>
+      <c r="L26" s="313"/>
+      <c r="M26" s="313"/>
+      <c r="N26" s="313"/>
+      <c r="O26" s="313"/>
+      <c r="P26" s="313"/>
+      <c r="Q26" s="313"/>
+      <c r="R26" s="313"/>
+      <c r="S26" s="313"/>
+      <c r="T26" s="313"/>
+      <c r="U26" s="313"/>
+      <c r="V26" s="313"/>
+      <c r="W26" s="313"/>
+      <c r="X26" s="313"/>
+      <c r="Y26" s="313"/>
+      <c r="Z26" s="313"/>
+      <c r="AA26" s="313"/>
+      <c r="AB26" s="313"/>
+      <c r="AC26" s="313"/>
+      <c r="AD26" s="313"/>
+      <c r="AE26" s="313"/>
+      <c r="AF26" s="313"/>
+      <c r="AG26" s="313"/>
+      <c r="AH26" s="313"/>
+      <c r="AI26" s="313"/>
+      <c r="AJ26" s="313"/>
+      <c r="AK26" s="313"/>
+      <c r="AL26" s="313"/>
+      <c r="AM26" s="313"/>
+      <c r="AN26" s="313"/>
+      <c r="AO26" s="313"/>
+      <c r="AP26" s="313"/>
+      <c r="AQ26" s="313"/>
+      <c r="AR26" s="313"/>
+      <c r="AS26" s="313"/>
+      <c r="AT26" s="313"/>
+      <c r="AU26" s="313"/>
+      <c r="AV26" s="313"/>
       <c r="AW26" s="163"/>
     </row>
     <row r="27" spans="1:49" ht="13.5" customHeight="1">
@@ -21186,187 +20848,187 @@
       <c r="AW40" s="166"/>
     </row>
     <row r="41" spans="1:49" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A41" s="221" t="s">
+      <c r="A41" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="222"/>
-      <c r="C41" s="222"/>
-      <c r="D41" s="222"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="222"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="222"/>
-      <c r="I41" s="223"/>
-      <c r="J41" s="230" t="s">
+      <c r="B41" s="221"/>
+      <c r="C41" s="221"/>
+      <c r="D41" s="221"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="221"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="221"/>
+      <c r="I41" s="222"/>
+      <c r="J41" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="222"/>
-      <c r="L41" s="222"/>
-      <c r="M41" s="222"/>
-      <c r="N41" s="222"/>
-      <c r="O41" s="223"/>
-      <c r="P41" s="230" t="s">
+      <c r="K41" s="221"/>
+      <c r="L41" s="221"/>
+      <c r="M41" s="221"/>
+      <c r="N41" s="221"/>
+      <c r="O41" s="222"/>
+      <c r="P41" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="222"/>
-      <c r="R41" s="222"/>
-      <c r="S41" s="222"/>
-      <c r="T41" s="222"/>
-      <c r="U41" s="223"/>
-      <c r="V41" s="236" t="s">
+      <c r="Q41" s="221"/>
+      <c r="R41" s="221"/>
+      <c r="S41" s="221"/>
+      <c r="T41" s="221"/>
+      <c r="U41" s="222"/>
+      <c r="V41" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="W41" s="237"/>
-      <c r="X41" s="237"/>
-      <c r="Y41" s="237"/>
-      <c r="Z41" s="238"/>
-      <c r="AA41" s="242" t="s">
-        <v>130</v>
+      <c r="W41" s="236"/>
+      <c r="X41" s="236"/>
+      <c r="Y41" s="236"/>
+      <c r="Z41" s="237"/>
+      <c r="AA41" s="241" t="s">
+        <v>123</v>
       </c>
-      <c r="AB41" s="222"/>
-      <c r="AC41" s="222"/>
-      <c r="AD41" s="222"/>
-      <c r="AE41" s="222"/>
-      <c r="AF41" s="222"/>
-      <c r="AG41" s="222"/>
-      <c r="AH41" s="222"/>
-      <c r="AI41" s="222"/>
-      <c r="AJ41" s="222"/>
-      <c r="AK41" s="222"/>
-      <c r="AL41" s="223"/>
-      <c r="AM41" s="231" t="s">
+      <c r="AB41" s="221"/>
+      <c r="AC41" s="221"/>
+      <c r="AD41" s="221"/>
+      <c r="AE41" s="221"/>
+      <c r="AF41" s="221"/>
+      <c r="AG41" s="221"/>
+      <c r="AH41" s="221"/>
+      <c r="AI41" s="221"/>
+      <c r="AJ41" s="221"/>
+      <c r="AK41" s="221"/>
+      <c r="AL41" s="222"/>
+      <c r="AM41" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="AN41" s="232"/>
-      <c r="AO41" s="244" t="s">
-        <v>131</v>
+      <c r="AN41" s="231"/>
+      <c r="AO41" s="243" t="s">
+        <v>124</v>
       </c>
-      <c r="AP41" s="245"/>
-      <c r="AQ41" s="246"/>
-      <c r="AR41" s="231" t="s">
+      <c r="AP41" s="244"/>
+      <c r="AQ41" s="245"/>
+      <c r="AR41" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="AS41" s="232"/>
-      <c r="AT41" s="233">
+      <c r="AS41" s="231"/>
+      <c r="AT41" s="232">
         <v>45204</v>
       </c>
-      <c r="AU41" s="234"/>
-      <c r="AV41" s="234"/>
-      <c r="AW41" s="235"/>
+      <c r="AU41" s="233"/>
+      <c r="AV41" s="233"/>
+      <c r="AW41" s="234"/>
     </row>
     <row r="42" spans="1:49" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="224"/>
-      <c r="B42" s="225"/>
-      <c r="C42" s="225"/>
-      <c r="D42" s="225"/>
-      <c r="E42" s="225"/>
-      <c r="F42" s="225"/>
-      <c r="G42" s="225"/>
-      <c r="H42" s="225"/>
-      <c r="I42" s="226"/>
-      <c r="J42" s="224"/>
-      <c r="K42" s="225"/>
-      <c r="L42" s="225"/>
-      <c r="M42" s="225"/>
-      <c r="N42" s="225"/>
-      <c r="O42" s="226"/>
-      <c r="P42" s="224"/>
-      <c r="Q42" s="225"/>
-      <c r="R42" s="225"/>
-      <c r="S42" s="225"/>
-      <c r="T42" s="225"/>
-      <c r="U42" s="226"/>
-      <c r="V42" s="239"/>
-      <c r="W42" s="240"/>
-      <c r="X42" s="240"/>
-      <c r="Y42" s="240"/>
-      <c r="Z42" s="241"/>
-      <c r="AA42" s="243"/>
-      <c r="AB42" s="225"/>
-      <c r="AC42" s="225"/>
-      <c r="AD42" s="225"/>
-      <c r="AE42" s="225"/>
-      <c r="AF42" s="225"/>
-      <c r="AG42" s="225"/>
-      <c r="AH42" s="225"/>
-      <c r="AI42" s="225"/>
-      <c r="AJ42" s="225"/>
-      <c r="AK42" s="225"/>
-      <c r="AL42" s="226"/>
-      <c r="AM42" s="257" t="s">
+      <c r="A42" s="223"/>
+      <c r="B42" s="224"/>
+      <c r="C42" s="224"/>
+      <c r="D42" s="224"/>
+      <c r="E42" s="224"/>
+      <c r="F42" s="224"/>
+      <c r="G42" s="224"/>
+      <c r="H42" s="224"/>
+      <c r="I42" s="225"/>
+      <c r="J42" s="223"/>
+      <c r="K42" s="224"/>
+      <c r="L42" s="224"/>
+      <c r="M42" s="224"/>
+      <c r="N42" s="224"/>
+      <c r="O42" s="225"/>
+      <c r="P42" s="223"/>
+      <c r="Q42" s="224"/>
+      <c r="R42" s="224"/>
+      <c r="S42" s="224"/>
+      <c r="T42" s="224"/>
+      <c r="U42" s="225"/>
+      <c r="V42" s="238"/>
+      <c r="W42" s="239"/>
+      <c r="X42" s="239"/>
+      <c r="Y42" s="239"/>
+      <c r="Z42" s="240"/>
+      <c r="AA42" s="242"/>
+      <c r="AB42" s="224"/>
+      <c r="AC42" s="224"/>
+      <c r="AD42" s="224"/>
+      <c r="AE42" s="224"/>
+      <c r="AF42" s="224"/>
+      <c r="AG42" s="224"/>
+      <c r="AH42" s="224"/>
+      <c r="AI42" s="224"/>
+      <c r="AJ42" s="224"/>
+      <c r="AK42" s="224"/>
+      <c r="AL42" s="225"/>
+      <c r="AM42" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AN42" s="258"/>
-      <c r="AO42" s="259"/>
-      <c r="AP42" s="260"/>
-      <c r="AQ42" s="261"/>
-      <c r="AR42" s="257" t="s">
+      <c r="AN42" s="257"/>
+      <c r="AO42" s="258"/>
+      <c r="AP42" s="259"/>
+      <c r="AQ42" s="260"/>
+      <c r="AR42" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="AS42" s="258"/>
-      <c r="AT42" s="262"/>
-      <c r="AU42" s="263"/>
-      <c r="AV42" s="263"/>
-      <c r="AW42" s="264"/>
+      <c r="AS42" s="257"/>
+      <c r="AT42" s="261"/>
+      <c r="AU42" s="262"/>
+      <c r="AV42" s="262"/>
+      <c r="AW42" s="263"/>
     </row>
     <row r="43" spans="1:49" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A43" s="227"/>
-      <c r="B43" s="228"/>
-      <c r="C43" s="228"/>
-      <c r="D43" s="228"/>
-      <c r="E43" s="228"/>
-      <c r="F43" s="228"/>
-      <c r="G43" s="228"/>
-      <c r="H43" s="228"/>
-      <c r="I43" s="229"/>
-      <c r="J43" s="227"/>
-      <c r="K43" s="228"/>
-      <c r="L43" s="228"/>
-      <c r="M43" s="228"/>
-      <c r="N43" s="228"/>
-      <c r="O43" s="229"/>
-      <c r="P43" s="227"/>
-      <c r="Q43" s="228"/>
-      <c r="R43" s="228"/>
-      <c r="S43" s="228"/>
-      <c r="T43" s="228"/>
-      <c r="U43" s="229"/>
-      <c r="V43" s="247" t="s">
+      <c r="A43" s="226"/>
+      <c r="B43" s="227"/>
+      <c r="C43" s="227"/>
+      <c r="D43" s="227"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="227"/>
+      <c r="G43" s="227"/>
+      <c r="H43" s="227"/>
+      <c r="I43" s="228"/>
+      <c r="J43" s="226"/>
+      <c r="K43" s="227"/>
+      <c r="L43" s="227"/>
+      <c r="M43" s="227"/>
+      <c r="N43" s="227"/>
+      <c r="O43" s="228"/>
+      <c r="P43" s="226"/>
+      <c r="Q43" s="227"/>
+      <c r="R43" s="227"/>
+      <c r="S43" s="227"/>
+      <c r="T43" s="227"/>
+      <c r="U43" s="228"/>
+      <c r="V43" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="W43" s="248"/>
-      <c r="X43" s="248"/>
-      <c r="Y43" s="248"/>
-      <c r="Z43" s="249"/>
-      <c r="AA43" s="250" t="s">
+      <c r="W43" s="247"/>
+      <c r="X43" s="247"/>
+      <c r="Y43" s="247"/>
+      <c r="Z43" s="248"/>
+      <c r="AA43" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="AB43" s="251"/>
-      <c r="AC43" s="251"/>
-      <c r="AD43" s="251"/>
-      <c r="AE43" s="251"/>
-      <c r="AF43" s="251"/>
-      <c r="AG43" s="252"/>
-      <c r="AH43" s="253" t="s">
+      <c r="AB43" s="250"/>
+      <c r="AC43" s="250"/>
+      <c r="AD43" s="250"/>
+      <c r="AE43" s="250"/>
+      <c r="AF43" s="250"/>
+      <c r="AG43" s="251"/>
+      <c r="AH43" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="AI43" s="254"/>
-      <c r="AJ43" s="254"/>
-      <c r="AK43" s="254"/>
-      <c r="AL43" s="255"/>
-      <c r="AM43" s="250" t="s">
+      <c r="AI43" s="253"/>
+      <c r="AJ43" s="253"/>
+      <c r="AK43" s="253"/>
+      <c r="AL43" s="254"/>
+      <c r="AM43" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="AN43" s="251"/>
-      <c r="AO43" s="251"/>
-      <c r="AP43" s="251"/>
-      <c r="AQ43" s="251"/>
-      <c r="AR43" s="251"/>
-      <c r="AS43" s="251"/>
-      <c r="AT43" s="251"/>
-      <c r="AU43" s="251"/>
-      <c r="AV43" s="251"/>
-      <c r="AW43" s="256"/>
+      <c r="AN43" s="250"/>
+      <c r="AO43" s="250"/>
+      <c r="AP43" s="250"/>
+      <c r="AQ43" s="250"/>
+      <c r="AR43" s="250"/>
+      <c r="AS43" s="250"/>
+      <c r="AT43" s="250"/>
+      <c r="AU43" s="250"/>
+      <c r="AV43" s="250"/>
+      <c r="AW43" s="255"/>
     </row>
     <row r="44" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="21"/>
@@ -21480,1658 +21142,1666 @@
     </row>
     <row r="47" spans="1:49" ht="13.5" customHeight="1">
       <c r="A47" s="21"/>
-      <c r="B47" s="330" t="s">
+      <c r="B47" s="314" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="331"/>
-      <c r="D47" s="288" t="s">
+      <c r="C47" s="315"/>
+      <c r="D47" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="289"/>
-      <c r="F47" s="289"/>
-      <c r="G47" s="289"/>
-      <c r="H47" s="290"/>
-      <c r="I47" s="330" t="s">
+      <c r="E47" s="279"/>
+      <c r="F47" s="279"/>
+      <c r="G47" s="279"/>
+      <c r="H47" s="280"/>
+      <c r="I47" s="314" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="331"/>
-      <c r="K47" s="331"/>
-      <c r="L47" s="331"/>
-      <c r="M47" s="331"/>
-      <c r="N47" s="331"/>
-      <c r="O47" s="331"/>
-      <c r="P47" s="331"/>
-      <c r="Q47" s="331"/>
-      <c r="R47" s="331"/>
-      <c r="S47" s="331"/>
-      <c r="T47" s="331"/>
-      <c r="U47" s="331"/>
-      <c r="V47" s="331"/>
-      <c r="W47" s="331"/>
-      <c r="X47" s="331"/>
-      <c r="Y47" s="331"/>
-      <c r="Z47" s="334"/>
-      <c r="AA47" s="288" t="s">
+      <c r="J47" s="315"/>
+      <c r="K47" s="315"/>
+      <c r="L47" s="315"/>
+      <c r="M47" s="315"/>
+      <c r="N47" s="315"/>
+      <c r="O47" s="315"/>
+      <c r="P47" s="315"/>
+      <c r="Q47" s="315"/>
+      <c r="R47" s="315"/>
+      <c r="S47" s="315"/>
+      <c r="T47" s="315"/>
+      <c r="U47" s="315"/>
+      <c r="V47" s="315"/>
+      <c r="W47" s="315"/>
+      <c r="X47" s="315"/>
+      <c r="Y47" s="315"/>
+      <c r="Z47" s="318"/>
+      <c r="AA47" s="278" t="s">
         <v>25</v>
       </c>
-      <c r="AB47" s="289"/>
-      <c r="AC47" s="289"/>
-      <c r="AD47" s="290"/>
-      <c r="AE47" s="294"/>
-      <c r="AF47" s="295"/>
-      <c r="AG47" s="295"/>
-      <c r="AH47" s="295"/>
-      <c r="AI47" s="295"/>
-      <c r="AJ47" s="295"/>
-      <c r="AK47" s="295"/>
-      <c r="AL47" s="295"/>
-      <c r="AM47" s="296"/>
-      <c r="AN47" s="297"/>
-      <c r="AO47" s="298"/>
-      <c r="AP47" s="298"/>
-      <c r="AQ47" s="298"/>
-      <c r="AR47" s="298"/>
-      <c r="AS47" s="298"/>
-      <c r="AT47" s="298"/>
-      <c r="AU47" s="298"/>
-      <c r="AV47" s="299"/>
+      <c r="AB47" s="279"/>
+      <c r="AC47" s="279"/>
+      <c r="AD47" s="280"/>
+      <c r="AE47" s="284"/>
+      <c r="AF47" s="285"/>
+      <c r="AG47" s="285"/>
+      <c r="AH47" s="285"/>
+      <c r="AI47" s="285"/>
+      <c r="AJ47" s="285"/>
+      <c r="AK47" s="285"/>
+      <c r="AL47" s="285"/>
+      <c r="AM47" s="286"/>
+      <c r="AN47" s="287"/>
+      <c r="AO47" s="288"/>
+      <c r="AP47" s="288"/>
+      <c r="AQ47" s="288"/>
+      <c r="AR47" s="288"/>
+      <c r="AS47" s="288"/>
+      <c r="AT47" s="288"/>
+      <c r="AU47" s="288"/>
+      <c r="AV47" s="289"/>
       <c r="AW47" s="163"/>
     </row>
     <row r="48" spans="1:49" ht="13.5" customHeight="1">
       <c r="A48" s="21"/>
-      <c r="B48" s="332"/>
-      <c r="C48" s="333"/>
-      <c r="D48" s="291"/>
-      <c r="E48" s="292"/>
-      <c r="F48" s="292"/>
-      <c r="G48" s="292"/>
-      <c r="H48" s="293"/>
-      <c r="I48" s="332"/>
-      <c r="J48" s="333"/>
-      <c r="K48" s="333"/>
-      <c r="L48" s="333"/>
-      <c r="M48" s="333"/>
-      <c r="N48" s="333"/>
-      <c r="O48" s="333"/>
-      <c r="P48" s="333"/>
-      <c r="Q48" s="333"/>
-      <c r="R48" s="333"/>
-      <c r="S48" s="333"/>
-      <c r="T48" s="333"/>
-      <c r="U48" s="333"/>
-      <c r="V48" s="333"/>
-      <c r="W48" s="333"/>
-      <c r="X48" s="333"/>
-      <c r="Y48" s="333"/>
-      <c r="Z48" s="335"/>
-      <c r="AA48" s="291"/>
-      <c r="AB48" s="292"/>
-      <c r="AC48" s="292"/>
-      <c r="AD48" s="293"/>
-      <c r="AE48" s="294" t="s">
+      <c r="B48" s="316"/>
+      <c r="C48" s="317"/>
+      <c r="D48" s="281"/>
+      <c r="E48" s="282"/>
+      <c r="F48" s="282"/>
+      <c r="G48" s="282"/>
+      <c r="H48" s="283"/>
+      <c r="I48" s="316"/>
+      <c r="J48" s="317"/>
+      <c r="K48" s="317"/>
+      <c r="L48" s="317"/>
+      <c r="M48" s="317"/>
+      <c r="N48" s="317"/>
+      <c r="O48" s="317"/>
+      <c r="P48" s="317"/>
+      <c r="Q48" s="317"/>
+      <c r="R48" s="317"/>
+      <c r="S48" s="317"/>
+      <c r="T48" s="317"/>
+      <c r="U48" s="317"/>
+      <c r="V48" s="317"/>
+      <c r="W48" s="317"/>
+      <c r="X48" s="317"/>
+      <c r="Y48" s="317"/>
+      <c r="Z48" s="319"/>
+      <c r="AA48" s="281"/>
+      <c r="AB48" s="282"/>
+      <c r="AC48" s="282"/>
+      <c r="AD48" s="283"/>
+      <c r="AE48" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="AF48" s="295"/>
-      <c r="AG48" s="295"/>
-      <c r="AH48" s="295"/>
-      <c r="AI48" s="296"/>
-      <c r="AJ48" s="294" t="s">
+      <c r="AF48" s="285"/>
+      <c r="AG48" s="285"/>
+      <c r="AH48" s="285"/>
+      <c r="AI48" s="286"/>
+      <c r="AJ48" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="AK48" s="295"/>
-      <c r="AL48" s="295"/>
-      <c r="AM48" s="296"/>
-      <c r="AN48" s="294" t="s">
+      <c r="AK48" s="285"/>
+      <c r="AL48" s="285"/>
+      <c r="AM48" s="286"/>
+      <c r="AN48" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="AO48" s="295"/>
-      <c r="AP48" s="295"/>
-      <c r="AQ48" s="295"/>
-      <c r="AR48" s="296"/>
-      <c r="AS48" s="294" t="s">
+      <c r="AO48" s="285"/>
+      <c r="AP48" s="285"/>
+      <c r="AQ48" s="285"/>
+      <c r="AR48" s="286"/>
+      <c r="AS48" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="AT48" s="295"/>
-      <c r="AU48" s="295"/>
-      <c r="AV48" s="296"/>
+      <c r="AT48" s="285"/>
+      <c r="AU48" s="285"/>
+      <c r="AV48" s="286"/>
       <c r="AW48" s="163"/>
     </row>
     <row r="49" spans="1:49" ht="13.5" customHeight="1">
       <c r="A49" s="21"/>
-      <c r="B49" s="308">
+      <c r="B49" s="298">
         <v>1</v>
       </c>
-      <c r="C49" s="309"/>
-      <c r="D49" s="312">
+      <c r="C49" s="299"/>
+      <c r="D49" s="302">
         <v>45204</v>
       </c>
-      <c r="E49" s="313"/>
-      <c r="F49" s="313"/>
-      <c r="G49" s="313"/>
-      <c r="H49" s="314"/>
-      <c r="I49" s="318" t="s">
+      <c r="E49" s="303"/>
+      <c r="F49" s="303"/>
+      <c r="G49" s="303"/>
+      <c r="H49" s="304"/>
+      <c r="I49" s="383" t="s">
         <v>41</v>
       </c>
-      <c r="J49" s="319"/>
-      <c r="K49" s="319"/>
-      <c r="L49" s="319"/>
-      <c r="M49" s="319"/>
-      <c r="N49" s="319"/>
-      <c r="O49" s="319"/>
-      <c r="P49" s="319"/>
-      <c r="Q49" s="319"/>
-      <c r="R49" s="319"/>
-      <c r="S49" s="319"/>
-      <c r="T49" s="319"/>
-      <c r="U49" s="319"/>
-      <c r="V49" s="319"/>
-      <c r="W49" s="319"/>
-      <c r="X49" s="319"/>
-      <c r="Y49" s="319"/>
-      <c r="Z49" s="320"/>
-      <c r="AA49" s="300" t="s">
-        <v>131</v>
+      <c r="J49" s="384"/>
+      <c r="K49" s="384"/>
+      <c r="L49" s="384"/>
+      <c r="M49" s="384"/>
+      <c r="N49" s="384"/>
+      <c r="O49" s="384"/>
+      <c r="P49" s="384"/>
+      <c r="Q49" s="384"/>
+      <c r="R49" s="384"/>
+      <c r="S49" s="384"/>
+      <c r="T49" s="384"/>
+      <c r="U49" s="384"/>
+      <c r="V49" s="384"/>
+      <c r="W49" s="384"/>
+      <c r="X49" s="384"/>
+      <c r="Y49" s="384"/>
+      <c r="Z49" s="385"/>
+      <c r="AA49" s="290" t="s">
+        <v>124</v>
       </c>
-      <c r="AB49" s="301"/>
-      <c r="AC49" s="301"/>
-      <c r="AD49" s="302"/>
-      <c r="AE49" s="312"/>
-      <c r="AF49" s="313"/>
-      <c r="AG49" s="313"/>
-      <c r="AH49" s="313"/>
-      <c r="AI49" s="314"/>
-      <c r="AJ49" s="300"/>
-      <c r="AK49" s="301"/>
-      <c r="AL49" s="301"/>
-      <c r="AM49" s="302"/>
-      <c r="AN49" s="312"/>
-      <c r="AO49" s="313"/>
-      <c r="AP49" s="313"/>
-      <c r="AQ49" s="313"/>
-      <c r="AR49" s="314"/>
-      <c r="AS49" s="300"/>
-      <c r="AT49" s="301"/>
-      <c r="AU49" s="301"/>
-      <c r="AV49" s="302"/>
+      <c r="AB49" s="291"/>
+      <c r="AC49" s="291"/>
+      <c r="AD49" s="292"/>
+      <c r="AE49" s="302"/>
+      <c r="AF49" s="303"/>
+      <c r="AG49" s="303"/>
+      <c r="AH49" s="303"/>
+      <c r="AI49" s="304"/>
+      <c r="AJ49" s="290"/>
+      <c r="AK49" s="291"/>
+      <c r="AL49" s="291"/>
+      <c r="AM49" s="292"/>
+      <c r="AN49" s="302"/>
+      <c r="AO49" s="303"/>
+      <c r="AP49" s="303"/>
+      <c r="AQ49" s="303"/>
+      <c r="AR49" s="304"/>
+      <c r="AS49" s="290"/>
+      <c r="AT49" s="291"/>
+      <c r="AU49" s="291"/>
+      <c r="AV49" s="292"/>
       <c r="AW49" s="163"/>
     </row>
     <row r="50" spans="1:49" ht="13.5" customHeight="1">
       <c r="A50" s="21"/>
-      <c r="B50" s="310"/>
-      <c r="C50" s="311"/>
-      <c r="D50" s="315"/>
-      <c r="E50" s="316"/>
-      <c r="F50" s="316"/>
-      <c r="G50" s="316"/>
-      <c r="H50" s="317"/>
-      <c r="I50" s="321"/>
-      <c r="J50" s="322"/>
-      <c r="K50" s="322"/>
-      <c r="L50" s="322"/>
-      <c r="M50" s="322"/>
-      <c r="N50" s="322"/>
-      <c r="O50" s="322"/>
-      <c r="P50" s="322"/>
-      <c r="Q50" s="322"/>
-      <c r="R50" s="322"/>
-      <c r="S50" s="322"/>
-      <c r="T50" s="322"/>
-      <c r="U50" s="322"/>
-      <c r="V50" s="322"/>
-      <c r="W50" s="322"/>
-      <c r="X50" s="322"/>
-      <c r="Y50" s="322"/>
-      <c r="Z50" s="323"/>
-      <c r="AA50" s="303"/>
-      <c r="AB50" s="304"/>
-      <c r="AC50" s="304"/>
-      <c r="AD50" s="305"/>
-      <c r="AE50" s="315"/>
-      <c r="AF50" s="316"/>
-      <c r="AG50" s="316"/>
-      <c r="AH50" s="316"/>
-      <c r="AI50" s="317"/>
-      <c r="AJ50" s="303"/>
-      <c r="AK50" s="304"/>
-      <c r="AL50" s="304"/>
-      <c r="AM50" s="305"/>
-      <c r="AN50" s="315"/>
-      <c r="AO50" s="316"/>
-      <c r="AP50" s="316"/>
-      <c r="AQ50" s="316"/>
-      <c r="AR50" s="317"/>
-      <c r="AS50" s="303"/>
-      <c r="AT50" s="304"/>
-      <c r="AU50" s="304"/>
-      <c r="AV50" s="305"/>
+      <c r="B50" s="300"/>
+      <c r="C50" s="301"/>
+      <c r="D50" s="305"/>
+      <c r="E50" s="306"/>
+      <c r="F50" s="306"/>
+      <c r="G50" s="306"/>
+      <c r="H50" s="307"/>
+      <c r="I50" s="386"/>
+      <c r="J50" s="387"/>
+      <c r="K50" s="387"/>
+      <c r="L50" s="387"/>
+      <c r="M50" s="387"/>
+      <c r="N50" s="387"/>
+      <c r="O50" s="387"/>
+      <c r="P50" s="387"/>
+      <c r="Q50" s="387"/>
+      <c r="R50" s="387"/>
+      <c r="S50" s="387"/>
+      <c r="T50" s="387"/>
+      <c r="U50" s="387"/>
+      <c r="V50" s="387"/>
+      <c r="W50" s="387"/>
+      <c r="X50" s="387"/>
+      <c r="Y50" s="387"/>
+      <c r="Z50" s="388"/>
+      <c r="AA50" s="293"/>
+      <c r="AB50" s="294"/>
+      <c r="AC50" s="294"/>
+      <c r="AD50" s="295"/>
+      <c r="AE50" s="305"/>
+      <c r="AF50" s="306"/>
+      <c r="AG50" s="306"/>
+      <c r="AH50" s="306"/>
+      <c r="AI50" s="307"/>
+      <c r="AJ50" s="293"/>
+      <c r="AK50" s="294"/>
+      <c r="AL50" s="294"/>
+      <c r="AM50" s="295"/>
+      <c r="AN50" s="305"/>
+      <c r="AO50" s="306"/>
+      <c r="AP50" s="306"/>
+      <c r="AQ50" s="306"/>
+      <c r="AR50" s="307"/>
+      <c r="AS50" s="293"/>
+      <c r="AT50" s="294"/>
+      <c r="AU50" s="294"/>
+      <c r="AV50" s="295"/>
       <c r="AW50" s="163"/>
     </row>
     <row r="51" spans="1:49" ht="13.5" customHeight="1">
       <c r="A51" s="21"/>
-      <c r="B51" s="265"/>
-      <c r="C51" s="266"/>
-      <c r="D51" s="267"/>
-      <c r="E51" s="268"/>
-      <c r="F51" s="268"/>
-      <c r="G51" s="268"/>
-      <c r="H51" s="269"/>
-      <c r="I51" s="273"/>
-      <c r="J51" s="274"/>
-      <c r="K51" s="274"/>
-      <c r="L51" s="274"/>
-      <c r="M51" s="274"/>
-      <c r="N51" s="274"/>
-      <c r="O51" s="274"/>
-      <c r="P51" s="274"/>
-      <c r="Q51" s="274"/>
-      <c r="R51" s="274"/>
-      <c r="S51" s="274"/>
-      <c r="T51" s="274"/>
-      <c r="U51" s="274"/>
-      <c r="V51" s="274"/>
-      <c r="W51" s="274"/>
-      <c r="X51" s="274"/>
-      <c r="Y51" s="274"/>
-      <c r="Z51" s="275"/>
-      <c r="AA51" s="276"/>
-      <c r="AB51" s="277"/>
-      <c r="AC51" s="277"/>
-      <c r="AD51" s="278"/>
-      <c r="AE51" s="279"/>
-      <c r="AF51" s="280"/>
-      <c r="AG51" s="280"/>
-      <c r="AH51" s="280"/>
-      <c r="AI51" s="281"/>
-      <c r="AJ51" s="276"/>
-      <c r="AK51" s="277"/>
-      <c r="AL51" s="277"/>
-      <c r="AM51" s="278"/>
-      <c r="AN51" s="279"/>
-      <c r="AO51" s="280"/>
-      <c r="AP51" s="280"/>
-      <c r="AQ51" s="280"/>
-      <c r="AR51" s="281"/>
-      <c r="AS51" s="276"/>
-      <c r="AT51" s="277"/>
-      <c r="AU51" s="277"/>
-      <c r="AV51" s="278"/>
+      <c r="B51" s="264">
+        <v>2</v>
+      </c>
+      <c r="C51" s="265"/>
+      <c r="D51" s="302">
+        <v>45241</v>
+      </c>
+      <c r="E51" s="303"/>
+      <c r="F51" s="303"/>
+      <c r="G51" s="303"/>
+      <c r="H51" s="304"/>
+      <c r="I51" s="383" t="s">
+        <v>151</v>
+      </c>
+      <c r="J51" s="384"/>
+      <c r="K51" s="384"/>
+      <c r="L51" s="384"/>
+      <c r="M51" s="384"/>
+      <c r="N51" s="384"/>
+      <c r="O51" s="384"/>
+      <c r="P51" s="384"/>
+      <c r="Q51" s="384"/>
+      <c r="R51" s="384"/>
+      <c r="S51" s="384"/>
+      <c r="T51" s="384"/>
+      <c r="U51" s="384"/>
+      <c r="V51" s="384"/>
+      <c r="W51" s="384"/>
+      <c r="X51" s="384"/>
+      <c r="Y51" s="384"/>
+      <c r="Z51" s="385"/>
+      <c r="AA51" s="290" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB51" s="291"/>
+      <c r="AC51" s="291"/>
+      <c r="AD51" s="292"/>
+      <c r="AE51" s="269"/>
+      <c r="AF51" s="270"/>
+      <c r="AG51" s="270"/>
+      <c r="AH51" s="270"/>
+      <c r="AI51" s="271"/>
+      <c r="AJ51" s="266"/>
+      <c r="AK51" s="267"/>
+      <c r="AL51" s="267"/>
+      <c r="AM51" s="268"/>
+      <c r="AN51" s="269"/>
+      <c r="AO51" s="270"/>
+      <c r="AP51" s="270"/>
+      <c r="AQ51" s="270"/>
+      <c r="AR51" s="271"/>
+      <c r="AS51" s="266"/>
+      <c r="AT51" s="267"/>
+      <c r="AU51" s="267"/>
+      <c r="AV51" s="268"/>
       <c r="AW51" s="163"/>
     </row>
     <row r="52" spans="1:49" ht="13.5" customHeight="1">
       <c r="A52" s="21"/>
-      <c r="B52" s="211"/>
-      <c r="C52" s="212"/>
-      <c r="D52" s="270"/>
-      <c r="E52" s="271"/>
-      <c r="F52" s="271"/>
-      <c r="G52" s="271"/>
-      <c r="H52" s="272"/>
-      <c r="I52" s="213"/>
-      <c r="J52" s="214"/>
-      <c r="K52" s="214"/>
-      <c r="L52" s="214"/>
-      <c r="M52" s="214"/>
-      <c r="N52" s="214"/>
-      <c r="O52" s="214"/>
-      <c r="P52" s="214"/>
-      <c r="Q52" s="214"/>
-      <c r="R52" s="214"/>
-      <c r="S52" s="214"/>
-      <c r="T52" s="214"/>
-      <c r="U52" s="214"/>
-      <c r="V52" s="214"/>
-      <c r="W52" s="214"/>
-      <c r="X52" s="214"/>
-      <c r="Y52" s="214"/>
-      <c r="Z52" s="215"/>
-      <c r="AA52" s="205"/>
-      <c r="AB52" s="206"/>
-      <c r="AC52" s="206"/>
-      <c r="AD52" s="207"/>
-      <c r="AE52" s="199"/>
-      <c r="AF52" s="200"/>
-      <c r="AG52" s="200"/>
-      <c r="AH52" s="200"/>
-      <c r="AI52" s="201"/>
-      <c r="AJ52" s="205"/>
-      <c r="AK52" s="206"/>
-      <c r="AL52" s="206"/>
-      <c r="AM52" s="207"/>
-      <c r="AN52" s="199"/>
-      <c r="AO52" s="200"/>
-      <c r="AP52" s="200"/>
-      <c r="AQ52" s="200"/>
-      <c r="AR52" s="201"/>
-      <c r="AS52" s="205"/>
-      <c r="AT52" s="206"/>
-      <c r="AU52" s="206"/>
-      <c r="AV52" s="207"/>
+      <c r="B52" s="210"/>
+      <c r="C52" s="211"/>
+      <c r="D52" s="305"/>
+      <c r="E52" s="306"/>
+      <c r="F52" s="306"/>
+      <c r="G52" s="306"/>
+      <c r="H52" s="307"/>
+      <c r="I52" s="386"/>
+      <c r="J52" s="387"/>
+      <c r="K52" s="387"/>
+      <c r="L52" s="387"/>
+      <c r="M52" s="387"/>
+      <c r="N52" s="387"/>
+      <c r="O52" s="387"/>
+      <c r="P52" s="387"/>
+      <c r="Q52" s="387"/>
+      <c r="R52" s="387"/>
+      <c r="S52" s="387"/>
+      <c r="T52" s="387"/>
+      <c r="U52" s="387"/>
+      <c r="V52" s="387"/>
+      <c r="W52" s="387"/>
+      <c r="X52" s="387"/>
+      <c r="Y52" s="387"/>
+      <c r="Z52" s="388"/>
+      <c r="AA52" s="293"/>
+      <c r="AB52" s="294"/>
+      <c r="AC52" s="294"/>
+      <c r="AD52" s="295"/>
+      <c r="AE52" s="198"/>
+      <c r="AF52" s="199"/>
+      <c r="AG52" s="199"/>
+      <c r="AH52" s="199"/>
+      <c r="AI52" s="200"/>
+      <c r="AJ52" s="204"/>
+      <c r="AK52" s="205"/>
+      <c r="AL52" s="205"/>
+      <c r="AM52" s="206"/>
+      <c r="AN52" s="198"/>
+      <c r="AO52" s="199"/>
+      <c r="AP52" s="199"/>
+      <c r="AQ52" s="199"/>
+      <c r="AR52" s="200"/>
+      <c r="AS52" s="204"/>
+      <c r="AT52" s="205"/>
+      <c r="AU52" s="205"/>
+      <c r="AV52" s="206"/>
       <c r="AW52" s="163"/>
     </row>
     <row r="53" spans="1:49" ht="13.5" customHeight="1">
       <c r="A53" s="21"/>
-      <c r="B53" s="211"/>
-      <c r="C53" s="212"/>
-      <c r="D53" s="199"/>
-      <c r="E53" s="200"/>
-      <c r="F53" s="200"/>
-      <c r="G53" s="200"/>
-      <c r="H53" s="201"/>
-      <c r="I53" s="213"/>
-      <c r="J53" s="214"/>
-      <c r="K53" s="214"/>
-      <c r="L53" s="214"/>
-      <c r="M53" s="214"/>
-      <c r="N53" s="214"/>
-      <c r="O53" s="214"/>
-      <c r="P53" s="214"/>
-      <c r="Q53" s="214"/>
-      <c r="R53" s="214"/>
-      <c r="S53" s="214"/>
-      <c r="T53" s="214"/>
-      <c r="U53" s="214"/>
-      <c r="V53" s="214"/>
-      <c r="W53" s="214"/>
-      <c r="X53" s="214"/>
-      <c r="Y53" s="214"/>
-      <c r="Z53" s="215"/>
-      <c r="AA53" s="205"/>
-      <c r="AB53" s="206"/>
-      <c r="AC53" s="206"/>
-      <c r="AD53" s="207"/>
-      <c r="AE53" s="199"/>
-      <c r="AF53" s="200"/>
-      <c r="AG53" s="200"/>
-      <c r="AH53" s="200"/>
-      <c r="AI53" s="201"/>
-      <c r="AJ53" s="205"/>
-      <c r="AK53" s="206"/>
-      <c r="AL53" s="206"/>
-      <c r="AM53" s="207"/>
-      <c r="AN53" s="199"/>
-      <c r="AO53" s="200"/>
-      <c r="AP53" s="200"/>
-      <c r="AQ53" s="200"/>
-      <c r="AR53" s="201"/>
-      <c r="AS53" s="205"/>
-      <c r="AT53" s="206"/>
-      <c r="AU53" s="206"/>
-      <c r="AV53" s="207"/>
+      <c r="B53" s="210"/>
+      <c r="C53" s="211"/>
+      <c r="D53" s="198"/>
+      <c r="E53" s="199"/>
+      <c r="F53" s="199"/>
+      <c r="G53" s="199"/>
+      <c r="H53" s="200"/>
+      <c r="I53" s="212"/>
+      <c r="J53" s="213"/>
+      <c r="K53" s="213"/>
+      <c r="L53" s="213"/>
+      <c r="M53" s="213"/>
+      <c r="N53" s="213"/>
+      <c r="O53" s="213"/>
+      <c r="P53" s="213"/>
+      <c r="Q53" s="213"/>
+      <c r="R53" s="213"/>
+      <c r="S53" s="213"/>
+      <c r="T53" s="213"/>
+      <c r="U53" s="213"/>
+      <c r="V53" s="213"/>
+      <c r="W53" s="213"/>
+      <c r="X53" s="213"/>
+      <c r="Y53" s="213"/>
+      <c r="Z53" s="214"/>
+      <c r="AA53" s="204"/>
+      <c r="AB53" s="205"/>
+      <c r="AC53" s="205"/>
+      <c r="AD53" s="206"/>
+      <c r="AE53" s="198"/>
+      <c r="AF53" s="199"/>
+      <c r="AG53" s="199"/>
+      <c r="AH53" s="199"/>
+      <c r="AI53" s="200"/>
+      <c r="AJ53" s="204"/>
+      <c r="AK53" s="205"/>
+      <c r="AL53" s="205"/>
+      <c r="AM53" s="206"/>
+      <c r="AN53" s="198"/>
+      <c r="AO53" s="199"/>
+      <c r="AP53" s="199"/>
+      <c r="AQ53" s="199"/>
+      <c r="AR53" s="200"/>
+      <c r="AS53" s="204"/>
+      <c r="AT53" s="205"/>
+      <c r="AU53" s="205"/>
+      <c r="AV53" s="206"/>
       <c r="AW53" s="163"/>
     </row>
     <row r="54" spans="1:49" ht="13.5" customHeight="1">
       <c r="A54" s="21"/>
-      <c r="B54" s="211"/>
-      <c r="C54" s="212"/>
-      <c r="D54" s="199"/>
-      <c r="E54" s="200"/>
-      <c r="F54" s="200"/>
-      <c r="G54" s="200"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="213"/>
-      <c r="J54" s="214"/>
-      <c r="K54" s="214"/>
-      <c r="L54" s="214"/>
-      <c r="M54" s="214"/>
-      <c r="N54" s="214"/>
-      <c r="O54" s="214"/>
-      <c r="P54" s="214"/>
-      <c r="Q54" s="214"/>
-      <c r="R54" s="214"/>
-      <c r="S54" s="214"/>
-      <c r="T54" s="214"/>
-      <c r="U54" s="214"/>
-      <c r="V54" s="214"/>
-      <c r="W54" s="214"/>
-      <c r="X54" s="214"/>
-      <c r="Y54" s="214"/>
-      <c r="Z54" s="215"/>
-      <c r="AA54" s="205"/>
-      <c r="AB54" s="206"/>
-      <c r="AC54" s="206"/>
-      <c r="AD54" s="207"/>
-      <c r="AE54" s="199"/>
-      <c r="AF54" s="200"/>
-      <c r="AG54" s="200"/>
-      <c r="AH54" s="200"/>
-      <c r="AI54" s="201"/>
-      <c r="AJ54" s="205"/>
-      <c r="AK54" s="206"/>
-      <c r="AL54" s="206"/>
-      <c r="AM54" s="207"/>
-      <c r="AN54" s="199"/>
-      <c r="AO54" s="200"/>
-      <c r="AP54" s="200"/>
-      <c r="AQ54" s="200"/>
-      <c r="AR54" s="201"/>
-      <c r="AS54" s="205"/>
-      <c r="AT54" s="206"/>
-      <c r="AU54" s="206"/>
-      <c r="AV54" s="207"/>
+      <c r="B54" s="210"/>
+      <c r="C54" s="211"/>
+      <c r="D54" s="198"/>
+      <c r="E54" s="199"/>
+      <c r="F54" s="199"/>
+      <c r="G54" s="199"/>
+      <c r="H54" s="200"/>
+      <c r="I54" s="212"/>
+      <c r="J54" s="213"/>
+      <c r="K54" s="213"/>
+      <c r="L54" s="213"/>
+      <c r="M54" s="213"/>
+      <c r="N54" s="213"/>
+      <c r="O54" s="213"/>
+      <c r="P54" s="213"/>
+      <c r="Q54" s="213"/>
+      <c r="R54" s="213"/>
+      <c r="S54" s="213"/>
+      <c r="T54" s="213"/>
+      <c r="U54" s="213"/>
+      <c r="V54" s="213"/>
+      <c r="W54" s="213"/>
+      <c r="X54" s="213"/>
+      <c r="Y54" s="213"/>
+      <c r="Z54" s="214"/>
+      <c r="AA54" s="204"/>
+      <c r="AB54" s="205"/>
+      <c r="AC54" s="205"/>
+      <c r="AD54" s="206"/>
+      <c r="AE54" s="198"/>
+      <c r="AF54" s="199"/>
+      <c r="AG54" s="199"/>
+      <c r="AH54" s="199"/>
+      <c r="AI54" s="200"/>
+      <c r="AJ54" s="204"/>
+      <c r="AK54" s="205"/>
+      <c r="AL54" s="205"/>
+      <c r="AM54" s="206"/>
+      <c r="AN54" s="198"/>
+      <c r="AO54" s="199"/>
+      <c r="AP54" s="199"/>
+      <c r="AQ54" s="199"/>
+      <c r="AR54" s="200"/>
+      <c r="AS54" s="204"/>
+      <c r="AT54" s="205"/>
+      <c r="AU54" s="205"/>
+      <c r="AV54" s="206"/>
       <c r="AW54" s="163"/>
     </row>
     <row r="55" spans="1:49" ht="13.5" customHeight="1">
       <c r="A55" s="21"/>
-      <c r="B55" s="306"/>
-      <c r="C55" s="307"/>
-      <c r="D55" s="285"/>
-      <c r="E55" s="286"/>
-      <c r="F55" s="286"/>
-      <c r="G55" s="286"/>
-      <c r="H55" s="287"/>
-      <c r="I55" s="324"/>
-      <c r="J55" s="325"/>
-      <c r="K55" s="325"/>
-      <c r="L55" s="325"/>
-      <c r="M55" s="325"/>
-      <c r="N55" s="325"/>
-      <c r="O55" s="325"/>
-      <c r="P55" s="325"/>
-      <c r="Q55" s="325"/>
-      <c r="R55" s="325"/>
-      <c r="S55" s="325"/>
-      <c r="T55" s="325"/>
-      <c r="U55" s="325"/>
-      <c r="V55" s="325"/>
-      <c r="W55" s="325"/>
-      <c r="X55" s="325"/>
-      <c r="Y55" s="325"/>
-      <c r="Z55" s="326"/>
-      <c r="AA55" s="282"/>
-      <c r="AB55" s="283"/>
-      <c r="AC55" s="283"/>
-      <c r="AD55" s="284"/>
-      <c r="AE55" s="285"/>
-      <c r="AF55" s="286"/>
-      <c r="AG55" s="286"/>
-      <c r="AH55" s="286"/>
-      <c r="AI55" s="287"/>
-      <c r="AJ55" s="282"/>
-      <c r="AK55" s="283"/>
-      <c r="AL55" s="283"/>
-      <c r="AM55" s="284"/>
-      <c r="AN55" s="285"/>
-      <c r="AO55" s="286"/>
-      <c r="AP55" s="286"/>
-      <c r="AQ55" s="286"/>
-      <c r="AR55" s="287"/>
-      <c r="AS55" s="282"/>
-      <c r="AT55" s="283"/>
-      <c r="AU55" s="283"/>
-      <c r="AV55" s="284"/>
+      <c r="B55" s="296"/>
+      <c r="C55" s="297"/>
+      <c r="D55" s="275"/>
+      <c r="E55" s="276"/>
+      <c r="F55" s="276"/>
+      <c r="G55" s="276"/>
+      <c r="H55" s="277"/>
+      <c r="I55" s="308"/>
+      <c r="J55" s="309"/>
+      <c r="K55" s="309"/>
+      <c r="L55" s="309"/>
+      <c r="M55" s="309"/>
+      <c r="N55" s="309"/>
+      <c r="O55" s="309"/>
+      <c r="P55" s="309"/>
+      <c r="Q55" s="309"/>
+      <c r="R55" s="309"/>
+      <c r="S55" s="309"/>
+      <c r="T55" s="309"/>
+      <c r="U55" s="309"/>
+      <c r="V55" s="309"/>
+      <c r="W55" s="309"/>
+      <c r="X55" s="309"/>
+      <c r="Y55" s="309"/>
+      <c r="Z55" s="310"/>
+      <c r="AA55" s="272"/>
+      <c r="AB55" s="273"/>
+      <c r="AC55" s="273"/>
+      <c r="AD55" s="274"/>
+      <c r="AE55" s="275"/>
+      <c r="AF55" s="276"/>
+      <c r="AG55" s="276"/>
+      <c r="AH55" s="276"/>
+      <c r="AI55" s="277"/>
+      <c r="AJ55" s="272"/>
+      <c r="AK55" s="273"/>
+      <c r="AL55" s="273"/>
+      <c r="AM55" s="274"/>
+      <c r="AN55" s="275"/>
+      <c r="AO55" s="276"/>
+      <c r="AP55" s="276"/>
+      <c r="AQ55" s="276"/>
+      <c r="AR55" s="277"/>
+      <c r="AS55" s="272"/>
+      <c r="AT55" s="273"/>
+      <c r="AU55" s="273"/>
+      <c r="AV55" s="274"/>
       <c r="AW55" s="163"/>
     </row>
     <row r="56" spans="1:49" ht="13.5" customHeight="1">
       <c r="A56" s="21"/>
-      <c r="B56" s="306"/>
-      <c r="C56" s="307"/>
-      <c r="D56" s="285"/>
-      <c r="E56" s="286"/>
-      <c r="F56" s="286"/>
-      <c r="G56" s="286"/>
-      <c r="H56" s="287"/>
-      <c r="I56" s="324"/>
-      <c r="J56" s="325"/>
-      <c r="K56" s="325"/>
-      <c r="L56" s="325"/>
-      <c r="M56" s="325"/>
-      <c r="N56" s="325"/>
-      <c r="O56" s="325"/>
-      <c r="P56" s="325"/>
-      <c r="Q56" s="325"/>
-      <c r="R56" s="325"/>
-      <c r="S56" s="325"/>
-      <c r="T56" s="325"/>
-      <c r="U56" s="325"/>
-      <c r="V56" s="325"/>
-      <c r="W56" s="325"/>
-      <c r="X56" s="325"/>
-      <c r="Y56" s="325"/>
-      <c r="Z56" s="326"/>
-      <c r="AA56" s="282"/>
-      <c r="AB56" s="283"/>
-      <c r="AC56" s="283"/>
-      <c r="AD56" s="284"/>
-      <c r="AE56" s="285"/>
-      <c r="AF56" s="286"/>
-      <c r="AG56" s="286"/>
-      <c r="AH56" s="286"/>
-      <c r="AI56" s="287"/>
-      <c r="AJ56" s="282"/>
-      <c r="AK56" s="283"/>
-      <c r="AL56" s="283"/>
-      <c r="AM56" s="284"/>
-      <c r="AN56" s="285"/>
-      <c r="AO56" s="286"/>
-      <c r="AP56" s="286"/>
-      <c r="AQ56" s="286"/>
-      <c r="AR56" s="287"/>
-      <c r="AS56" s="282"/>
-      <c r="AT56" s="283"/>
-      <c r="AU56" s="283"/>
-      <c r="AV56" s="284"/>
+      <c r="B56" s="296"/>
+      <c r="C56" s="297"/>
+      <c r="D56" s="275"/>
+      <c r="E56" s="276"/>
+      <c r="F56" s="276"/>
+      <c r="G56" s="276"/>
+      <c r="H56" s="277"/>
+      <c r="I56" s="308"/>
+      <c r="J56" s="309"/>
+      <c r="K56" s="309"/>
+      <c r="L56" s="309"/>
+      <c r="M56" s="309"/>
+      <c r="N56" s="309"/>
+      <c r="O56" s="309"/>
+      <c r="P56" s="309"/>
+      <c r="Q56" s="309"/>
+      <c r="R56" s="309"/>
+      <c r="S56" s="309"/>
+      <c r="T56" s="309"/>
+      <c r="U56" s="309"/>
+      <c r="V56" s="309"/>
+      <c r="W56" s="309"/>
+      <c r="X56" s="309"/>
+      <c r="Y56" s="309"/>
+      <c r="Z56" s="310"/>
+      <c r="AA56" s="272"/>
+      <c r="AB56" s="273"/>
+      <c r="AC56" s="273"/>
+      <c r="AD56" s="274"/>
+      <c r="AE56" s="275"/>
+      <c r="AF56" s="276"/>
+      <c r="AG56" s="276"/>
+      <c r="AH56" s="276"/>
+      <c r="AI56" s="277"/>
+      <c r="AJ56" s="272"/>
+      <c r="AK56" s="273"/>
+      <c r="AL56" s="273"/>
+      <c r="AM56" s="274"/>
+      <c r="AN56" s="275"/>
+      <c r="AO56" s="276"/>
+      <c r="AP56" s="276"/>
+      <c r="AQ56" s="276"/>
+      <c r="AR56" s="277"/>
+      <c r="AS56" s="272"/>
+      <c r="AT56" s="273"/>
+      <c r="AU56" s="273"/>
+      <c r="AV56" s="274"/>
       <c r="AW56" s="163"/>
     </row>
     <row r="57" spans="1:49" ht="13.5" customHeight="1">
       <c r="A57" s="21"/>
-      <c r="B57" s="306"/>
-      <c r="C57" s="307"/>
-      <c r="D57" s="285"/>
-      <c r="E57" s="286"/>
-      <c r="F57" s="286"/>
-      <c r="G57" s="286"/>
-      <c r="H57" s="287"/>
-      <c r="I57" s="324"/>
-      <c r="J57" s="325"/>
-      <c r="K57" s="325"/>
-      <c r="L57" s="325"/>
-      <c r="M57" s="325"/>
-      <c r="N57" s="325"/>
-      <c r="O57" s="325"/>
-      <c r="P57" s="325"/>
-      <c r="Q57" s="325"/>
-      <c r="R57" s="325"/>
-      <c r="S57" s="325"/>
-      <c r="T57" s="325"/>
-      <c r="U57" s="325"/>
-      <c r="V57" s="325"/>
-      <c r="W57" s="325"/>
-      <c r="X57" s="325"/>
-      <c r="Y57" s="325"/>
-      <c r="Z57" s="326"/>
-      <c r="AA57" s="282"/>
-      <c r="AB57" s="283"/>
-      <c r="AC57" s="283"/>
-      <c r="AD57" s="284"/>
-      <c r="AE57" s="285"/>
-      <c r="AF57" s="286"/>
-      <c r="AG57" s="286"/>
-      <c r="AH57" s="286"/>
-      <c r="AI57" s="287"/>
-      <c r="AJ57" s="282"/>
-      <c r="AK57" s="283"/>
-      <c r="AL57" s="283"/>
-      <c r="AM57" s="284"/>
-      <c r="AN57" s="285"/>
-      <c r="AO57" s="286"/>
-      <c r="AP57" s="286"/>
-      <c r="AQ57" s="286"/>
-      <c r="AR57" s="287"/>
-      <c r="AS57" s="282"/>
-      <c r="AT57" s="283"/>
-      <c r="AU57" s="283"/>
-      <c r="AV57" s="284"/>
+      <c r="B57" s="296"/>
+      <c r="C57" s="297"/>
+      <c r="D57" s="275"/>
+      <c r="E57" s="276"/>
+      <c r="F57" s="276"/>
+      <c r="G57" s="276"/>
+      <c r="H57" s="277"/>
+      <c r="I57" s="308"/>
+      <c r="J57" s="309"/>
+      <c r="K57" s="309"/>
+      <c r="L57" s="309"/>
+      <c r="M57" s="309"/>
+      <c r="N57" s="309"/>
+      <c r="O57" s="309"/>
+      <c r="P57" s="309"/>
+      <c r="Q57" s="309"/>
+      <c r="R57" s="309"/>
+      <c r="S57" s="309"/>
+      <c r="T57" s="309"/>
+      <c r="U57" s="309"/>
+      <c r="V57" s="309"/>
+      <c r="W57" s="309"/>
+      <c r="X57" s="309"/>
+      <c r="Y57" s="309"/>
+      <c r="Z57" s="310"/>
+      <c r="AA57" s="272"/>
+      <c r="AB57" s="273"/>
+      <c r="AC57" s="273"/>
+      <c r="AD57" s="274"/>
+      <c r="AE57" s="275"/>
+      <c r="AF57" s="276"/>
+      <c r="AG57" s="276"/>
+      <c r="AH57" s="276"/>
+      <c r="AI57" s="277"/>
+      <c r="AJ57" s="272"/>
+      <c r="AK57" s="273"/>
+      <c r="AL57" s="273"/>
+      <c r="AM57" s="274"/>
+      <c r="AN57" s="275"/>
+      <c r="AO57" s="276"/>
+      <c r="AP57" s="276"/>
+      <c r="AQ57" s="276"/>
+      <c r="AR57" s="277"/>
+      <c r="AS57" s="272"/>
+      <c r="AT57" s="273"/>
+      <c r="AU57" s="273"/>
+      <c r="AV57" s="274"/>
       <c r="AW57" s="163"/>
     </row>
     <row r="58" spans="1:49" ht="13.5" customHeight="1">
       <c r="A58" s="21"/>
-      <c r="B58" s="306"/>
-      <c r="C58" s="307"/>
-      <c r="D58" s="285"/>
-      <c r="E58" s="286"/>
-      <c r="F58" s="286"/>
-      <c r="G58" s="286"/>
-      <c r="H58" s="287"/>
-      <c r="I58" s="324"/>
-      <c r="J58" s="325"/>
-      <c r="K58" s="325"/>
-      <c r="L58" s="325"/>
-      <c r="M58" s="325"/>
-      <c r="N58" s="325"/>
-      <c r="O58" s="325"/>
-      <c r="P58" s="325"/>
-      <c r="Q58" s="325"/>
-      <c r="R58" s="325"/>
-      <c r="S58" s="325"/>
-      <c r="T58" s="325"/>
-      <c r="U58" s="325"/>
-      <c r="V58" s="325"/>
-      <c r="W58" s="325"/>
-      <c r="X58" s="325"/>
-      <c r="Y58" s="325"/>
-      <c r="Z58" s="326"/>
-      <c r="AA58" s="282"/>
-      <c r="AB58" s="283"/>
-      <c r="AC58" s="283"/>
-      <c r="AD58" s="284"/>
-      <c r="AE58" s="285"/>
-      <c r="AF58" s="286"/>
-      <c r="AG58" s="286"/>
-      <c r="AH58" s="286"/>
-      <c r="AI58" s="287"/>
-      <c r="AJ58" s="282"/>
-      <c r="AK58" s="283"/>
-      <c r="AL58" s="283"/>
-      <c r="AM58" s="284"/>
-      <c r="AN58" s="285"/>
-      <c r="AO58" s="286"/>
-      <c r="AP58" s="286"/>
-      <c r="AQ58" s="286"/>
-      <c r="AR58" s="287"/>
-      <c r="AS58" s="282"/>
-      <c r="AT58" s="283"/>
-      <c r="AU58" s="283"/>
-      <c r="AV58" s="284"/>
+      <c r="B58" s="296"/>
+      <c r="C58" s="297"/>
+      <c r="D58" s="275"/>
+      <c r="E58" s="276"/>
+      <c r="F58" s="276"/>
+      <c r="G58" s="276"/>
+      <c r="H58" s="277"/>
+      <c r="I58" s="308"/>
+      <c r="J58" s="309"/>
+      <c r="K58" s="309"/>
+      <c r="L58" s="309"/>
+      <c r="M58" s="309"/>
+      <c r="N58" s="309"/>
+      <c r="O58" s="309"/>
+      <c r="P58" s="309"/>
+      <c r="Q58" s="309"/>
+      <c r="R58" s="309"/>
+      <c r="S58" s="309"/>
+      <c r="T58" s="309"/>
+      <c r="U58" s="309"/>
+      <c r="V58" s="309"/>
+      <c r="W58" s="309"/>
+      <c r="X58" s="309"/>
+      <c r="Y58" s="309"/>
+      <c r="Z58" s="310"/>
+      <c r="AA58" s="272"/>
+      <c r="AB58" s="273"/>
+      <c r="AC58" s="273"/>
+      <c r="AD58" s="274"/>
+      <c r="AE58" s="275"/>
+      <c r="AF58" s="276"/>
+      <c r="AG58" s="276"/>
+      <c r="AH58" s="276"/>
+      <c r="AI58" s="277"/>
+      <c r="AJ58" s="272"/>
+      <c r="AK58" s="273"/>
+      <c r="AL58" s="273"/>
+      <c r="AM58" s="274"/>
+      <c r="AN58" s="275"/>
+      <c r="AO58" s="276"/>
+      <c r="AP58" s="276"/>
+      <c r="AQ58" s="276"/>
+      <c r="AR58" s="277"/>
+      <c r="AS58" s="272"/>
+      <c r="AT58" s="273"/>
+      <c r="AU58" s="273"/>
+      <c r="AV58" s="274"/>
       <c r="AW58" s="163"/>
     </row>
     <row r="59" spans="1:49" ht="13.5" customHeight="1">
       <c r="A59" s="21"/>
-      <c r="B59" s="211"/>
-      <c r="C59" s="212"/>
-      <c r="D59" s="199"/>
-      <c r="E59" s="200"/>
-      <c r="F59" s="200"/>
-      <c r="G59" s="200"/>
-      <c r="H59" s="201"/>
-      <c r="I59" s="213"/>
-      <c r="J59" s="214"/>
-      <c r="K59" s="214"/>
-      <c r="L59" s="214"/>
-      <c r="M59" s="214"/>
-      <c r="N59" s="214"/>
-      <c r="O59" s="214"/>
-      <c r="P59" s="214"/>
-      <c r="Q59" s="214"/>
-      <c r="R59" s="214"/>
-      <c r="S59" s="214"/>
-      <c r="T59" s="214"/>
-      <c r="U59" s="214"/>
-      <c r="V59" s="214"/>
-      <c r="W59" s="214"/>
-      <c r="X59" s="214"/>
-      <c r="Y59" s="214"/>
-      <c r="Z59" s="215"/>
-      <c r="AA59" s="205"/>
-      <c r="AB59" s="206"/>
-      <c r="AC59" s="206"/>
-      <c r="AD59" s="207"/>
-      <c r="AE59" s="199"/>
-      <c r="AF59" s="200"/>
-      <c r="AG59" s="200"/>
-      <c r="AH59" s="200"/>
-      <c r="AI59" s="201"/>
-      <c r="AJ59" s="205"/>
-      <c r="AK59" s="206"/>
-      <c r="AL59" s="206"/>
-      <c r="AM59" s="207"/>
-      <c r="AN59" s="199"/>
-      <c r="AO59" s="200"/>
-      <c r="AP59" s="200"/>
-      <c r="AQ59" s="200"/>
-      <c r="AR59" s="201"/>
-      <c r="AS59" s="205"/>
-      <c r="AT59" s="206"/>
-      <c r="AU59" s="206"/>
-      <c r="AV59" s="207"/>
+      <c r="B59" s="210"/>
+      <c r="C59" s="211"/>
+      <c r="D59" s="198"/>
+      <c r="E59" s="199"/>
+      <c r="F59" s="199"/>
+      <c r="G59" s="199"/>
+      <c r="H59" s="200"/>
+      <c r="I59" s="212"/>
+      <c r="J59" s="213"/>
+      <c r="K59" s="213"/>
+      <c r="L59" s="213"/>
+      <c r="M59" s="213"/>
+      <c r="N59" s="213"/>
+      <c r="O59" s="213"/>
+      <c r="P59" s="213"/>
+      <c r="Q59" s="213"/>
+      <c r="R59" s="213"/>
+      <c r="S59" s="213"/>
+      <c r="T59" s="213"/>
+      <c r="U59" s="213"/>
+      <c r="V59" s="213"/>
+      <c r="W59" s="213"/>
+      <c r="X59" s="213"/>
+      <c r="Y59" s="213"/>
+      <c r="Z59" s="214"/>
+      <c r="AA59" s="204"/>
+      <c r="AB59" s="205"/>
+      <c r="AC59" s="205"/>
+      <c r="AD59" s="206"/>
+      <c r="AE59" s="198"/>
+      <c r="AF59" s="199"/>
+      <c r="AG59" s="199"/>
+      <c r="AH59" s="199"/>
+      <c r="AI59" s="200"/>
+      <c r="AJ59" s="204"/>
+      <c r="AK59" s="205"/>
+      <c r="AL59" s="205"/>
+      <c r="AM59" s="206"/>
+      <c r="AN59" s="198"/>
+      <c r="AO59" s="199"/>
+      <c r="AP59" s="199"/>
+      <c r="AQ59" s="199"/>
+      <c r="AR59" s="200"/>
+      <c r="AS59" s="204"/>
+      <c r="AT59" s="205"/>
+      <c r="AU59" s="205"/>
+      <c r="AV59" s="206"/>
       <c r="AW59" s="163"/>
     </row>
     <row r="60" spans="1:49" ht="13.5" customHeight="1">
       <c r="A60" s="21"/>
-      <c r="B60" s="211"/>
-      <c r="C60" s="212"/>
-      <c r="D60" s="199"/>
-      <c r="E60" s="200"/>
-      <c r="F60" s="200"/>
-      <c r="G60" s="200"/>
-      <c r="H60" s="201"/>
-      <c r="I60" s="213"/>
-      <c r="J60" s="214"/>
-      <c r="K60" s="214"/>
-      <c r="L60" s="214"/>
-      <c r="M60" s="214"/>
-      <c r="N60" s="214"/>
-      <c r="O60" s="214"/>
-      <c r="P60" s="214"/>
-      <c r="Q60" s="214"/>
-      <c r="R60" s="214"/>
-      <c r="S60" s="214"/>
-      <c r="T60" s="214"/>
-      <c r="U60" s="214"/>
-      <c r="V60" s="214"/>
-      <c r="W60" s="214"/>
-      <c r="X60" s="214"/>
-      <c r="Y60" s="214"/>
-      <c r="Z60" s="215"/>
-      <c r="AA60" s="205"/>
-      <c r="AB60" s="206"/>
-      <c r="AC60" s="206"/>
-      <c r="AD60" s="207"/>
-      <c r="AE60" s="199"/>
-      <c r="AF60" s="200"/>
-      <c r="AG60" s="200"/>
-      <c r="AH60" s="200"/>
-      <c r="AI60" s="201"/>
-      <c r="AJ60" s="205"/>
-      <c r="AK60" s="206"/>
-      <c r="AL60" s="206"/>
-      <c r="AM60" s="207"/>
-      <c r="AN60" s="199"/>
-      <c r="AO60" s="200"/>
-      <c r="AP60" s="200"/>
-      <c r="AQ60" s="200"/>
-      <c r="AR60" s="201"/>
-      <c r="AS60" s="205"/>
-      <c r="AT60" s="206"/>
-      <c r="AU60" s="206"/>
-      <c r="AV60" s="207"/>
+      <c r="B60" s="210"/>
+      <c r="C60" s="211"/>
+      <c r="D60" s="198"/>
+      <c r="E60" s="199"/>
+      <c r="F60" s="199"/>
+      <c r="G60" s="199"/>
+      <c r="H60" s="200"/>
+      <c r="I60" s="212"/>
+      <c r="J60" s="213"/>
+      <c r="K60" s="213"/>
+      <c r="L60" s="213"/>
+      <c r="M60" s="213"/>
+      <c r="N60" s="213"/>
+      <c r="O60" s="213"/>
+      <c r="P60" s="213"/>
+      <c r="Q60" s="213"/>
+      <c r="R60" s="213"/>
+      <c r="S60" s="213"/>
+      <c r="T60" s="213"/>
+      <c r="U60" s="213"/>
+      <c r="V60" s="213"/>
+      <c r="W60" s="213"/>
+      <c r="X60" s="213"/>
+      <c r="Y60" s="213"/>
+      <c r="Z60" s="214"/>
+      <c r="AA60" s="204"/>
+      <c r="AB60" s="205"/>
+      <c r="AC60" s="205"/>
+      <c r="AD60" s="206"/>
+      <c r="AE60" s="198"/>
+      <c r="AF60" s="199"/>
+      <c r="AG60" s="199"/>
+      <c r="AH60" s="199"/>
+      <c r="AI60" s="200"/>
+      <c r="AJ60" s="204"/>
+      <c r="AK60" s="205"/>
+      <c r="AL60" s="205"/>
+      <c r="AM60" s="206"/>
+      <c r="AN60" s="198"/>
+      <c r="AO60" s="199"/>
+      <c r="AP60" s="199"/>
+      <c r="AQ60" s="199"/>
+      <c r="AR60" s="200"/>
+      <c r="AS60" s="204"/>
+      <c r="AT60" s="205"/>
+      <c r="AU60" s="205"/>
+      <c r="AV60" s="206"/>
       <c r="AW60" s="163"/>
     </row>
     <row r="61" spans="1:49" ht="13.5" customHeight="1">
       <c r="A61" s="21"/>
-      <c r="B61" s="211"/>
-      <c r="C61" s="212"/>
-      <c r="D61" s="199"/>
-      <c r="E61" s="200"/>
-      <c r="F61" s="200"/>
-      <c r="G61" s="200"/>
-      <c r="H61" s="201"/>
-      <c r="I61" s="213"/>
-      <c r="J61" s="214"/>
-      <c r="K61" s="214"/>
-      <c r="L61" s="214"/>
-      <c r="M61" s="214"/>
-      <c r="N61" s="214"/>
-      <c r="O61" s="214"/>
-      <c r="P61" s="214"/>
-      <c r="Q61" s="214"/>
-      <c r="R61" s="214"/>
-      <c r="S61" s="214"/>
-      <c r="T61" s="214"/>
-      <c r="U61" s="214"/>
-      <c r="V61" s="214"/>
-      <c r="W61" s="214"/>
-      <c r="X61" s="214"/>
-      <c r="Y61" s="214"/>
-      <c r="Z61" s="215"/>
-      <c r="AA61" s="205"/>
-      <c r="AB61" s="206"/>
-      <c r="AC61" s="206"/>
-      <c r="AD61" s="207"/>
-      <c r="AE61" s="199"/>
-      <c r="AF61" s="200"/>
-      <c r="AG61" s="200"/>
-      <c r="AH61" s="200"/>
-      <c r="AI61" s="201"/>
-      <c r="AJ61" s="205"/>
-      <c r="AK61" s="206"/>
-      <c r="AL61" s="206"/>
-      <c r="AM61" s="207"/>
-      <c r="AN61" s="199"/>
-      <c r="AO61" s="200"/>
-      <c r="AP61" s="200"/>
-      <c r="AQ61" s="200"/>
-      <c r="AR61" s="201"/>
-      <c r="AS61" s="205"/>
-      <c r="AT61" s="206"/>
-      <c r="AU61" s="206"/>
-      <c r="AV61" s="207"/>
+      <c r="B61" s="210"/>
+      <c r="C61" s="211"/>
+      <c r="D61" s="198"/>
+      <c r="E61" s="199"/>
+      <c r="F61" s="199"/>
+      <c r="G61" s="199"/>
+      <c r="H61" s="200"/>
+      <c r="I61" s="212"/>
+      <c r="J61" s="213"/>
+      <c r="K61" s="213"/>
+      <c r="L61" s="213"/>
+      <c r="M61" s="213"/>
+      <c r="N61" s="213"/>
+      <c r="O61" s="213"/>
+      <c r="P61" s="213"/>
+      <c r="Q61" s="213"/>
+      <c r="R61" s="213"/>
+      <c r="S61" s="213"/>
+      <c r="T61" s="213"/>
+      <c r="U61" s="213"/>
+      <c r="V61" s="213"/>
+      <c r="W61" s="213"/>
+      <c r="X61" s="213"/>
+      <c r="Y61" s="213"/>
+      <c r="Z61" s="214"/>
+      <c r="AA61" s="204"/>
+      <c r="AB61" s="205"/>
+      <c r="AC61" s="205"/>
+      <c r="AD61" s="206"/>
+      <c r="AE61" s="198"/>
+      <c r="AF61" s="199"/>
+      <c r="AG61" s="199"/>
+      <c r="AH61" s="199"/>
+      <c r="AI61" s="200"/>
+      <c r="AJ61" s="204"/>
+      <c r="AK61" s="205"/>
+      <c r="AL61" s="205"/>
+      <c r="AM61" s="206"/>
+      <c r="AN61" s="198"/>
+      <c r="AO61" s="199"/>
+      <c r="AP61" s="199"/>
+      <c r="AQ61" s="199"/>
+      <c r="AR61" s="200"/>
+      <c r="AS61" s="204"/>
+      <c r="AT61" s="205"/>
+      <c r="AU61" s="205"/>
+      <c r="AV61" s="206"/>
       <c r="AW61" s="163"/>
     </row>
     <row r="62" spans="1:49" ht="13.5" customHeight="1">
       <c r="A62" s="21"/>
-      <c r="B62" s="211"/>
-      <c r="C62" s="212"/>
-      <c r="D62" s="199"/>
-      <c r="E62" s="200"/>
-      <c r="F62" s="200"/>
-      <c r="G62" s="200"/>
-      <c r="H62" s="201"/>
-      <c r="I62" s="213"/>
-      <c r="J62" s="214"/>
-      <c r="K62" s="214"/>
-      <c r="L62" s="214"/>
-      <c r="M62" s="214"/>
-      <c r="N62" s="214"/>
-      <c r="O62" s="214"/>
-      <c r="P62" s="214"/>
-      <c r="Q62" s="214"/>
-      <c r="R62" s="214"/>
-      <c r="S62" s="214"/>
-      <c r="T62" s="214"/>
-      <c r="U62" s="214"/>
-      <c r="V62" s="214"/>
-      <c r="W62" s="214"/>
-      <c r="X62" s="214"/>
-      <c r="Y62" s="214"/>
-      <c r="Z62" s="215"/>
-      <c r="AA62" s="205"/>
-      <c r="AB62" s="206"/>
-      <c r="AC62" s="206"/>
-      <c r="AD62" s="207"/>
-      <c r="AE62" s="199"/>
-      <c r="AF62" s="200"/>
-      <c r="AG62" s="200"/>
-      <c r="AH62" s="200"/>
-      <c r="AI62" s="201"/>
-      <c r="AJ62" s="205"/>
-      <c r="AK62" s="206"/>
-      <c r="AL62" s="206"/>
-      <c r="AM62" s="207"/>
-      <c r="AN62" s="199"/>
-      <c r="AO62" s="200"/>
-      <c r="AP62" s="200"/>
-      <c r="AQ62" s="200"/>
-      <c r="AR62" s="201"/>
-      <c r="AS62" s="205"/>
-      <c r="AT62" s="206"/>
-      <c r="AU62" s="206"/>
-      <c r="AV62" s="207"/>
+      <c r="B62" s="210"/>
+      <c r="C62" s="211"/>
+      <c r="D62" s="198"/>
+      <c r="E62" s="199"/>
+      <c r="F62" s="199"/>
+      <c r="G62" s="199"/>
+      <c r="H62" s="200"/>
+      <c r="I62" s="212"/>
+      <c r="J62" s="213"/>
+      <c r="K62" s="213"/>
+      <c r="L62" s="213"/>
+      <c r="M62" s="213"/>
+      <c r="N62" s="213"/>
+      <c r="O62" s="213"/>
+      <c r="P62" s="213"/>
+      <c r="Q62" s="213"/>
+      <c r="R62" s="213"/>
+      <c r="S62" s="213"/>
+      <c r="T62" s="213"/>
+      <c r="U62" s="213"/>
+      <c r="V62" s="213"/>
+      <c r="W62" s="213"/>
+      <c r="X62" s="213"/>
+      <c r="Y62" s="213"/>
+      <c r="Z62" s="214"/>
+      <c r="AA62" s="204"/>
+      <c r="AB62" s="205"/>
+      <c r="AC62" s="205"/>
+      <c r="AD62" s="206"/>
+      <c r="AE62" s="198"/>
+      <c r="AF62" s="199"/>
+      <c r="AG62" s="199"/>
+      <c r="AH62" s="199"/>
+      <c r="AI62" s="200"/>
+      <c r="AJ62" s="204"/>
+      <c r="AK62" s="205"/>
+      <c r="AL62" s="205"/>
+      <c r="AM62" s="206"/>
+      <c r="AN62" s="198"/>
+      <c r="AO62" s="199"/>
+      <c r="AP62" s="199"/>
+      <c r="AQ62" s="199"/>
+      <c r="AR62" s="200"/>
+      <c r="AS62" s="204"/>
+      <c r="AT62" s="205"/>
+      <c r="AU62" s="205"/>
+      <c r="AV62" s="206"/>
       <c r="AW62" s="163"/>
     </row>
     <row r="63" spans="1:49" ht="13.5" customHeight="1">
       <c r="A63" s="21"/>
-      <c r="B63" s="211"/>
-      <c r="C63" s="212"/>
-      <c r="D63" s="199"/>
-      <c r="E63" s="200"/>
-      <c r="F63" s="200"/>
-      <c r="G63" s="200"/>
-      <c r="H63" s="201"/>
-      <c r="I63" s="213"/>
-      <c r="J63" s="214"/>
-      <c r="K63" s="214"/>
-      <c r="L63" s="214"/>
-      <c r="M63" s="214"/>
-      <c r="N63" s="214"/>
-      <c r="O63" s="214"/>
-      <c r="P63" s="214"/>
-      <c r="Q63" s="214"/>
-      <c r="R63" s="214"/>
-      <c r="S63" s="214"/>
-      <c r="T63" s="214"/>
-      <c r="U63" s="214"/>
-      <c r="V63" s="214"/>
-      <c r="W63" s="214"/>
-      <c r="X63" s="214"/>
-      <c r="Y63" s="214"/>
-      <c r="Z63" s="215"/>
-      <c r="AA63" s="205"/>
-      <c r="AB63" s="206"/>
-      <c r="AC63" s="206"/>
-      <c r="AD63" s="207"/>
-      <c r="AE63" s="199"/>
-      <c r="AF63" s="200"/>
-      <c r="AG63" s="200"/>
-      <c r="AH63" s="200"/>
-      <c r="AI63" s="201"/>
-      <c r="AJ63" s="205"/>
-      <c r="AK63" s="206"/>
-      <c r="AL63" s="206"/>
-      <c r="AM63" s="207"/>
-      <c r="AN63" s="199"/>
-      <c r="AO63" s="200"/>
-      <c r="AP63" s="200"/>
-      <c r="AQ63" s="200"/>
-      <c r="AR63" s="201"/>
-      <c r="AS63" s="205"/>
-      <c r="AT63" s="206"/>
-      <c r="AU63" s="206"/>
-      <c r="AV63" s="207"/>
+      <c r="B63" s="210"/>
+      <c r="C63" s="211"/>
+      <c r="D63" s="198"/>
+      <c r="E63" s="199"/>
+      <c r="F63" s="199"/>
+      <c r="G63" s="199"/>
+      <c r="H63" s="200"/>
+      <c r="I63" s="212"/>
+      <c r="J63" s="213"/>
+      <c r="K63" s="213"/>
+      <c r="L63" s="213"/>
+      <c r="M63" s="213"/>
+      <c r="N63" s="213"/>
+      <c r="O63" s="213"/>
+      <c r="P63" s="213"/>
+      <c r="Q63" s="213"/>
+      <c r="R63" s="213"/>
+      <c r="S63" s="213"/>
+      <c r="T63" s="213"/>
+      <c r="U63" s="213"/>
+      <c r="V63" s="213"/>
+      <c r="W63" s="213"/>
+      <c r="X63" s="213"/>
+      <c r="Y63" s="213"/>
+      <c r="Z63" s="214"/>
+      <c r="AA63" s="204"/>
+      <c r="AB63" s="205"/>
+      <c r="AC63" s="205"/>
+      <c r="AD63" s="206"/>
+      <c r="AE63" s="198"/>
+      <c r="AF63" s="199"/>
+      <c r="AG63" s="199"/>
+      <c r="AH63" s="199"/>
+      <c r="AI63" s="200"/>
+      <c r="AJ63" s="204"/>
+      <c r="AK63" s="205"/>
+      <c r="AL63" s="205"/>
+      <c r="AM63" s="206"/>
+      <c r="AN63" s="198"/>
+      <c r="AO63" s="199"/>
+      <c r="AP63" s="199"/>
+      <c r="AQ63" s="199"/>
+      <c r="AR63" s="200"/>
+      <c r="AS63" s="204"/>
+      <c r="AT63" s="205"/>
+      <c r="AU63" s="205"/>
+      <c r="AV63" s="206"/>
       <c r="AW63" s="163"/>
     </row>
     <row r="64" spans="1:49" ht="13.5" customHeight="1">
       <c r="A64" s="21"/>
-      <c r="B64" s="211"/>
-      <c r="C64" s="212"/>
-      <c r="D64" s="199"/>
-      <c r="E64" s="200"/>
-      <c r="F64" s="200"/>
-      <c r="G64" s="200"/>
-      <c r="H64" s="201"/>
-      <c r="I64" s="213"/>
-      <c r="J64" s="214"/>
-      <c r="K64" s="214"/>
-      <c r="L64" s="214"/>
-      <c r="M64" s="214"/>
-      <c r="N64" s="214"/>
-      <c r="O64" s="214"/>
-      <c r="P64" s="214"/>
-      <c r="Q64" s="214"/>
-      <c r="R64" s="214"/>
-      <c r="S64" s="214"/>
-      <c r="T64" s="214"/>
-      <c r="U64" s="214"/>
-      <c r="V64" s="214"/>
-      <c r="W64" s="214"/>
-      <c r="X64" s="214"/>
-      <c r="Y64" s="214"/>
-      <c r="Z64" s="215"/>
-      <c r="AA64" s="205"/>
-      <c r="AB64" s="206"/>
-      <c r="AC64" s="206"/>
-      <c r="AD64" s="207"/>
-      <c r="AE64" s="199"/>
-      <c r="AF64" s="200"/>
-      <c r="AG64" s="200"/>
-      <c r="AH64" s="200"/>
-      <c r="AI64" s="201"/>
-      <c r="AJ64" s="205"/>
-      <c r="AK64" s="206"/>
-      <c r="AL64" s="206"/>
-      <c r="AM64" s="207"/>
-      <c r="AN64" s="199"/>
-      <c r="AO64" s="200"/>
-      <c r="AP64" s="200"/>
-      <c r="AQ64" s="200"/>
-      <c r="AR64" s="201"/>
-      <c r="AS64" s="205"/>
-      <c r="AT64" s="206"/>
-      <c r="AU64" s="206"/>
-      <c r="AV64" s="207"/>
+      <c r="B64" s="210"/>
+      <c r="C64" s="211"/>
+      <c r="D64" s="198"/>
+      <c r="E64" s="199"/>
+      <c r="F64" s="199"/>
+      <c r="G64" s="199"/>
+      <c r="H64" s="200"/>
+      <c r="I64" s="212"/>
+      <c r="J64" s="213"/>
+      <c r="K64" s="213"/>
+      <c r="L64" s="213"/>
+      <c r="M64" s="213"/>
+      <c r="N64" s="213"/>
+      <c r="O64" s="213"/>
+      <c r="P64" s="213"/>
+      <c r="Q64" s="213"/>
+      <c r="R64" s="213"/>
+      <c r="S64" s="213"/>
+      <c r="T64" s="213"/>
+      <c r="U64" s="213"/>
+      <c r="V64" s="213"/>
+      <c r="W64" s="213"/>
+      <c r="X64" s="213"/>
+      <c r="Y64" s="213"/>
+      <c r="Z64" s="214"/>
+      <c r="AA64" s="204"/>
+      <c r="AB64" s="205"/>
+      <c r="AC64" s="205"/>
+      <c r="AD64" s="206"/>
+      <c r="AE64" s="198"/>
+      <c r="AF64" s="199"/>
+      <c r="AG64" s="199"/>
+      <c r="AH64" s="199"/>
+      <c r="AI64" s="200"/>
+      <c r="AJ64" s="204"/>
+      <c r="AK64" s="205"/>
+      <c r="AL64" s="205"/>
+      <c r="AM64" s="206"/>
+      <c r="AN64" s="198"/>
+      <c r="AO64" s="199"/>
+      <c r="AP64" s="199"/>
+      <c r="AQ64" s="199"/>
+      <c r="AR64" s="200"/>
+      <c r="AS64" s="204"/>
+      <c r="AT64" s="205"/>
+      <c r="AU64" s="205"/>
+      <c r="AV64" s="206"/>
       <c r="AW64" s="163"/>
     </row>
     <row r="65" spans="1:49" ht="13.5" customHeight="1">
       <c r="A65" s="21"/>
-      <c r="B65" s="211"/>
-      <c r="C65" s="212"/>
-      <c r="D65" s="199"/>
-      <c r="E65" s="200"/>
-      <c r="F65" s="200"/>
-      <c r="G65" s="200"/>
-      <c r="H65" s="201"/>
-      <c r="I65" s="213"/>
-      <c r="J65" s="214"/>
-      <c r="K65" s="214"/>
-      <c r="L65" s="214"/>
-      <c r="M65" s="214"/>
-      <c r="N65" s="214"/>
-      <c r="O65" s="214"/>
-      <c r="P65" s="214"/>
-      <c r="Q65" s="214"/>
-      <c r="R65" s="214"/>
-      <c r="S65" s="214"/>
-      <c r="T65" s="214"/>
-      <c r="U65" s="214"/>
-      <c r="V65" s="214"/>
-      <c r="W65" s="214"/>
-      <c r="X65" s="214"/>
-      <c r="Y65" s="214"/>
-      <c r="Z65" s="215"/>
-      <c r="AA65" s="205"/>
-      <c r="AB65" s="206"/>
-      <c r="AC65" s="206"/>
-      <c r="AD65" s="207"/>
-      <c r="AE65" s="199"/>
-      <c r="AF65" s="200"/>
-      <c r="AG65" s="200"/>
-      <c r="AH65" s="200"/>
-      <c r="AI65" s="201"/>
-      <c r="AJ65" s="205"/>
-      <c r="AK65" s="206"/>
-      <c r="AL65" s="206"/>
-      <c r="AM65" s="207"/>
-      <c r="AN65" s="199"/>
-      <c r="AO65" s="200"/>
-      <c r="AP65" s="200"/>
-      <c r="AQ65" s="200"/>
-      <c r="AR65" s="201"/>
-      <c r="AS65" s="205"/>
-      <c r="AT65" s="206"/>
-      <c r="AU65" s="206"/>
-      <c r="AV65" s="207"/>
+      <c r="B65" s="210"/>
+      <c r="C65" s="211"/>
+      <c r="D65" s="198"/>
+      <c r="E65" s="199"/>
+      <c r="F65" s="199"/>
+      <c r="G65" s="199"/>
+      <c r="H65" s="200"/>
+      <c r="I65" s="212"/>
+      <c r="J65" s="213"/>
+      <c r="K65" s="213"/>
+      <c r="L65" s="213"/>
+      <c r="M65" s="213"/>
+      <c r="N65" s="213"/>
+      <c r="O65" s="213"/>
+      <c r="P65" s="213"/>
+      <c r="Q65" s="213"/>
+      <c r="R65" s="213"/>
+      <c r="S65" s="213"/>
+      <c r="T65" s="213"/>
+      <c r="U65" s="213"/>
+      <c r="V65" s="213"/>
+      <c r="W65" s="213"/>
+      <c r="X65" s="213"/>
+      <c r="Y65" s="213"/>
+      <c r="Z65" s="214"/>
+      <c r="AA65" s="204"/>
+      <c r="AB65" s="205"/>
+      <c r="AC65" s="205"/>
+      <c r="AD65" s="206"/>
+      <c r="AE65" s="198"/>
+      <c r="AF65" s="199"/>
+      <c r="AG65" s="199"/>
+      <c r="AH65" s="199"/>
+      <c r="AI65" s="200"/>
+      <c r="AJ65" s="204"/>
+      <c r="AK65" s="205"/>
+      <c r="AL65" s="205"/>
+      <c r="AM65" s="206"/>
+      <c r="AN65" s="198"/>
+      <c r="AO65" s="199"/>
+      <c r="AP65" s="199"/>
+      <c r="AQ65" s="199"/>
+      <c r="AR65" s="200"/>
+      <c r="AS65" s="204"/>
+      <c r="AT65" s="205"/>
+      <c r="AU65" s="205"/>
+      <c r="AV65" s="206"/>
       <c r="AW65" s="163"/>
     </row>
     <row r="66" spans="1:49" ht="13.5" customHeight="1">
       <c r="A66" s="21"/>
-      <c r="B66" s="211"/>
-      <c r="C66" s="212"/>
-      <c r="D66" s="199"/>
-      <c r="E66" s="200"/>
-      <c r="F66" s="200"/>
-      <c r="G66" s="200"/>
-      <c r="H66" s="201"/>
-      <c r="I66" s="213"/>
-      <c r="J66" s="214"/>
-      <c r="K66" s="214"/>
-      <c r="L66" s="214"/>
-      <c r="M66" s="214"/>
-      <c r="N66" s="214"/>
-      <c r="O66" s="214"/>
-      <c r="P66" s="214"/>
-      <c r="Q66" s="214"/>
-      <c r="R66" s="214"/>
-      <c r="S66" s="214"/>
-      <c r="T66" s="214"/>
-      <c r="U66" s="214"/>
-      <c r="V66" s="214"/>
-      <c r="W66" s="214"/>
-      <c r="X66" s="214"/>
-      <c r="Y66" s="214"/>
-      <c r="Z66" s="215"/>
-      <c r="AA66" s="205"/>
-      <c r="AB66" s="206"/>
-      <c r="AC66" s="206"/>
-      <c r="AD66" s="207"/>
-      <c r="AE66" s="199"/>
-      <c r="AF66" s="200"/>
-      <c r="AG66" s="200"/>
-      <c r="AH66" s="200"/>
-      <c r="AI66" s="201"/>
-      <c r="AJ66" s="205"/>
-      <c r="AK66" s="206"/>
-      <c r="AL66" s="206"/>
-      <c r="AM66" s="207"/>
-      <c r="AN66" s="199"/>
-      <c r="AO66" s="200"/>
-      <c r="AP66" s="200"/>
-      <c r="AQ66" s="200"/>
-      <c r="AR66" s="201"/>
-      <c r="AS66" s="205"/>
-      <c r="AT66" s="206"/>
-      <c r="AU66" s="206"/>
-      <c r="AV66" s="207"/>
+      <c r="B66" s="210"/>
+      <c r="C66" s="211"/>
+      <c r="D66" s="198"/>
+      <c r="E66" s="199"/>
+      <c r="F66" s="199"/>
+      <c r="G66" s="199"/>
+      <c r="H66" s="200"/>
+      <c r="I66" s="212"/>
+      <c r="J66" s="213"/>
+      <c r="K66" s="213"/>
+      <c r="L66" s="213"/>
+      <c r="M66" s="213"/>
+      <c r="N66" s="213"/>
+      <c r="O66" s="213"/>
+      <c r="P66" s="213"/>
+      <c r="Q66" s="213"/>
+      <c r="R66" s="213"/>
+      <c r="S66" s="213"/>
+      <c r="T66" s="213"/>
+      <c r="U66" s="213"/>
+      <c r="V66" s="213"/>
+      <c r="W66" s="213"/>
+      <c r="X66" s="213"/>
+      <c r="Y66" s="213"/>
+      <c r="Z66" s="214"/>
+      <c r="AA66" s="204"/>
+      <c r="AB66" s="205"/>
+      <c r="AC66" s="205"/>
+      <c r="AD66" s="206"/>
+      <c r="AE66" s="198"/>
+      <c r="AF66" s="199"/>
+      <c r="AG66" s="199"/>
+      <c r="AH66" s="199"/>
+      <c r="AI66" s="200"/>
+      <c r="AJ66" s="204"/>
+      <c r="AK66" s="205"/>
+      <c r="AL66" s="205"/>
+      <c r="AM66" s="206"/>
+      <c r="AN66" s="198"/>
+      <c r="AO66" s="199"/>
+      <c r="AP66" s="199"/>
+      <c r="AQ66" s="199"/>
+      <c r="AR66" s="200"/>
+      <c r="AS66" s="204"/>
+      <c r="AT66" s="205"/>
+      <c r="AU66" s="205"/>
+      <c r="AV66" s="206"/>
       <c r="AW66" s="163"/>
     </row>
     <row r="67" spans="1:49" ht="13.5" customHeight="1">
       <c r="A67" s="21"/>
-      <c r="B67" s="211"/>
-      <c r="C67" s="212"/>
-      <c r="D67" s="199"/>
-      <c r="E67" s="200"/>
-      <c r="F67" s="200"/>
-      <c r="G67" s="200"/>
-      <c r="H67" s="201"/>
-      <c r="I67" s="213"/>
-      <c r="J67" s="214"/>
-      <c r="K67" s="214"/>
-      <c r="L67" s="214"/>
-      <c r="M67" s="214"/>
-      <c r="N67" s="214"/>
-      <c r="O67" s="214"/>
-      <c r="P67" s="214"/>
-      <c r="Q67" s="214"/>
-      <c r="R67" s="214"/>
-      <c r="S67" s="214"/>
-      <c r="T67" s="214"/>
-      <c r="U67" s="214"/>
-      <c r="V67" s="214"/>
-      <c r="W67" s="214"/>
-      <c r="X67" s="214"/>
-      <c r="Y67" s="214"/>
-      <c r="Z67" s="215"/>
-      <c r="AA67" s="205"/>
-      <c r="AB67" s="206"/>
-      <c r="AC67" s="206"/>
-      <c r="AD67" s="207"/>
-      <c r="AE67" s="199"/>
-      <c r="AF67" s="200"/>
-      <c r="AG67" s="200"/>
-      <c r="AH67" s="200"/>
-      <c r="AI67" s="201"/>
-      <c r="AJ67" s="205"/>
-      <c r="AK67" s="206"/>
-      <c r="AL67" s="206"/>
-      <c r="AM67" s="207"/>
-      <c r="AN67" s="199"/>
-      <c r="AO67" s="200"/>
-      <c r="AP67" s="200"/>
-      <c r="AQ67" s="200"/>
-      <c r="AR67" s="201"/>
-      <c r="AS67" s="205"/>
-      <c r="AT67" s="206"/>
-      <c r="AU67" s="206"/>
-      <c r="AV67" s="207"/>
+      <c r="B67" s="210"/>
+      <c r="C67" s="211"/>
+      <c r="D67" s="198"/>
+      <c r="E67" s="199"/>
+      <c r="F67" s="199"/>
+      <c r="G67" s="199"/>
+      <c r="H67" s="200"/>
+      <c r="I67" s="212"/>
+      <c r="J67" s="213"/>
+      <c r="K67" s="213"/>
+      <c r="L67" s="213"/>
+      <c r="M67" s="213"/>
+      <c r="N67" s="213"/>
+      <c r="O67" s="213"/>
+      <c r="P67" s="213"/>
+      <c r="Q67" s="213"/>
+      <c r="R67" s="213"/>
+      <c r="S67" s="213"/>
+      <c r="T67" s="213"/>
+      <c r="U67" s="213"/>
+      <c r="V67" s="213"/>
+      <c r="W67" s="213"/>
+      <c r="X67" s="213"/>
+      <c r="Y67" s="213"/>
+      <c r="Z67" s="214"/>
+      <c r="AA67" s="204"/>
+      <c r="AB67" s="205"/>
+      <c r="AC67" s="205"/>
+      <c r="AD67" s="206"/>
+      <c r="AE67" s="198"/>
+      <c r="AF67" s="199"/>
+      <c r="AG67" s="199"/>
+      <c r="AH67" s="199"/>
+      <c r="AI67" s="200"/>
+      <c r="AJ67" s="204"/>
+      <c r="AK67" s="205"/>
+      <c r="AL67" s="205"/>
+      <c r="AM67" s="206"/>
+      <c r="AN67" s="198"/>
+      <c r="AO67" s="199"/>
+      <c r="AP67" s="199"/>
+      <c r="AQ67" s="199"/>
+      <c r="AR67" s="200"/>
+      <c r="AS67" s="204"/>
+      <c r="AT67" s="205"/>
+      <c r="AU67" s="205"/>
+      <c r="AV67" s="206"/>
       <c r="AW67" s="163"/>
     </row>
     <row r="68" spans="1:49" ht="13.5" customHeight="1">
       <c r="A68" s="21"/>
-      <c r="B68" s="211"/>
-      <c r="C68" s="212"/>
-      <c r="D68" s="199"/>
-      <c r="E68" s="200"/>
-      <c r="F68" s="200"/>
-      <c r="G68" s="200"/>
-      <c r="H68" s="201"/>
-      <c r="I68" s="213"/>
-      <c r="J68" s="214"/>
-      <c r="K68" s="214"/>
-      <c r="L68" s="214"/>
-      <c r="M68" s="214"/>
-      <c r="N68" s="214"/>
-      <c r="O68" s="214"/>
-      <c r="P68" s="214"/>
-      <c r="Q68" s="214"/>
-      <c r="R68" s="214"/>
-      <c r="S68" s="214"/>
-      <c r="T68" s="214"/>
-      <c r="U68" s="214"/>
-      <c r="V68" s="214"/>
-      <c r="W68" s="214"/>
-      <c r="X68" s="214"/>
-      <c r="Y68" s="214"/>
-      <c r="Z68" s="215"/>
-      <c r="AA68" s="205"/>
-      <c r="AB68" s="206"/>
-      <c r="AC68" s="206"/>
-      <c r="AD68" s="207"/>
-      <c r="AE68" s="199"/>
-      <c r="AF68" s="200"/>
-      <c r="AG68" s="200"/>
-      <c r="AH68" s="200"/>
-      <c r="AI68" s="201"/>
-      <c r="AJ68" s="205"/>
-      <c r="AK68" s="206"/>
-      <c r="AL68" s="206"/>
-      <c r="AM68" s="207"/>
-      <c r="AN68" s="199"/>
-      <c r="AO68" s="200"/>
-      <c r="AP68" s="200"/>
-      <c r="AQ68" s="200"/>
-      <c r="AR68" s="201"/>
-      <c r="AS68" s="205"/>
-      <c r="AT68" s="206"/>
-      <c r="AU68" s="206"/>
-      <c r="AV68" s="207"/>
+      <c r="B68" s="210"/>
+      <c r="C68" s="211"/>
+      <c r="D68" s="198"/>
+      <c r="E68" s="199"/>
+      <c r="F68" s="199"/>
+      <c r="G68" s="199"/>
+      <c r="H68" s="200"/>
+      <c r="I68" s="212"/>
+      <c r="J68" s="213"/>
+      <c r="K68" s="213"/>
+      <c r="L68" s="213"/>
+      <c r="M68" s="213"/>
+      <c r="N68" s="213"/>
+      <c r="O68" s="213"/>
+      <c r="P68" s="213"/>
+      <c r="Q68" s="213"/>
+      <c r="R68" s="213"/>
+      <c r="S68" s="213"/>
+      <c r="T68" s="213"/>
+      <c r="U68" s="213"/>
+      <c r="V68" s="213"/>
+      <c r="W68" s="213"/>
+      <c r="X68" s="213"/>
+      <c r="Y68" s="213"/>
+      <c r="Z68" s="214"/>
+      <c r="AA68" s="204"/>
+      <c r="AB68" s="205"/>
+      <c r="AC68" s="205"/>
+      <c r="AD68" s="206"/>
+      <c r="AE68" s="198"/>
+      <c r="AF68" s="199"/>
+      <c r="AG68" s="199"/>
+      <c r="AH68" s="199"/>
+      <c r="AI68" s="200"/>
+      <c r="AJ68" s="204"/>
+      <c r="AK68" s="205"/>
+      <c r="AL68" s="205"/>
+      <c r="AM68" s="206"/>
+      <c r="AN68" s="198"/>
+      <c r="AO68" s="199"/>
+      <c r="AP68" s="199"/>
+      <c r="AQ68" s="199"/>
+      <c r="AR68" s="200"/>
+      <c r="AS68" s="204"/>
+      <c r="AT68" s="205"/>
+      <c r="AU68" s="205"/>
+      <c r="AV68" s="206"/>
       <c r="AW68" s="163"/>
     </row>
     <row r="69" spans="1:49" ht="13.5" customHeight="1">
       <c r="A69" s="21"/>
-      <c r="B69" s="211"/>
-      <c r="C69" s="212"/>
-      <c r="D69" s="199"/>
-      <c r="E69" s="200"/>
-      <c r="F69" s="200"/>
-      <c r="G69" s="200"/>
-      <c r="H69" s="201"/>
-      <c r="I69" s="213"/>
-      <c r="J69" s="214"/>
-      <c r="K69" s="214"/>
-      <c r="L69" s="214"/>
-      <c r="M69" s="214"/>
-      <c r="N69" s="214"/>
-      <c r="O69" s="214"/>
-      <c r="P69" s="214"/>
-      <c r="Q69" s="214"/>
-      <c r="R69" s="214"/>
-      <c r="S69" s="214"/>
-      <c r="T69" s="214"/>
-      <c r="U69" s="214"/>
-      <c r="V69" s="214"/>
-      <c r="W69" s="214"/>
-      <c r="X69" s="214"/>
-      <c r="Y69" s="214"/>
-      <c r="Z69" s="215"/>
-      <c r="AA69" s="205"/>
-      <c r="AB69" s="206"/>
-      <c r="AC69" s="206"/>
-      <c r="AD69" s="207"/>
-      <c r="AE69" s="199"/>
-      <c r="AF69" s="200"/>
-      <c r="AG69" s="200"/>
-      <c r="AH69" s="200"/>
-      <c r="AI69" s="201"/>
-      <c r="AJ69" s="205"/>
-      <c r="AK69" s="206"/>
-      <c r="AL69" s="206"/>
-      <c r="AM69" s="207"/>
-      <c r="AN69" s="199"/>
-      <c r="AO69" s="200"/>
-      <c r="AP69" s="200"/>
-      <c r="AQ69" s="200"/>
-      <c r="AR69" s="201"/>
-      <c r="AS69" s="205"/>
-      <c r="AT69" s="206"/>
-      <c r="AU69" s="206"/>
-      <c r="AV69" s="207"/>
+      <c r="B69" s="210"/>
+      <c r="C69" s="211"/>
+      <c r="D69" s="198"/>
+      <c r="E69" s="199"/>
+      <c r="F69" s="199"/>
+      <c r="G69" s="199"/>
+      <c r="H69" s="200"/>
+      <c r="I69" s="212"/>
+      <c r="J69" s="213"/>
+      <c r="K69" s="213"/>
+      <c r="L69" s="213"/>
+      <c r="M69" s="213"/>
+      <c r="N69" s="213"/>
+      <c r="O69" s="213"/>
+      <c r="P69" s="213"/>
+      <c r="Q69" s="213"/>
+      <c r="R69" s="213"/>
+      <c r="S69" s="213"/>
+      <c r="T69" s="213"/>
+      <c r="U69" s="213"/>
+      <c r="V69" s="213"/>
+      <c r="W69" s="213"/>
+      <c r="X69" s="213"/>
+      <c r="Y69" s="213"/>
+      <c r="Z69" s="214"/>
+      <c r="AA69" s="204"/>
+      <c r="AB69" s="205"/>
+      <c r="AC69" s="205"/>
+      <c r="AD69" s="206"/>
+      <c r="AE69" s="198"/>
+      <c r="AF69" s="199"/>
+      <c r="AG69" s="199"/>
+      <c r="AH69" s="199"/>
+      <c r="AI69" s="200"/>
+      <c r="AJ69" s="204"/>
+      <c r="AK69" s="205"/>
+      <c r="AL69" s="205"/>
+      <c r="AM69" s="206"/>
+      <c r="AN69" s="198"/>
+      <c r="AO69" s="199"/>
+      <c r="AP69" s="199"/>
+      <c r="AQ69" s="199"/>
+      <c r="AR69" s="200"/>
+      <c r="AS69" s="204"/>
+      <c r="AT69" s="205"/>
+      <c r="AU69" s="205"/>
+      <c r="AV69" s="206"/>
       <c r="AW69" s="163"/>
     </row>
     <row r="70" spans="1:49" ht="13.5" customHeight="1">
       <c r="A70" s="21"/>
-      <c r="B70" s="211"/>
-      <c r="C70" s="212"/>
-      <c r="D70" s="199"/>
-      <c r="E70" s="200"/>
-      <c r="F70" s="200"/>
-      <c r="G70" s="200"/>
-      <c r="H70" s="201"/>
-      <c r="I70" s="213"/>
-      <c r="J70" s="214"/>
-      <c r="K70" s="214"/>
-      <c r="L70" s="214"/>
-      <c r="M70" s="214"/>
-      <c r="N70" s="214"/>
-      <c r="O70" s="214"/>
-      <c r="P70" s="214"/>
-      <c r="Q70" s="214"/>
-      <c r="R70" s="214"/>
-      <c r="S70" s="214"/>
-      <c r="T70" s="214"/>
-      <c r="U70" s="214"/>
-      <c r="V70" s="214"/>
-      <c r="W70" s="214"/>
-      <c r="X70" s="214"/>
-      <c r="Y70" s="214"/>
-      <c r="Z70" s="215"/>
-      <c r="AA70" s="205"/>
-      <c r="AB70" s="206"/>
-      <c r="AC70" s="206"/>
-      <c r="AD70" s="207"/>
-      <c r="AE70" s="199"/>
-      <c r="AF70" s="200"/>
-      <c r="AG70" s="200"/>
-      <c r="AH70" s="200"/>
-      <c r="AI70" s="201"/>
-      <c r="AJ70" s="205"/>
-      <c r="AK70" s="206"/>
-      <c r="AL70" s="206"/>
-      <c r="AM70" s="207"/>
-      <c r="AN70" s="199"/>
-      <c r="AO70" s="200"/>
-      <c r="AP70" s="200"/>
-      <c r="AQ70" s="200"/>
-      <c r="AR70" s="201"/>
-      <c r="AS70" s="205"/>
-      <c r="AT70" s="206"/>
-      <c r="AU70" s="206"/>
-      <c r="AV70" s="207"/>
+      <c r="B70" s="210"/>
+      <c r="C70" s="211"/>
+      <c r="D70" s="198"/>
+      <c r="E70" s="199"/>
+      <c r="F70" s="199"/>
+      <c r="G70" s="199"/>
+      <c r="H70" s="200"/>
+      <c r="I70" s="212"/>
+      <c r="J70" s="213"/>
+      <c r="K70" s="213"/>
+      <c r="L70" s="213"/>
+      <c r="M70" s="213"/>
+      <c r="N70" s="213"/>
+      <c r="O70" s="213"/>
+      <c r="P70" s="213"/>
+      <c r="Q70" s="213"/>
+      <c r="R70" s="213"/>
+      <c r="S70" s="213"/>
+      <c r="T70" s="213"/>
+      <c r="U70" s="213"/>
+      <c r="V70" s="213"/>
+      <c r="W70" s="213"/>
+      <c r="X70" s="213"/>
+      <c r="Y70" s="213"/>
+      <c r="Z70" s="214"/>
+      <c r="AA70" s="204"/>
+      <c r="AB70" s="205"/>
+      <c r="AC70" s="205"/>
+      <c r="AD70" s="206"/>
+      <c r="AE70" s="198"/>
+      <c r="AF70" s="199"/>
+      <c r="AG70" s="199"/>
+      <c r="AH70" s="199"/>
+      <c r="AI70" s="200"/>
+      <c r="AJ70" s="204"/>
+      <c r="AK70" s="205"/>
+      <c r="AL70" s="205"/>
+      <c r="AM70" s="206"/>
+      <c r="AN70" s="198"/>
+      <c r="AO70" s="199"/>
+      <c r="AP70" s="199"/>
+      <c r="AQ70" s="199"/>
+      <c r="AR70" s="200"/>
+      <c r="AS70" s="204"/>
+      <c r="AT70" s="205"/>
+      <c r="AU70" s="205"/>
+      <c r="AV70" s="206"/>
       <c r="AW70" s="163"/>
     </row>
     <row r="71" spans="1:49" ht="13.5" customHeight="1">
       <c r="A71" s="21"/>
-      <c r="B71" s="211"/>
-      <c r="C71" s="212"/>
-      <c r="D71" s="199"/>
-      <c r="E71" s="200"/>
-      <c r="F71" s="200"/>
-      <c r="G71" s="200"/>
-      <c r="H71" s="201"/>
-      <c r="I71" s="213"/>
-      <c r="J71" s="214"/>
-      <c r="K71" s="214"/>
-      <c r="L71" s="214"/>
-      <c r="M71" s="214"/>
-      <c r="N71" s="214"/>
-      <c r="O71" s="214"/>
-      <c r="P71" s="214"/>
-      <c r="Q71" s="214"/>
-      <c r="R71" s="214"/>
-      <c r="S71" s="214"/>
-      <c r="T71" s="214"/>
-      <c r="U71" s="214"/>
-      <c r="V71" s="214"/>
-      <c r="W71" s="214"/>
-      <c r="X71" s="214"/>
-      <c r="Y71" s="214"/>
-      <c r="Z71" s="215"/>
-      <c r="AA71" s="205"/>
-      <c r="AB71" s="206"/>
-      <c r="AC71" s="206"/>
-      <c r="AD71" s="207"/>
-      <c r="AE71" s="199"/>
-      <c r="AF71" s="200"/>
-      <c r="AG71" s="200"/>
-      <c r="AH71" s="200"/>
-      <c r="AI71" s="201"/>
-      <c r="AJ71" s="205"/>
-      <c r="AK71" s="206"/>
-      <c r="AL71" s="206"/>
-      <c r="AM71" s="207"/>
-      <c r="AN71" s="199"/>
-      <c r="AO71" s="200"/>
-      <c r="AP71" s="200"/>
-      <c r="AQ71" s="200"/>
-      <c r="AR71" s="201"/>
-      <c r="AS71" s="205"/>
-      <c r="AT71" s="206"/>
-      <c r="AU71" s="206"/>
-      <c r="AV71" s="207"/>
+      <c r="B71" s="210"/>
+      <c r="C71" s="211"/>
+      <c r="D71" s="198"/>
+      <c r="E71" s="199"/>
+      <c r="F71" s="199"/>
+      <c r="G71" s="199"/>
+      <c r="H71" s="200"/>
+      <c r="I71" s="212"/>
+      <c r="J71" s="213"/>
+      <c r="K71" s="213"/>
+      <c r="L71" s="213"/>
+      <c r="M71" s="213"/>
+      <c r="N71" s="213"/>
+      <c r="O71" s="213"/>
+      <c r="P71" s="213"/>
+      <c r="Q71" s="213"/>
+      <c r="R71" s="213"/>
+      <c r="S71" s="213"/>
+      <c r="T71" s="213"/>
+      <c r="U71" s="213"/>
+      <c r="V71" s="213"/>
+      <c r="W71" s="213"/>
+      <c r="X71" s="213"/>
+      <c r="Y71" s="213"/>
+      <c r="Z71" s="214"/>
+      <c r="AA71" s="204"/>
+      <c r="AB71" s="205"/>
+      <c r="AC71" s="205"/>
+      <c r="AD71" s="206"/>
+      <c r="AE71" s="198"/>
+      <c r="AF71" s="199"/>
+      <c r="AG71" s="199"/>
+      <c r="AH71" s="199"/>
+      <c r="AI71" s="200"/>
+      <c r="AJ71" s="204"/>
+      <c r="AK71" s="205"/>
+      <c r="AL71" s="205"/>
+      <c r="AM71" s="206"/>
+      <c r="AN71" s="198"/>
+      <c r="AO71" s="199"/>
+      <c r="AP71" s="199"/>
+      <c r="AQ71" s="199"/>
+      <c r="AR71" s="200"/>
+      <c r="AS71" s="204"/>
+      <c r="AT71" s="205"/>
+      <c r="AU71" s="205"/>
+      <c r="AV71" s="206"/>
       <c r="AW71" s="163"/>
     </row>
     <row r="72" spans="1:49" ht="13.5" customHeight="1">
       <c r="A72" s="21"/>
-      <c r="B72" s="211"/>
-      <c r="C72" s="212"/>
-      <c r="D72" s="199"/>
-      <c r="E72" s="200"/>
-      <c r="F72" s="200"/>
-      <c r="G72" s="200"/>
-      <c r="H72" s="201"/>
-      <c r="I72" s="213"/>
-      <c r="J72" s="214"/>
-      <c r="K72" s="214"/>
-      <c r="L72" s="214"/>
-      <c r="M72" s="214"/>
-      <c r="N72" s="214"/>
-      <c r="O72" s="214"/>
-      <c r="P72" s="214"/>
-      <c r="Q72" s="214"/>
-      <c r="R72" s="214"/>
-      <c r="S72" s="214"/>
-      <c r="T72" s="214"/>
-      <c r="U72" s="214"/>
-      <c r="V72" s="214"/>
-      <c r="W72" s="214"/>
-      <c r="X72" s="214"/>
-      <c r="Y72" s="214"/>
-      <c r="Z72" s="215"/>
-      <c r="AA72" s="205"/>
-      <c r="AB72" s="206"/>
-      <c r="AC72" s="206"/>
-      <c r="AD72" s="207"/>
-      <c r="AE72" s="199"/>
-      <c r="AF72" s="200"/>
-      <c r="AG72" s="200"/>
-      <c r="AH72" s="200"/>
-      <c r="AI72" s="201"/>
-      <c r="AJ72" s="205"/>
-      <c r="AK72" s="206"/>
-      <c r="AL72" s="206"/>
-      <c r="AM72" s="207"/>
-      <c r="AN72" s="199"/>
-      <c r="AO72" s="200"/>
-      <c r="AP72" s="200"/>
-      <c r="AQ72" s="200"/>
-      <c r="AR72" s="201"/>
-      <c r="AS72" s="205"/>
-      <c r="AT72" s="206"/>
-      <c r="AU72" s="206"/>
-      <c r="AV72" s="207"/>
+      <c r="B72" s="210"/>
+      <c r="C72" s="211"/>
+      <c r="D72" s="198"/>
+      <c r="E72" s="199"/>
+      <c r="F72" s="199"/>
+      <c r="G72" s="199"/>
+      <c r="H72" s="200"/>
+      <c r="I72" s="212"/>
+      <c r="J72" s="213"/>
+      <c r="K72" s="213"/>
+      <c r="L72" s="213"/>
+      <c r="M72" s="213"/>
+      <c r="N72" s="213"/>
+      <c r="O72" s="213"/>
+      <c r="P72" s="213"/>
+      <c r="Q72" s="213"/>
+      <c r="R72" s="213"/>
+      <c r="S72" s="213"/>
+      <c r="T72" s="213"/>
+      <c r="U72" s="213"/>
+      <c r="V72" s="213"/>
+      <c r="W72" s="213"/>
+      <c r="X72" s="213"/>
+      <c r="Y72" s="213"/>
+      <c r="Z72" s="214"/>
+      <c r="AA72" s="204"/>
+      <c r="AB72" s="205"/>
+      <c r="AC72" s="205"/>
+      <c r="AD72" s="206"/>
+      <c r="AE72" s="198"/>
+      <c r="AF72" s="199"/>
+      <c r="AG72" s="199"/>
+      <c r="AH72" s="199"/>
+      <c r="AI72" s="200"/>
+      <c r="AJ72" s="204"/>
+      <c r="AK72" s="205"/>
+      <c r="AL72" s="205"/>
+      <c r="AM72" s="206"/>
+      <c r="AN72" s="198"/>
+      <c r="AO72" s="199"/>
+      <c r="AP72" s="199"/>
+      <c r="AQ72" s="199"/>
+      <c r="AR72" s="200"/>
+      <c r="AS72" s="204"/>
+      <c r="AT72" s="205"/>
+      <c r="AU72" s="205"/>
+      <c r="AV72" s="206"/>
       <c r="AW72" s="163"/>
     </row>
     <row r="73" spans="1:49" ht="13.5" customHeight="1">
       <c r="A73" s="21"/>
-      <c r="B73" s="211"/>
-      <c r="C73" s="212"/>
-      <c r="D73" s="199"/>
-      <c r="E73" s="200"/>
-      <c r="F73" s="200"/>
-      <c r="G73" s="200"/>
-      <c r="H73" s="201"/>
-      <c r="I73" s="213"/>
-      <c r="J73" s="214"/>
-      <c r="K73" s="214"/>
-      <c r="L73" s="214"/>
-      <c r="M73" s="214"/>
-      <c r="N73" s="214"/>
-      <c r="O73" s="214"/>
-      <c r="P73" s="214"/>
-      <c r="Q73" s="214"/>
-      <c r="R73" s="214"/>
-      <c r="S73" s="214"/>
-      <c r="T73" s="214"/>
-      <c r="U73" s="214"/>
-      <c r="V73" s="214"/>
-      <c r="W73" s="214"/>
-      <c r="X73" s="214"/>
-      <c r="Y73" s="214"/>
-      <c r="Z73" s="215"/>
-      <c r="AA73" s="205"/>
-      <c r="AB73" s="206"/>
-      <c r="AC73" s="206"/>
-      <c r="AD73" s="207"/>
-      <c r="AE73" s="199"/>
-      <c r="AF73" s="200"/>
-      <c r="AG73" s="200"/>
-      <c r="AH73" s="200"/>
-      <c r="AI73" s="201"/>
-      <c r="AJ73" s="205"/>
-      <c r="AK73" s="206"/>
-      <c r="AL73" s="206"/>
-      <c r="AM73" s="207"/>
-      <c r="AN73" s="199"/>
-      <c r="AO73" s="200"/>
-      <c r="AP73" s="200"/>
-      <c r="AQ73" s="200"/>
-      <c r="AR73" s="201"/>
-      <c r="AS73" s="205"/>
-      <c r="AT73" s="206"/>
-      <c r="AU73" s="206"/>
-      <c r="AV73" s="207"/>
+      <c r="B73" s="210"/>
+      <c r="C73" s="211"/>
+      <c r="D73" s="198"/>
+      <c r="E73" s="199"/>
+      <c r="F73" s="199"/>
+      <c r="G73" s="199"/>
+      <c r="H73" s="200"/>
+      <c r="I73" s="212"/>
+      <c r="J73" s="213"/>
+      <c r="K73" s="213"/>
+      <c r="L73" s="213"/>
+      <c r="M73" s="213"/>
+      <c r="N73" s="213"/>
+      <c r="O73" s="213"/>
+      <c r="P73" s="213"/>
+      <c r="Q73" s="213"/>
+      <c r="R73" s="213"/>
+      <c r="S73" s="213"/>
+      <c r="T73" s="213"/>
+      <c r="U73" s="213"/>
+      <c r="V73" s="213"/>
+      <c r="W73" s="213"/>
+      <c r="X73" s="213"/>
+      <c r="Y73" s="213"/>
+      <c r="Z73" s="214"/>
+      <c r="AA73" s="204"/>
+      <c r="AB73" s="205"/>
+      <c r="AC73" s="205"/>
+      <c r="AD73" s="206"/>
+      <c r="AE73" s="198"/>
+      <c r="AF73" s="199"/>
+      <c r="AG73" s="199"/>
+      <c r="AH73" s="199"/>
+      <c r="AI73" s="200"/>
+      <c r="AJ73" s="204"/>
+      <c r="AK73" s="205"/>
+      <c r="AL73" s="205"/>
+      <c r="AM73" s="206"/>
+      <c r="AN73" s="198"/>
+      <c r="AO73" s="199"/>
+      <c r="AP73" s="199"/>
+      <c r="AQ73" s="199"/>
+      <c r="AR73" s="200"/>
+      <c r="AS73" s="204"/>
+      <c r="AT73" s="205"/>
+      <c r="AU73" s="205"/>
+      <c r="AV73" s="206"/>
       <c r="AW73" s="163"/>
     </row>
     <row r="74" spans="1:49" ht="13.5" customHeight="1">
       <c r="A74" s="21"/>
-      <c r="B74" s="211"/>
-      <c r="C74" s="212"/>
-      <c r="D74" s="199"/>
-      <c r="E74" s="200"/>
-      <c r="F74" s="200"/>
-      <c r="G74" s="200"/>
-      <c r="H74" s="201"/>
-      <c r="I74" s="213"/>
-      <c r="J74" s="214"/>
-      <c r="K74" s="214"/>
-      <c r="L74" s="214"/>
-      <c r="M74" s="214"/>
-      <c r="N74" s="214"/>
-      <c r="O74" s="214"/>
-      <c r="P74" s="214"/>
-      <c r="Q74" s="214"/>
-      <c r="R74" s="214"/>
-      <c r="S74" s="214"/>
-      <c r="T74" s="214"/>
-      <c r="U74" s="214"/>
-      <c r="V74" s="214"/>
-      <c r="W74" s="214"/>
-      <c r="X74" s="214"/>
-      <c r="Y74" s="214"/>
-      <c r="Z74" s="215"/>
-      <c r="AA74" s="205"/>
-      <c r="AB74" s="206"/>
-      <c r="AC74" s="206"/>
-      <c r="AD74" s="207"/>
-      <c r="AE74" s="199"/>
-      <c r="AF74" s="200"/>
-      <c r="AG74" s="200"/>
-      <c r="AH74" s="200"/>
-      <c r="AI74" s="201"/>
-      <c r="AJ74" s="205"/>
-      <c r="AK74" s="206"/>
-      <c r="AL74" s="206"/>
-      <c r="AM74" s="207"/>
-      <c r="AN74" s="199"/>
-      <c r="AO74" s="200"/>
-      <c r="AP74" s="200"/>
-      <c r="AQ74" s="200"/>
-      <c r="AR74" s="201"/>
-      <c r="AS74" s="205"/>
-      <c r="AT74" s="206"/>
-      <c r="AU74" s="206"/>
-      <c r="AV74" s="207"/>
+      <c r="B74" s="210"/>
+      <c r="C74" s="211"/>
+      <c r="D74" s="198"/>
+      <c r="E74" s="199"/>
+      <c r="F74" s="199"/>
+      <c r="G74" s="199"/>
+      <c r="H74" s="200"/>
+      <c r="I74" s="212"/>
+      <c r="J74" s="213"/>
+      <c r="K74" s="213"/>
+      <c r="L74" s="213"/>
+      <c r="M74" s="213"/>
+      <c r="N74" s="213"/>
+      <c r="O74" s="213"/>
+      <c r="P74" s="213"/>
+      <c r="Q74" s="213"/>
+      <c r="R74" s="213"/>
+      <c r="S74" s="213"/>
+      <c r="T74" s="213"/>
+      <c r="U74" s="213"/>
+      <c r="V74" s="213"/>
+      <c r="W74" s="213"/>
+      <c r="X74" s="213"/>
+      <c r="Y74" s="213"/>
+      <c r="Z74" s="214"/>
+      <c r="AA74" s="204"/>
+      <c r="AB74" s="205"/>
+      <c r="AC74" s="205"/>
+      <c r="AD74" s="206"/>
+      <c r="AE74" s="198"/>
+      <c r="AF74" s="199"/>
+      <c r="AG74" s="199"/>
+      <c r="AH74" s="199"/>
+      <c r="AI74" s="200"/>
+      <c r="AJ74" s="204"/>
+      <c r="AK74" s="205"/>
+      <c r="AL74" s="205"/>
+      <c r="AM74" s="206"/>
+      <c r="AN74" s="198"/>
+      <c r="AO74" s="199"/>
+      <c r="AP74" s="199"/>
+      <c r="AQ74" s="199"/>
+      <c r="AR74" s="200"/>
+      <c r="AS74" s="204"/>
+      <c r="AT74" s="205"/>
+      <c r="AU74" s="205"/>
+      <c r="AV74" s="206"/>
       <c r="AW74" s="163"/>
     </row>
     <row r="75" spans="1:49" ht="13.5" customHeight="1">
       <c r="A75" s="21"/>
-      <c r="B75" s="211"/>
-      <c r="C75" s="212"/>
-      <c r="D75" s="199"/>
-      <c r="E75" s="200"/>
-      <c r="F75" s="200"/>
-      <c r="G75" s="200"/>
-      <c r="H75" s="201"/>
-      <c r="I75" s="213"/>
-      <c r="J75" s="214"/>
-      <c r="K75" s="214"/>
-      <c r="L75" s="214"/>
-      <c r="M75" s="214"/>
-      <c r="N75" s="214"/>
-      <c r="O75" s="214"/>
-      <c r="P75" s="214"/>
-      <c r="Q75" s="214"/>
-      <c r="R75" s="214"/>
-      <c r="S75" s="214"/>
-      <c r="T75" s="214"/>
-      <c r="U75" s="214"/>
-      <c r="V75" s="214"/>
-      <c r="W75" s="214"/>
-      <c r="X75" s="214"/>
-      <c r="Y75" s="214"/>
-      <c r="Z75" s="215"/>
-      <c r="AA75" s="205"/>
-      <c r="AB75" s="206"/>
-      <c r="AC75" s="206"/>
-      <c r="AD75" s="207"/>
-      <c r="AE75" s="199"/>
-      <c r="AF75" s="200"/>
-      <c r="AG75" s="200"/>
-      <c r="AH75" s="200"/>
-      <c r="AI75" s="201"/>
-      <c r="AJ75" s="205"/>
-      <c r="AK75" s="206"/>
-      <c r="AL75" s="206"/>
-      <c r="AM75" s="207"/>
-      <c r="AN75" s="199"/>
-      <c r="AO75" s="200"/>
-      <c r="AP75" s="200"/>
-      <c r="AQ75" s="200"/>
-      <c r="AR75" s="201"/>
-      <c r="AS75" s="205"/>
-      <c r="AT75" s="206"/>
-      <c r="AU75" s="206"/>
-      <c r="AV75" s="207"/>
+      <c r="B75" s="210"/>
+      <c r="C75" s="211"/>
+      <c r="D75" s="198"/>
+      <c r="E75" s="199"/>
+      <c r="F75" s="199"/>
+      <c r="G75" s="199"/>
+      <c r="H75" s="200"/>
+      <c r="I75" s="212"/>
+      <c r="J75" s="213"/>
+      <c r="K75" s="213"/>
+      <c r="L75" s="213"/>
+      <c r="M75" s="213"/>
+      <c r="N75" s="213"/>
+      <c r="O75" s="213"/>
+      <c r="P75" s="213"/>
+      <c r="Q75" s="213"/>
+      <c r="R75" s="213"/>
+      <c r="S75" s="213"/>
+      <c r="T75" s="213"/>
+      <c r="U75" s="213"/>
+      <c r="V75" s="213"/>
+      <c r="W75" s="213"/>
+      <c r="X75" s="213"/>
+      <c r="Y75" s="213"/>
+      <c r="Z75" s="214"/>
+      <c r="AA75" s="204"/>
+      <c r="AB75" s="205"/>
+      <c r="AC75" s="205"/>
+      <c r="AD75" s="206"/>
+      <c r="AE75" s="198"/>
+      <c r="AF75" s="199"/>
+      <c r="AG75" s="199"/>
+      <c r="AH75" s="199"/>
+      <c r="AI75" s="200"/>
+      <c r="AJ75" s="204"/>
+      <c r="AK75" s="205"/>
+      <c r="AL75" s="205"/>
+      <c r="AM75" s="206"/>
+      <c r="AN75" s="198"/>
+      <c r="AO75" s="199"/>
+      <c r="AP75" s="199"/>
+      <c r="AQ75" s="199"/>
+      <c r="AR75" s="200"/>
+      <c r="AS75" s="204"/>
+      <c r="AT75" s="205"/>
+      <c r="AU75" s="205"/>
+      <c r="AV75" s="206"/>
       <c r="AW75" s="163"/>
     </row>
     <row r="76" spans="1:49" ht="13.5" customHeight="1">
       <c r="A76" s="21"/>
-      <c r="B76" s="211"/>
-      <c r="C76" s="212"/>
-      <c r="D76" s="199"/>
-      <c r="E76" s="200"/>
-      <c r="F76" s="200"/>
-      <c r="G76" s="200"/>
-      <c r="H76" s="201"/>
-      <c r="I76" s="213"/>
-      <c r="J76" s="214"/>
-      <c r="K76" s="214"/>
-      <c r="L76" s="214"/>
-      <c r="M76" s="214"/>
-      <c r="N76" s="214"/>
-      <c r="O76" s="214"/>
-      <c r="P76" s="214"/>
-      <c r="Q76" s="214"/>
-      <c r="R76" s="214"/>
-      <c r="S76" s="214"/>
-      <c r="T76" s="214"/>
-      <c r="U76" s="214"/>
-      <c r="V76" s="214"/>
-      <c r="W76" s="214"/>
-      <c r="X76" s="214"/>
-      <c r="Y76" s="214"/>
-      <c r="Z76" s="215"/>
-      <c r="AA76" s="205"/>
-      <c r="AB76" s="206"/>
-      <c r="AC76" s="206"/>
-      <c r="AD76" s="207"/>
-      <c r="AE76" s="199"/>
-      <c r="AF76" s="200"/>
-      <c r="AG76" s="200"/>
-      <c r="AH76" s="200"/>
-      <c r="AI76" s="201"/>
-      <c r="AJ76" s="205"/>
-      <c r="AK76" s="206"/>
-      <c r="AL76" s="206"/>
-      <c r="AM76" s="207"/>
-      <c r="AN76" s="199"/>
-      <c r="AO76" s="200"/>
-      <c r="AP76" s="200"/>
-      <c r="AQ76" s="200"/>
-      <c r="AR76" s="201"/>
-      <c r="AS76" s="205"/>
-      <c r="AT76" s="206"/>
-      <c r="AU76" s="206"/>
-      <c r="AV76" s="207"/>
+      <c r="B76" s="210"/>
+      <c r="C76" s="211"/>
+      <c r="D76" s="198"/>
+      <c r="E76" s="199"/>
+      <c r="F76" s="199"/>
+      <c r="G76" s="199"/>
+      <c r="H76" s="200"/>
+      <c r="I76" s="212"/>
+      <c r="J76" s="213"/>
+      <c r="K76" s="213"/>
+      <c r="L76" s="213"/>
+      <c r="M76" s="213"/>
+      <c r="N76" s="213"/>
+      <c r="O76" s="213"/>
+      <c r="P76" s="213"/>
+      <c r="Q76" s="213"/>
+      <c r="R76" s="213"/>
+      <c r="S76" s="213"/>
+      <c r="T76" s="213"/>
+      <c r="U76" s="213"/>
+      <c r="V76" s="213"/>
+      <c r="W76" s="213"/>
+      <c r="X76" s="213"/>
+      <c r="Y76" s="213"/>
+      <c r="Z76" s="214"/>
+      <c r="AA76" s="204"/>
+      <c r="AB76" s="205"/>
+      <c r="AC76" s="205"/>
+      <c r="AD76" s="206"/>
+      <c r="AE76" s="198"/>
+      <c r="AF76" s="199"/>
+      <c r="AG76" s="199"/>
+      <c r="AH76" s="199"/>
+      <c r="AI76" s="200"/>
+      <c r="AJ76" s="204"/>
+      <c r="AK76" s="205"/>
+      <c r="AL76" s="205"/>
+      <c r="AM76" s="206"/>
+      <c r="AN76" s="198"/>
+      <c r="AO76" s="199"/>
+      <c r="AP76" s="199"/>
+      <c r="AQ76" s="199"/>
+      <c r="AR76" s="200"/>
+      <c r="AS76" s="204"/>
+      <c r="AT76" s="205"/>
+      <c r="AU76" s="205"/>
+      <c r="AV76" s="206"/>
       <c r="AW76" s="163"/>
     </row>
     <row r="77" spans="1:49" ht="13.5" customHeight="1">
       <c r="A77" s="21"/>
-      <c r="B77" s="211"/>
-      <c r="C77" s="212"/>
-      <c r="D77" s="199"/>
-      <c r="E77" s="200"/>
-      <c r="F77" s="200"/>
-      <c r="G77" s="200"/>
-      <c r="H77" s="201"/>
-      <c r="I77" s="213"/>
-      <c r="J77" s="214"/>
-      <c r="K77" s="214"/>
-      <c r="L77" s="214"/>
-      <c r="M77" s="214"/>
-      <c r="N77" s="214"/>
-      <c r="O77" s="214"/>
-      <c r="P77" s="214"/>
-      <c r="Q77" s="214"/>
-      <c r="R77" s="214"/>
-      <c r="S77" s="214"/>
-      <c r="T77" s="214"/>
-      <c r="U77" s="214"/>
-      <c r="V77" s="214"/>
-      <c r="W77" s="214"/>
-      <c r="X77" s="214"/>
-      <c r="Y77" s="214"/>
-      <c r="Z77" s="215"/>
-      <c r="AA77" s="205"/>
-      <c r="AB77" s="206"/>
-      <c r="AC77" s="206"/>
-      <c r="AD77" s="207"/>
-      <c r="AE77" s="199"/>
-      <c r="AF77" s="200"/>
-      <c r="AG77" s="200"/>
-      <c r="AH77" s="200"/>
-      <c r="AI77" s="201"/>
-      <c r="AJ77" s="205"/>
-      <c r="AK77" s="206"/>
-      <c r="AL77" s="206"/>
-      <c r="AM77" s="207"/>
-      <c r="AN77" s="199"/>
-      <c r="AO77" s="200"/>
-      <c r="AP77" s="200"/>
-      <c r="AQ77" s="200"/>
-      <c r="AR77" s="201"/>
-      <c r="AS77" s="205"/>
-      <c r="AT77" s="206"/>
-      <c r="AU77" s="206"/>
-      <c r="AV77" s="207"/>
+      <c r="B77" s="210"/>
+      <c r="C77" s="211"/>
+      <c r="D77" s="198"/>
+      <c r="E77" s="199"/>
+      <c r="F77" s="199"/>
+      <c r="G77" s="199"/>
+      <c r="H77" s="200"/>
+      <c r="I77" s="212"/>
+      <c r="J77" s="213"/>
+      <c r="K77" s="213"/>
+      <c r="L77" s="213"/>
+      <c r="M77" s="213"/>
+      <c r="N77" s="213"/>
+      <c r="O77" s="213"/>
+      <c r="P77" s="213"/>
+      <c r="Q77" s="213"/>
+      <c r="R77" s="213"/>
+      <c r="S77" s="213"/>
+      <c r="T77" s="213"/>
+      <c r="U77" s="213"/>
+      <c r="V77" s="213"/>
+      <c r="W77" s="213"/>
+      <c r="X77" s="213"/>
+      <c r="Y77" s="213"/>
+      <c r="Z77" s="214"/>
+      <c r="AA77" s="204"/>
+      <c r="AB77" s="205"/>
+      <c r="AC77" s="205"/>
+      <c r="AD77" s="206"/>
+      <c r="AE77" s="198"/>
+      <c r="AF77" s="199"/>
+      <c r="AG77" s="199"/>
+      <c r="AH77" s="199"/>
+      <c r="AI77" s="200"/>
+      <c r="AJ77" s="204"/>
+      <c r="AK77" s="205"/>
+      <c r="AL77" s="205"/>
+      <c r="AM77" s="206"/>
+      <c r="AN77" s="198"/>
+      <c r="AO77" s="199"/>
+      <c r="AP77" s="199"/>
+      <c r="AQ77" s="199"/>
+      <c r="AR77" s="200"/>
+      <c r="AS77" s="204"/>
+      <c r="AT77" s="205"/>
+      <c r="AU77" s="205"/>
+      <c r="AV77" s="206"/>
       <c r="AW77" s="163"/>
     </row>
     <row r="78" spans="1:49" ht="13.5" customHeight="1">
       <c r="A78" s="21"/>
-      <c r="B78" s="216"/>
-      <c r="C78" s="217"/>
-      <c r="D78" s="202"/>
-      <c r="E78" s="203"/>
-      <c r="F78" s="203"/>
-      <c r="G78" s="203"/>
-      <c r="H78" s="204"/>
-      <c r="I78" s="218"/>
-      <c r="J78" s="219"/>
-      <c r="K78" s="219"/>
-      <c r="L78" s="219"/>
-      <c r="M78" s="219"/>
-      <c r="N78" s="219"/>
-      <c r="O78" s="219"/>
-      <c r="P78" s="219"/>
-      <c r="Q78" s="219"/>
-      <c r="R78" s="219"/>
-      <c r="S78" s="219"/>
-      <c r="T78" s="219"/>
-      <c r="U78" s="219"/>
-      <c r="V78" s="219"/>
-      <c r="W78" s="219"/>
-      <c r="X78" s="219"/>
-      <c r="Y78" s="219"/>
-      <c r="Z78" s="220"/>
-      <c r="AA78" s="208"/>
-      <c r="AB78" s="209"/>
-      <c r="AC78" s="209"/>
-      <c r="AD78" s="210"/>
-      <c r="AE78" s="202"/>
-      <c r="AF78" s="203"/>
-      <c r="AG78" s="203"/>
-      <c r="AH78" s="203"/>
-      <c r="AI78" s="204"/>
-      <c r="AJ78" s="208"/>
-      <c r="AK78" s="209"/>
-      <c r="AL78" s="209"/>
-      <c r="AM78" s="210"/>
-      <c r="AN78" s="202"/>
-      <c r="AO78" s="203"/>
-      <c r="AP78" s="203"/>
-      <c r="AQ78" s="203"/>
-      <c r="AR78" s="204"/>
-      <c r="AS78" s="208"/>
-      <c r="AT78" s="209"/>
-      <c r="AU78" s="209"/>
-      <c r="AV78" s="210"/>
+      <c r="B78" s="215"/>
+      <c r="C78" s="216"/>
+      <c r="D78" s="201"/>
+      <c r="E78" s="202"/>
+      <c r="F78" s="202"/>
+      <c r="G78" s="202"/>
+      <c r="H78" s="203"/>
+      <c r="I78" s="217"/>
+      <c r="J78" s="218"/>
+      <c r="K78" s="218"/>
+      <c r="L78" s="218"/>
+      <c r="M78" s="218"/>
+      <c r="N78" s="218"/>
+      <c r="O78" s="218"/>
+      <c r="P78" s="218"/>
+      <c r="Q78" s="218"/>
+      <c r="R78" s="218"/>
+      <c r="S78" s="218"/>
+      <c r="T78" s="218"/>
+      <c r="U78" s="218"/>
+      <c r="V78" s="218"/>
+      <c r="W78" s="218"/>
+      <c r="X78" s="218"/>
+      <c r="Y78" s="218"/>
+      <c r="Z78" s="219"/>
+      <c r="AA78" s="207"/>
+      <c r="AB78" s="208"/>
+      <c r="AC78" s="208"/>
+      <c r="AD78" s="209"/>
+      <c r="AE78" s="201"/>
+      <c r="AF78" s="202"/>
+      <c r="AG78" s="202"/>
+      <c r="AH78" s="202"/>
+      <c r="AI78" s="203"/>
+      <c r="AJ78" s="207"/>
+      <c r="AK78" s="208"/>
+      <c r="AL78" s="208"/>
+      <c r="AM78" s="209"/>
+      <c r="AN78" s="201"/>
+      <c r="AO78" s="202"/>
+      <c r="AP78" s="202"/>
+      <c r="AQ78" s="202"/>
+      <c r="AR78" s="203"/>
+      <c r="AS78" s="207"/>
+      <c r="AT78" s="208"/>
+      <c r="AU78" s="208"/>
+      <c r="AV78" s="209"/>
       <c r="AW78" s="163"/>
     </row>
     <row r="79" spans="1:49" ht="13.5" customHeight="1">
@@ -23237,187 +22907,187 @@
       <c r="AW80" s="166"/>
     </row>
     <row r="81" spans="1:50" s="19" customFormat="1" ht="23.1" customHeight="1" thickTop="1">
-      <c r="A81" s="221" t="s">
+      <c r="A81" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="B81" s="222"/>
-      <c r="C81" s="222"/>
-      <c r="D81" s="222"/>
-      <c r="E81" s="222"/>
-      <c r="F81" s="222"/>
-      <c r="G81" s="222"/>
-      <c r="H81" s="222"/>
-      <c r="I81" s="223"/>
-      <c r="J81" s="230" t="s">
+      <c r="B81" s="221"/>
+      <c r="C81" s="221"/>
+      <c r="D81" s="221"/>
+      <c r="E81" s="221"/>
+      <c r="F81" s="221"/>
+      <c r="G81" s="221"/>
+      <c r="H81" s="221"/>
+      <c r="I81" s="222"/>
+      <c r="J81" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="K81" s="222"/>
-      <c r="L81" s="222"/>
-      <c r="M81" s="222"/>
-      <c r="N81" s="222"/>
-      <c r="O81" s="223"/>
-      <c r="P81" s="230" t="s">
+      <c r="K81" s="221"/>
+      <c r="L81" s="221"/>
+      <c r="M81" s="221"/>
+      <c r="N81" s="221"/>
+      <c r="O81" s="222"/>
+      <c r="P81" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="Q81" s="222"/>
-      <c r="R81" s="222"/>
-      <c r="S81" s="222"/>
-      <c r="T81" s="222"/>
-      <c r="U81" s="223"/>
-      <c r="V81" s="236" t="s">
+      <c r="Q81" s="221"/>
+      <c r="R81" s="221"/>
+      <c r="S81" s="221"/>
+      <c r="T81" s="221"/>
+      <c r="U81" s="222"/>
+      <c r="V81" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="W81" s="237"/>
-      <c r="X81" s="237"/>
-      <c r="Y81" s="237"/>
-      <c r="Z81" s="238"/>
-      <c r="AA81" s="242" t="s">
-        <v>130</v>
+      <c r="W81" s="236"/>
+      <c r="X81" s="236"/>
+      <c r="Y81" s="236"/>
+      <c r="Z81" s="237"/>
+      <c r="AA81" s="241" t="s">
+        <v>123</v>
       </c>
-      <c r="AB81" s="222"/>
-      <c r="AC81" s="222"/>
-      <c r="AD81" s="222"/>
-      <c r="AE81" s="222"/>
-      <c r="AF81" s="222"/>
-      <c r="AG81" s="222"/>
-      <c r="AH81" s="222"/>
-      <c r="AI81" s="222"/>
-      <c r="AJ81" s="222"/>
-      <c r="AK81" s="222"/>
-      <c r="AL81" s="223"/>
-      <c r="AM81" s="231" t="s">
+      <c r="AB81" s="221"/>
+      <c r="AC81" s="221"/>
+      <c r="AD81" s="221"/>
+      <c r="AE81" s="221"/>
+      <c r="AF81" s="221"/>
+      <c r="AG81" s="221"/>
+      <c r="AH81" s="221"/>
+      <c r="AI81" s="221"/>
+      <c r="AJ81" s="221"/>
+      <c r="AK81" s="221"/>
+      <c r="AL81" s="222"/>
+      <c r="AM81" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="AN81" s="232"/>
-      <c r="AO81" s="244" t="s">
-        <v>131</v>
+      <c r="AN81" s="231"/>
+      <c r="AO81" s="243" t="s">
+        <v>124</v>
       </c>
-      <c r="AP81" s="245"/>
-      <c r="AQ81" s="246"/>
-      <c r="AR81" s="231" t="s">
+      <c r="AP81" s="244"/>
+      <c r="AQ81" s="245"/>
+      <c r="AR81" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="AS81" s="232"/>
-      <c r="AT81" s="233">
+      <c r="AS81" s="231"/>
+      <c r="AT81" s="232">
         <v>45204</v>
       </c>
-      <c r="AU81" s="234"/>
-      <c r="AV81" s="234"/>
-      <c r="AW81" s="235"/>
+      <c r="AU81" s="233"/>
+      <c r="AV81" s="233"/>
+      <c r="AW81" s="234"/>
     </row>
     <row r="82" spans="1:50" s="19" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A82" s="224"/>
-      <c r="B82" s="225"/>
-      <c r="C82" s="225"/>
-      <c r="D82" s="225"/>
-      <c r="E82" s="225"/>
-      <c r="F82" s="225"/>
-      <c r="G82" s="225"/>
-      <c r="H82" s="225"/>
-      <c r="I82" s="226"/>
-      <c r="J82" s="224"/>
-      <c r="K82" s="225"/>
-      <c r="L82" s="225"/>
-      <c r="M82" s="225"/>
-      <c r="N82" s="225"/>
-      <c r="O82" s="226"/>
-      <c r="P82" s="224"/>
-      <c r="Q82" s="225"/>
-      <c r="R82" s="225"/>
-      <c r="S82" s="225"/>
-      <c r="T82" s="225"/>
-      <c r="U82" s="226"/>
-      <c r="V82" s="239"/>
-      <c r="W82" s="240"/>
-      <c r="X82" s="240"/>
-      <c r="Y82" s="240"/>
-      <c r="Z82" s="241"/>
-      <c r="AA82" s="243"/>
-      <c r="AB82" s="225"/>
-      <c r="AC82" s="225"/>
-      <c r="AD82" s="225"/>
-      <c r="AE82" s="225"/>
-      <c r="AF82" s="225"/>
-      <c r="AG82" s="225"/>
-      <c r="AH82" s="225"/>
-      <c r="AI82" s="225"/>
-      <c r="AJ82" s="225"/>
-      <c r="AK82" s="225"/>
-      <c r="AL82" s="226"/>
-      <c r="AM82" s="257" t="s">
+      <c r="A82" s="223"/>
+      <c r="B82" s="224"/>
+      <c r="C82" s="224"/>
+      <c r="D82" s="224"/>
+      <c r="E82" s="224"/>
+      <c r="F82" s="224"/>
+      <c r="G82" s="224"/>
+      <c r="H82" s="224"/>
+      <c r="I82" s="225"/>
+      <c r="J82" s="223"/>
+      <c r="K82" s="224"/>
+      <c r="L82" s="224"/>
+      <c r="M82" s="224"/>
+      <c r="N82" s="224"/>
+      <c r="O82" s="225"/>
+      <c r="P82" s="223"/>
+      <c r="Q82" s="224"/>
+      <c r="R82" s="224"/>
+      <c r="S82" s="224"/>
+      <c r="T82" s="224"/>
+      <c r="U82" s="225"/>
+      <c r="V82" s="238"/>
+      <c r="W82" s="239"/>
+      <c r="X82" s="239"/>
+      <c r="Y82" s="239"/>
+      <c r="Z82" s="240"/>
+      <c r="AA82" s="242"/>
+      <c r="AB82" s="224"/>
+      <c r="AC82" s="224"/>
+      <c r="AD82" s="224"/>
+      <c r="AE82" s="224"/>
+      <c r="AF82" s="224"/>
+      <c r="AG82" s="224"/>
+      <c r="AH82" s="224"/>
+      <c r="AI82" s="224"/>
+      <c r="AJ82" s="224"/>
+      <c r="AK82" s="224"/>
+      <c r="AL82" s="225"/>
+      <c r="AM82" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AN82" s="258"/>
-      <c r="AO82" s="259"/>
-      <c r="AP82" s="260"/>
-      <c r="AQ82" s="261"/>
-      <c r="AR82" s="257" t="s">
+      <c r="AN82" s="257"/>
+      <c r="AO82" s="258"/>
+      <c r="AP82" s="259"/>
+      <c r="AQ82" s="260"/>
+      <c r="AR82" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="AS82" s="258"/>
-      <c r="AT82" s="262"/>
-      <c r="AU82" s="263"/>
-      <c r="AV82" s="263"/>
-      <c r="AW82" s="264"/>
+      <c r="AS82" s="257"/>
+      <c r="AT82" s="261"/>
+      <c r="AU82" s="262"/>
+      <c r="AV82" s="262"/>
+      <c r="AW82" s="263"/>
     </row>
     <row r="83" spans="1:50" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A83" s="227"/>
-      <c r="B83" s="228"/>
-      <c r="C83" s="228"/>
-      <c r="D83" s="228"/>
-      <c r="E83" s="228"/>
-      <c r="F83" s="228"/>
-      <c r="G83" s="228"/>
-      <c r="H83" s="228"/>
-      <c r="I83" s="229"/>
-      <c r="J83" s="227"/>
-      <c r="K83" s="228"/>
-      <c r="L83" s="228"/>
-      <c r="M83" s="228"/>
-      <c r="N83" s="228"/>
-      <c r="O83" s="229"/>
-      <c r="P83" s="227"/>
-      <c r="Q83" s="228"/>
-      <c r="R83" s="228"/>
-      <c r="S83" s="228"/>
-      <c r="T83" s="228"/>
-      <c r="U83" s="229"/>
-      <c r="V83" s="247" t="s">
+      <c r="A83" s="226"/>
+      <c r="B83" s="227"/>
+      <c r="C83" s="227"/>
+      <c r="D83" s="227"/>
+      <c r="E83" s="227"/>
+      <c r="F83" s="227"/>
+      <c r="G83" s="227"/>
+      <c r="H83" s="227"/>
+      <c r="I83" s="228"/>
+      <c r="J83" s="226"/>
+      <c r="K83" s="227"/>
+      <c r="L83" s="227"/>
+      <c r="M83" s="227"/>
+      <c r="N83" s="227"/>
+      <c r="O83" s="228"/>
+      <c r="P83" s="226"/>
+      <c r="Q83" s="227"/>
+      <c r="R83" s="227"/>
+      <c r="S83" s="227"/>
+      <c r="T83" s="227"/>
+      <c r="U83" s="228"/>
+      <c r="V83" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="W83" s="248"/>
-      <c r="X83" s="248"/>
-      <c r="Y83" s="248"/>
-      <c r="Z83" s="249"/>
-      <c r="AA83" s="250" t="s">
+      <c r="W83" s="247"/>
+      <c r="X83" s="247"/>
+      <c r="Y83" s="247"/>
+      <c r="Z83" s="248"/>
+      <c r="AA83" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="AB83" s="251"/>
-      <c r="AC83" s="251"/>
-      <c r="AD83" s="251"/>
-      <c r="AE83" s="251"/>
-      <c r="AF83" s="251"/>
-      <c r="AG83" s="252"/>
-      <c r="AH83" s="253" t="s">
+      <c r="AB83" s="250"/>
+      <c r="AC83" s="250"/>
+      <c r="AD83" s="250"/>
+      <c r="AE83" s="250"/>
+      <c r="AF83" s="250"/>
+      <c r="AG83" s="251"/>
+      <c r="AH83" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="AI83" s="254"/>
-      <c r="AJ83" s="254"/>
-      <c r="AK83" s="254"/>
-      <c r="AL83" s="255"/>
-      <c r="AM83" s="250" t="s">
+      <c r="AI83" s="253"/>
+      <c r="AJ83" s="253"/>
+      <c r="AK83" s="253"/>
+      <c r="AL83" s="254"/>
+      <c r="AM83" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="AN83" s="251"/>
-      <c r="AO83" s="251"/>
-      <c r="AP83" s="251"/>
-      <c r="AQ83" s="251"/>
-      <c r="AR83" s="251"/>
-      <c r="AS83" s="251"/>
-      <c r="AT83" s="251"/>
-      <c r="AU83" s="251"/>
-      <c r="AV83" s="251"/>
-      <c r="AW83" s="256"/>
+      <c r="AN83" s="250"/>
+      <c r="AO83" s="250"/>
+      <c r="AP83" s="250"/>
+      <c r="AQ83" s="250"/>
+      <c r="AR83" s="250"/>
+      <c r="AS83" s="250"/>
+      <c r="AT83" s="250"/>
+      <c r="AU83" s="250"/>
+      <c r="AV83" s="250"/>
+      <c r="AW83" s="255"/>
     </row>
     <row r="84" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A84" s="21"/>
@@ -23580,7 +23250,7 @@
       <c r="A87" s="21"/>
       <c r="B87" s="28"/>
       <c r="C87" s="18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
@@ -23686,7 +23356,7 @@
       <c r="A89" s="21"/>
       <c r="B89" s="28"/>
       <c r="C89" s="120" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
@@ -24095,7 +23765,7 @@
       <c r="A97" s="21"/>
       <c r="B97" s="29"/>
       <c r="C97" s="23" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D97" s="34"/>
       <c r="E97" s="30"/>
@@ -25289,187 +24959,187 @@
       <c r="AW120" s="166"/>
     </row>
     <row r="121" spans="1:50" s="19" customFormat="1" ht="21" customHeight="1" thickTop="1">
-      <c r="A121" s="221" t="s">
+      <c r="A121" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="B121" s="222"/>
-      <c r="C121" s="222"/>
-      <c r="D121" s="222"/>
-      <c r="E121" s="222"/>
-      <c r="F121" s="222"/>
-      <c r="G121" s="222"/>
-      <c r="H121" s="222"/>
-      <c r="I121" s="223"/>
-      <c r="J121" s="230" t="s">
+      <c r="B121" s="221"/>
+      <c r="C121" s="221"/>
+      <c r="D121" s="221"/>
+      <c r="E121" s="221"/>
+      <c r="F121" s="221"/>
+      <c r="G121" s="221"/>
+      <c r="H121" s="221"/>
+      <c r="I121" s="222"/>
+      <c r="J121" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="K121" s="222"/>
-      <c r="L121" s="222"/>
-      <c r="M121" s="222"/>
-      <c r="N121" s="222"/>
-      <c r="O121" s="223"/>
-      <c r="P121" s="230" t="s">
+      <c r="K121" s="221"/>
+      <c r="L121" s="221"/>
+      <c r="M121" s="221"/>
+      <c r="N121" s="221"/>
+      <c r="O121" s="222"/>
+      <c r="P121" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="Q121" s="222"/>
-      <c r="R121" s="222"/>
-      <c r="S121" s="222"/>
-      <c r="T121" s="222"/>
-      <c r="U121" s="223"/>
-      <c r="V121" s="236" t="s">
+      <c r="Q121" s="221"/>
+      <c r="R121" s="221"/>
+      <c r="S121" s="221"/>
+      <c r="T121" s="221"/>
+      <c r="U121" s="222"/>
+      <c r="V121" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="W121" s="237"/>
-      <c r="X121" s="237"/>
-      <c r="Y121" s="237"/>
-      <c r="Z121" s="238"/>
-      <c r="AA121" s="242" t="s">
-        <v>130</v>
+      <c r="W121" s="236"/>
+      <c r="X121" s="236"/>
+      <c r="Y121" s="236"/>
+      <c r="Z121" s="237"/>
+      <c r="AA121" s="241" t="s">
+        <v>123</v>
       </c>
-      <c r="AB121" s="222"/>
-      <c r="AC121" s="222"/>
-      <c r="AD121" s="222"/>
-      <c r="AE121" s="222"/>
-      <c r="AF121" s="222"/>
-      <c r="AG121" s="222"/>
-      <c r="AH121" s="222"/>
-      <c r="AI121" s="222"/>
-      <c r="AJ121" s="222"/>
-      <c r="AK121" s="222"/>
-      <c r="AL121" s="223"/>
-      <c r="AM121" s="231" t="s">
+      <c r="AB121" s="221"/>
+      <c r="AC121" s="221"/>
+      <c r="AD121" s="221"/>
+      <c r="AE121" s="221"/>
+      <c r="AF121" s="221"/>
+      <c r="AG121" s="221"/>
+      <c r="AH121" s="221"/>
+      <c r="AI121" s="221"/>
+      <c r="AJ121" s="221"/>
+      <c r="AK121" s="221"/>
+      <c r="AL121" s="222"/>
+      <c r="AM121" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="AN121" s="232"/>
-      <c r="AO121" s="244" t="s">
-        <v>131</v>
+      <c r="AN121" s="231"/>
+      <c r="AO121" s="243" t="s">
+        <v>124</v>
       </c>
-      <c r="AP121" s="245"/>
-      <c r="AQ121" s="246"/>
-      <c r="AR121" s="231" t="s">
+      <c r="AP121" s="244"/>
+      <c r="AQ121" s="245"/>
+      <c r="AR121" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="AS121" s="232"/>
-      <c r="AT121" s="233">
+      <c r="AS121" s="231"/>
+      <c r="AT121" s="232">
         <v>45204</v>
       </c>
-      <c r="AU121" s="234"/>
-      <c r="AV121" s="234"/>
-      <c r="AW121" s="235"/>
+      <c r="AU121" s="233"/>
+      <c r="AV121" s="233"/>
+      <c r="AW121" s="234"/>
     </row>
     <row r="122" spans="1:50" s="19" customFormat="1" ht="21" customHeight="1">
-      <c r="A122" s="224"/>
-      <c r="B122" s="225"/>
-      <c r="C122" s="225"/>
-      <c r="D122" s="225"/>
-      <c r="E122" s="225"/>
-      <c r="F122" s="225"/>
-      <c r="G122" s="225"/>
-      <c r="H122" s="225"/>
-      <c r="I122" s="226"/>
-      <c r="J122" s="224"/>
-      <c r="K122" s="225"/>
-      <c r="L122" s="225"/>
-      <c r="M122" s="225"/>
-      <c r="N122" s="225"/>
-      <c r="O122" s="226"/>
-      <c r="P122" s="224"/>
-      <c r="Q122" s="225"/>
-      <c r="R122" s="225"/>
-      <c r="S122" s="225"/>
-      <c r="T122" s="225"/>
-      <c r="U122" s="226"/>
-      <c r="V122" s="239"/>
-      <c r="W122" s="240"/>
-      <c r="X122" s="240"/>
-      <c r="Y122" s="240"/>
-      <c r="Z122" s="241"/>
-      <c r="AA122" s="243"/>
-      <c r="AB122" s="225"/>
-      <c r="AC122" s="225"/>
-      <c r="AD122" s="225"/>
-      <c r="AE122" s="225"/>
-      <c r="AF122" s="225"/>
-      <c r="AG122" s="225"/>
-      <c r="AH122" s="225"/>
-      <c r="AI122" s="225"/>
-      <c r="AJ122" s="225"/>
-      <c r="AK122" s="225"/>
-      <c r="AL122" s="226"/>
-      <c r="AM122" s="257" t="s">
+      <c r="A122" s="223"/>
+      <c r="B122" s="224"/>
+      <c r="C122" s="224"/>
+      <c r="D122" s="224"/>
+      <c r="E122" s="224"/>
+      <c r="F122" s="224"/>
+      <c r="G122" s="224"/>
+      <c r="H122" s="224"/>
+      <c r="I122" s="225"/>
+      <c r="J122" s="223"/>
+      <c r="K122" s="224"/>
+      <c r="L122" s="224"/>
+      <c r="M122" s="224"/>
+      <c r="N122" s="224"/>
+      <c r="O122" s="225"/>
+      <c r="P122" s="223"/>
+      <c r="Q122" s="224"/>
+      <c r="R122" s="224"/>
+      <c r="S122" s="224"/>
+      <c r="T122" s="224"/>
+      <c r="U122" s="225"/>
+      <c r="V122" s="238"/>
+      <c r="W122" s="239"/>
+      <c r="X122" s="239"/>
+      <c r="Y122" s="239"/>
+      <c r="Z122" s="240"/>
+      <c r="AA122" s="242"/>
+      <c r="AB122" s="224"/>
+      <c r="AC122" s="224"/>
+      <c r="AD122" s="224"/>
+      <c r="AE122" s="224"/>
+      <c r="AF122" s="224"/>
+      <c r="AG122" s="224"/>
+      <c r="AH122" s="224"/>
+      <c r="AI122" s="224"/>
+      <c r="AJ122" s="224"/>
+      <c r="AK122" s="224"/>
+      <c r="AL122" s="225"/>
+      <c r="AM122" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AN122" s="258"/>
-      <c r="AO122" s="259"/>
-      <c r="AP122" s="260"/>
-      <c r="AQ122" s="261"/>
-      <c r="AR122" s="257" t="s">
+      <c r="AN122" s="257"/>
+      <c r="AO122" s="258"/>
+      <c r="AP122" s="259"/>
+      <c r="AQ122" s="260"/>
+      <c r="AR122" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="AS122" s="258"/>
-      <c r="AT122" s="262"/>
-      <c r="AU122" s="263"/>
-      <c r="AV122" s="263"/>
-      <c r="AW122" s="264"/>
+      <c r="AS122" s="257"/>
+      <c r="AT122" s="261"/>
+      <c r="AU122" s="262"/>
+      <c r="AV122" s="262"/>
+      <c r="AW122" s="263"/>
     </row>
     <row r="123" spans="1:50" ht="21" customHeight="1" thickBot="1">
-      <c r="A123" s="227"/>
-      <c r="B123" s="228"/>
-      <c r="C123" s="228"/>
-      <c r="D123" s="228"/>
-      <c r="E123" s="228"/>
-      <c r="F123" s="228"/>
-      <c r="G123" s="228"/>
-      <c r="H123" s="228"/>
-      <c r="I123" s="229"/>
-      <c r="J123" s="227"/>
-      <c r="K123" s="228"/>
-      <c r="L123" s="228"/>
-      <c r="M123" s="228"/>
-      <c r="N123" s="228"/>
-      <c r="O123" s="229"/>
-      <c r="P123" s="227"/>
-      <c r="Q123" s="228"/>
-      <c r="R123" s="228"/>
-      <c r="S123" s="228"/>
-      <c r="T123" s="228"/>
-      <c r="U123" s="229"/>
-      <c r="V123" s="247" t="s">
+      <c r="A123" s="226"/>
+      <c r="B123" s="227"/>
+      <c r="C123" s="227"/>
+      <c r="D123" s="227"/>
+      <c r="E123" s="227"/>
+      <c r="F123" s="227"/>
+      <c r="G123" s="227"/>
+      <c r="H123" s="227"/>
+      <c r="I123" s="228"/>
+      <c r="J123" s="226"/>
+      <c r="K123" s="227"/>
+      <c r="L123" s="227"/>
+      <c r="M123" s="227"/>
+      <c r="N123" s="227"/>
+      <c r="O123" s="228"/>
+      <c r="P123" s="226"/>
+      <c r="Q123" s="227"/>
+      <c r="R123" s="227"/>
+      <c r="S123" s="227"/>
+      <c r="T123" s="227"/>
+      <c r="U123" s="228"/>
+      <c r="V123" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="W123" s="248"/>
-      <c r="X123" s="248"/>
-      <c r="Y123" s="248"/>
-      <c r="Z123" s="249"/>
-      <c r="AA123" s="250" t="s">
+      <c r="W123" s="247"/>
+      <c r="X123" s="247"/>
+      <c r="Y123" s="247"/>
+      <c r="Z123" s="248"/>
+      <c r="AA123" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="AB123" s="251"/>
-      <c r="AC123" s="251"/>
-      <c r="AD123" s="251"/>
-      <c r="AE123" s="251"/>
-      <c r="AF123" s="251"/>
-      <c r="AG123" s="252"/>
-      <c r="AH123" s="253" t="s">
+      <c r="AB123" s="250"/>
+      <c r="AC123" s="250"/>
+      <c r="AD123" s="250"/>
+      <c r="AE123" s="250"/>
+      <c r="AF123" s="250"/>
+      <c r="AG123" s="251"/>
+      <c r="AH123" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="AI123" s="254"/>
-      <c r="AJ123" s="254"/>
-      <c r="AK123" s="254"/>
-      <c r="AL123" s="255"/>
-      <c r="AM123" s="250" t="s">
+      <c r="AI123" s="253"/>
+      <c r="AJ123" s="253"/>
+      <c r="AK123" s="253"/>
+      <c r="AL123" s="254"/>
+      <c r="AM123" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="AN123" s="251"/>
-      <c r="AO123" s="251"/>
-      <c r="AP123" s="251"/>
-      <c r="AQ123" s="251"/>
-      <c r="AR123" s="251"/>
-      <c r="AS123" s="251"/>
-      <c r="AT123" s="251"/>
-      <c r="AU123" s="251"/>
-      <c r="AV123" s="251"/>
-      <c r="AW123" s="256"/>
+      <c r="AN123" s="250"/>
+      <c r="AO123" s="250"/>
+      <c r="AP123" s="250"/>
+      <c r="AQ123" s="250"/>
+      <c r="AR123" s="250"/>
+      <c r="AS123" s="250"/>
+      <c r="AT123" s="250"/>
+      <c r="AU123" s="250"/>
+      <c r="AV123" s="250"/>
+      <c r="AW123" s="255"/>
     </row>
     <row r="124" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A124" s="21"/>
@@ -26667,7 +26337,7 @@
       </c>
       <c r="F147" s="49"/>
       <c r="G147" s="50" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="H147" s="51"/>
       <c r="I147" s="51"/>
@@ -26723,14 +26393,20 @@
       <c r="D148" s="55">
         <v>2</v>
       </c>
-      <c r="E148" s="56"/>
-      <c r="F148" s="57"/>
-      <c r="G148" s="58"/>
+      <c r="E148" s="381" t="s">
+        <v>146</v>
+      </c>
+      <c r="F148" s="382"/>
+      <c r="G148" s="58" t="s">
+        <v>148</v>
+      </c>
       <c r="H148" s="59"/>
       <c r="I148" s="59"/>
       <c r="J148" s="59"/>
       <c r="K148" s="60"/>
-      <c r="L148" s="61"/>
+      <c r="L148" s="61" t="s">
+        <v>149</v>
+      </c>
       <c r="M148" s="59"/>
       <c r="N148" s="59"/>
       <c r="O148" s="59"/>
@@ -26740,8 +26416,10 @@
       <c r="S148" s="59"/>
       <c r="T148" s="59"/>
       <c r="U148" s="62"/>
-      <c r="V148" s="56"/>
-      <c r="W148" s="57"/>
+      <c r="V148" s="381" t="s">
+        <v>150</v>
+      </c>
+      <c r="W148" s="382"/>
       <c r="X148" s="58"/>
       <c r="Y148" s="59"/>
       <c r="Z148" s="59"/>
@@ -27399,7 +27077,9 @@
     </row>
     <row r="161" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="202">
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="V148:W148"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -27606,7 +27286,7 @@
   <pageSetup paperSize="9" scale="93" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="39" max="48" man="1"/>
+    <brk id="40" max="48" man="1"/>
     <brk id="80" max="48" man="1"/>
     <brk id="120" max="48" man="1"/>
   </rowBreaks>
@@ -27619,8 +27299,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:BJ163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D137" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AE149" sqref="AE149"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A123" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148:AU148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -27633,187 +27313,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="230" t="s">
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="223"/>
-      <c r="P1" s="230" t="s">
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="222"/>
-      <c r="T1" s="222"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="236" t="s">
+      <c r="Q1" s="221"/>
+      <c r="R1" s="221"/>
+      <c r="S1" s="221"/>
+      <c r="T1" s="221"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="242" t="s">
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="241" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" s="221"/>
+      <c r="AC1" s="221"/>
+      <c r="AD1" s="221"/>
+      <c r="AE1" s="221"/>
+      <c r="AF1" s="221"/>
+      <c r="AG1" s="221"/>
+      <c r="AH1" s="221"/>
+      <c r="AI1" s="221"/>
+      <c r="AJ1" s="221"/>
+      <c r="AK1" s="221"/>
+      <c r="AL1" s="222"/>
+      <c r="AM1" s="230" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" s="231"/>
+      <c r="AO1" s="243" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="222"/>
-      <c r="AC1" s="222"/>
-      <c r="AD1" s="222"/>
-      <c r="AE1" s="222"/>
-      <c r="AF1" s="222"/>
-      <c r="AG1" s="222"/>
-      <c r="AH1" s="222"/>
-      <c r="AI1" s="222"/>
-      <c r="AJ1" s="222"/>
-      <c r="AK1" s="222"/>
-      <c r="AL1" s="223"/>
-      <c r="AM1" s="231" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN1" s="232"/>
-      <c r="AO1" s="244" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP1" s="245"/>
-      <c r="AQ1" s="246"/>
-      <c r="AR1" s="231" t="s">
+      <c r="AP1" s="244"/>
+      <c r="AQ1" s="245"/>
+      <c r="AR1" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="AS1" s="232"/>
-      <c r="AT1" s="233">
+      <c r="AS1" s="231"/>
+      <c r="AT1" s="232">
         <v>45204</v>
       </c>
-      <c r="AU1" s="234"/>
-      <c r="AV1" s="234"/>
-      <c r="AW1" s="235"/>
+      <c r="AU1" s="233"/>
+      <c r="AV1" s="233"/>
+      <c r="AW1" s="234"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="224"/>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="225"/>
-      <c r="L2" s="225"/>
-      <c r="M2" s="225"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="226"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="239"/>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="241"/>
-      <c r="AA2" s="243"/>
-      <c r="AB2" s="225"/>
-      <c r="AC2" s="225"/>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="225"/>
-      <c r="AF2" s="225"/>
-      <c r="AG2" s="225"/>
-      <c r="AH2" s="225"/>
-      <c r="AI2" s="225"/>
-      <c r="AJ2" s="225"/>
-      <c r="AK2" s="225"/>
-      <c r="AL2" s="226"/>
-      <c r="AM2" s="257" t="s">
+      <c r="A2" s="223"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="224"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224"/>
+      <c r="N2" s="224"/>
+      <c r="O2" s="225"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="240"/>
+      <c r="AA2" s="242"/>
+      <c r="AB2" s="224"/>
+      <c r="AC2" s="224"/>
+      <c r="AD2" s="224"/>
+      <c r="AE2" s="224"/>
+      <c r="AF2" s="224"/>
+      <c r="AG2" s="224"/>
+      <c r="AH2" s="224"/>
+      <c r="AI2" s="224"/>
+      <c r="AJ2" s="224"/>
+      <c r="AK2" s="224"/>
+      <c r="AL2" s="225"/>
+      <c r="AM2" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AN2" s="258"/>
-      <c r="AO2" s="259"/>
-      <c r="AP2" s="260"/>
-      <c r="AQ2" s="261"/>
-      <c r="AR2" s="257" t="s">
+      <c r="AN2" s="257"/>
+      <c r="AO2" s="258"/>
+      <c r="AP2" s="259"/>
+      <c r="AQ2" s="260"/>
+      <c r="AR2" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="258"/>
-      <c r="AT2" s="262"/>
-      <c r="AU2" s="263"/>
-      <c r="AV2" s="263"/>
-      <c r="AW2" s="264"/>
+      <c r="AS2" s="257"/>
+      <c r="AT2" s="261"/>
+      <c r="AU2" s="262"/>
+      <c r="AV2" s="262"/>
+      <c r="AW2" s="263"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="227"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="228"/>
-      <c r="O3" s="229"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="247" t="s">
+      <c r="A3" s="226"/>
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="228"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="227"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="248"/>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="248"/>
-      <c r="Z3" s="249"/>
-      <c r="AA3" s="250" t="s">
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="247"/>
+      <c r="Z3" s="248"/>
+      <c r="AA3" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="251"/>
-      <c r="AC3" s="251"/>
-      <c r="AD3" s="251"/>
-      <c r="AE3" s="251"/>
-      <c r="AF3" s="251"/>
-      <c r="AG3" s="252"/>
-      <c r="AH3" s="253" t="s">
+      <c r="AB3" s="250"/>
+      <c r="AC3" s="250"/>
+      <c r="AD3" s="250"/>
+      <c r="AE3" s="250"/>
+      <c r="AF3" s="250"/>
+      <c r="AG3" s="251"/>
+      <c r="AH3" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="AI3" s="254"/>
-      <c r="AJ3" s="254"/>
-      <c r="AK3" s="254"/>
-      <c r="AL3" s="255"/>
-      <c r="AM3" s="250" t="s">
+      <c r="AI3" s="253"/>
+      <c r="AJ3" s="253"/>
+      <c r="AK3" s="253"/>
+      <c r="AL3" s="254"/>
+      <c r="AM3" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="AN3" s="251"/>
-      <c r="AO3" s="251"/>
-      <c r="AP3" s="251"/>
-      <c r="AQ3" s="251"/>
-      <c r="AR3" s="251"/>
-      <c r="AS3" s="251"/>
-      <c r="AT3" s="251"/>
-      <c r="AU3" s="251"/>
-      <c r="AV3" s="251"/>
-      <c r="AW3" s="256"/>
+      <c r="AN3" s="250"/>
+      <c r="AO3" s="250"/>
+      <c r="AP3" s="250"/>
+      <c r="AQ3" s="250"/>
+      <c r="AR3" s="250"/>
+      <c r="AS3" s="250"/>
+      <c r="AT3" s="250"/>
+      <c r="AU3" s="250"/>
+      <c r="AV3" s="250"/>
+      <c r="AW3" s="255"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="21"/>
@@ -29270,187 +28950,187 @@
       <c r="AW55" s="163"/>
     </row>
     <row r="56" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A56" s="221" t="s">
+      <c r="A56" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="222"/>
-      <c r="C56" s="222"/>
-      <c r="D56" s="222"/>
-      <c r="E56" s="222"/>
-      <c r="F56" s="222"/>
-      <c r="G56" s="222"/>
-      <c r="H56" s="222"/>
-      <c r="I56" s="223"/>
-      <c r="J56" s="230" t="s">
+      <c r="B56" s="221"/>
+      <c r="C56" s="221"/>
+      <c r="D56" s="221"/>
+      <c r="E56" s="221"/>
+      <c r="F56" s="221"/>
+      <c r="G56" s="221"/>
+      <c r="H56" s="221"/>
+      <c r="I56" s="222"/>
+      <c r="J56" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="K56" s="222"/>
-      <c r="L56" s="222"/>
-      <c r="M56" s="222"/>
-      <c r="N56" s="222"/>
-      <c r="O56" s="223"/>
-      <c r="P56" s="230" t="s">
+      <c r="K56" s="221"/>
+      <c r="L56" s="221"/>
+      <c r="M56" s="221"/>
+      <c r="N56" s="221"/>
+      <c r="O56" s="222"/>
+      <c r="P56" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="Q56" s="222"/>
-      <c r="R56" s="222"/>
-      <c r="S56" s="222"/>
-      <c r="T56" s="222"/>
-      <c r="U56" s="223"/>
-      <c r="V56" s="236" t="s">
+      <c r="Q56" s="221"/>
+      <c r="R56" s="221"/>
+      <c r="S56" s="221"/>
+      <c r="T56" s="221"/>
+      <c r="U56" s="222"/>
+      <c r="V56" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="W56" s="237"/>
-      <c r="X56" s="237"/>
-      <c r="Y56" s="237"/>
-      <c r="Z56" s="238"/>
-      <c r="AA56" s="242" t="s">
+      <c r="W56" s="236"/>
+      <c r="X56" s="236"/>
+      <c r="Y56" s="236"/>
+      <c r="Z56" s="237"/>
+      <c r="AA56" s="241" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB56" s="221"/>
+      <c r="AC56" s="221"/>
+      <c r="AD56" s="221"/>
+      <c r="AE56" s="221"/>
+      <c r="AF56" s="221"/>
+      <c r="AG56" s="221"/>
+      <c r="AH56" s="221"/>
+      <c r="AI56" s="221"/>
+      <c r="AJ56" s="221"/>
+      <c r="AK56" s="221"/>
+      <c r="AL56" s="222"/>
+      <c r="AM56" s="230" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN56" s="231"/>
+      <c r="AO56" s="243" t="s">
         <v>130</v>
       </c>
-      <c r="AB56" s="222"/>
-      <c r="AC56" s="222"/>
-      <c r="AD56" s="222"/>
-      <c r="AE56" s="222"/>
-      <c r="AF56" s="222"/>
-      <c r="AG56" s="222"/>
-      <c r="AH56" s="222"/>
-      <c r="AI56" s="222"/>
-      <c r="AJ56" s="222"/>
-      <c r="AK56" s="222"/>
-      <c r="AL56" s="223"/>
-      <c r="AM56" s="231" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN56" s="232"/>
-      <c r="AO56" s="244" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP56" s="245"/>
-      <c r="AQ56" s="246"/>
-      <c r="AR56" s="231" t="s">
+      <c r="AP56" s="244"/>
+      <c r="AQ56" s="245"/>
+      <c r="AR56" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="AS56" s="232"/>
-      <c r="AT56" s="233">
+      <c r="AS56" s="231"/>
+      <c r="AT56" s="232">
         <v>45204</v>
       </c>
-      <c r="AU56" s="234"/>
-      <c r="AV56" s="234"/>
-      <c r="AW56" s="235"/>
+      <c r="AU56" s="233"/>
+      <c r="AV56" s="233"/>
+      <c r="AW56" s="234"/>
     </row>
     <row r="57" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A57" s="224"/>
-      <c r="B57" s="225"/>
-      <c r="C57" s="225"/>
-      <c r="D57" s="225"/>
-      <c r="E57" s="225"/>
-      <c r="F57" s="225"/>
-      <c r="G57" s="225"/>
-      <c r="H57" s="225"/>
-      <c r="I57" s="226"/>
-      <c r="J57" s="224"/>
-      <c r="K57" s="225"/>
-      <c r="L57" s="225"/>
-      <c r="M57" s="225"/>
-      <c r="N57" s="225"/>
-      <c r="O57" s="226"/>
-      <c r="P57" s="224"/>
-      <c r="Q57" s="225"/>
-      <c r="R57" s="225"/>
-      <c r="S57" s="225"/>
-      <c r="T57" s="225"/>
-      <c r="U57" s="226"/>
-      <c r="V57" s="239"/>
-      <c r="W57" s="240"/>
-      <c r="X57" s="240"/>
-      <c r="Y57" s="240"/>
-      <c r="Z57" s="241"/>
-      <c r="AA57" s="243"/>
-      <c r="AB57" s="225"/>
-      <c r="AC57" s="225"/>
-      <c r="AD57" s="225"/>
-      <c r="AE57" s="225"/>
-      <c r="AF57" s="225"/>
-      <c r="AG57" s="225"/>
-      <c r="AH57" s="225"/>
-      <c r="AI57" s="225"/>
-      <c r="AJ57" s="225"/>
-      <c r="AK57" s="225"/>
-      <c r="AL57" s="226"/>
-      <c r="AM57" s="257" t="s">
+      <c r="A57" s="223"/>
+      <c r="B57" s="224"/>
+      <c r="C57" s="224"/>
+      <c r="D57" s="224"/>
+      <c r="E57" s="224"/>
+      <c r="F57" s="224"/>
+      <c r="G57" s="224"/>
+      <c r="H57" s="224"/>
+      <c r="I57" s="225"/>
+      <c r="J57" s="223"/>
+      <c r="K57" s="224"/>
+      <c r="L57" s="224"/>
+      <c r="M57" s="224"/>
+      <c r="N57" s="224"/>
+      <c r="O57" s="225"/>
+      <c r="P57" s="223"/>
+      <c r="Q57" s="224"/>
+      <c r="R57" s="224"/>
+      <c r="S57" s="224"/>
+      <c r="T57" s="224"/>
+      <c r="U57" s="225"/>
+      <c r="V57" s="238"/>
+      <c r="W57" s="239"/>
+      <c r="X57" s="239"/>
+      <c r="Y57" s="239"/>
+      <c r="Z57" s="240"/>
+      <c r="AA57" s="242"/>
+      <c r="AB57" s="224"/>
+      <c r="AC57" s="224"/>
+      <c r="AD57" s="224"/>
+      <c r="AE57" s="224"/>
+      <c r="AF57" s="224"/>
+      <c r="AG57" s="224"/>
+      <c r="AH57" s="224"/>
+      <c r="AI57" s="224"/>
+      <c r="AJ57" s="224"/>
+      <c r="AK57" s="224"/>
+      <c r="AL57" s="225"/>
+      <c r="AM57" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AN57" s="258"/>
-      <c r="AO57" s="259"/>
-      <c r="AP57" s="260"/>
-      <c r="AQ57" s="261"/>
-      <c r="AR57" s="257" t="s">
+      <c r="AN57" s="257"/>
+      <c r="AO57" s="258"/>
+      <c r="AP57" s="259"/>
+      <c r="AQ57" s="260"/>
+      <c r="AR57" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="AS57" s="258"/>
-      <c r="AT57" s="262"/>
-      <c r="AU57" s="263"/>
-      <c r="AV57" s="263"/>
-      <c r="AW57" s="264"/>
+      <c r="AS57" s="257"/>
+      <c r="AT57" s="261"/>
+      <c r="AU57" s="262"/>
+      <c r="AV57" s="262"/>
+      <c r="AW57" s="263"/>
     </row>
     <row r="58" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A58" s="227"/>
-      <c r="B58" s="228"/>
-      <c r="C58" s="228"/>
-      <c r="D58" s="228"/>
-      <c r="E58" s="228"/>
-      <c r="F58" s="228"/>
-      <c r="G58" s="228"/>
-      <c r="H58" s="228"/>
-      <c r="I58" s="229"/>
-      <c r="J58" s="227"/>
-      <c r="K58" s="228"/>
-      <c r="L58" s="228"/>
-      <c r="M58" s="228"/>
-      <c r="N58" s="228"/>
-      <c r="O58" s="229"/>
-      <c r="P58" s="227"/>
-      <c r="Q58" s="228"/>
-      <c r="R58" s="228"/>
-      <c r="S58" s="228"/>
-      <c r="T58" s="228"/>
-      <c r="U58" s="229"/>
-      <c r="V58" s="247" t="s">
+      <c r="A58" s="226"/>
+      <c r="B58" s="227"/>
+      <c r="C58" s="227"/>
+      <c r="D58" s="227"/>
+      <c r="E58" s="227"/>
+      <c r="F58" s="227"/>
+      <c r="G58" s="227"/>
+      <c r="H58" s="227"/>
+      <c r="I58" s="228"/>
+      <c r="J58" s="226"/>
+      <c r="K58" s="227"/>
+      <c r="L58" s="227"/>
+      <c r="M58" s="227"/>
+      <c r="N58" s="227"/>
+      <c r="O58" s="228"/>
+      <c r="P58" s="226"/>
+      <c r="Q58" s="227"/>
+      <c r="R58" s="227"/>
+      <c r="S58" s="227"/>
+      <c r="T58" s="227"/>
+      <c r="U58" s="228"/>
+      <c r="V58" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="W58" s="248"/>
-      <c r="X58" s="248"/>
-      <c r="Y58" s="248"/>
-      <c r="Z58" s="249"/>
-      <c r="AA58" s="250" t="s">
+      <c r="W58" s="247"/>
+      <c r="X58" s="247"/>
+      <c r="Y58" s="247"/>
+      <c r="Z58" s="248"/>
+      <c r="AA58" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="AB58" s="251"/>
-      <c r="AC58" s="251"/>
-      <c r="AD58" s="251"/>
-      <c r="AE58" s="251"/>
-      <c r="AF58" s="251"/>
-      <c r="AG58" s="252"/>
-      <c r="AH58" s="253" t="s">
+      <c r="AB58" s="250"/>
+      <c r="AC58" s="250"/>
+      <c r="AD58" s="250"/>
+      <c r="AE58" s="250"/>
+      <c r="AF58" s="250"/>
+      <c r="AG58" s="251"/>
+      <c r="AH58" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="AI58" s="254"/>
-      <c r="AJ58" s="254"/>
-      <c r="AK58" s="254"/>
-      <c r="AL58" s="255"/>
-      <c r="AM58" s="250" t="s">
+      <c r="AI58" s="253"/>
+      <c r="AJ58" s="253"/>
+      <c r="AK58" s="253"/>
+      <c r="AL58" s="254"/>
+      <c r="AM58" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="AN58" s="251"/>
-      <c r="AO58" s="251"/>
-      <c r="AP58" s="251"/>
-      <c r="AQ58" s="251"/>
-      <c r="AR58" s="251"/>
-      <c r="AS58" s="251"/>
-      <c r="AT58" s="251"/>
-      <c r="AU58" s="251"/>
-      <c r="AV58" s="251"/>
-      <c r="AW58" s="256"/>
+      <c r="AN58" s="250"/>
+      <c r="AO58" s="250"/>
+      <c r="AP58" s="250"/>
+      <c r="AQ58" s="250"/>
+      <c r="AR58" s="250"/>
+      <c r="AS58" s="250"/>
+      <c r="AT58" s="250"/>
+      <c r="AU58" s="250"/>
+      <c r="AV58" s="250"/>
+      <c r="AW58" s="255"/>
     </row>
     <row r="59" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A59" s="21"/>
@@ -29494,7 +29174,7 @@
       <c r="A62" s="21"/>
       <c r="B62" s="29"/>
       <c r="C62" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
@@ -29608,7 +29288,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="171" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E64" s="73"/>
       <c r="F64" s="73"/>
@@ -29665,7 +29345,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="153" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E65" s="154"/>
       <c r="F65" s="154"/>
@@ -29906,7 +29586,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="82" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E70" s="83"/>
       <c r="F70" s="83"/>
@@ -30004,7 +29684,7 @@
       <c r="W71" s="94"/>
       <c r="X71" s="94"/>
       <c r="Y71" s="99"/>
-      <c r="Z71" s="396" t="s">
+      <c r="Z71" s="197" t="s">
         <v>69</v>
       </c>
       <c r="AA71" s="94"/>
@@ -30153,7 +29833,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="172" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E75" s="173"/>
       <c r="F75" s="173"/>
@@ -30165,7 +29845,7 @@
       <c r="L75" s="173"/>
       <c r="M75" s="174"/>
       <c r="N75" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O75" s="116"/>
       <c r="P75" s="116"/>
@@ -30206,12 +29886,8 @@
     <row r="76" spans="1:50" ht="13.5" customHeight="1">
       <c r="A76" s="21"/>
       <c r="B76" s="29"/>
-      <c r="C76" s="115">
-        <v>2</v>
-      </c>
-      <c r="D76" s="172" t="s">
-        <v>135</v>
-      </c>
+      <c r="C76" s="115"/>
+      <c r="D76" s="172"/>
       <c r="E76" s="173"/>
       <c r="F76" s="173"/>
       <c r="G76" s="173"/>
@@ -30221,9 +29897,7 @@
       <c r="K76" s="173"/>
       <c r="L76" s="173"/>
       <c r="M76" s="174"/>
-      <c r="N76" s="118" t="s">
-        <v>138</v>
-      </c>
+      <c r="N76" s="118"/>
       <c r="O76" s="116"/>
       <c r="P76" s="116"/>
       <c r="Q76" s="116"/>
@@ -31061,187 +30735,187 @@
       <c r="AW92" s="163"/>
     </row>
     <row r="93" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A93" s="221" t="s">
+      <c r="A93" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="222"/>
-      <c r="C93" s="222"/>
-      <c r="D93" s="222"/>
-      <c r="E93" s="222"/>
-      <c r="F93" s="222"/>
-      <c r="G93" s="222"/>
-      <c r="H93" s="222"/>
-      <c r="I93" s="223"/>
-      <c r="J93" s="230" t="s">
+      <c r="B93" s="221"/>
+      <c r="C93" s="221"/>
+      <c r="D93" s="221"/>
+      <c r="E93" s="221"/>
+      <c r="F93" s="221"/>
+      <c r="G93" s="221"/>
+      <c r="H93" s="221"/>
+      <c r="I93" s="222"/>
+      <c r="J93" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="K93" s="222"/>
-      <c r="L93" s="222"/>
-      <c r="M93" s="222"/>
-      <c r="N93" s="222"/>
-      <c r="O93" s="223"/>
-      <c r="P93" s="230" t="s">
+      <c r="K93" s="221"/>
+      <c r="L93" s="221"/>
+      <c r="M93" s="221"/>
+      <c r="N93" s="221"/>
+      <c r="O93" s="222"/>
+      <c r="P93" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="Q93" s="222"/>
-      <c r="R93" s="222"/>
-      <c r="S93" s="222"/>
-      <c r="T93" s="222"/>
-      <c r="U93" s="223"/>
-      <c r="V93" s="236" t="s">
+      <c r="Q93" s="221"/>
+      <c r="R93" s="221"/>
+      <c r="S93" s="221"/>
+      <c r="T93" s="221"/>
+      <c r="U93" s="222"/>
+      <c r="V93" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="W93" s="237"/>
-      <c r="X93" s="237"/>
-      <c r="Y93" s="237"/>
-      <c r="Z93" s="238"/>
-      <c r="AA93" s="242" t="s">
+      <c r="W93" s="236"/>
+      <c r="X93" s="236"/>
+      <c r="Y93" s="236"/>
+      <c r="Z93" s="237"/>
+      <c r="AA93" s="241" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB93" s="221"/>
+      <c r="AC93" s="221"/>
+      <c r="AD93" s="221"/>
+      <c r="AE93" s="221"/>
+      <c r="AF93" s="221"/>
+      <c r="AG93" s="221"/>
+      <c r="AH93" s="221"/>
+      <c r="AI93" s="221"/>
+      <c r="AJ93" s="221"/>
+      <c r="AK93" s="221"/>
+      <c r="AL93" s="222"/>
+      <c r="AM93" s="230" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN93" s="231"/>
+      <c r="AO93" s="243" t="s">
         <v>130</v>
       </c>
-      <c r="AB93" s="222"/>
-      <c r="AC93" s="222"/>
-      <c r="AD93" s="222"/>
-      <c r="AE93" s="222"/>
-      <c r="AF93" s="222"/>
-      <c r="AG93" s="222"/>
-      <c r="AH93" s="222"/>
-      <c r="AI93" s="222"/>
-      <c r="AJ93" s="222"/>
-      <c r="AK93" s="222"/>
-      <c r="AL93" s="223"/>
-      <c r="AM93" s="231" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN93" s="232"/>
-      <c r="AO93" s="244" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP93" s="245"/>
-      <c r="AQ93" s="246"/>
-      <c r="AR93" s="231" t="s">
+      <c r="AP93" s="244"/>
+      <c r="AQ93" s="245"/>
+      <c r="AR93" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="AS93" s="232"/>
-      <c r="AT93" s="233">
+      <c r="AS93" s="231"/>
+      <c r="AT93" s="232">
         <v>45204</v>
       </c>
-      <c r="AU93" s="234"/>
-      <c r="AV93" s="234"/>
-      <c r="AW93" s="235"/>
+      <c r="AU93" s="233"/>
+      <c r="AV93" s="233"/>
+      <c r="AW93" s="234"/>
     </row>
     <row r="94" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A94" s="224"/>
-      <c r="B94" s="225"/>
-      <c r="C94" s="225"/>
-      <c r="D94" s="225"/>
-      <c r="E94" s="225"/>
-      <c r="F94" s="225"/>
-      <c r="G94" s="225"/>
-      <c r="H94" s="225"/>
-      <c r="I94" s="226"/>
-      <c r="J94" s="224"/>
-      <c r="K94" s="225"/>
-      <c r="L94" s="225"/>
-      <c r="M94" s="225"/>
-      <c r="N94" s="225"/>
-      <c r="O94" s="226"/>
-      <c r="P94" s="224"/>
-      <c r="Q94" s="225"/>
-      <c r="R94" s="225"/>
-      <c r="S94" s="225"/>
-      <c r="T94" s="225"/>
-      <c r="U94" s="226"/>
-      <c r="V94" s="239"/>
-      <c r="W94" s="240"/>
-      <c r="X94" s="240"/>
-      <c r="Y94" s="240"/>
-      <c r="Z94" s="241"/>
-      <c r="AA94" s="243"/>
-      <c r="AB94" s="225"/>
-      <c r="AC94" s="225"/>
-      <c r="AD94" s="225"/>
-      <c r="AE94" s="225"/>
-      <c r="AF94" s="225"/>
-      <c r="AG94" s="225"/>
-      <c r="AH94" s="225"/>
-      <c r="AI94" s="225"/>
-      <c r="AJ94" s="225"/>
-      <c r="AK94" s="225"/>
-      <c r="AL94" s="226"/>
-      <c r="AM94" s="257" t="s">
+      <c r="A94" s="223"/>
+      <c r="B94" s="224"/>
+      <c r="C94" s="224"/>
+      <c r="D94" s="224"/>
+      <c r="E94" s="224"/>
+      <c r="F94" s="224"/>
+      <c r="G94" s="224"/>
+      <c r="H94" s="224"/>
+      <c r="I94" s="225"/>
+      <c r="J94" s="223"/>
+      <c r="K94" s="224"/>
+      <c r="L94" s="224"/>
+      <c r="M94" s="224"/>
+      <c r="N94" s="224"/>
+      <c r="O94" s="225"/>
+      <c r="P94" s="223"/>
+      <c r="Q94" s="224"/>
+      <c r="R94" s="224"/>
+      <c r="S94" s="224"/>
+      <c r="T94" s="224"/>
+      <c r="U94" s="225"/>
+      <c r="V94" s="238"/>
+      <c r="W94" s="239"/>
+      <c r="X94" s="239"/>
+      <c r="Y94" s="239"/>
+      <c r="Z94" s="240"/>
+      <c r="AA94" s="242"/>
+      <c r="AB94" s="224"/>
+      <c r="AC94" s="224"/>
+      <c r="AD94" s="224"/>
+      <c r="AE94" s="224"/>
+      <c r="AF94" s="224"/>
+      <c r="AG94" s="224"/>
+      <c r="AH94" s="224"/>
+      <c r="AI94" s="224"/>
+      <c r="AJ94" s="224"/>
+      <c r="AK94" s="224"/>
+      <c r="AL94" s="225"/>
+      <c r="AM94" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AN94" s="258"/>
-      <c r="AO94" s="259"/>
-      <c r="AP94" s="260"/>
-      <c r="AQ94" s="261"/>
-      <c r="AR94" s="257" t="s">
+      <c r="AN94" s="257"/>
+      <c r="AO94" s="258"/>
+      <c r="AP94" s="259"/>
+      <c r="AQ94" s="260"/>
+      <c r="AR94" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="AS94" s="258"/>
-      <c r="AT94" s="262"/>
-      <c r="AU94" s="263"/>
-      <c r="AV94" s="263"/>
-      <c r="AW94" s="264"/>
+      <c r="AS94" s="257"/>
+      <c r="AT94" s="261"/>
+      <c r="AU94" s="262"/>
+      <c r="AV94" s="262"/>
+      <c r="AW94" s="263"/>
     </row>
     <row r="95" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A95" s="227"/>
-      <c r="B95" s="228"/>
-      <c r="C95" s="228"/>
-      <c r="D95" s="228"/>
-      <c r="E95" s="228"/>
-      <c r="F95" s="228"/>
-      <c r="G95" s="228"/>
-      <c r="H95" s="228"/>
-      <c r="I95" s="229"/>
-      <c r="J95" s="227"/>
-      <c r="K95" s="228"/>
-      <c r="L95" s="228"/>
-      <c r="M95" s="228"/>
-      <c r="N95" s="228"/>
-      <c r="O95" s="229"/>
-      <c r="P95" s="227"/>
-      <c r="Q95" s="228"/>
-      <c r="R95" s="228"/>
-      <c r="S95" s="228"/>
-      <c r="T95" s="228"/>
-      <c r="U95" s="229"/>
-      <c r="V95" s="247" t="s">
+      <c r="A95" s="226"/>
+      <c r="B95" s="227"/>
+      <c r="C95" s="227"/>
+      <c r="D95" s="227"/>
+      <c r="E95" s="227"/>
+      <c r="F95" s="227"/>
+      <c r="G95" s="227"/>
+      <c r="H95" s="227"/>
+      <c r="I95" s="228"/>
+      <c r="J95" s="226"/>
+      <c r="K95" s="227"/>
+      <c r="L95" s="227"/>
+      <c r="M95" s="227"/>
+      <c r="N95" s="227"/>
+      <c r="O95" s="228"/>
+      <c r="P95" s="226"/>
+      <c r="Q95" s="227"/>
+      <c r="R95" s="227"/>
+      <c r="S95" s="227"/>
+      <c r="T95" s="227"/>
+      <c r="U95" s="228"/>
+      <c r="V95" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="W95" s="248"/>
-      <c r="X95" s="248"/>
-      <c r="Y95" s="248"/>
-      <c r="Z95" s="249"/>
-      <c r="AA95" s="250" t="s">
+      <c r="W95" s="247"/>
+      <c r="X95" s="247"/>
+      <c r="Y95" s="247"/>
+      <c r="Z95" s="248"/>
+      <c r="AA95" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="AB95" s="251"/>
-      <c r="AC95" s="251"/>
-      <c r="AD95" s="251"/>
-      <c r="AE95" s="251"/>
-      <c r="AF95" s="251"/>
-      <c r="AG95" s="252"/>
-      <c r="AH95" s="253" t="s">
+      <c r="AB95" s="250"/>
+      <c r="AC95" s="250"/>
+      <c r="AD95" s="250"/>
+      <c r="AE95" s="250"/>
+      <c r="AF95" s="250"/>
+      <c r="AG95" s="251"/>
+      <c r="AH95" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="AI95" s="254"/>
-      <c r="AJ95" s="254"/>
-      <c r="AK95" s="254"/>
-      <c r="AL95" s="255"/>
-      <c r="AM95" s="250" t="s">
+      <c r="AI95" s="253"/>
+      <c r="AJ95" s="253"/>
+      <c r="AK95" s="253"/>
+      <c r="AL95" s="254"/>
+      <c r="AM95" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="AN95" s="251"/>
-      <c r="AO95" s="251"/>
-      <c r="AP95" s="251"/>
-      <c r="AQ95" s="251"/>
-      <c r="AR95" s="251"/>
-      <c r="AS95" s="251"/>
-      <c r="AT95" s="251"/>
-      <c r="AU95" s="251"/>
-      <c r="AV95" s="251"/>
-      <c r="AW95" s="256"/>
+      <c r="AN95" s="250"/>
+      <c r="AO95" s="250"/>
+      <c r="AP95" s="250"/>
+      <c r="AQ95" s="250"/>
+      <c r="AR95" s="250"/>
+      <c r="AS95" s="250"/>
+      <c r="AT95" s="250"/>
+      <c r="AU95" s="250"/>
+      <c r="AV95" s="250"/>
+      <c r="AW95" s="255"/>
     </row>
     <row r="96" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A96" s="21"/>
@@ -31421,7 +31095,7 @@
     <row r="102" spans="1:49" ht="13.5" customHeight="1">
       <c r="A102" s="21"/>
       <c r="D102" s="23" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E102" s="23"/>
       <c r="F102" s="23"/>
@@ -31453,7 +31127,7 @@
     <row r="103" spans="1:49" ht="13.5" customHeight="1">
       <c r="A103" s="21"/>
       <c r="D103" s="23" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="23"/>
@@ -31546,9 +31220,6 @@
     </row>
     <row r="106" spans="1:49" ht="13.5" customHeight="1">
       <c r="A106" s="21"/>
-      <c r="C106" s="19" t="s">
-        <v>141</v>
-      </c>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
       <c r="F106" s="23"/>
@@ -31579,9 +31250,7 @@
     </row>
     <row r="107" spans="1:49" ht="13.5" customHeight="1">
       <c r="A107" s="21"/>
-      <c r="D107" s="23" t="s">
-        <v>142</v>
-      </c>
+      <c r="D107" s="23"/>
       <c r="E107" s="23"/>
       <c r="F107" s="23"/>
       <c r="G107" s="23"/>
@@ -31700,187 +31369,187 @@
       <c r="AW110" s="163"/>
     </row>
     <row r="111" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A111" s="221" t="s">
+      <c r="A111" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="B111" s="222"/>
-      <c r="C111" s="222"/>
-      <c r="D111" s="222"/>
-      <c r="E111" s="222"/>
-      <c r="F111" s="222"/>
-      <c r="G111" s="222"/>
-      <c r="H111" s="222"/>
-      <c r="I111" s="223"/>
-      <c r="J111" s="230" t="s">
+      <c r="B111" s="221"/>
+      <c r="C111" s="221"/>
+      <c r="D111" s="221"/>
+      <c r="E111" s="221"/>
+      <c r="F111" s="221"/>
+      <c r="G111" s="221"/>
+      <c r="H111" s="221"/>
+      <c r="I111" s="222"/>
+      <c r="J111" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="K111" s="222"/>
-      <c r="L111" s="222"/>
-      <c r="M111" s="222"/>
-      <c r="N111" s="222"/>
-      <c r="O111" s="223"/>
-      <c r="P111" s="230" t="s">
+      <c r="K111" s="221"/>
+      <c r="L111" s="221"/>
+      <c r="M111" s="221"/>
+      <c r="N111" s="221"/>
+      <c r="O111" s="222"/>
+      <c r="P111" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="Q111" s="222"/>
-      <c r="R111" s="222"/>
-      <c r="S111" s="222"/>
-      <c r="T111" s="222"/>
-      <c r="U111" s="223"/>
-      <c r="V111" s="236" t="s">
+      <c r="Q111" s="221"/>
+      <c r="R111" s="221"/>
+      <c r="S111" s="221"/>
+      <c r="T111" s="221"/>
+      <c r="U111" s="222"/>
+      <c r="V111" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="W111" s="237"/>
-      <c r="X111" s="237"/>
-      <c r="Y111" s="237"/>
-      <c r="Z111" s="238"/>
-      <c r="AA111" s="242" t="s">
+      <c r="W111" s="236"/>
+      <c r="X111" s="236"/>
+      <c r="Y111" s="236"/>
+      <c r="Z111" s="237"/>
+      <c r="AA111" s="241" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB111" s="221"/>
+      <c r="AC111" s="221"/>
+      <c r="AD111" s="221"/>
+      <c r="AE111" s="221"/>
+      <c r="AF111" s="221"/>
+      <c r="AG111" s="221"/>
+      <c r="AH111" s="221"/>
+      <c r="AI111" s="221"/>
+      <c r="AJ111" s="221"/>
+      <c r="AK111" s="221"/>
+      <c r="AL111" s="222"/>
+      <c r="AM111" s="230" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN111" s="231"/>
+      <c r="AO111" s="243" t="s">
         <v>130</v>
       </c>
-      <c r="AB111" s="222"/>
-      <c r="AC111" s="222"/>
-      <c r="AD111" s="222"/>
-      <c r="AE111" s="222"/>
-      <c r="AF111" s="222"/>
-      <c r="AG111" s="222"/>
-      <c r="AH111" s="222"/>
-      <c r="AI111" s="222"/>
-      <c r="AJ111" s="222"/>
-      <c r="AK111" s="222"/>
-      <c r="AL111" s="223"/>
-      <c r="AM111" s="231" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN111" s="232"/>
-      <c r="AO111" s="244" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP111" s="245"/>
-      <c r="AQ111" s="246"/>
-      <c r="AR111" s="231" t="s">
+      <c r="AP111" s="244"/>
+      <c r="AQ111" s="245"/>
+      <c r="AR111" s="230" t="s">
         <v>26</v>
       </c>
-      <c r="AS111" s="232"/>
-      <c r="AT111" s="233">
+      <c r="AS111" s="231"/>
+      <c r="AT111" s="232">
         <v>45204</v>
       </c>
-      <c r="AU111" s="234"/>
-      <c r="AV111" s="234"/>
-      <c r="AW111" s="235"/>
+      <c r="AU111" s="233"/>
+      <c r="AV111" s="233"/>
+      <c r="AW111" s="234"/>
     </row>
     <row r="112" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A112" s="224"/>
-      <c r="B112" s="225"/>
-      <c r="C112" s="225"/>
-      <c r="D112" s="225"/>
-      <c r="E112" s="225"/>
-      <c r="F112" s="225"/>
-      <c r="G112" s="225"/>
-      <c r="H112" s="225"/>
-      <c r="I112" s="226"/>
-      <c r="J112" s="224"/>
-      <c r="K112" s="225"/>
-      <c r="L112" s="225"/>
-      <c r="M112" s="225"/>
-      <c r="N112" s="225"/>
-      <c r="O112" s="226"/>
-      <c r="P112" s="224"/>
-      <c r="Q112" s="225"/>
-      <c r="R112" s="225"/>
-      <c r="S112" s="225"/>
-      <c r="T112" s="225"/>
-      <c r="U112" s="226"/>
-      <c r="V112" s="239"/>
-      <c r="W112" s="240"/>
-      <c r="X112" s="240"/>
-      <c r="Y112" s="240"/>
-      <c r="Z112" s="241"/>
-      <c r="AA112" s="243"/>
-      <c r="AB112" s="225"/>
-      <c r="AC112" s="225"/>
-      <c r="AD112" s="225"/>
-      <c r="AE112" s="225"/>
-      <c r="AF112" s="225"/>
-      <c r="AG112" s="225"/>
-      <c r="AH112" s="225"/>
-      <c r="AI112" s="225"/>
-      <c r="AJ112" s="225"/>
-      <c r="AK112" s="225"/>
-      <c r="AL112" s="226"/>
-      <c r="AM112" s="257" t="s">
+      <c r="A112" s="223"/>
+      <c r="B112" s="224"/>
+      <c r="C112" s="224"/>
+      <c r="D112" s="224"/>
+      <c r="E112" s="224"/>
+      <c r="F112" s="224"/>
+      <c r="G112" s="224"/>
+      <c r="H112" s="224"/>
+      <c r="I112" s="225"/>
+      <c r="J112" s="223"/>
+      <c r="K112" s="224"/>
+      <c r="L112" s="224"/>
+      <c r="M112" s="224"/>
+      <c r="N112" s="224"/>
+      <c r="O112" s="225"/>
+      <c r="P112" s="223"/>
+      <c r="Q112" s="224"/>
+      <c r="R112" s="224"/>
+      <c r="S112" s="224"/>
+      <c r="T112" s="224"/>
+      <c r="U112" s="225"/>
+      <c r="V112" s="238"/>
+      <c r="W112" s="239"/>
+      <c r="X112" s="239"/>
+      <c r="Y112" s="239"/>
+      <c r="Z112" s="240"/>
+      <c r="AA112" s="242"/>
+      <c r="AB112" s="224"/>
+      <c r="AC112" s="224"/>
+      <c r="AD112" s="224"/>
+      <c r="AE112" s="224"/>
+      <c r="AF112" s="224"/>
+      <c r="AG112" s="224"/>
+      <c r="AH112" s="224"/>
+      <c r="AI112" s="224"/>
+      <c r="AJ112" s="224"/>
+      <c r="AK112" s="224"/>
+      <c r="AL112" s="225"/>
+      <c r="AM112" s="256" t="s">
         <v>25</v>
       </c>
-      <c r="AN112" s="258"/>
-      <c r="AO112" s="259"/>
-      <c r="AP112" s="260"/>
-      <c r="AQ112" s="261"/>
-      <c r="AR112" s="257" t="s">
+      <c r="AN112" s="257"/>
+      <c r="AO112" s="258"/>
+      <c r="AP112" s="259"/>
+      <c r="AQ112" s="260"/>
+      <c r="AR112" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="AS112" s="258"/>
-      <c r="AT112" s="262"/>
-      <c r="AU112" s="263"/>
-      <c r="AV112" s="263"/>
-      <c r="AW112" s="264"/>
+      <c r="AS112" s="257"/>
+      <c r="AT112" s="261"/>
+      <c r="AU112" s="262"/>
+      <c r="AV112" s="262"/>
+      <c r="AW112" s="263"/>
     </row>
     <row r="113" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A113" s="227"/>
-      <c r="B113" s="228"/>
-      <c r="C113" s="228"/>
-      <c r="D113" s="228"/>
-      <c r="E113" s="228"/>
-      <c r="F113" s="228"/>
-      <c r="G113" s="228"/>
-      <c r="H113" s="228"/>
-      <c r="I113" s="229"/>
-      <c r="J113" s="227"/>
-      <c r="K113" s="228"/>
-      <c r="L113" s="228"/>
-      <c r="M113" s="228"/>
-      <c r="N113" s="228"/>
-      <c r="O113" s="229"/>
-      <c r="P113" s="227"/>
-      <c r="Q113" s="228"/>
-      <c r="R113" s="228"/>
-      <c r="S113" s="228"/>
-      <c r="T113" s="228"/>
-      <c r="U113" s="229"/>
-      <c r="V113" s="247" t="s">
+      <c r="A113" s="226"/>
+      <c r="B113" s="227"/>
+      <c r="C113" s="227"/>
+      <c r="D113" s="227"/>
+      <c r="E113" s="227"/>
+      <c r="F113" s="227"/>
+      <c r="G113" s="227"/>
+      <c r="H113" s="227"/>
+      <c r="I113" s="228"/>
+      <c r="J113" s="226"/>
+      <c r="K113" s="227"/>
+      <c r="L113" s="227"/>
+      <c r="M113" s="227"/>
+      <c r="N113" s="227"/>
+      <c r="O113" s="228"/>
+      <c r="P113" s="226"/>
+      <c r="Q113" s="227"/>
+      <c r="R113" s="227"/>
+      <c r="S113" s="227"/>
+      <c r="T113" s="227"/>
+      <c r="U113" s="228"/>
+      <c r="V113" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="W113" s="248"/>
-      <c r="X113" s="248"/>
-      <c r="Y113" s="248"/>
-      <c r="Z113" s="249"/>
-      <c r="AA113" s="250" t="s">
+      <c r="W113" s="247"/>
+      <c r="X113" s="247"/>
+      <c r="Y113" s="247"/>
+      <c r="Z113" s="248"/>
+      <c r="AA113" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="AB113" s="251"/>
-      <c r="AC113" s="251"/>
-      <c r="AD113" s="251"/>
-      <c r="AE113" s="251"/>
-      <c r="AF113" s="251"/>
-      <c r="AG113" s="252"/>
-      <c r="AH113" s="253" t="s">
+      <c r="AB113" s="250"/>
+      <c r="AC113" s="250"/>
+      <c r="AD113" s="250"/>
+      <c r="AE113" s="250"/>
+      <c r="AF113" s="250"/>
+      <c r="AG113" s="251"/>
+      <c r="AH113" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="AI113" s="254"/>
-      <c r="AJ113" s="254"/>
-      <c r="AK113" s="254"/>
-      <c r="AL113" s="255"/>
-      <c r="AM113" s="250" t="s">
+      <c r="AI113" s="253"/>
+      <c r="AJ113" s="253"/>
+      <c r="AK113" s="253"/>
+      <c r="AL113" s="254"/>
+      <c r="AM113" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="AN113" s="251"/>
-      <c r="AO113" s="251"/>
-      <c r="AP113" s="251"/>
-      <c r="AQ113" s="251"/>
-      <c r="AR113" s="251"/>
-      <c r="AS113" s="251"/>
-      <c r="AT113" s="251"/>
-      <c r="AU113" s="251"/>
-      <c r="AV113" s="251"/>
-      <c r="AW113" s="256"/>
+      <c r="AN113" s="250"/>
+      <c r="AO113" s="250"/>
+      <c r="AP113" s="250"/>
+      <c r="AQ113" s="250"/>
+      <c r="AR113" s="250"/>
+      <c r="AS113" s="250"/>
+      <c r="AT113" s="250"/>
+      <c r="AU113" s="250"/>
+      <c r="AV113" s="250"/>
+      <c r="AW113" s="255"/>
     </row>
     <row r="114" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A114" s="21"/>
@@ -32117,7 +31786,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="111" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G121" s="109"/>
       <c r="H121" s="109"/>
@@ -32127,7 +31796,7 @@
       <c r="L121" s="109"/>
       <c r="M121" s="110"/>
       <c r="N121" s="111" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="O121" s="109"/>
       <c r="P121" s="109"/>
@@ -32176,7 +31845,7 @@
         <v>2</v>
       </c>
       <c r="F122" s="118" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G122" s="116"/>
       <c r="H122" s="116"/>
@@ -32186,7 +31855,7 @@
       <c r="L122" s="116"/>
       <c r="M122" s="117"/>
       <c r="N122" s="118" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="O122" s="116"/>
       <c r="P122" s="116"/>
@@ -32377,7 +32046,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="116" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G126" s="116"/>
       <c r="H126" s="116"/>
@@ -32386,8 +32055,8 @@
       <c r="K126" s="116"/>
       <c r="L126" s="116"/>
       <c r="M126" s="116"/>
-      <c r="N126" s="395" t="s">
-        <v>143</v>
+      <c r="N126" s="196" t="s">
+        <v>132</v>
       </c>
       <c r="O126" s="116"/>
       <c r="P126" s="116"/>
@@ -32430,12 +32099,8 @@
     <row r="127" spans="1:49" ht="13.5" customHeight="1">
       <c r="A127" s="21"/>
       <c r="D127" s="23"/>
-      <c r="E127" s="115">
-        <v>2</v>
-      </c>
-      <c r="F127" s="116" t="s">
-        <v>135</v>
-      </c>
+      <c r="E127" s="115"/>
+      <c r="F127" s="116"/>
       <c r="G127" s="116"/>
       <c r="H127" s="116"/>
       <c r="I127" s="116"/>
@@ -32443,9 +32108,7 @@
       <c r="K127" s="116"/>
       <c r="L127" s="116"/>
       <c r="M127" s="116"/>
-      <c r="N127" s="118" t="s">
-        <v>135</v>
-      </c>
+      <c r="N127" s="118"/>
       <c r="O127" s="116"/>
       <c r="P127" s="116"/>
       <c r="Q127" s="116"/>
@@ -32469,9 +32132,7 @@
       <c r="AI127" s="116"/>
       <c r="AJ127" s="116"/>
       <c r="AK127" s="116"/>
-      <c r="AL127" s="118" t="s">
-        <v>101</v>
-      </c>
+      <c r="AL127" s="118"/>
       <c r="AM127" s="116"/>
       <c r="AN127" s="117"/>
       <c r="AO127" s="116"/>
@@ -32588,7 +32249,7 @@
     <row r="130" spans="1:62" ht="13.5" customHeight="1">
       <c r="A130" s="21"/>
       <c r="D130" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E130" s="113"/>
       <c r="F130" s="23"/>
@@ -32802,7 +32463,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="142" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G134" s="143"/>
       <c r="H134" s="143"/>
@@ -32835,8 +32496,8 @@
       <c r="AG134" s="146"/>
       <c r="AH134" s="146"/>
       <c r="AI134" s="151"/>
-      <c r="AJ134" s="175" t="s">
-        <v>121</v>
+      <c r="AJ134" s="380" t="s">
+        <v>141</v>
       </c>
       <c r="AK134" s="147"/>
       <c r="AL134" s="147"/>
@@ -32893,8 +32554,8 @@
       <c r="AG135" s="139"/>
       <c r="AH135" s="139"/>
       <c r="AI135" s="152"/>
-      <c r="AJ135" s="176" t="s">
-        <v>122</v>
+      <c r="AJ135" s="380" t="s">
+        <v>142</v>
       </c>
       <c r="AK135" s="140"/>
       <c r="AL135" s="140"/>
@@ -32918,7 +32579,7 @@
         <v>3</v>
       </c>
       <c r="F136" s="135" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G136" s="136"/>
       <c r="H136" s="136"/>
@@ -32928,7 +32589,7 @@
       <c r="L136" s="137"/>
       <c r="M136" s="138"/>
       <c r="N136" s="135" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O136" s="136"/>
       <c r="P136" s="136"/>
@@ -32951,8 +32612,8 @@
       <c r="AG136" s="139"/>
       <c r="AH136" s="139"/>
       <c r="AI136" s="152"/>
-      <c r="AJ136" s="176" t="s">
-        <v>123</v>
+      <c r="AJ136" s="380" t="s">
+        <v>143</v>
       </c>
       <c r="AK136" s="140"/>
       <c r="AL136" s="140"/>
@@ -32969,74 +32630,66 @@
       <c r="AW136" s="163"/>
       <c r="AY136" s="170"/>
     </row>
-    <row r="137" spans="1:62" ht="29.1" customHeight="1">
+    <row r="137" spans="1:62" ht="13.8">
       <c r="A137" s="21"/>
       <c r="D137" s="23"/>
-      <c r="E137" s="177">
-        <v>4</v>
-      </c>
-      <c r="F137" s="178" t="s">
-        <v>69</v>
-      </c>
-      <c r="G137" s="179"/>
-      <c r="H137" s="179"/>
+      <c r="E137" s="175"/>
+      <c r="F137" s="176"/>
+      <c r="G137" s="177"/>
+      <c r="H137" s="177"/>
       <c r="I137" s="161"/>
       <c r="J137" s="161"/>
       <c r="K137" s="161"/>
       <c r="L137" s="161"/>
-      <c r="M137" s="180"/>
-      <c r="N137" s="355" t="s">
-        <v>102</v>
-      </c>
-      <c r="O137" s="356"/>
-      <c r="P137" s="356"/>
-      <c r="Q137" s="356"/>
-      <c r="R137" s="356"/>
-      <c r="S137" s="356"/>
-      <c r="T137" s="356"/>
-      <c r="U137" s="356"/>
-      <c r="V137" s="356"/>
-      <c r="W137" s="356"/>
-      <c r="X137" s="356"/>
-      <c r="Y137" s="356"/>
-      <c r="Z137" s="356"/>
-      <c r="AA137" s="356"/>
-      <c r="AB137" s="356"/>
-      <c r="AC137" s="356"/>
-      <c r="AD137" s="356"/>
-      <c r="AE137" s="356"/>
-      <c r="AF137" s="356"/>
-      <c r="AG137" s="356"/>
-      <c r="AH137" s="356"/>
-      <c r="AI137" s="357"/>
-      <c r="AJ137" s="181" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK137" s="182"/>
-      <c r="AL137" s="182"/>
-      <c r="AM137" s="182"/>
-      <c r="AN137" s="182"/>
-      <c r="AO137" s="182"/>
-      <c r="AP137" s="182"/>
-      <c r="AQ137" s="182"/>
-      <c r="AR137" s="182"/>
-      <c r="AS137" s="182"/>
-      <c r="AT137" s="182"/>
-      <c r="AU137" s="183"/>
+      <c r="M137" s="178"/>
+      <c r="N137" s="339"/>
+      <c r="O137" s="340"/>
+      <c r="P137" s="340"/>
+      <c r="Q137" s="340"/>
+      <c r="R137" s="340"/>
+      <c r="S137" s="340"/>
+      <c r="T137" s="340"/>
+      <c r="U137" s="340"/>
+      <c r="V137" s="340"/>
+      <c r="W137" s="340"/>
+      <c r="X137" s="340"/>
+      <c r="Y137" s="340"/>
+      <c r="Z137" s="340"/>
+      <c r="AA137" s="340"/>
+      <c r="AB137" s="340"/>
+      <c r="AC137" s="340"/>
+      <c r="AD137" s="340"/>
+      <c r="AE137" s="340"/>
+      <c r="AF137" s="340"/>
+      <c r="AG137" s="340"/>
+      <c r="AH137" s="340"/>
+      <c r="AI137" s="341"/>
+      <c r="AJ137" s="179"/>
+      <c r="AK137" s="180"/>
+      <c r="AL137" s="180"/>
+      <c r="AM137" s="180"/>
+      <c r="AN137" s="180"/>
+      <c r="AO137" s="180"/>
+      <c r="AP137" s="180"/>
+      <c r="AQ137" s="180"/>
+      <c r="AR137" s="180"/>
+      <c r="AS137" s="180"/>
+      <c r="AT137" s="180"/>
+      <c r="AU137" s="181"/>
       <c r="AV137" s="23"/>
       <c r="AW137" s="163"/>
-      <c r="AY137" s="336"/>
-      <c r="AZ137" s="336"/>
-      <c r="BA137" s="336"/>
-      <c r="BB137" s="336"/>
-      <c r="BC137" s="336"/>
-      <c r="BD137" s="336"/>
-      <c r="BE137" s="336"/>
-      <c r="BF137" s="336"/>
-      <c r="BG137" s="336"/>
-      <c r="BH137" s="336"/>
-      <c r="BI137" s="336"/>
-      <c r="BJ137" s="336"/>
+      <c r="AY137" s="320"/>
+      <c r="AZ137" s="320"/>
+      <c r="BA137" s="320"/>
+      <c r="BB137" s="320"/>
+      <c r="BC137" s="320"/>
+      <c r="BD137" s="320"/>
+      <c r="BE137" s="320"/>
+      <c r="BF137" s="320"/>
+      <c r="BG137" s="320"/>
+      <c r="BH137" s="320"/>
+      <c r="BI137" s="320"/>
+      <c r="BJ137" s="320"/>
     </row>
     <row r="138" spans="1:62" ht="13.5" customHeight="1">
       <c r="A138" s="21"/>
@@ -33188,7 +32841,7 @@
     <row r="141" spans="1:62" ht="13.5" customHeight="1">
       <c r="A141" s="21"/>
       <c r="D141" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E141" s="129"/>
       <c r="F141" s="157"/>
@@ -33239,72 +32892,72 @@
     <row r="142" spans="1:62" ht="13.5" customHeight="1">
       <c r="A142" s="21"/>
       <c r="D142" s="23"/>
-      <c r="E142" s="337" t="s">
+      <c r="E142" s="321" t="s">
+        <v>103</v>
+      </c>
+      <c r="F142" s="322"/>
+      <c r="G142" s="322"/>
+      <c r="H142" s="322"/>
+      <c r="I142" s="322"/>
+      <c r="J142" s="322"/>
+      <c r="K142" s="323"/>
+      <c r="L142" s="330" t="s">
         <v>104</v>
       </c>
-      <c r="F142" s="338"/>
-      <c r="G142" s="338"/>
-      <c r="H142" s="338"/>
-      <c r="I142" s="338"/>
-      <c r="J142" s="338"/>
-      <c r="K142" s="339"/>
-      <c r="L142" s="346" t="s">
-        <v>105</v>
-      </c>
-      <c r="M142" s="347"/>
-      <c r="N142" s="347"/>
-      <c r="O142" s="347"/>
-      <c r="P142" s="347"/>
-      <c r="Q142" s="347"/>
-      <c r="R142" s="347"/>
-      <c r="S142" s="347"/>
-      <c r="T142" s="347"/>
-      <c r="U142" s="347"/>
-      <c r="V142" s="347"/>
-      <c r="W142" s="347"/>
-      <c r="X142" s="347"/>
-      <c r="Y142" s="347"/>
-      <c r="Z142" s="347"/>
-      <c r="AA142" s="347"/>
-      <c r="AB142" s="347"/>
-      <c r="AC142" s="347"/>
-      <c r="AD142" s="347"/>
-      <c r="AE142" s="347"/>
-      <c r="AF142" s="347"/>
-      <c r="AG142" s="347"/>
-      <c r="AH142" s="347"/>
-      <c r="AI142" s="347"/>
-      <c r="AJ142" s="347"/>
-      <c r="AK142" s="347"/>
-      <c r="AL142" s="347"/>
-      <c r="AM142" s="347"/>
-      <c r="AN142" s="347"/>
-      <c r="AO142" s="347"/>
-      <c r="AP142" s="347"/>
-      <c r="AQ142" s="347"/>
-      <c r="AR142" s="347"/>
-      <c r="AS142" s="347"/>
-      <c r="AT142" s="347"/>
-      <c r="AU142" s="348"/>
+      <c r="M142" s="331"/>
+      <c r="N142" s="331"/>
+      <c r="O142" s="331"/>
+      <c r="P142" s="331"/>
+      <c r="Q142" s="331"/>
+      <c r="R142" s="331"/>
+      <c r="S142" s="331"/>
+      <c r="T142" s="331"/>
+      <c r="U142" s="331"/>
+      <c r="V142" s="331"/>
+      <c r="W142" s="331"/>
+      <c r="X142" s="331"/>
+      <c r="Y142" s="331"/>
+      <c r="Z142" s="331"/>
+      <c r="AA142" s="331"/>
+      <c r="AB142" s="331"/>
+      <c r="AC142" s="331"/>
+      <c r="AD142" s="331"/>
+      <c r="AE142" s="331"/>
+      <c r="AF142" s="331"/>
+      <c r="AG142" s="331"/>
+      <c r="AH142" s="331"/>
+      <c r="AI142" s="331"/>
+      <c r="AJ142" s="331"/>
+      <c r="AK142" s="331"/>
+      <c r="AL142" s="331"/>
+      <c r="AM142" s="331"/>
+      <c r="AN142" s="331"/>
+      <c r="AO142" s="331"/>
+      <c r="AP142" s="331"/>
+      <c r="AQ142" s="331"/>
+      <c r="AR142" s="331"/>
+      <c r="AS142" s="331"/>
+      <c r="AT142" s="331"/>
+      <c r="AU142" s="332"/>
       <c r="AV142" s="23"/>
       <c r="AW142" s="163"/>
     </row>
     <row r="143" spans="1:62" ht="13.5" customHeight="1">
       <c r="A143" s="21"/>
       <c r="D143" s="23"/>
-      <c r="E143" s="340" t="s">
-        <v>127</v>
+      <c r="E143" s="324" t="s">
+        <v>120</v>
       </c>
-      <c r="F143" s="341"/>
-      <c r="G143" s="341"/>
-      <c r="H143" s="341"/>
-      <c r="I143" s="341"/>
-      <c r="J143" s="341"/>
-      <c r="K143" s="342"/>
+      <c r="F143" s="325"/>
+      <c r="G143" s="325"/>
+      <c r="H143" s="325"/>
+      <c r="I143" s="325"/>
+      <c r="J143" s="325"/>
+      <c r="K143" s="326"/>
       <c r="L143" s="159"/>
       <c r="M143" s="144"/>
       <c r="N143" s="144" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O143" s="144"/>
       <c r="P143" s="144"/>
@@ -33317,10 +32970,10 @@
       <c r="W143" s="146"/>
       <c r="X143" s="146"/>
       <c r="Y143" s="146" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Z143" s="146" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AA143" s="146"/>
       <c r="AB143" s="146"/>
@@ -33349,17 +33002,17 @@
     <row r="144" spans="1:62" ht="13.5" customHeight="1">
       <c r="A144" s="21"/>
       <c r="D144" s="23"/>
-      <c r="E144" s="343"/>
-      <c r="F144" s="344"/>
-      <c r="G144" s="344"/>
-      <c r="H144" s="344"/>
-      <c r="I144" s="344"/>
-      <c r="J144" s="344"/>
-      <c r="K144" s="345"/>
+      <c r="E144" s="327"/>
+      <c r="F144" s="328"/>
+      <c r="G144" s="328"/>
+      <c r="H144" s="328"/>
+      <c r="I144" s="328"/>
+      <c r="J144" s="328"/>
+      <c r="K144" s="329"/>
       <c r="L144" s="160"/>
       <c r="M144" s="161"/>
       <c r="N144" s="161" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O144" s="161"/>
       <c r="P144" s="161"/>
@@ -33372,10 +33025,10 @@
       <c r="W144" s="162"/>
       <c r="X144" s="162"/>
       <c r="Y144" s="162" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Z144" s="146" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="AA144" s="146"/>
       <c r="AB144" s="146"/>
@@ -33454,7 +33107,7 @@
       <c r="A146" s="21"/>
       <c r="D146" s="23"/>
       <c r="E146" s="129" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F146" s="23"/>
       <c r="G146" s="23"/>
@@ -33505,7 +33158,7 @@
       <c r="A147" s="21"/>
       <c r="D147" s="23"/>
       <c r="E147" s="129" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F147" s="120"/>
       <c r="G147" s="23"/>
@@ -33556,50 +33209,50 @@
       <c r="A148" s="21"/>
       <c r="D148" s="129"/>
       <c r="E148" s="113"/>
-      <c r="F148" s="397" t="s">
-        <v>151</v>
+      <c r="F148" s="342" t="s">
+        <v>140</v>
       </c>
-      <c r="G148" s="397"/>
-      <c r="H148" s="397"/>
-      <c r="I148" s="397"/>
-      <c r="J148" s="397"/>
-      <c r="K148" s="397"/>
-      <c r="L148" s="397"/>
-      <c r="M148" s="397"/>
-      <c r="N148" s="397"/>
-      <c r="O148" s="397"/>
-      <c r="P148" s="397"/>
-      <c r="Q148" s="397"/>
-      <c r="R148" s="397"/>
-      <c r="S148" s="397"/>
-      <c r="T148" s="397"/>
-      <c r="U148" s="397"/>
-      <c r="V148" s="397"/>
-      <c r="W148" s="397"/>
-      <c r="X148" s="397"/>
-      <c r="Y148" s="397"/>
-      <c r="Z148" s="397"/>
-      <c r="AA148" s="397"/>
-      <c r="AB148" s="397"/>
-      <c r="AC148" s="397"/>
-      <c r="AD148" s="397"/>
-      <c r="AE148" s="397"/>
-      <c r="AF148" s="397"/>
-      <c r="AG148" s="397"/>
-      <c r="AH148" s="397"/>
-      <c r="AI148" s="397"/>
-      <c r="AJ148" s="397"/>
-      <c r="AK148" s="397"/>
-      <c r="AL148" s="397"/>
-      <c r="AM148" s="397"/>
-      <c r="AN148" s="397"/>
-      <c r="AO148" s="397"/>
-      <c r="AP148" s="397"/>
-      <c r="AQ148" s="397"/>
-      <c r="AR148" s="397"/>
-      <c r="AS148" s="397"/>
-      <c r="AT148" s="397"/>
-      <c r="AU148" s="397"/>
+      <c r="G148" s="342"/>
+      <c r="H148" s="342"/>
+      <c r="I148" s="342"/>
+      <c r="J148" s="342"/>
+      <c r="K148" s="342"/>
+      <c r="L148" s="342"/>
+      <c r="M148" s="342"/>
+      <c r="N148" s="342"/>
+      <c r="O148" s="342"/>
+      <c r="P148" s="342"/>
+      <c r="Q148" s="342"/>
+      <c r="R148" s="342"/>
+      <c r="S148" s="342"/>
+      <c r="T148" s="342"/>
+      <c r="U148" s="342"/>
+      <c r="V148" s="342"/>
+      <c r="W148" s="342"/>
+      <c r="X148" s="342"/>
+      <c r="Y148" s="342"/>
+      <c r="Z148" s="342"/>
+      <c r="AA148" s="342"/>
+      <c r="AB148" s="342"/>
+      <c r="AC148" s="342"/>
+      <c r="AD148" s="342"/>
+      <c r="AE148" s="342"/>
+      <c r="AF148" s="342"/>
+      <c r="AG148" s="342"/>
+      <c r="AH148" s="342"/>
+      <c r="AI148" s="342"/>
+      <c r="AJ148" s="342"/>
+      <c r="AK148" s="342"/>
+      <c r="AL148" s="342"/>
+      <c r="AM148" s="342"/>
+      <c r="AN148" s="342"/>
+      <c r="AO148" s="342"/>
+      <c r="AP148" s="342"/>
+      <c r="AQ148" s="342"/>
+      <c r="AR148" s="342"/>
+      <c r="AS148" s="342"/>
+      <c r="AT148" s="342"/>
+      <c r="AU148" s="342"/>
       <c r="AV148" s="23"/>
       <c r="AW148" s="163"/>
     </row>
@@ -33608,7 +33261,7 @@
       <c r="D149" s="129"/>
       <c r="E149" s="129"/>
       <c r="F149" s="120" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G149" s="23"/>
       <c r="H149" s="23"/>
@@ -33658,7 +33311,7 @@
       <c r="D150" s="129"/>
       <c r="E150" s="113"/>
       <c r="F150" s="120" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G150" s="23"/>
       <c r="H150" s="23"/>
@@ -33707,54 +33360,54 @@
     <row r="151" spans="1:49" ht="13.5" customHeight="1">
       <c r="A151" s="21"/>
       <c r="D151" s="129"/>
-      <c r="E151" s="186" t="s">
+      <c r="E151" s="184" t="s">
+        <v>107</v>
+      </c>
+      <c r="F151" s="182"/>
+      <c r="G151" s="182"/>
+      <c r="H151" s="183"/>
+      <c r="I151" s="321" t="s">
         <v>108</v>
       </c>
-      <c r="F151" s="184"/>
-      <c r="G151" s="184"/>
-      <c r="H151" s="185"/>
-      <c r="I151" s="337" t="s">
+      <c r="J151" s="322"/>
+      <c r="K151" s="322"/>
+      <c r="L151" s="322"/>
+      <c r="M151" s="322"/>
+      <c r="N151" s="322"/>
+      <c r="O151" s="322"/>
+      <c r="P151" s="322"/>
+      <c r="Q151" s="322"/>
+      <c r="R151" s="322"/>
+      <c r="S151" s="322"/>
+      <c r="T151" s="322"/>
+      <c r="U151" s="322"/>
+      <c r="V151" s="322"/>
+      <c r="W151" s="322"/>
+      <c r="X151" s="322"/>
+      <c r="Y151" s="322"/>
+      <c r="Z151" s="322"/>
+      <c r="AA151" s="322"/>
+      <c r="AB151" s="322"/>
+      <c r="AC151" s="322"/>
+      <c r="AD151" s="322"/>
+      <c r="AE151" s="322"/>
+      <c r="AF151" s="322"/>
+      <c r="AG151" s="322"/>
+      <c r="AH151" s="322"/>
+      <c r="AI151" s="323"/>
+      <c r="AJ151" s="321" t="s">
         <v>109</v>
       </c>
-      <c r="J151" s="338"/>
-      <c r="K151" s="338"/>
-      <c r="L151" s="338"/>
-      <c r="M151" s="338"/>
-      <c r="N151" s="338"/>
-      <c r="O151" s="338"/>
-      <c r="P151" s="338"/>
-      <c r="Q151" s="338"/>
-      <c r="R151" s="338"/>
-      <c r="S151" s="338"/>
-      <c r="T151" s="338"/>
-      <c r="U151" s="338"/>
-      <c r="V151" s="338"/>
-      <c r="W151" s="338"/>
-      <c r="X151" s="338"/>
-      <c r="Y151" s="338"/>
-      <c r="Z151" s="338"/>
-      <c r="AA151" s="338"/>
-      <c r="AB151" s="338"/>
-      <c r="AC151" s="338"/>
-      <c r="AD151" s="338"/>
-      <c r="AE151" s="338"/>
-      <c r="AF151" s="338"/>
-      <c r="AG151" s="338"/>
-      <c r="AH151" s="338"/>
-      <c r="AI151" s="339"/>
-      <c r="AJ151" s="337" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK151" s="338"/>
-      <c r="AL151" s="338"/>
-      <c r="AM151" s="338"/>
-      <c r="AN151" s="338"/>
-      <c r="AO151" s="338"/>
-      <c r="AP151" s="338"/>
-      <c r="AQ151" s="338"/>
-      <c r="AR151" s="338"/>
-      <c r="AS151" s="338"/>
-      <c r="AT151" s="339"/>
+      <c r="AK151" s="322"/>
+      <c r="AL151" s="322"/>
+      <c r="AM151" s="322"/>
+      <c r="AN151" s="322"/>
+      <c r="AO151" s="322"/>
+      <c r="AP151" s="322"/>
+      <c r="AQ151" s="322"/>
+      <c r="AR151" s="322"/>
+      <c r="AS151" s="322"/>
+      <c r="AT151" s="323"/>
       <c r="AU151" s="23"/>
       <c r="AV151" s="23"/>
       <c r="AW151" s="163"/>
@@ -33762,14 +33415,14 @@
     <row r="152" spans="1:49" ht="13.5" customHeight="1">
       <c r="A152" s="21"/>
       <c r="D152" s="129"/>
-      <c r="E152" s="349" t="s">
-        <v>111</v>
+      <c r="E152" s="333" t="s">
+        <v>110</v>
       </c>
-      <c r="F152" s="350"/>
-      <c r="G152" s="350"/>
-      <c r="H152" s="351"/>
+      <c r="F152" s="334"/>
+      <c r="G152" s="334"/>
+      <c r="H152" s="335"/>
       <c r="I152" s="111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J152" s="109"/>
       <c r="K152" s="109"/>
@@ -33792,14 +33445,12 @@
       <c r="AB152" s="109"/>
       <c r="AC152" s="109"/>
       <c r="AD152" s="109"/>
-      <c r="AE152" s="187"/>
+      <c r="AE152" s="185"/>
       <c r="AF152" s="109"/>
       <c r="AG152" s="109"/>
       <c r="AH152" s="109"/>
       <c r="AI152" s="110"/>
-      <c r="AJ152" s="188" t="s">
-        <v>125</v>
-      </c>
+      <c r="AJ152" s="186"/>
       <c r="AK152" s="109"/>
       <c r="AL152" s="109"/>
       <c r="AM152" s="109"/>
@@ -33817,14 +33468,14 @@
     <row r="153" spans="1:49" ht="13.5" customHeight="1">
       <c r="A153" s="21"/>
       <c r="D153" s="129"/>
-      <c r="E153" s="352" t="s">
+      <c r="E153" s="336" t="s">
+        <v>111</v>
+      </c>
+      <c r="F153" s="337"/>
+      <c r="G153" s="337"/>
+      <c r="H153" s="338"/>
+      <c r="I153" s="118" t="s">
         <v>112</v>
-      </c>
-      <c r="F153" s="353"/>
-      <c r="G153" s="353"/>
-      <c r="H153" s="354"/>
-      <c r="I153" s="118" t="s">
-        <v>113</v>
       </c>
       <c r="J153" s="116"/>
       <c r="K153" s="116"/>
@@ -33852,8 +33503,8 @@
       <c r="AG153" s="116"/>
       <c r="AH153" s="116"/>
       <c r="AI153" s="117"/>
-      <c r="AJ153" s="189" t="s">
-        <v>126</v>
+      <c r="AJ153" s="380" t="s">
+        <v>144</v>
       </c>
       <c r="AK153" s="116"/>
       <c r="AL153" s="116"/>
@@ -33903,7 +33554,7 @@
       <c r="AG154" s="23"/>
       <c r="AH154" s="23"/>
       <c r="AI154" s="23"/>
-      <c r="AJ154" s="190"/>
+      <c r="AJ154" s="187"/>
       <c r="AK154" s="23"/>
       <c r="AL154" s="23"/>
       <c r="AM154" s="23"/>
@@ -33920,54 +33571,54 @@
     </row>
     <row r="155" spans="1:49" ht="13.5" customHeight="1">
       <c r="A155" s="172"/>
-      <c r="B155" s="192"/>
-      <c r="C155" s="193"/>
-      <c r="D155" s="194"/>
-      <c r="E155" s="195"/>
-      <c r="F155" s="195"/>
-      <c r="G155" s="195"/>
-      <c r="H155" s="195"/>
-      <c r="I155" s="195"/>
-      <c r="J155" s="195"/>
-      <c r="K155" s="195"/>
-      <c r="L155" s="195"/>
-      <c r="M155" s="195"/>
-      <c r="N155" s="195"/>
-      <c r="O155" s="195"/>
-      <c r="P155" s="195"/>
-      <c r="Q155" s="195"/>
-      <c r="R155" s="195"/>
-      <c r="S155" s="195"/>
-      <c r="T155" s="195"/>
-      <c r="U155" s="195"/>
-      <c r="V155" s="195"/>
-      <c r="W155" s="195"/>
-      <c r="X155" s="195"/>
-      <c r="Y155" s="195"/>
-      <c r="Z155" s="195"/>
-      <c r="AA155" s="195"/>
-      <c r="AB155" s="195"/>
-      <c r="AC155" s="195"/>
-      <c r="AD155" s="195"/>
-      <c r="AE155" s="196"/>
-      <c r="AF155" s="195"/>
-      <c r="AG155" s="195"/>
-      <c r="AH155" s="195"/>
-      <c r="AI155" s="195"/>
-      <c r="AJ155" s="197"/>
-      <c r="AK155" s="195"/>
-      <c r="AL155" s="195"/>
-      <c r="AM155" s="195"/>
-      <c r="AN155" s="195"/>
-      <c r="AO155" s="195"/>
-      <c r="AP155" s="195"/>
-      <c r="AQ155" s="195"/>
-      <c r="AR155" s="195"/>
-      <c r="AS155" s="195"/>
-      <c r="AT155" s="195"/>
-      <c r="AU155" s="195"/>
+      <c r="B155" s="189"/>
+      <c r="C155" s="190"/>
+      <c r="D155" s="191"/>
+      <c r="E155" s="192"/>
+      <c r="F155" s="192"/>
+      <c r="G155" s="192"/>
+      <c r="H155" s="192"/>
+      <c r="I155" s="192"/>
+      <c r="J155" s="192"/>
+      <c r="K155" s="192"/>
+      <c r="L155" s="192"/>
+      <c r="M155" s="192"/>
+      <c r="N155" s="192"/>
+      <c r="O155" s="192"/>
+      <c r="P155" s="192"/>
+      <c r="Q155" s="192"/>
+      <c r="R155" s="192"/>
+      <c r="S155" s="192"/>
+      <c r="T155" s="192"/>
+      <c r="U155" s="192"/>
+      <c r="V155" s="192"/>
+      <c r="W155" s="192"/>
+      <c r="X155" s="192"/>
+      <c r="Y155" s="192"/>
+      <c r="Z155" s="192"/>
+      <c r="AA155" s="192"/>
+      <c r="AB155" s="192"/>
+      <c r="AC155" s="192"/>
+      <c r="AD155" s="192"/>
+      <c r="AE155" s="193"/>
+      <c r="AF155" s="192"/>
+      <c r="AG155" s="192"/>
+      <c r="AH155" s="192"/>
+      <c r="AI155" s="192"/>
+      <c r="AJ155" s="194"/>
+      <c r="AK155" s="192"/>
+      <c r="AL155" s="192"/>
+      <c r="AM155" s="192"/>
+      <c r="AN155" s="192"/>
+      <c r="AO155" s="192"/>
+      <c r="AP155" s="192"/>
+      <c r="AQ155" s="192"/>
+      <c r="AR155" s="192"/>
+      <c r="AS155" s="192"/>
+      <c r="AT155" s="192"/>
+      <c r="AU155" s="192"/>
       <c r="AV155" s="173"/>
-      <c r="AW155" s="198"/>
+      <c r="AW155" s="195"/>
     </row>
     <row r="156" spans="1:49" ht="13.5" customHeight="1">
       <c r="A156" s="23"/>
@@ -34003,7 +33654,7 @@
       <c r="AG156" s="12"/>
       <c r="AH156" s="12"/>
       <c r="AI156" s="12"/>
-      <c r="AJ156" s="191"/>
+      <c r="AJ156" s="188"/>
       <c r="AK156" s="12"/>
       <c r="AL156" s="12"/>
       <c r="AM156" s="12"/>
@@ -34052,7 +33703,7 @@
       <c r="AG157" s="12"/>
       <c r="AH157" s="12"/>
       <c r="AI157" s="12"/>
-      <c r="AJ157" s="191"/>
+      <c r="AJ157" s="188"/>
       <c r="AK157" s="12"/>
       <c r="AL157" s="12"/>
       <c r="AM157" s="12"/>
@@ -34101,7 +33752,7 @@
       <c r="AG158" s="12"/>
       <c r="AH158" s="12"/>
       <c r="AI158" s="12"/>
-      <c r="AJ158" s="191"/>
+      <c r="AJ158" s="188"/>
       <c r="AK158" s="12"/>
       <c r="AL158" s="12"/>
       <c r="AM158" s="12"/>
@@ -34119,7 +33770,7 @@
     <row r="159" spans="1:49" ht="13.5" customHeight="1">
       <c r="A159" s="23"/>
       <c r="D159" s="129" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
@@ -34152,7 +33803,7 @@
       <c r="AG159" s="12"/>
       <c r="AH159" s="12"/>
       <c r="AI159" s="12"/>
-      <c r="AJ159" s="191"/>
+      <c r="AJ159" s="188"/>
       <c r="AK159" s="12"/>
       <c r="AL159" s="12"/>
       <c r="AM159" s="12"/>
@@ -34201,7 +33852,7 @@
       <c r="AG160" s="12"/>
       <c r="AH160" s="12"/>
       <c r="AI160" s="12"/>
-      <c r="AJ160" s="191"/>
+      <c r="AJ160" s="188"/>
       <c r="AK160" s="12"/>
       <c r="AL160" s="12"/>
       <c r="AM160" s="12"/>
@@ -34455,130 +34106,130 @@
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:49" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="358"/>
-      <c r="B1" s="359"/>
-      <c r="C1" s="359"/>
-      <c r="D1" s="359"/>
-      <c r="E1" s="359"/>
-      <c r="F1" s="359"/>
-      <c r="G1" s="359"/>
-      <c r="H1" s="359"/>
-      <c r="I1" s="360"/>
-      <c r="J1" s="364" t="s">
+      <c r="A1" s="343"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="344"/>
+      <c r="G1" s="344"/>
+      <c r="H1" s="344"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="349" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="365"/>
-      <c r="L1" s="365"/>
-      <c r="M1" s="365"/>
-      <c r="N1" s="365"/>
-      <c r="O1" s="366"/>
-      <c r="P1" s="364" t="s">
+      <c r="K1" s="350"/>
+      <c r="L1" s="350"/>
+      <c r="M1" s="350"/>
+      <c r="N1" s="350"/>
+      <c r="O1" s="351"/>
+      <c r="P1" s="349" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="365"/>
-      <c r="R1" s="365"/>
-      <c r="S1" s="365"/>
-      <c r="T1" s="365"/>
-      <c r="U1" s="366"/>
-      <c r="V1" s="370" t="s">
+      <c r="Q1" s="350"/>
+      <c r="R1" s="350"/>
+      <c r="S1" s="350"/>
+      <c r="T1" s="350"/>
+      <c r="U1" s="351"/>
+      <c r="V1" s="355" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="371"/>
-      <c r="X1" s="371"/>
-      <c r="Y1" s="371"/>
-      <c r="Z1" s="372"/>
-      <c r="AA1" s="387" t="s">
+      <c r="W1" s="356"/>
+      <c r="X1" s="356"/>
+      <c r="Y1" s="356"/>
+      <c r="Z1" s="357"/>
+      <c r="AA1" s="372" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="365"/>
-      <c r="AC1" s="365"/>
-      <c r="AD1" s="365"/>
-      <c r="AE1" s="365"/>
-      <c r="AF1" s="365"/>
-      <c r="AG1" s="365"/>
-      <c r="AH1" s="365"/>
-      <c r="AI1" s="365"/>
-      <c r="AJ1" s="365"/>
-      <c r="AK1" s="365"/>
-      <c r="AL1" s="366"/>
-      <c r="AM1" s="389" t="s">
+      <c r="AB1" s="350"/>
+      <c r="AC1" s="350"/>
+      <c r="AD1" s="350"/>
+      <c r="AE1" s="350"/>
+      <c r="AF1" s="350"/>
+      <c r="AG1" s="350"/>
+      <c r="AH1" s="350"/>
+      <c r="AI1" s="350"/>
+      <c r="AJ1" s="350"/>
+      <c r="AK1" s="350"/>
+      <c r="AL1" s="351"/>
+      <c r="AM1" s="374" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="390"/>
-      <c r="AO1" s="391" t="s">
+      <c r="AN1" s="375"/>
+      <c r="AO1" s="376" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="392"/>
-      <c r="AQ1" s="393"/>
-      <c r="AR1" s="394" t="s">
+      <c r="AP1" s="377"/>
+      <c r="AQ1" s="378"/>
+      <c r="AR1" s="379" t="s">
         <v>1</v>
       </c>
-      <c r="AS1" s="390"/>
-      <c r="AT1" s="376" t="s">
+      <c r="AS1" s="375"/>
+      <c r="AT1" s="361" t="s">
         <v>5</v>
       </c>
-      <c r="AU1" s="377"/>
-      <c r="AV1" s="377"/>
-      <c r="AW1" s="378"/>
+      <c r="AU1" s="362"/>
+      <c r="AV1" s="362"/>
+      <c r="AW1" s="363"/>
     </row>
     <row r="2" spans="1:49" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A2" s="361"/>
-      <c r="B2" s="362"/>
-      <c r="C2" s="362"/>
-      <c r="D2" s="362"/>
-      <c r="E2" s="362"/>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="362"/>
-      <c r="I2" s="363"/>
-      <c r="J2" s="367"/>
-      <c r="K2" s="368"/>
-      <c r="L2" s="368"/>
-      <c r="M2" s="368"/>
-      <c r="N2" s="368"/>
-      <c r="O2" s="369"/>
-      <c r="P2" s="367"/>
-      <c r="Q2" s="368"/>
-      <c r="R2" s="368"/>
-      <c r="S2" s="368"/>
-      <c r="T2" s="368"/>
-      <c r="U2" s="369"/>
-      <c r="V2" s="373"/>
-      <c r="W2" s="374"/>
-      <c r="X2" s="374"/>
-      <c r="Y2" s="374"/>
-      <c r="Z2" s="375"/>
-      <c r="AA2" s="388"/>
-      <c r="AB2" s="368"/>
-      <c r="AC2" s="368"/>
-      <c r="AD2" s="368"/>
-      <c r="AE2" s="368"/>
-      <c r="AF2" s="368"/>
-      <c r="AG2" s="368"/>
-      <c r="AH2" s="368"/>
-      <c r="AI2" s="368"/>
-      <c r="AJ2" s="368"/>
-      <c r="AK2" s="368"/>
-      <c r="AL2" s="369"/>
-      <c r="AM2" s="379" t="s">
+      <c r="A2" s="346"/>
+      <c r="B2" s="347"/>
+      <c r="C2" s="347"/>
+      <c r="D2" s="347"/>
+      <c r="E2" s="347"/>
+      <c r="F2" s="347"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="347"/>
+      <c r="I2" s="348"/>
+      <c r="J2" s="352"/>
+      <c r="K2" s="353"/>
+      <c r="L2" s="353"/>
+      <c r="M2" s="353"/>
+      <c r="N2" s="353"/>
+      <c r="O2" s="354"/>
+      <c r="P2" s="352"/>
+      <c r="Q2" s="353"/>
+      <c r="R2" s="353"/>
+      <c r="S2" s="353"/>
+      <c r="T2" s="353"/>
+      <c r="U2" s="354"/>
+      <c r="V2" s="358"/>
+      <c r="W2" s="359"/>
+      <c r="X2" s="359"/>
+      <c r="Y2" s="359"/>
+      <c r="Z2" s="360"/>
+      <c r="AA2" s="373"/>
+      <c r="AB2" s="353"/>
+      <c r="AC2" s="353"/>
+      <c r="AD2" s="353"/>
+      <c r="AE2" s="353"/>
+      <c r="AF2" s="353"/>
+      <c r="AG2" s="353"/>
+      <c r="AH2" s="353"/>
+      <c r="AI2" s="353"/>
+      <c r="AJ2" s="353"/>
+      <c r="AK2" s="353"/>
+      <c r="AL2" s="354"/>
+      <c r="AM2" s="364" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="380"/>
-      <c r="AO2" s="381" t="s">
+      <c r="AN2" s="365"/>
+      <c r="AO2" s="366" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="382"/>
-      <c r="AQ2" s="383"/>
-      <c r="AR2" s="379" t="s">
+      <c r="AP2" s="367"/>
+      <c r="AQ2" s="368"/>
+      <c r="AR2" s="364" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="380"/>
-      <c r="AT2" s="384" t="s">
+      <c r="AS2" s="365"/>
+      <c r="AT2" s="369" t="s">
         <v>5</v>
       </c>
-      <c r="AU2" s="385"/>
-      <c r="AV2" s="385"/>
-      <c r="AW2" s="386"/>
+      <c r="AU2" s="370"/>
+      <c r="AV2" s="370"/>
+      <c r="AW2" s="371"/>
     </row>
     <row r="3" spans="1:49" s="5" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
       <c r="A3" s="2"/>

--- a/Báo cáo/Thiết kế giao diện (Design layout)/TaiLieuThietKeChiTiet/BOOKSELLING_01_LogIn.xlsx
+++ b/Báo cáo/Thiết kế giao diện (Design layout)/TaiLieuThietKeChiTiet/BOOKSELLING_01_LogIn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\KTLTHDT\Báo cáo\Thiết kế giao diện (Design layout)\TaiLieuThietKeChiTiet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274847E1-D0CB-4A57-A970-B1DBD7D1AC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B9D85-5C0F-47F7-9555-69BC7278DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bìa" sheetId="19" r:id="rId1"/>
@@ -1768,7 +1768,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="389">
+  <cellXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2354,92 +2354,15 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2472,20 +2395,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2511,32 +2437,59 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2552,6 +2505,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -2577,59 +2539,38 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2657,6 +2598,102 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2681,35 +2718,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2729,78 +2758,81 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2809,33 +2841,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2874,6 +2879,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2974,40 +3009,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -19386,7 +19392,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AX161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A44" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AE57" sqref="AE57:AI58"/>
     </sheetView>
   </sheetViews>
@@ -19398,187 +19404,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="229" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="222"/>
-      <c r="P1" s="229" t="s">
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="221"/>
-      <c r="S1" s="221"/>
-      <c r="T1" s="221"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="235" t="s">
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="236"/>
-      <c r="X1" s="236"/>
-      <c r="Y1" s="236"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="241" t="s">
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="221"/>
-      <c r="AC1" s="221"/>
-      <c r="AD1" s="221"/>
-      <c r="AE1" s="221"/>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="221"/>
-      <c r="AH1" s="221"/>
-      <c r="AI1" s="221"/>
-      <c r="AJ1" s="221"/>
-      <c r="AK1" s="221"/>
-      <c r="AL1" s="222"/>
-      <c r="AM1" s="230" t="s">
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="202"/>
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="202"/>
+      <c r="AG1" s="202"/>
+      <c r="AH1" s="202"/>
+      <c r="AI1" s="202"/>
+      <c r="AJ1" s="202"/>
+      <c r="AK1" s="202"/>
+      <c r="AL1" s="203"/>
+      <c r="AM1" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="AN1" s="231"/>
+      <c r="AN1" s="238"/>
       <c r="AO1" s="243" t="s">
         <v>124</v>
       </c>
       <c r="AP1" s="244"/>
       <c r="AQ1" s="245"/>
-      <c r="AR1" s="230" t="s">
+      <c r="AR1" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="AS1" s="231"/>
-      <c r="AT1" s="232">
+      <c r="AS1" s="238"/>
+      <c r="AT1" s="254">
         <v>45204</v>
       </c>
-      <c r="AU1" s="233"/>
-      <c r="AV1" s="233"/>
-      <c r="AW1" s="234"/>
+      <c r="AU1" s="255"/>
+      <c r="AV1" s="255"/>
+      <c r="AW1" s="256"/>
     </row>
     <row r="2" spans="1:49" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="223"/>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="225"/>
-      <c r="P2" s="223"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="239"/>
-      <c r="X2" s="239"/>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="240"/>
-      <c r="AA2" s="242"/>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="224"/>
-      <c r="AD2" s="224"/>
-      <c r="AE2" s="224"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="224"/>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="224"/>
-      <c r="AJ2" s="224"/>
-      <c r="AK2" s="224"/>
-      <c r="AL2" s="225"/>
-      <c r="AM2" s="256" t="s">
+      <c r="A2" s="204"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="224"/>
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="205"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="205"/>
+      <c r="AJ2" s="205"/>
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AN2" s="257"/>
-      <c r="AO2" s="258"/>
-      <c r="AP2" s="259"/>
-      <c r="AQ2" s="260"/>
-      <c r="AR2" s="256" t="s">
+      <c r="AN2" s="247"/>
+      <c r="AO2" s="248"/>
+      <c r="AP2" s="249"/>
+      <c r="AQ2" s="250"/>
+      <c r="AR2" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="257"/>
-      <c r="AT2" s="261"/>
-      <c r="AU2" s="262"/>
-      <c r="AV2" s="262"/>
-      <c r="AW2" s="263"/>
+      <c r="AS2" s="247"/>
+      <c r="AT2" s="251"/>
+      <c r="AU2" s="252"/>
+      <c r="AV2" s="252"/>
+      <c r="AW2" s="253"/>
     </row>
     <row r="3" spans="1:49" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="226"/>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="228"/>
-      <c r="P3" s="226"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="227"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="227"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="246" t="s">
+      <c r="A3" s="207"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="249" t="s">
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="250"/>
-      <c r="AC3" s="250"/>
-      <c r="AD3" s="250"/>
-      <c r="AE3" s="250"/>
-      <c r="AF3" s="250"/>
-      <c r="AG3" s="251"/>
-      <c r="AH3" s="252" t="s">
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="212"/>
+      <c r="AD3" s="212"/>
+      <c r="AE3" s="212"/>
+      <c r="AF3" s="212"/>
+      <c r="AG3" s="213"/>
+      <c r="AH3" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="AI3" s="253"/>
-      <c r="AJ3" s="253"/>
-      <c r="AK3" s="253"/>
-      <c r="AL3" s="254"/>
-      <c r="AM3" s="249" t="s">
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="241"/>
+      <c r="AM3" s="211" t="s">
         <v>125</v>
       </c>
-      <c r="AN3" s="250"/>
-      <c r="AO3" s="250"/>
-      <c r="AP3" s="250"/>
-      <c r="AQ3" s="250"/>
-      <c r="AR3" s="250"/>
-      <c r="AS3" s="250"/>
-      <c r="AT3" s="250"/>
-      <c r="AU3" s="250"/>
-      <c r="AV3" s="250"/>
-      <c r="AW3" s="255"/>
+      <c r="AN3" s="212"/>
+      <c r="AO3" s="212"/>
+      <c r="AP3" s="212"/>
+      <c r="AQ3" s="212"/>
+      <c r="AR3" s="212"/>
+      <c r="AS3" s="212"/>
+      <c r="AT3" s="212"/>
+      <c r="AU3" s="212"/>
+      <c r="AV3" s="212"/>
+      <c r="AW3" s="242"/>
     </row>
     <row r="4" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="21"/>
@@ -19806,259 +19812,259 @@
     </row>
     <row r="13" spans="1:49" ht="13.5" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="311" t="s">
+      <c r="B13" s="257" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="312"/>
-      <c r="D13" s="312"/>
-      <c r="E13" s="312"/>
-      <c r="F13" s="312"/>
-      <c r="G13" s="312"/>
-      <c r="H13" s="312"/>
-      <c r="I13" s="312"/>
-      <c r="J13" s="312"/>
-      <c r="K13" s="312"/>
-      <c r="L13" s="312"/>
-      <c r="M13" s="312"/>
-      <c r="N13" s="312"/>
-      <c r="O13" s="312"/>
-      <c r="P13" s="312"/>
-      <c r="Q13" s="312"/>
-      <c r="R13" s="312"/>
-      <c r="S13" s="312"/>
-      <c r="T13" s="312"/>
-      <c r="U13" s="312"/>
-      <c r="V13" s="312"/>
-      <c r="W13" s="312"/>
-      <c r="X13" s="312"/>
-      <c r="Y13" s="312"/>
-      <c r="Z13" s="312"/>
-      <c r="AA13" s="312"/>
-      <c r="AB13" s="312"/>
-      <c r="AC13" s="312"/>
-      <c r="AD13" s="312"/>
-      <c r="AE13" s="312"/>
-      <c r="AF13" s="312"/>
-      <c r="AG13" s="312"/>
-      <c r="AH13" s="312"/>
-      <c r="AI13" s="312"/>
-      <c r="AJ13" s="312"/>
-      <c r="AK13" s="312"/>
-      <c r="AL13" s="312"/>
-      <c r="AM13" s="312"/>
-      <c r="AN13" s="312"/>
-      <c r="AO13" s="312"/>
-      <c r="AP13" s="312"/>
-      <c r="AQ13" s="312"/>
-      <c r="AR13" s="312"/>
-      <c r="AS13" s="312"/>
-      <c r="AT13" s="312"/>
-      <c r="AU13" s="312"/>
-      <c r="AV13" s="312"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="258"/>
+      <c r="E13" s="258"/>
+      <c r="F13" s="258"/>
+      <c r="G13" s="258"/>
+      <c r="H13" s="258"/>
+      <c r="I13" s="258"/>
+      <c r="J13" s="258"/>
+      <c r="K13" s="258"/>
+      <c r="L13" s="258"/>
+      <c r="M13" s="258"/>
+      <c r="N13" s="258"/>
+      <c r="O13" s="258"/>
+      <c r="P13" s="258"/>
+      <c r="Q13" s="258"/>
+      <c r="R13" s="258"/>
+      <c r="S13" s="258"/>
+      <c r="T13" s="258"/>
+      <c r="U13" s="258"/>
+      <c r="V13" s="258"/>
+      <c r="W13" s="258"/>
+      <c r="X13" s="258"/>
+      <c r="Y13" s="258"/>
+      <c r="Z13" s="258"/>
+      <c r="AA13" s="258"/>
+      <c r="AB13" s="258"/>
+      <c r="AC13" s="258"/>
+      <c r="AD13" s="258"/>
+      <c r="AE13" s="258"/>
+      <c r="AF13" s="258"/>
+      <c r="AG13" s="258"/>
+      <c r="AH13" s="258"/>
+      <c r="AI13" s="258"/>
+      <c r="AJ13" s="258"/>
+      <c r="AK13" s="258"/>
+      <c r="AL13" s="258"/>
+      <c r="AM13" s="258"/>
+      <c r="AN13" s="258"/>
+      <c r="AO13" s="258"/>
+      <c r="AP13" s="258"/>
+      <c r="AQ13" s="258"/>
+      <c r="AR13" s="258"/>
+      <c r="AS13" s="258"/>
+      <c r="AT13" s="258"/>
+      <c r="AU13" s="258"/>
+      <c r="AV13" s="258"/>
       <c r="AW13" s="163"/>
     </row>
     <row r="14" spans="1:49" ht="13.5" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="312"/>
-      <c r="C14" s="312"/>
-      <c r="D14" s="312"/>
-      <c r="E14" s="312"/>
-      <c r="F14" s="312"/>
-      <c r="G14" s="312"/>
-      <c r="H14" s="312"/>
-      <c r="I14" s="312"/>
-      <c r="J14" s="312"/>
-      <c r="K14" s="312"/>
-      <c r="L14" s="312"/>
-      <c r="M14" s="312"/>
-      <c r="N14" s="312"/>
-      <c r="O14" s="312"/>
-      <c r="P14" s="312"/>
-      <c r="Q14" s="312"/>
-      <c r="R14" s="312"/>
-      <c r="S14" s="312"/>
-      <c r="T14" s="312"/>
-      <c r="U14" s="312"/>
-      <c r="V14" s="312"/>
-      <c r="W14" s="312"/>
-      <c r="X14" s="312"/>
-      <c r="Y14" s="312"/>
-      <c r="Z14" s="312"/>
-      <c r="AA14" s="312"/>
-      <c r="AB14" s="312"/>
-      <c r="AC14" s="312"/>
-      <c r="AD14" s="312"/>
-      <c r="AE14" s="312"/>
-      <c r="AF14" s="312"/>
-      <c r="AG14" s="312"/>
-      <c r="AH14" s="312"/>
-      <c r="AI14" s="312"/>
-      <c r="AJ14" s="312"/>
-      <c r="AK14" s="312"/>
-      <c r="AL14" s="312"/>
-      <c r="AM14" s="312"/>
-      <c r="AN14" s="312"/>
-      <c r="AO14" s="312"/>
-      <c r="AP14" s="312"/>
-      <c r="AQ14" s="312"/>
-      <c r="AR14" s="312"/>
-      <c r="AS14" s="312"/>
-      <c r="AT14" s="312"/>
-      <c r="AU14" s="312"/>
-      <c r="AV14" s="312"/>
+      <c r="B14" s="258"/>
+      <c r="C14" s="258"/>
+      <c r="D14" s="258"/>
+      <c r="E14" s="258"/>
+      <c r="F14" s="258"/>
+      <c r="G14" s="258"/>
+      <c r="H14" s="258"/>
+      <c r="I14" s="258"/>
+      <c r="J14" s="258"/>
+      <c r="K14" s="258"/>
+      <c r="L14" s="258"/>
+      <c r="M14" s="258"/>
+      <c r="N14" s="258"/>
+      <c r="O14" s="258"/>
+      <c r="P14" s="258"/>
+      <c r="Q14" s="258"/>
+      <c r="R14" s="258"/>
+      <c r="S14" s="258"/>
+      <c r="T14" s="258"/>
+      <c r="U14" s="258"/>
+      <c r="V14" s="258"/>
+      <c r="W14" s="258"/>
+      <c r="X14" s="258"/>
+      <c r="Y14" s="258"/>
+      <c r="Z14" s="258"/>
+      <c r="AA14" s="258"/>
+      <c r="AB14" s="258"/>
+      <c r="AC14" s="258"/>
+      <c r="AD14" s="258"/>
+      <c r="AE14" s="258"/>
+      <c r="AF14" s="258"/>
+      <c r="AG14" s="258"/>
+      <c r="AH14" s="258"/>
+      <c r="AI14" s="258"/>
+      <c r="AJ14" s="258"/>
+      <c r="AK14" s="258"/>
+      <c r="AL14" s="258"/>
+      <c r="AM14" s="258"/>
+      <c r="AN14" s="258"/>
+      <c r="AO14" s="258"/>
+      <c r="AP14" s="258"/>
+      <c r="AQ14" s="258"/>
+      <c r="AR14" s="258"/>
+      <c r="AS14" s="258"/>
+      <c r="AT14" s="258"/>
+      <c r="AU14" s="258"/>
+      <c r="AV14" s="258"/>
       <c r="AW14" s="163"/>
     </row>
     <row r="15" spans="1:49" ht="13.5" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="312"/>
-      <c r="C15" s="312"/>
-      <c r="D15" s="312"/>
-      <c r="E15" s="312"/>
-      <c r="F15" s="312"/>
-      <c r="G15" s="312"/>
-      <c r="H15" s="312"/>
-      <c r="I15" s="312"/>
-      <c r="J15" s="312"/>
-      <c r="K15" s="312"/>
-      <c r="L15" s="312"/>
-      <c r="M15" s="312"/>
-      <c r="N15" s="312"/>
-      <c r="O15" s="312"/>
-      <c r="P15" s="312"/>
-      <c r="Q15" s="312"/>
-      <c r="R15" s="312"/>
-      <c r="S15" s="312"/>
-      <c r="T15" s="312"/>
-      <c r="U15" s="312"/>
-      <c r="V15" s="312"/>
-      <c r="W15" s="312"/>
-      <c r="X15" s="312"/>
-      <c r="Y15" s="312"/>
-      <c r="Z15" s="312"/>
-      <c r="AA15" s="312"/>
-      <c r="AB15" s="312"/>
-      <c r="AC15" s="312"/>
-      <c r="AD15" s="312"/>
-      <c r="AE15" s="312"/>
-      <c r="AF15" s="312"/>
-      <c r="AG15" s="312"/>
-      <c r="AH15" s="312"/>
-      <c r="AI15" s="312"/>
-      <c r="AJ15" s="312"/>
-      <c r="AK15" s="312"/>
-      <c r="AL15" s="312"/>
-      <c r="AM15" s="312"/>
-      <c r="AN15" s="312"/>
-      <c r="AO15" s="312"/>
-      <c r="AP15" s="312"/>
-      <c r="AQ15" s="312"/>
-      <c r="AR15" s="312"/>
-      <c r="AS15" s="312"/>
-      <c r="AT15" s="312"/>
-      <c r="AU15" s="312"/>
-      <c r="AV15" s="312"/>
+      <c r="B15" s="258"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="258"/>
+      <c r="F15" s="258"/>
+      <c r="G15" s="258"/>
+      <c r="H15" s="258"/>
+      <c r="I15" s="258"/>
+      <c r="J15" s="258"/>
+      <c r="K15" s="258"/>
+      <c r="L15" s="258"/>
+      <c r="M15" s="258"/>
+      <c r="N15" s="258"/>
+      <c r="O15" s="258"/>
+      <c r="P15" s="258"/>
+      <c r="Q15" s="258"/>
+      <c r="R15" s="258"/>
+      <c r="S15" s="258"/>
+      <c r="T15" s="258"/>
+      <c r="U15" s="258"/>
+      <c r="V15" s="258"/>
+      <c r="W15" s="258"/>
+      <c r="X15" s="258"/>
+      <c r="Y15" s="258"/>
+      <c r="Z15" s="258"/>
+      <c r="AA15" s="258"/>
+      <c r="AB15" s="258"/>
+      <c r="AC15" s="258"/>
+      <c r="AD15" s="258"/>
+      <c r="AE15" s="258"/>
+      <c r="AF15" s="258"/>
+      <c r="AG15" s="258"/>
+      <c r="AH15" s="258"/>
+      <c r="AI15" s="258"/>
+      <c r="AJ15" s="258"/>
+      <c r="AK15" s="258"/>
+      <c r="AL15" s="258"/>
+      <c r="AM15" s="258"/>
+      <c r="AN15" s="258"/>
+      <c r="AO15" s="258"/>
+      <c r="AP15" s="258"/>
+      <c r="AQ15" s="258"/>
+      <c r="AR15" s="258"/>
+      <c r="AS15" s="258"/>
+      <c r="AT15" s="258"/>
+      <c r="AU15" s="258"/>
+      <c r="AV15" s="258"/>
       <c r="AW15" s="163"/>
     </row>
     <row r="16" spans="1:49" ht="13.5" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="312"/>
-      <c r="C16" s="312"/>
-      <c r="D16" s="312"/>
-      <c r="E16" s="312"/>
-      <c r="F16" s="312"/>
-      <c r="G16" s="312"/>
-      <c r="H16" s="312"/>
-      <c r="I16" s="312"/>
-      <c r="J16" s="312"/>
-      <c r="K16" s="312"/>
-      <c r="L16" s="312"/>
-      <c r="M16" s="312"/>
-      <c r="N16" s="312"/>
-      <c r="O16" s="312"/>
-      <c r="P16" s="312"/>
-      <c r="Q16" s="312"/>
-      <c r="R16" s="312"/>
-      <c r="S16" s="312"/>
-      <c r="T16" s="312"/>
-      <c r="U16" s="312"/>
-      <c r="V16" s="312"/>
-      <c r="W16" s="312"/>
-      <c r="X16" s="312"/>
-      <c r="Y16" s="312"/>
-      <c r="Z16" s="312"/>
-      <c r="AA16" s="312"/>
-      <c r="AB16" s="312"/>
-      <c r="AC16" s="312"/>
-      <c r="AD16" s="312"/>
-      <c r="AE16" s="312"/>
-      <c r="AF16" s="312"/>
-      <c r="AG16" s="312"/>
-      <c r="AH16" s="312"/>
-      <c r="AI16" s="312"/>
-      <c r="AJ16" s="312"/>
-      <c r="AK16" s="312"/>
-      <c r="AL16" s="312"/>
-      <c r="AM16" s="312"/>
-      <c r="AN16" s="312"/>
-      <c r="AO16" s="312"/>
-      <c r="AP16" s="312"/>
-      <c r="AQ16" s="312"/>
-      <c r="AR16" s="312"/>
-      <c r="AS16" s="312"/>
-      <c r="AT16" s="312"/>
-      <c r="AU16" s="312"/>
-      <c r="AV16" s="312"/>
+      <c r="B16" s="258"/>
+      <c r="C16" s="258"/>
+      <c r="D16" s="258"/>
+      <c r="E16" s="258"/>
+      <c r="F16" s="258"/>
+      <c r="G16" s="258"/>
+      <c r="H16" s="258"/>
+      <c r="I16" s="258"/>
+      <c r="J16" s="258"/>
+      <c r="K16" s="258"/>
+      <c r="L16" s="258"/>
+      <c r="M16" s="258"/>
+      <c r="N16" s="258"/>
+      <c r="O16" s="258"/>
+      <c r="P16" s="258"/>
+      <c r="Q16" s="258"/>
+      <c r="R16" s="258"/>
+      <c r="S16" s="258"/>
+      <c r="T16" s="258"/>
+      <c r="U16" s="258"/>
+      <c r="V16" s="258"/>
+      <c r="W16" s="258"/>
+      <c r="X16" s="258"/>
+      <c r="Y16" s="258"/>
+      <c r="Z16" s="258"/>
+      <c r="AA16" s="258"/>
+      <c r="AB16" s="258"/>
+      <c r="AC16" s="258"/>
+      <c r="AD16" s="258"/>
+      <c r="AE16" s="258"/>
+      <c r="AF16" s="258"/>
+      <c r="AG16" s="258"/>
+      <c r="AH16" s="258"/>
+      <c r="AI16" s="258"/>
+      <c r="AJ16" s="258"/>
+      <c r="AK16" s="258"/>
+      <c r="AL16" s="258"/>
+      <c r="AM16" s="258"/>
+      <c r="AN16" s="258"/>
+      <c r="AO16" s="258"/>
+      <c r="AP16" s="258"/>
+      <c r="AQ16" s="258"/>
+      <c r="AR16" s="258"/>
+      <c r="AS16" s="258"/>
+      <c r="AT16" s="258"/>
+      <c r="AU16" s="258"/>
+      <c r="AV16" s="258"/>
       <c r="AW16" s="163"/>
     </row>
     <row r="17" spans="1:49" ht="13.5" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="312"/>
-      <c r="C17" s="312"/>
-      <c r="D17" s="312"/>
-      <c r="E17" s="312"/>
-      <c r="F17" s="312"/>
-      <c r="G17" s="312"/>
-      <c r="H17" s="312"/>
-      <c r="I17" s="312"/>
-      <c r="J17" s="312"/>
-      <c r="K17" s="312"/>
-      <c r="L17" s="312"/>
-      <c r="M17" s="312"/>
-      <c r="N17" s="312"/>
-      <c r="O17" s="312"/>
-      <c r="P17" s="312"/>
-      <c r="Q17" s="312"/>
-      <c r="R17" s="312"/>
-      <c r="S17" s="312"/>
-      <c r="T17" s="312"/>
-      <c r="U17" s="312"/>
-      <c r="V17" s="312"/>
-      <c r="W17" s="312"/>
-      <c r="X17" s="312"/>
-      <c r="Y17" s="312"/>
-      <c r="Z17" s="312"/>
-      <c r="AA17" s="312"/>
-      <c r="AB17" s="312"/>
-      <c r="AC17" s="312"/>
-      <c r="AD17" s="312"/>
-      <c r="AE17" s="312"/>
-      <c r="AF17" s="312"/>
-      <c r="AG17" s="312"/>
-      <c r="AH17" s="312"/>
-      <c r="AI17" s="312"/>
-      <c r="AJ17" s="312"/>
-      <c r="AK17" s="312"/>
-      <c r="AL17" s="312"/>
-      <c r="AM17" s="312"/>
-      <c r="AN17" s="312"/>
-      <c r="AO17" s="312"/>
-      <c r="AP17" s="312"/>
-      <c r="AQ17" s="312"/>
-      <c r="AR17" s="312"/>
-      <c r="AS17" s="312"/>
-      <c r="AT17" s="312"/>
-      <c r="AU17" s="312"/>
-      <c r="AV17" s="312"/>
+      <c r="B17" s="258"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="258"/>
+      <c r="E17" s="258"/>
+      <c r="F17" s="258"/>
+      <c r="G17" s="258"/>
+      <c r="H17" s="258"/>
+      <c r="I17" s="258"/>
+      <c r="J17" s="258"/>
+      <c r="K17" s="258"/>
+      <c r="L17" s="258"/>
+      <c r="M17" s="258"/>
+      <c r="N17" s="258"/>
+      <c r="O17" s="258"/>
+      <c r="P17" s="258"/>
+      <c r="Q17" s="258"/>
+      <c r="R17" s="258"/>
+      <c r="S17" s="258"/>
+      <c r="T17" s="258"/>
+      <c r="U17" s="258"/>
+      <c r="V17" s="258"/>
+      <c r="W17" s="258"/>
+      <c r="X17" s="258"/>
+      <c r="Y17" s="258"/>
+      <c r="Z17" s="258"/>
+      <c r="AA17" s="258"/>
+      <c r="AB17" s="258"/>
+      <c r="AC17" s="258"/>
+      <c r="AD17" s="258"/>
+      <c r="AE17" s="258"/>
+      <c r="AF17" s="258"/>
+      <c r="AG17" s="258"/>
+      <c r="AH17" s="258"/>
+      <c r="AI17" s="258"/>
+      <c r="AJ17" s="258"/>
+      <c r="AK17" s="258"/>
+      <c r="AL17" s="258"/>
+      <c r="AM17" s="258"/>
+      <c r="AN17" s="258"/>
+      <c r="AO17" s="258"/>
+      <c r="AP17" s="258"/>
+      <c r="AQ17" s="258"/>
+      <c r="AR17" s="258"/>
+      <c r="AS17" s="258"/>
+      <c r="AT17" s="258"/>
+      <c r="AU17" s="258"/>
+      <c r="AV17" s="258"/>
       <c r="AW17" s="163"/>
     </row>
     <row r="18" spans="1:49" ht="13.5" customHeight="1">
@@ -20130,208 +20136,208 @@
     </row>
     <row r="23" spans="1:49" ht="13.5" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="313" t="s">
+      <c r="B23" s="259" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="313"/>
-      <c r="D23" s="313"/>
-      <c r="E23" s="313"/>
-      <c r="F23" s="313"/>
-      <c r="G23" s="313"/>
-      <c r="H23" s="313"/>
-      <c r="I23" s="313"/>
-      <c r="J23" s="313"/>
-      <c r="K23" s="313"/>
-      <c r="L23" s="313"/>
-      <c r="M23" s="313"/>
-      <c r="N23" s="313"/>
-      <c r="O23" s="313"/>
-      <c r="P23" s="313"/>
-      <c r="Q23" s="313"/>
-      <c r="R23" s="313"/>
-      <c r="S23" s="313"/>
-      <c r="T23" s="313"/>
-      <c r="U23" s="313"/>
-      <c r="V23" s="313"/>
-      <c r="W23" s="313"/>
-      <c r="X23" s="313"/>
-      <c r="Y23" s="313"/>
-      <c r="Z23" s="313"/>
-      <c r="AA23" s="313"/>
-      <c r="AB23" s="313"/>
-      <c r="AC23" s="313"/>
-      <c r="AD23" s="313"/>
-      <c r="AE23" s="313"/>
-      <c r="AF23" s="313"/>
-      <c r="AG23" s="313"/>
-      <c r="AH23" s="313"/>
-      <c r="AI23" s="313"/>
-      <c r="AJ23" s="313"/>
-      <c r="AK23" s="313"/>
-      <c r="AL23" s="313"/>
-      <c r="AM23" s="313"/>
-      <c r="AN23" s="313"/>
-      <c r="AO23" s="313"/>
-      <c r="AP23" s="313"/>
-      <c r="AQ23" s="313"/>
-      <c r="AR23" s="313"/>
-      <c r="AS23" s="313"/>
-      <c r="AT23" s="313"/>
-      <c r="AU23" s="313"/>
-      <c r="AV23" s="313"/>
+      <c r="C23" s="259"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="259"/>
+      <c r="G23" s="259"/>
+      <c r="H23" s="259"/>
+      <c r="I23" s="259"/>
+      <c r="J23" s="259"/>
+      <c r="K23" s="259"/>
+      <c r="L23" s="259"/>
+      <c r="M23" s="259"/>
+      <c r="N23" s="259"/>
+      <c r="O23" s="259"/>
+      <c r="P23" s="259"/>
+      <c r="Q23" s="259"/>
+      <c r="R23" s="259"/>
+      <c r="S23" s="259"/>
+      <c r="T23" s="259"/>
+      <c r="U23" s="259"/>
+      <c r="V23" s="259"/>
+      <c r="W23" s="259"/>
+      <c r="X23" s="259"/>
+      <c r="Y23" s="259"/>
+      <c r="Z23" s="259"/>
+      <c r="AA23" s="259"/>
+      <c r="AB23" s="259"/>
+      <c r="AC23" s="259"/>
+      <c r="AD23" s="259"/>
+      <c r="AE23" s="259"/>
+      <c r="AF23" s="259"/>
+      <c r="AG23" s="259"/>
+      <c r="AH23" s="259"/>
+      <c r="AI23" s="259"/>
+      <c r="AJ23" s="259"/>
+      <c r="AK23" s="259"/>
+      <c r="AL23" s="259"/>
+      <c r="AM23" s="259"/>
+      <c r="AN23" s="259"/>
+      <c r="AO23" s="259"/>
+      <c r="AP23" s="259"/>
+      <c r="AQ23" s="259"/>
+      <c r="AR23" s="259"/>
+      <c r="AS23" s="259"/>
+      <c r="AT23" s="259"/>
+      <c r="AU23" s="259"/>
+      <c r="AV23" s="259"/>
       <c r="AW23" s="163"/>
     </row>
     <row r="24" spans="1:49" ht="13.5" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="313"/>
-      <c r="C24" s="313"/>
-      <c r="D24" s="313"/>
-      <c r="E24" s="313"/>
-      <c r="F24" s="313"/>
-      <c r="G24" s="313"/>
-      <c r="H24" s="313"/>
-      <c r="I24" s="313"/>
-      <c r="J24" s="313"/>
-      <c r="K24" s="313"/>
-      <c r="L24" s="313"/>
-      <c r="M24" s="313"/>
-      <c r="N24" s="313"/>
-      <c r="O24" s="313"/>
-      <c r="P24" s="313"/>
-      <c r="Q24" s="313"/>
-      <c r="R24" s="313"/>
-      <c r="S24" s="313"/>
-      <c r="T24" s="313"/>
-      <c r="U24" s="313"/>
-      <c r="V24" s="313"/>
-      <c r="W24" s="313"/>
-      <c r="X24" s="313"/>
-      <c r="Y24" s="313"/>
-      <c r="Z24" s="313"/>
-      <c r="AA24" s="313"/>
-      <c r="AB24" s="313"/>
-      <c r="AC24" s="313"/>
-      <c r="AD24" s="313"/>
-      <c r="AE24" s="313"/>
-      <c r="AF24" s="313"/>
-      <c r="AG24" s="313"/>
-      <c r="AH24" s="313"/>
-      <c r="AI24" s="313"/>
-      <c r="AJ24" s="313"/>
-      <c r="AK24" s="313"/>
-      <c r="AL24" s="313"/>
-      <c r="AM24" s="313"/>
-      <c r="AN24" s="313"/>
-      <c r="AO24" s="313"/>
-      <c r="AP24" s="313"/>
-      <c r="AQ24" s="313"/>
-      <c r="AR24" s="313"/>
-      <c r="AS24" s="313"/>
-      <c r="AT24" s="313"/>
-      <c r="AU24" s="313"/>
-      <c r="AV24" s="313"/>
+      <c r="B24" s="259"/>
+      <c r="C24" s="259"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="259"/>
+      <c r="F24" s="259"/>
+      <c r="G24" s="259"/>
+      <c r="H24" s="259"/>
+      <c r="I24" s="259"/>
+      <c r="J24" s="259"/>
+      <c r="K24" s="259"/>
+      <c r="L24" s="259"/>
+      <c r="M24" s="259"/>
+      <c r="N24" s="259"/>
+      <c r="O24" s="259"/>
+      <c r="P24" s="259"/>
+      <c r="Q24" s="259"/>
+      <c r="R24" s="259"/>
+      <c r="S24" s="259"/>
+      <c r="T24" s="259"/>
+      <c r="U24" s="259"/>
+      <c r="V24" s="259"/>
+      <c r="W24" s="259"/>
+      <c r="X24" s="259"/>
+      <c r="Y24" s="259"/>
+      <c r="Z24" s="259"/>
+      <c r="AA24" s="259"/>
+      <c r="AB24" s="259"/>
+      <c r="AC24" s="259"/>
+      <c r="AD24" s="259"/>
+      <c r="AE24" s="259"/>
+      <c r="AF24" s="259"/>
+      <c r="AG24" s="259"/>
+      <c r="AH24" s="259"/>
+      <c r="AI24" s="259"/>
+      <c r="AJ24" s="259"/>
+      <c r="AK24" s="259"/>
+      <c r="AL24" s="259"/>
+      <c r="AM24" s="259"/>
+      <c r="AN24" s="259"/>
+      <c r="AO24" s="259"/>
+      <c r="AP24" s="259"/>
+      <c r="AQ24" s="259"/>
+      <c r="AR24" s="259"/>
+      <c r="AS24" s="259"/>
+      <c r="AT24" s="259"/>
+      <c r="AU24" s="259"/>
+      <c r="AV24" s="259"/>
       <c r="AW24" s="163"/>
     </row>
     <row r="25" spans="1:49" ht="13.5" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="313"/>
-      <c r="C25" s="313"/>
-      <c r="D25" s="313"/>
-      <c r="E25" s="313"/>
-      <c r="F25" s="313"/>
-      <c r="G25" s="313"/>
-      <c r="H25" s="313"/>
-      <c r="I25" s="313"/>
-      <c r="J25" s="313"/>
-      <c r="K25" s="313"/>
-      <c r="L25" s="313"/>
-      <c r="M25" s="313"/>
-      <c r="N25" s="313"/>
-      <c r="O25" s="313"/>
-      <c r="P25" s="313"/>
-      <c r="Q25" s="313"/>
-      <c r="R25" s="313"/>
-      <c r="S25" s="313"/>
-      <c r="T25" s="313"/>
-      <c r="U25" s="313"/>
-      <c r="V25" s="313"/>
-      <c r="W25" s="313"/>
-      <c r="X25" s="313"/>
-      <c r="Y25" s="313"/>
-      <c r="Z25" s="313"/>
-      <c r="AA25" s="313"/>
-      <c r="AB25" s="313"/>
-      <c r="AC25" s="313"/>
-      <c r="AD25" s="313"/>
-      <c r="AE25" s="313"/>
-      <c r="AF25" s="313"/>
-      <c r="AG25" s="313"/>
-      <c r="AH25" s="313"/>
-      <c r="AI25" s="313"/>
-      <c r="AJ25" s="313"/>
-      <c r="AK25" s="313"/>
-      <c r="AL25" s="313"/>
-      <c r="AM25" s="313"/>
-      <c r="AN25" s="313"/>
-      <c r="AO25" s="313"/>
-      <c r="AP25" s="313"/>
-      <c r="AQ25" s="313"/>
-      <c r="AR25" s="313"/>
-      <c r="AS25" s="313"/>
-      <c r="AT25" s="313"/>
-      <c r="AU25" s="313"/>
-      <c r="AV25" s="313"/>
+      <c r="B25" s="259"/>
+      <c r="C25" s="259"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="259"/>
+      <c r="G25" s="259"/>
+      <c r="H25" s="259"/>
+      <c r="I25" s="259"/>
+      <c r="J25" s="259"/>
+      <c r="K25" s="259"/>
+      <c r="L25" s="259"/>
+      <c r="M25" s="259"/>
+      <c r="N25" s="259"/>
+      <c r="O25" s="259"/>
+      <c r="P25" s="259"/>
+      <c r="Q25" s="259"/>
+      <c r="R25" s="259"/>
+      <c r="S25" s="259"/>
+      <c r="T25" s="259"/>
+      <c r="U25" s="259"/>
+      <c r="V25" s="259"/>
+      <c r="W25" s="259"/>
+      <c r="X25" s="259"/>
+      <c r="Y25" s="259"/>
+      <c r="Z25" s="259"/>
+      <c r="AA25" s="259"/>
+      <c r="AB25" s="259"/>
+      <c r="AC25" s="259"/>
+      <c r="AD25" s="259"/>
+      <c r="AE25" s="259"/>
+      <c r="AF25" s="259"/>
+      <c r="AG25" s="259"/>
+      <c r="AH25" s="259"/>
+      <c r="AI25" s="259"/>
+      <c r="AJ25" s="259"/>
+      <c r="AK25" s="259"/>
+      <c r="AL25" s="259"/>
+      <c r="AM25" s="259"/>
+      <c r="AN25" s="259"/>
+      <c r="AO25" s="259"/>
+      <c r="AP25" s="259"/>
+      <c r="AQ25" s="259"/>
+      <c r="AR25" s="259"/>
+      <c r="AS25" s="259"/>
+      <c r="AT25" s="259"/>
+      <c r="AU25" s="259"/>
+      <c r="AV25" s="259"/>
       <c r="AW25" s="163"/>
     </row>
     <row r="26" spans="1:49" ht="13.5" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="313"/>
-      <c r="C26" s="313"/>
-      <c r="D26" s="313"/>
-      <c r="E26" s="313"/>
-      <c r="F26" s="313"/>
-      <c r="G26" s="313"/>
-      <c r="H26" s="313"/>
-      <c r="I26" s="313"/>
-      <c r="J26" s="313"/>
-      <c r="K26" s="313"/>
-      <c r="L26" s="313"/>
-      <c r="M26" s="313"/>
-      <c r="N26" s="313"/>
-      <c r="O26" s="313"/>
-      <c r="P26" s="313"/>
-      <c r="Q26" s="313"/>
-      <c r="R26" s="313"/>
-      <c r="S26" s="313"/>
-      <c r="T26" s="313"/>
-      <c r="U26" s="313"/>
-      <c r="V26" s="313"/>
-      <c r="W26" s="313"/>
-      <c r="X26" s="313"/>
-      <c r="Y26" s="313"/>
-      <c r="Z26" s="313"/>
-      <c r="AA26" s="313"/>
-      <c r="AB26" s="313"/>
-      <c r="AC26" s="313"/>
-      <c r="AD26" s="313"/>
-      <c r="AE26" s="313"/>
-      <c r="AF26" s="313"/>
-      <c r="AG26" s="313"/>
-      <c r="AH26" s="313"/>
-      <c r="AI26" s="313"/>
-      <c r="AJ26" s="313"/>
-      <c r="AK26" s="313"/>
-      <c r="AL26" s="313"/>
-      <c r="AM26" s="313"/>
-      <c r="AN26" s="313"/>
-      <c r="AO26" s="313"/>
-      <c r="AP26" s="313"/>
-      <c r="AQ26" s="313"/>
-      <c r="AR26" s="313"/>
-      <c r="AS26" s="313"/>
-      <c r="AT26" s="313"/>
-      <c r="AU26" s="313"/>
-      <c r="AV26" s="313"/>
+      <c r="B26" s="259"/>
+      <c r="C26" s="259"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="259"/>
+      <c r="G26" s="259"/>
+      <c r="H26" s="259"/>
+      <c r="I26" s="259"/>
+      <c r="J26" s="259"/>
+      <c r="K26" s="259"/>
+      <c r="L26" s="259"/>
+      <c r="M26" s="259"/>
+      <c r="N26" s="259"/>
+      <c r="O26" s="259"/>
+      <c r="P26" s="259"/>
+      <c r="Q26" s="259"/>
+      <c r="R26" s="259"/>
+      <c r="S26" s="259"/>
+      <c r="T26" s="259"/>
+      <c r="U26" s="259"/>
+      <c r="V26" s="259"/>
+      <c r="W26" s="259"/>
+      <c r="X26" s="259"/>
+      <c r="Y26" s="259"/>
+      <c r="Z26" s="259"/>
+      <c r="AA26" s="259"/>
+      <c r="AB26" s="259"/>
+      <c r="AC26" s="259"/>
+      <c r="AD26" s="259"/>
+      <c r="AE26" s="259"/>
+      <c r="AF26" s="259"/>
+      <c r="AG26" s="259"/>
+      <c r="AH26" s="259"/>
+      <c r="AI26" s="259"/>
+      <c r="AJ26" s="259"/>
+      <c r="AK26" s="259"/>
+      <c r="AL26" s="259"/>
+      <c r="AM26" s="259"/>
+      <c r="AN26" s="259"/>
+      <c r="AO26" s="259"/>
+      <c r="AP26" s="259"/>
+      <c r="AQ26" s="259"/>
+      <c r="AR26" s="259"/>
+      <c r="AS26" s="259"/>
+      <c r="AT26" s="259"/>
+      <c r="AU26" s="259"/>
+      <c r="AV26" s="259"/>
       <c r="AW26" s="163"/>
     </row>
     <row r="27" spans="1:49" ht="13.5" customHeight="1">
@@ -20848,187 +20854,187 @@
       <c r="AW40" s="166"/>
     </row>
     <row r="41" spans="1:49" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" thickTop="1">
-      <c r="A41" s="220" t="s">
+      <c r="A41" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="221"/>
-      <c r="C41" s="221"/>
-      <c r="D41" s="221"/>
-      <c r="E41" s="221"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="221"/>
-      <c r="H41" s="221"/>
-      <c r="I41" s="222"/>
-      <c r="J41" s="229" t="s">
+      <c r="B41" s="202"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="202"/>
+      <c r="E41" s="202"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="202"/>
+      <c r="H41" s="202"/>
+      <c r="I41" s="203"/>
+      <c r="J41" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="221"/>
-      <c r="L41" s="221"/>
-      <c r="M41" s="221"/>
-      <c r="N41" s="221"/>
-      <c r="O41" s="222"/>
-      <c r="P41" s="229" t="s">
+      <c r="K41" s="202"/>
+      <c r="L41" s="202"/>
+      <c r="M41" s="202"/>
+      <c r="N41" s="202"/>
+      <c r="O41" s="203"/>
+      <c r="P41" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="Q41" s="221"/>
-      <c r="R41" s="221"/>
-      <c r="S41" s="221"/>
-      <c r="T41" s="221"/>
-      <c r="U41" s="222"/>
-      <c r="V41" s="235" t="s">
+      <c r="Q41" s="202"/>
+      <c r="R41" s="202"/>
+      <c r="S41" s="202"/>
+      <c r="T41" s="202"/>
+      <c r="U41" s="203"/>
+      <c r="V41" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="W41" s="236"/>
-      <c r="X41" s="236"/>
-      <c r="Y41" s="236"/>
-      <c r="Z41" s="237"/>
-      <c r="AA41" s="241" t="s">
+      <c r="W41" s="218"/>
+      <c r="X41" s="218"/>
+      <c r="Y41" s="218"/>
+      <c r="Z41" s="219"/>
+      <c r="AA41" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="AB41" s="221"/>
-      <c r="AC41" s="221"/>
-      <c r="AD41" s="221"/>
-      <c r="AE41" s="221"/>
-      <c r="AF41" s="221"/>
-      <c r="AG41" s="221"/>
-      <c r="AH41" s="221"/>
-      <c r="AI41" s="221"/>
-      <c r="AJ41" s="221"/>
-      <c r="AK41" s="221"/>
-      <c r="AL41" s="222"/>
-      <c r="AM41" s="230" t="s">
+      <c r="AB41" s="202"/>
+      <c r="AC41" s="202"/>
+      <c r="AD41" s="202"/>
+      <c r="AE41" s="202"/>
+      <c r="AF41" s="202"/>
+      <c r="AG41" s="202"/>
+      <c r="AH41" s="202"/>
+      <c r="AI41" s="202"/>
+      <c r="AJ41" s="202"/>
+      <c r="AK41" s="202"/>
+      <c r="AL41" s="203"/>
+      <c r="AM41" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="AN41" s="231"/>
+      <c r="AN41" s="238"/>
       <c r="AO41" s="243" t="s">
         <v>124</v>
       </c>
       <c r="AP41" s="244"/>
       <c r="AQ41" s="245"/>
-      <c r="AR41" s="230" t="s">
+      <c r="AR41" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="AS41" s="231"/>
-      <c r="AT41" s="232">
+      <c r="AS41" s="238"/>
+      <c r="AT41" s="254">
         <v>45204</v>
       </c>
-      <c r="AU41" s="233"/>
-      <c r="AV41" s="233"/>
-      <c r="AW41" s="234"/>
+      <c r="AU41" s="255"/>
+      <c r="AV41" s="255"/>
+      <c r="AW41" s="256"/>
     </row>
     <row r="42" spans="1:49" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="223"/>
-      <c r="B42" s="224"/>
-      <c r="C42" s="224"/>
-      <c r="D42" s="224"/>
-      <c r="E42" s="224"/>
-      <c r="F42" s="224"/>
-      <c r="G42" s="224"/>
-      <c r="H42" s="224"/>
-      <c r="I42" s="225"/>
-      <c r="J42" s="223"/>
-      <c r="K42" s="224"/>
-      <c r="L42" s="224"/>
-      <c r="M42" s="224"/>
-      <c r="N42" s="224"/>
-      <c r="O42" s="225"/>
-      <c r="P42" s="223"/>
-      <c r="Q42" s="224"/>
-      <c r="R42" s="224"/>
-      <c r="S42" s="224"/>
-      <c r="T42" s="224"/>
-      <c r="U42" s="225"/>
-      <c r="V42" s="238"/>
-      <c r="W42" s="239"/>
-      <c r="X42" s="239"/>
-      <c r="Y42" s="239"/>
-      <c r="Z42" s="240"/>
-      <c r="AA42" s="242"/>
-      <c r="AB42" s="224"/>
-      <c r="AC42" s="224"/>
-      <c r="AD42" s="224"/>
-      <c r="AE42" s="224"/>
-      <c r="AF42" s="224"/>
-      <c r="AG42" s="224"/>
-      <c r="AH42" s="224"/>
-      <c r="AI42" s="224"/>
-      <c r="AJ42" s="224"/>
-      <c r="AK42" s="224"/>
-      <c r="AL42" s="225"/>
-      <c r="AM42" s="256" t="s">
+      <c r="A42" s="204"/>
+      <c r="B42" s="205"/>
+      <c r="C42" s="205"/>
+      <c r="D42" s="205"/>
+      <c r="E42" s="205"/>
+      <c r="F42" s="205"/>
+      <c r="G42" s="205"/>
+      <c r="H42" s="205"/>
+      <c r="I42" s="206"/>
+      <c r="J42" s="204"/>
+      <c r="K42" s="205"/>
+      <c r="L42" s="205"/>
+      <c r="M42" s="205"/>
+      <c r="N42" s="205"/>
+      <c r="O42" s="206"/>
+      <c r="P42" s="204"/>
+      <c r="Q42" s="205"/>
+      <c r="R42" s="205"/>
+      <c r="S42" s="205"/>
+      <c r="T42" s="205"/>
+      <c r="U42" s="206"/>
+      <c r="V42" s="220"/>
+      <c r="W42" s="221"/>
+      <c r="X42" s="221"/>
+      <c r="Y42" s="221"/>
+      <c r="Z42" s="222"/>
+      <c r="AA42" s="224"/>
+      <c r="AB42" s="205"/>
+      <c r="AC42" s="205"/>
+      <c r="AD42" s="205"/>
+      <c r="AE42" s="205"/>
+      <c r="AF42" s="205"/>
+      <c r="AG42" s="205"/>
+      <c r="AH42" s="205"/>
+      <c r="AI42" s="205"/>
+      <c r="AJ42" s="205"/>
+      <c r="AK42" s="205"/>
+      <c r="AL42" s="206"/>
+      <c r="AM42" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AN42" s="257"/>
-      <c r="AO42" s="258"/>
-      <c r="AP42" s="259"/>
-      <c r="AQ42" s="260"/>
-      <c r="AR42" s="256" t="s">
+      <c r="AN42" s="247"/>
+      <c r="AO42" s="248"/>
+      <c r="AP42" s="249"/>
+      <c r="AQ42" s="250"/>
+      <c r="AR42" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="AS42" s="257"/>
-      <c r="AT42" s="261"/>
-      <c r="AU42" s="262"/>
-      <c r="AV42" s="262"/>
-      <c r="AW42" s="263"/>
+      <c r="AS42" s="247"/>
+      <c r="AT42" s="251"/>
+      <c r="AU42" s="252"/>
+      <c r="AV42" s="252"/>
+      <c r="AW42" s="253"/>
     </row>
     <row r="43" spans="1:49" ht="17.100000000000001" customHeight="1" thickBot="1">
-      <c r="A43" s="226"/>
-      <c r="B43" s="227"/>
-      <c r="C43" s="227"/>
-      <c r="D43" s="227"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="227"/>
-      <c r="G43" s="227"/>
-      <c r="H43" s="227"/>
-      <c r="I43" s="228"/>
-      <c r="J43" s="226"/>
-      <c r="K43" s="227"/>
-      <c r="L43" s="227"/>
-      <c r="M43" s="227"/>
-      <c r="N43" s="227"/>
-      <c r="O43" s="228"/>
-      <c r="P43" s="226"/>
-      <c r="Q43" s="227"/>
-      <c r="R43" s="227"/>
-      <c r="S43" s="227"/>
-      <c r="T43" s="227"/>
-      <c r="U43" s="228"/>
-      <c r="V43" s="246" t="s">
+      <c r="A43" s="207"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="208"/>
+      <c r="D43" s="208"/>
+      <c r="E43" s="208"/>
+      <c r="F43" s="208"/>
+      <c r="G43" s="208"/>
+      <c r="H43" s="208"/>
+      <c r="I43" s="209"/>
+      <c r="J43" s="207"/>
+      <c r="K43" s="208"/>
+      <c r="L43" s="208"/>
+      <c r="M43" s="208"/>
+      <c r="N43" s="208"/>
+      <c r="O43" s="209"/>
+      <c r="P43" s="207"/>
+      <c r="Q43" s="208"/>
+      <c r="R43" s="208"/>
+      <c r="S43" s="208"/>
+      <c r="T43" s="208"/>
+      <c r="U43" s="209"/>
+      <c r="V43" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="W43" s="247"/>
-      <c r="X43" s="247"/>
-      <c r="Y43" s="247"/>
-      <c r="Z43" s="248"/>
-      <c r="AA43" s="249" t="s">
+      <c r="W43" s="215"/>
+      <c r="X43" s="215"/>
+      <c r="Y43" s="215"/>
+      <c r="Z43" s="216"/>
+      <c r="AA43" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="AB43" s="250"/>
-      <c r="AC43" s="250"/>
-      <c r="AD43" s="250"/>
-      <c r="AE43" s="250"/>
-      <c r="AF43" s="250"/>
-      <c r="AG43" s="251"/>
-      <c r="AH43" s="252" t="s">
+      <c r="AB43" s="212"/>
+      <c r="AC43" s="212"/>
+      <c r="AD43" s="212"/>
+      <c r="AE43" s="212"/>
+      <c r="AF43" s="212"/>
+      <c r="AG43" s="213"/>
+      <c r="AH43" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="AI43" s="253"/>
-      <c r="AJ43" s="253"/>
-      <c r="AK43" s="253"/>
-      <c r="AL43" s="254"/>
-      <c r="AM43" s="249" t="s">
+      <c r="AI43" s="240"/>
+      <c r="AJ43" s="240"/>
+      <c r="AK43" s="240"/>
+      <c r="AL43" s="241"/>
+      <c r="AM43" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="AN43" s="250"/>
-      <c r="AO43" s="250"/>
-      <c r="AP43" s="250"/>
-      <c r="AQ43" s="250"/>
-      <c r="AR43" s="250"/>
-      <c r="AS43" s="250"/>
-      <c r="AT43" s="250"/>
-      <c r="AU43" s="250"/>
-      <c r="AV43" s="250"/>
-      <c r="AW43" s="255"/>
+      <c r="AN43" s="212"/>
+      <c r="AO43" s="212"/>
+      <c r="AP43" s="212"/>
+      <c r="AQ43" s="212"/>
+      <c r="AR43" s="212"/>
+      <c r="AS43" s="212"/>
+      <c r="AT43" s="212"/>
+      <c r="AU43" s="212"/>
+      <c r="AV43" s="212"/>
+      <c r="AW43" s="242"/>
     </row>
     <row r="44" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="21"/>
@@ -21142,1666 +21148,1666 @@
     </row>
     <row r="47" spans="1:49" ht="13.5" customHeight="1">
       <c r="A47" s="21"/>
-      <c r="B47" s="314" t="s">
+      <c r="B47" s="260" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="315"/>
-      <c r="D47" s="278" t="s">
+      <c r="C47" s="261"/>
+      <c r="D47" s="264" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="279"/>
-      <c r="F47" s="279"/>
-      <c r="G47" s="279"/>
-      <c r="H47" s="280"/>
-      <c r="I47" s="314" t="s">
+      <c r="E47" s="265"/>
+      <c r="F47" s="265"/>
+      <c r="G47" s="265"/>
+      <c r="H47" s="266"/>
+      <c r="I47" s="260" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="315"/>
-      <c r="K47" s="315"/>
-      <c r="L47" s="315"/>
-      <c r="M47" s="315"/>
-      <c r="N47" s="315"/>
-      <c r="O47" s="315"/>
-      <c r="P47" s="315"/>
-      <c r="Q47" s="315"/>
-      <c r="R47" s="315"/>
-      <c r="S47" s="315"/>
-      <c r="T47" s="315"/>
-      <c r="U47" s="315"/>
-      <c r="V47" s="315"/>
-      <c r="W47" s="315"/>
-      <c r="X47" s="315"/>
-      <c r="Y47" s="315"/>
-      <c r="Z47" s="318"/>
-      <c r="AA47" s="278" t="s">
+      <c r="J47" s="261"/>
+      <c r="K47" s="261"/>
+      <c r="L47" s="261"/>
+      <c r="M47" s="261"/>
+      <c r="N47" s="261"/>
+      <c r="O47" s="261"/>
+      <c r="P47" s="261"/>
+      <c r="Q47" s="261"/>
+      <c r="R47" s="261"/>
+      <c r="S47" s="261"/>
+      <c r="T47" s="261"/>
+      <c r="U47" s="261"/>
+      <c r="V47" s="261"/>
+      <c r="W47" s="261"/>
+      <c r="X47" s="261"/>
+      <c r="Y47" s="261"/>
+      <c r="Z47" s="270"/>
+      <c r="AA47" s="264" t="s">
         <v>25</v>
       </c>
-      <c r="AB47" s="279"/>
-      <c r="AC47" s="279"/>
-      <c r="AD47" s="280"/>
-      <c r="AE47" s="284"/>
-      <c r="AF47" s="285"/>
-      <c r="AG47" s="285"/>
-      <c r="AH47" s="285"/>
-      <c r="AI47" s="285"/>
-      <c r="AJ47" s="285"/>
-      <c r="AK47" s="285"/>
-      <c r="AL47" s="285"/>
-      <c r="AM47" s="286"/>
-      <c r="AN47" s="287"/>
-      <c r="AO47" s="288"/>
-      <c r="AP47" s="288"/>
-      <c r="AQ47" s="288"/>
-      <c r="AR47" s="288"/>
-      <c r="AS47" s="288"/>
-      <c r="AT47" s="288"/>
-      <c r="AU47" s="288"/>
-      <c r="AV47" s="289"/>
+      <c r="AB47" s="265"/>
+      <c r="AC47" s="265"/>
+      <c r="AD47" s="266"/>
+      <c r="AE47" s="294"/>
+      <c r="AF47" s="295"/>
+      <c r="AG47" s="295"/>
+      <c r="AH47" s="295"/>
+      <c r="AI47" s="295"/>
+      <c r="AJ47" s="295"/>
+      <c r="AK47" s="295"/>
+      <c r="AL47" s="295"/>
+      <c r="AM47" s="296"/>
+      <c r="AN47" s="297"/>
+      <c r="AO47" s="298"/>
+      <c r="AP47" s="298"/>
+      <c r="AQ47" s="298"/>
+      <c r="AR47" s="298"/>
+      <c r="AS47" s="298"/>
+      <c r="AT47" s="298"/>
+      <c r="AU47" s="298"/>
+      <c r="AV47" s="299"/>
       <c r="AW47" s="163"/>
     </row>
     <row r="48" spans="1:49" ht="13.5" customHeight="1">
       <c r="A48" s="21"/>
-      <c r="B48" s="316"/>
-      <c r="C48" s="317"/>
-      <c r="D48" s="281"/>
-      <c r="E48" s="282"/>
-      <c r="F48" s="282"/>
-      <c r="G48" s="282"/>
-      <c r="H48" s="283"/>
-      <c r="I48" s="316"/>
-      <c r="J48" s="317"/>
-      <c r="K48" s="317"/>
-      <c r="L48" s="317"/>
-      <c r="M48" s="317"/>
-      <c r="N48" s="317"/>
-      <c r="O48" s="317"/>
-      <c r="P48" s="317"/>
-      <c r="Q48" s="317"/>
-      <c r="R48" s="317"/>
-      <c r="S48" s="317"/>
-      <c r="T48" s="317"/>
-      <c r="U48" s="317"/>
-      <c r="V48" s="317"/>
-      <c r="W48" s="317"/>
-      <c r="X48" s="317"/>
-      <c r="Y48" s="317"/>
-      <c r="Z48" s="319"/>
-      <c r="AA48" s="281"/>
-      <c r="AB48" s="282"/>
-      <c r="AC48" s="282"/>
-      <c r="AD48" s="283"/>
-      <c r="AE48" s="284" t="s">
+      <c r="B48" s="262"/>
+      <c r="C48" s="263"/>
+      <c r="D48" s="267"/>
+      <c r="E48" s="268"/>
+      <c r="F48" s="268"/>
+      <c r="G48" s="268"/>
+      <c r="H48" s="269"/>
+      <c r="I48" s="262"/>
+      <c r="J48" s="263"/>
+      <c r="K48" s="263"/>
+      <c r="L48" s="263"/>
+      <c r="M48" s="263"/>
+      <c r="N48" s="263"/>
+      <c r="O48" s="263"/>
+      <c r="P48" s="263"/>
+      <c r="Q48" s="263"/>
+      <c r="R48" s="263"/>
+      <c r="S48" s="263"/>
+      <c r="T48" s="263"/>
+      <c r="U48" s="263"/>
+      <c r="V48" s="263"/>
+      <c r="W48" s="263"/>
+      <c r="X48" s="263"/>
+      <c r="Y48" s="263"/>
+      <c r="Z48" s="271"/>
+      <c r="AA48" s="267"/>
+      <c r="AB48" s="268"/>
+      <c r="AC48" s="268"/>
+      <c r="AD48" s="269"/>
+      <c r="AE48" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="AF48" s="285"/>
-      <c r="AG48" s="285"/>
-      <c r="AH48" s="285"/>
-      <c r="AI48" s="286"/>
-      <c r="AJ48" s="284" t="s">
+      <c r="AF48" s="295"/>
+      <c r="AG48" s="295"/>
+      <c r="AH48" s="295"/>
+      <c r="AI48" s="296"/>
+      <c r="AJ48" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="AK48" s="285"/>
-      <c r="AL48" s="285"/>
-      <c r="AM48" s="286"/>
-      <c r="AN48" s="284" t="s">
+      <c r="AK48" s="295"/>
+      <c r="AL48" s="295"/>
+      <c r="AM48" s="296"/>
+      <c r="AN48" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="AO48" s="285"/>
-      <c r="AP48" s="285"/>
-      <c r="AQ48" s="285"/>
-      <c r="AR48" s="286"/>
-      <c r="AS48" s="284" t="s">
+      <c r="AO48" s="295"/>
+      <c r="AP48" s="295"/>
+      <c r="AQ48" s="295"/>
+      <c r="AR48" s="296"/>
+      <c r="AS48" s="294" t="s">
         <v>40</v>
       </c>
-      <c r="AT48" s="285"/>
-      <c r="AU48" s="285"/>
-      <c r="AV48" s="286"/>
+      <c r="AT48" s="295"/>
+      <c r="AU48" s="295"/>
+      <c r="AV48" s="296"/>
       <c r="AW48" s="163"/>
     </row>
     <row r="49" spans="1:49" ht="13.5" customHeight="1">
       <c r="A49" s="21"/>
-      <c r="B49" s="298">
+      <c r="B49" s="306">
         <v>1</v>
       </c>
-      <c r="C49" s="299"/>
-      <c r="D49" s="302">
+      <c r="C49" s="307"/>
+      <c r="D49" s="231">
         <v>45204</v>
       </c>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="304"/>
-      <c r="I49" s="383" t="s">
+      <c r="E49" s="232"/>
+      <c r="F49" s="232"/>
+      <c r="G49" s="232"/>
+      <c r="H49" s="233"/>
+      <c r="I49" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="J49" s="384"/>
-      <c r="K49" s="384"/>
-      <c r="L49" s="384"/>
-      <c r="M49" s="384"/>
-      <c r="N49" s="384"/>
-      <c r="O49" s="384"/>
-      <c r="P49" s="384"/>
-      <c r="Q49" s="384"/>
-      <c r="R49" s="384"/>
-      <c r="S49" s="384"/>
-      <c r="T49" s="384"/>
-      <c r="U49" s="384"/>
-      <c r="V49" s="384"/>
-      <c r="W49" s="384"/>
-      <c r="X49" s="384"/>
-      <c r="Y49" s="384"/>
-      <c r="Z49" s="385"/>
-      <c r="AA49" s="290" t="s">
+      <c r="J49" s="311"/>
+      <c r="K49" s="311"/>
+      <c r="L49" s="311"/>
+      <c r="M49" s="311"/>
+      <c r="N49" s="311"/>
+      <c r="O49" s="311"/>
+      <c r="P49" s="311"/>
+      <c r="Q49" s="311"/>
+      <c r="R49" s="311"/>
+      <c r="S49" s="311"/>
+      <c r="T49" s="311"/>
+      <c r="U49" s="311"/>
+      <c r="V49" s="311"/>
+      <c r="W49" s="311"/>
+      <c r="X49" s="311"/>
+      <c r="Y49" s="311"/>
+      <c r="Z49" s="312"/>
+      <c r="AA49" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="AB49" s="291"/>
-      <c r="AC49" s="291"/>
-      <c r="AD49" s="292"/>
-      <c r="AE49" s="302"/>
-      <c r="AF49" s="303"/>
-      <c r="AG49" s="303"/>
-      <c r="AH49" s="303"/>
-      <c r="AI49" s="304"/>
-      <c r="AJ49" s="290"/>
-      <c r="AK49" s="291"/>
-      <c r="AL49" s="291"/>
-      <c r="AM49" s="292"/>
-      <c r="AN49" s="302"/>
-      <c r="AO49" s="303"/>
-      <c r="AP49" s="303"/>
-      <c r="AQ49" s="303"/>
-      <c r="AR49" s="304"/>
-      <c r="AS49" s="290"/>
-      <c r="AT49" s="291"/>
-      <c r="AU49" s="291"/>
-      <c r="AV49" s="292"/>
+      <c r="AB49" s="226"/>
+      <c r="AC49" s="226"/>
+      <c r="AD49" s="227"/>
+      <c r="AE49" s="231"/>
+      <c r="AF49" s="232"/>
+      <c r="AG49" s="232"/>
+      <c r="AH49" s="232"/>
+      <c r="AI49" s="233"/>
+      <c r="AJ49" s="225"/>
+      <c r="AK49" s="226"/>
+      <c r="AL49" s="226"/>
+      <c r="AM49" s="227"/>
+      <c r="AN49" s="231"/>
+      <c r="AO49" s="232"/>
+      <c r="AP49" s="232"/>
+      <c r="AQ49" s="232"/>
+      <c r="AR49" s="233"/>
+      <c r="AS49" s="225"/>
+      <c r="AT49" s="226"/>
+      <c r="AU49" s="226"/>
+      <c r="AV49" s="227"/>
       <c r="AW49" s="163"/>
     </row>
     <row r="50" spans="1:49" ht="13.5" customHeight="1">
       <c r="A50" s="21"/>
-      <c r="B50" s="300"/>
-      <c r="C50" s="301"/>
-      <c r="D50" s="305"/>
-      <c r="E50" s="306"/>
-      <c r="F50" s="306"/>
-      <c r="G50" s="306"/>
-      <c r="H50" s="307"/>
-      <c r="I50" s="386"/>
-      <c r="J50" s="387"/>
-      <c r="K50" s="387"/>
-      <c r="L50" s="387"/>
-      <c r="M50" s="387"/>
-      <c r="N50" s="387"/>
-      <c r="O50" s="387"/>
-      <c r="P50" s="387"/>
-      <c r="Q50" s="387"/>
-      <c r="R50" s="387"/>
-      <c r="S50" s="387"/>
-      <c r="T50" s="387"/>
-      <c r="U50" s="387"/>
-      <c r="V50" s="387"/>
-      <c r="W50" s="387"/>
-      <c r="X50" s="387"/>
-      <c r="Y50" s="387"/>
-      <c r="Z50" s="388"/>
-      <c r="AA50" s="293"/>
-      <c r="AB50" s="294"/>
-      <c r="AC50" s="294"/>
-      <c r="AD50" s="295"/>
-      <c r="AE50" s="305"/>
-      <c r="AF50" s="306"/>
-      <c r="AG50" s="306"/>
-      <c r="AH50" s="306"/>
-      <c r="AI50" s="307"/>
-      <c r="AJ50" s="293"/>
-      <c r="AK50" s="294"/>
-      <c r="AL50" s="294"/>
-      <c r="AM50" s="295"/>
-      <c r="AN50" s="305"/>
-      <c r="AO50" s="306"/>
-      <c r="AP50" s="306"/>
-      <c r="AQ50" s="306"/>
-      <c r="AR50" s="307"/>
-      <c r="AS50" s="293"/>
-      <c r="AT50" s="294"/>
-      <c r="AU50" s="294"/>
-      <c r="AV50" s="295"/>
+      <c r="B50" s="308"/>
+      <c r="C50" s="309"/>
+      <c r="D50" s="234"/>
+      <c r="E50" s="235"/>
+      <c r="F50" s="235"/>
+      <c r="G50" s="235"/>
+      <c r="H50" s="236"/>
+      <c r="I50" s="313"/>
+      <c r="J50" s="314"/>
+      <c r="K50" s="314"/>
+      <c r="L50" s="314"/>
+      <c r="M50" s="314"/>
+      <c r="N50" s="314"/>
+      <c r="O50" s="314"/>
+      <c r="P50" s="314"/>
+      <c r="Q50" s="314"/>
+      <c r="R50" s="314"/>
+      <c r="S50" s="314"/>
+      <c r="T50" s="314"/>
+      <c r="U50" s="314"/>
+      <c r="V50" s="314"/>
+      <c r="W50" s="314"/>
+      <c r="X50" s="314"/>
+      <c r="Y50" s="314"/>
+      <c r="Z50" s="315"/>
+      <c r="AA50" s="228"/>
+      <c r="AB50" s="229"/>
+      <c r="AC50" s="229"/>
+      <c r="AD50" s="230"/>
+      <c r="AE50" s="234"/>
+      <c r="AF50" s="235"/>
+      <c r="AG50" s="235"/>
+      <c r="AH50" s="235"/>
+      <c r="AI50" s="236"/>
+      <c r="AJ50" s="228"/>
+      <c r="AK50" s="229"/>
+      <c r="AL50" s="229"/>
+      <c r="AM50" s="230"/>
+      <c r="AN50" s="234"/>
+      <c r="AO50" s="235"/>
+      <c r="AP50" s="235"/>
+      <c r="AQ50" s="235"/>
+      <c r="AR50" s="236"/>
+      <c r="AS50" s="228"/>
+      <c r="AT50" s="229"/>
+      <c r="AU50" s="229"/>
+      <c r="AV50" s="230"/>
       <c r="AW50" s="163"/>
     </row>
     <row r="51" spans="1:49" ht="13.5" customHeight="1">
       <c r="A51" s="21"/>
-      <c r="B51" s="264">
+      <c r="B51" s="316">
         <v>2</v>
       </c>
-      <c r="C51" s="265"/>
-      <c r="D51" s="302">
+      <c r="C51" s="317"/>
+      <c r="D51" s="231">
         <v>45241</v>
       </c>
-      <c r="E51" s="303"/>
-      <c r="F51" s="303"/>
-      <c r="G51" s="303"/>
-      <c r="H51" s="304"/>
-      <c r="I51" s="383" t="s">
+      <c r="E51" s="232"/>
+      <c r="F51" s="232"/>
+      <c r="G51" s="232"/>
+      <c r="H51" s="233"/>
+      <c r="I51" s="310" t="s">
         <v>151</v>
       </c>
-      <c r="J51" s="384"/>
-      <c r="K51" s="384"/>
-      <c r="L51" s="384"/>
-      <c r="M51" s="384"/>
-      <c r="N51" s="384"/>
-      <c r="O51" s="384"/>
-      <c r="P51" s="384"/>
-      <c r="Q51" s="384"/>
-      <c r="R51" s="384"/>
-      <c r="S51" s="384"/>
-      <c r="T51" s="384"/>
-      <c r="U51" s="384"/>
-      <c r="V51" s="384"/>
-      <c r="W51" s="384"/>
-      <c r="X51" s="384"/>
-      <c r="Y51" s="384"/>
-      <c r="Z51" s="385"/>
-      <c r="AA51" s="290" t="s">
+      <c r="J51" s="311"/>
+      <c r="K51" s="311"/>
+      <c r="L51" s="311"/>
+      <c r="M51" s="311"/>
+      <c r="N51" s="311"/>
+      <c r="O51" s="311"/>
+      <c r="P51" s="311"/>
+      <c r="Q51" s="311"/>
+      <c r="R51" s="311"/>
+      <c r="S51" s="311"/>
+      <c r="T51" s="311"/>
+      <c r="U51" s="311"/>
+      <c r="V51" s="311"/>
+      <c r="W51" s="311"/>
+      <c r="X51" s="311"/>
+      <c r="Y51" s="311"/>
+      <c r="Z51" s="312"/>
+      <c r="AA51" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="AB51" s="291"/>
-      <c r="AC51" s="291"/>
-      <c r="AD51" s="292"/>
-      <c r="AE51" s="269"/>
-      <c r="AF51" s="270"/>
-      <c r="AG51" s="270"/>
-      <c r="AH51" s="270"/>
-      <c r="AI51" s="271"/>
-      <c r="AJ51" s="266"/>
-      <c r="AK51" s="267"/>
-      <c r="AL51" s="267"/>
-      <c r="AM51" s="268"/>
-      <c r="AN51" s="269"/>
-      <c r="AO51" s="270"/>
-      <c r="AP51" s="270"/>
-      <c r="AQ51" s="270"/>
-      <c r="AR51" s="271"/>
-      <c r="AS51" s="266"/>
-      <c r="AT51" s="267"/>
-      <c r="AU51" s="267"/>
-      <c r="AV51" s="268"/>
+      <c r="AB51" s="226"/>
+      <c r="AC51" s="226"/>
+      <c r="AD51" s="227"/>
+      <c r="AE51" s="291"/>
+      <c r="AF51" s="292"/>
+      <c r="AG51" s="292"/>
+      <c r="AH51" s="292"/>
+      <c r="AI51" s="293"/>
+      <c r="AJ51" s="303"/>
+      <c r="AK51" s="304"/>
+      <c r="AL51" s="304"/>
+      <c r="AM51" s="305"/>
+      <c r="AN51" s="291"/>
+      <c r="AO51" s="292"/>
+      <c r="AP51" s="292"/>
+      <c r="AQ51" s="292"/>
+      <c r="AR51" s="293"/>
+      <c r="AS51" s="303"/>
+      <c r="AT51" s="304"/>
+      <c r="AU51" s="304"/>
+      <c r="AV51" s="305"/>
       <c r="AW51" s="163"/>
     </row>
     <row r="52" spans="1:49" ht="13.5" customHeight="1">
       <c r="A52" s="21"/>
-      <c r="B52" s="210"/>
-      <c r="C52" s="211"/>
-      <c r="D52" s="305"/>
-      <c r="E52" s="306"/>
-      <c r="F52" s="306"/>
-      <c r="G52" s="306"/>
-      <c r="H52" s="307"/>
-      <c r="I52" s="386"/>
-      <c r="J52" s="387"/>
-      <c r="K52" s="387"/>
-      <c r="L52" s="387"/>
-      <c r="M52" s="387"/>
-      <c r="N52" s="387"/>
-      <c r="O52" s="387"/>
-      <c r="P52" s="387"/>
-      <c r="Q52" s="387"/>
-      <c r="R52" s="387"/>
-      <c r="S52" s="387"/>
-      <c r="T52" s="387"/>
-      <c r="U52" s="387"/>
-      <c r="V52" s="387"/>
-      <c r="W52" s="387"/>
-      <c r="X52" s="387"/>
-      <c r="Y52" s="387"/>
-      <c r="Z52" s="388"/>
-      <c r="AA52" s="293"/>
-      <c r="AB52" s="294"/>
-      <c r="AC52" s="294"/>
-      <c r="AD52" s="295"/>
-      <c r="AE52" s="198"/>
-      <c r="AF52" s="199"/>
-      <c r="AG52" s="199"/>
-      <c r="AH52" s="199"/>
-      <c r="AI52" s="200"/>
-      <c r="AJ52" s="204"/>
-      <c r="AK52" s="205"/>
-      <c r="AL52" s="205"/>
-      <c r="AM52" s="206"/>
-      <c r="AN52" s="198"/>
-      <c r="AO52" s="199"/>
-      <c r="AP52" s="199"/>
-      <c r="AQ52" s="199"/>
-      <c r="AR52" s="200"/>
-      <c r="AS52" s="204"/>
-      <c r="AT52" s="205"/>
-      <c r="AU52" s="205"/>
-      <c r="AV52" s="206"/>
+      <c r="B52" s="284"/>
+      <c r="C52" s="285"/>
+      <c r="D52" s="234"/>
+      <c r="E52" s="235"/>
+      <c r="F52" s="235"/>
+      <c r="G52" s="235"/>
+      <c r="H52" s="236"/>
+      <c r="I52" s="313"/>
+      <c r="J52" s="314"/>
+      <c r="K52" s="314"/>
+      <c r="L52" s="314"/>
+      <c r="M52" s="314"/>
+      <c r="N52" s="314"/>
+      <c r="O52" s="314"/>
+      <c r="P52" s="314"/>
+      <c r="Q52" s="314"/>
+      <c r="R52" s="314"/>
+      <c r="S52" s="314"/>
+      <c r="T52" s="314"/>
+      <c r="U52" s="314"/>
+      <c r="V52" s="314"/>
+      <c r="W52" s="314"/>
+      <c r="X52" s="314"/>
+      <c r="Y52" s="314"/>
+      <c r="Z52" s="315"/>
+      <c r="AA52" s="228"/>
+      <c r="AB52" s="229"/>
+      <c r="AC52" s="229"/>
+      <c r="AD52" s="230"/>
+      <c r="AE52" s="272"/>
+      <c r="AF52" s="273"/>
+      <c r="AG52" s="273"/>
+      <c r="AH52" s="273"/>
+      <c r="AI52" s="274"/>
+      <c r="AJ52" s="288"/>
+      <c r="AK52" s="289"/>
+      <c r="AL52" s="289"/>
+      <c r="AM52" s="290"/>
+      <c r="AN52" s="272"/>
+      <c r="AO52" s="273"/>
+      <c r="AP52" s="273"/>
+      <c r="AQ52" s="273"/>
+      <c r="AR52" s="274"/>
+      <c r="AS52" s="288"/>
+      <c r="AT52" s="289"/>
+      <c r="AU52" s="289"/>
+      <c r="AV52" s="290"/>
       <c r="AW52" s="163"/>
     </row>
     <row r="53" spans="1:49" ht="13.5" customHeight="1">
       <c r="A53" s="21"/>
-      <c r="B53" s="210"/>
-      <c r="C53" s="211"/>
-      <c r="D53" s="198"/>
-      <c r="E53" s="199"/>
-      <c r="F53" s="199"/>
-      <c r="G53" s="199"/>
-      <c r="H53" s="200"/>
-      <c r="I53" s="212"/>
-      <c r="J53" s="213"/>
-      <c r="K53" s="213"/>
-      <c r="L53" s="213"/>
-      <c r="M53" s="213"/>
-      <c r="N53" s="213"/>
-      <c r="O53" s="213"/>
-      <c r="P53" s="213"/>
-      <c r="Q53" s="213"/>
-      <c r="R53" s="213"/>
-      <c r="S53" s="213"/>
-      <c r="T53" s="213"/>
-      <c r="U53" s="213"/>
-      <c r="V53" s="213"/>
-      <c r="W53" s="213"/>
-      <c r="X53" s="213"/>
-      <c r="Y53" s="213"/>
-      <c r="Z53" s="214"/>
-      <c r="AA53" s="204"/>
-      <c r="AB53" s="205"/>
-      <c r="AC53" s="205"/>
-      <c r="AD53" s="206"/>
-      <c r="AE53" s="198"/>
-      <c r="AF53" s="199"/>
-      <c r="AG53" s="199"/>
-      <c r="AH53" s="199"/>
-      <c r="AI53" s="200"/>
-      <c r="AJ53" s="204"/>
-      <c r="AK53" s="205"/>
-      <c r="AL53" s="205"/>
-      <c r="AM53" s="206"/>
-      <c r="AN53" s="198"/>
-      <c r="AO53" s="199"/>
-      <c r="AP53" s="199"/>
-      <c r="AQ53" s="199"/>
-      <c r="AR53" s="200"/>
-      <c r="AS53" s="204"/>
-      <c r="AT53" s="205"/>
-      <c r="AU53" s="205"/>
-      <c r="AV53" s="206"/>
+      <c r="B53" s="284"/>
+      <c r="C53" s="285"/>
+      <c r="D53" s="272"/>
+      <c r="E53" s="273"/>
+      <c r="F53" s="273"/>
+      <c r="G53" s="273"/>
+      <c r="H53" s="274"/>
+      <c r="I53" s="300"/>
+      <c r="J53" s="301"/>
+      <c r="K53" s="301"/>
+      <c r="L53" s="301"/>
+      <c r="M53" s="301"/>
+      <c r="N53" s="301"/>
+      <c r="O53" s="301"/>
+      <c r="P53" s="301"/>
+      <c r="Q53" s="301"/>
+      <c r="R53" s="301"/>
+      <c r="S53" s="301"/>
+      <c r="T53" s="301"/>
+      <c r="U53" s="301"/>
+      <c r="V53" s="301"/>
+      <c r="W53" s="301"/>
+      <c r="X53" s="301"/>
+      <c r="Y53" s="301"/>
+      <c r="Z53" s="302"/>
+      <c r="AA53" s="288"/>
+      <c r="AB53" s="289"/>
+      <c r="AC53" s="289"/>
+      <c r="AD53" s="290"/>
+      <c r="AE53" s="272"/>
+      <c r="AF53" s="273"/>
+      <c r="AG53" s="273"/>
+      <c r="AH53" s="273"/>
+      <c r="AI53" s="274"/>
+      <c r="AJ53" s="288"/>
+      <c r="AK53" s="289"/>
+      <c r="AL53" s="289"/>
+      <c r="AM53" s="290"/>
+      <c r="AN53" s="272"/>
+      <c r="AO53" s="273"/>
+      <c r="AP53" s="273"/>
+      <c r="AQ53" s="273"/>
+      <c r="AR53" s="274"/>
+      <c r="AS53" s="288"/>
+      <c r="AT53" s="289"/>
+      <c r="AU53" s="289"/>
+      <c r="AV53" s="290"/>
       <c r="AW53" s="163"/>
     </row>
     <row r="54" spans="1:49" ht="13.5" customHeight="1">
       <c r="A54" s="21"/>
-      <c r="B54" s="210"/>
-      <c r="C54" s="211"/>
-      <c r="D54" s="198"/>
-      <c r="E54" s="199"/>
-      <c r="F54" s="199"/>
-      <c r="G54" s="199"/>
-      <c r="H54" s="200"/>
-      <c r="I54" s="212"/>
-      <c r="J54" s="213"/>
-      <c r="K54" s="213"/>
-      <c r="L54" s="213"/>
-      <c r="M54" s="213"/>
-      <c r="N54" s="213"/>
-      <c r="O54" s="213"/>
-      <c r="P54" s="213"/>
-      <c r="Q54" s="213"/>
-      <c r="R54" s="213"/>
-      <c r="S54" s="213"/>
-      <c r="T54" s="213"/>
-      <c r="U54" s="213"/>
-      <c r="V54" s="213"/>
-      <c r="W54" s="213"/>
-      <c r="X54" s="213"/>
-      <c r="Y54" s="213"/>
-      <c r="Z54" s="214"/>
-      <c r="AA54" s="204"/>
-      <c r="AB54" s="205"/>
-      <c r="AC54" s="205"/>
-      <c r="AD54" s="206"/>
-      <c r="AE54" s="198"/>
-      <c r="AF54" s="199"/>
-      <c r="AG54" s="199"/>
-      <c r="AH54" s="199"/>
-      <c r="AI54" s="200"/>
-      <c r="AJ54" s="204"/>
-      <c r="AK54" s="205"/>
-      <c r="AL54" s="205"/>
-      <c r="AM54" s="206"/>
-      <c r="AN54" s="198"/>
-      <c r="AO54" s="199"/>
-      <c r="AP54" s="199"/>
-      <c r="AQ54" s="199"/>
-      <c r="AR54" s="200"/>
-      <c r="AS54" s="204"/>
-      <c r="AT54" s="205"/>
-      <c r="AU54" s="205"/>
-      <c r="AV54" s="206"/>
+      <c r="B54" s="284"/>
+      <c r="C54" s="285"/>
+      <c r="D54" s="272"/>
+      <c r="E54" s="273"/>
+      <c r="F54" s="273"/>
+      <c r="G54" s="273"/>
+      <c r="H54" s="274"/>
+      <c r="I54" s="300"/>
+      <c r="J54" s="301"/>
+      <c r="K54" s="301"/>
+      <c r="L54" s="301"/>
+      <c r="M54" s="301"/>
+      <c r="N54" s="301"/>
+      <c r="O54" s="301"/>
+      <c r="P54" s="301"/>
+      <c r="Q54" s="301"/>
+      <c r="R54" s="301"/>
+      <c r="S54" s="301"/>
+      <c r="T54" s="301"/>
+      <c r="U54" s="301"/>
+      <c r="V54" s="301"/>
+      <c r="W54" s="301"/>
+      <c r="X54" s="301"/>
+      <c r="Y54" s="301"/>
+      <c r="Z54" s="302"/>
+      <c r="AA54" s="288"/>
+      <c r="AB54" s="289"/>
+      <c r="AC54" s="289"/>
+      <c r="AD54" s="290"/>
+      <c r="AE54" s="272"/>
+      <c r="AF54" s="273"/>
+      <c r="AG54" s="273"/>
+      <c r="AH54" s="273"/>
+      <c r="AI54" s="274"/>
+      <c r="AJ54" s="288"/>
+      <c r="AK54" s="289"/>
+      <c r="AL54" s="289"/>
+      <c r="AM54" s="290"/>
+      <c r="AN54" s="272"/>
+      <c r="AO54" s="273"/>
+      <c r="AP54" s="273"/>
+      <c r="AQ54" s="273"/>
+      <c r="AR54" s="274"/>
+      <c r="AS54" s="288"/>
+      <c r="AT54" s="289"/>
+      <c r="AU54" s="289"/>
+      <c r="AV54" s="290"/>
       <c r="AW54" s="163"/>
     </row>
     <row r="55" spans="1:49" ht="13.5" customHeight="1">
       <c r="A55" s="21"/>
-      <c r="B55" s="296"/>
-      <c r="C55" s="297"/>
+      <c r="B55" s="286"/>
+      <c r="C55" s="287"/>
       <c r="D55" s="275"/>
       <c r="E55" s="276"/>
       <c r="F55" s="276"/>
       <c r="G55" s="276"/>
       <c r="H55" s="277"/>
-      <c r="I55" s="308"/>
-      <c r="J55" s="309"/>
-      <c r="K55" s="309"/>
-      <c r="L55" s="309"/>
-      <c r="M55" s="309"/>
-      <c r="N55" s="309"/>
-      <c r="O55" s="309"/>
-      <c r="P55" s="309"/>
-      <c r="Q55" s="309"/>
-      <c r="R55" s="309"/>
-      <c r="S55" s="309"/>
-      <c r="T55" s="309"/>
-      <c r="U55" s="309"/>
-      <c r="V55" s="309"/>
-      <c r="W55" s="309"/>
-      <c r="X55" s="309"/>
-      <c r="Y55" s="309"/>
-      <c r="Z55" s="310"/>
-      <c r="AA55" s="272"/>
-      <c r="AB55" s="273"/>
-      <c r="AC55" s="273"/>
-      <c r="AD55" s="274"/>
+      <c r="I55" s="281"/>
+      <c r="J55" s="282"/>
+      <c r="K55" s="282"/>
+      <c r="L55" s="282"/>
+      <c r="M55" s="282"/>
+      <c r="N55" s="282"/>
+      <c r="O55" s="282"/>
+      <c r="P55" s="282"/>
+      <c r="Q55" s="282"/>
+      <c r="R55" s="282"/>
+      <c r="S55" s="282"/>
+      <c r="T55" s="282"/>
+      <c r="U55" s="282"/>
+      <c r="V55" s="282"/>
+      <c r="W55" s="282"/>
+      <c r="X55" s="282"/>
+      <c r="Y55" s="282"/>
+      <c r="Z55" s="283"/>
+      <c r="AA55" s="278"/>
+      <c r="AB55" s="279"/>
+      <c r="AC55" s="279"/>
+      <c r="AD55" s="280"/>
       <c r="AE55" s="275"/>
       <c r="AF55" s="276"/>
       <c r="AG55" s="276"/>
       <c r="AH55" s="276"/>
       <c r="AI55" s="277"/>
-      <c r="AJ55" s="272"/>
-      <c r="AK55" s="273"/>
-      <c r="AL55" s="273"/>
-      <c r="AM55" s="274"/>
+      <c r="AJ55" s="278"/>
+      <c r="AK55" s="279"/>
+      <c r="AL55" s="279"/>
+      <c r="AM55" s="280"/>
       <c r="AN55" s="275"/>
       <c r="AO55" s="276"/>
       <c r="AP55" s="276"/>
       <c r="AQ55" s="276"/>
       <c r="AR55" s="277"/>
-      <c r="AS55" s="272"/>
-      <c r="AT55" s="273"/>
-      <c r="AU55" s="273"/>
-      <c r="AV55" s="274"/>
+      <c r="AS55" s="278"/>
+      <c r="AT55" s="279"/>
+      <c r="AU55" s="279"/>
+      <c r="AV55" s="280"/>
       <c r="AW55" s="163"/>
     </row>
     <row r="56" spans="1:49" ht="13.5" customHeight="1">
       <c r="A56" s="21"/>
-      <c r="B56" s="296"/>
-      <c r="C56" s="297"/>
+      <c r="B56" s="286"/>
+      <c r="C56" s="287"/>
       <c r="D56" s="275"/>
       <c r="E56" s="276"/>
       <c r="F56" s="276"/>
       <c r="G56" s="276"/>
       <c r="H56" s="277"/>
-      <c r="I56" s="308"/>
-      <c r="J56" s="309"/>
-      <c r="K56" s="309"/>
-      <c r="L56" s="309"/>
-      <c r="M56" s="309"/>
-      <c r="N56" s="309"/>
-      <c r="O56" s="309"/>
-      <c r="P56" s="309"/>
-      <c r="Q56" s="309"/>
-      <c r="R56" s="309"/>
-      <c r="S56" s="309"/>
-      <c r="T56" s="309"/>
-      <c r="U56" s="309"/>
-      <c r="V56" s="309"/>
-      <c r="W56" s="309"/>
-      <c r="X56" s="309"/>
-      <c r="Y56" s="309"/>
-      <c r="Z56" s="310"/>
-      <c r="AA56" s="272"/>
-      <c r="AB56" s="273"/>
-      <c r="AC56" s="273"/>
-      <c r="AD56" s="274"/>
+      <c r="I56" s="281"/>
+      <c r="J56" s="282"/>
+      <c r="K56" s="282"/>
+      <c r="L56" s="282"/>
+      <c r="M56" s="282"/>
+      <c r="N56" s="282"/>
+      <c r="O56" s="282"/>
+      <c r="P56" s="282"/>
+      <c r="Q56" s="282"/>
+      <c r="R56" s="282"/>
+      <c r="S56" s="282"/>
+      <c r="T56" s="282"/>
+      <c r="U56" s="282"/>
+      <c r="V56" s="282"/>
+      <c r="W56" s="282"/>
+      <c r="X56" s="282"/>
+      <c r="Y56" s="282"/>
+      <c r="Z56" s="283"/>
+      <c r="AA56" s="278"/>
+      <c r="AB56" s="279"/>
+      <c r="AC56" s="279"/>
+      <c r="AD56" s="280"/>
       <c r="AE56" s="275"/>
       <c r="AF56" s="276"/>
       <c r="AG56" s="276"/>
       <c r="AH56" s="276"/>
       <c r="AI56" s="277"/>
-      <c r="AJ56" s="272"/>
-      <c r="AK56" s="273"/>
-      <c r="AL56" s="273"/>
-      <c r="AM56" s="274"/>
+      <c r="AJ56" s="278"/>
+      <c r="AK56" s="279"/>
+      <c r="AL56" s="279"/>
+      <c r="AM56" s="280"/>
       <c r="AN56" s="275"/>
       <c r="AO56" s="276"/>
       <c r="AP56" s="276"/>
       <c r="AQ56" s="276"/>
       <c r="AR56" s="277"/>
-      <c r="AS56" s="272"/>
-      <c r="AT56" s="273"/>
-      <c r="AU56" s="273"/>
-      <c r="AV56" s="274"/>
+      <c r="AS56" s="278"/>
+      <c r="AT56" s="279"/>
+      <c r="AU56" s="279"/>
+      <c r="AV56" s="280"/>
       <c r="AW56" s="163"/>
     </row>
     <row r="57" spans="1:49" ht="13.5" customHeight="1">
       <c r="A57" s="21"/>
-      <c r="B57" s="296"/>
-      <c r="C57" s="297"/>
+      <c r="B57" s="286"/>
+      <c r="C57" s="287"/>
       <c r="D57" s="275"/>
       <c r="E57" s="276"/>
       <c r="F57" s="276"/>
       <c r="G57" s="276"/>
       <c r="H57" s="277"/>
-      <c r="I57" s="308"/>
-      <c r="J57" s="309"/>
-      <c r="K57" s="309"/>
-      <c r="L57" s="309"/>
-      <c r="M57" s="309"/>
-      <c r="N57" s="309"/>
-      <c r="O57" s="309"/>
-      <c r="P57" s="309"/>
-      <c r="Q57" s="309"/>
-      <c r="R57" s="309"/>
-      <c r="S57" s="309"/>
-      <c r="T57" s="309"/>
-      <c r="U57" s="309"/>
-      <c r="V57" s="309"/>
-      <c r="W57" s="309"/>
-      <c r="X57" s="309"/>
-      <c r="Y57" s="309"/>
-      <c r="Z57" s="310"/>
-      <c r="AA57" s="272"/>
-      <c r="AB57" s="273"/>
-      <c r="AC57" s="273"/>
-      <c r="AD57" s="274"/>
+      <c r="I57" s="281"/>
+      <c r="J57" s="282"/>
+      <c r="K57" s="282"/>
+      <c r="L57" s="282"/>
+      <c r="M57" s="282"/>
+      <c r="N57" s="282"/>
+      <c r="O57" s="282"/>
+      <c r="P57" s="282"/>
+      <c r="Q57" s="282"/>
+      <c r="R57" s="282"/>
+      <c r="S57" s="282"/>
+      <c r="T57" s="282"/>
+      <c r="U57" s="282"/>
+      <c r="V57" s="282"/>
+      <c r="W57" s="282"/>
+      <c r="X57" s="282"/>
+      <c r="Y57" s="282"/>
+      <c r="Z57" s="283"/>
+      <c r="AA57" s="278"/>
+      <c r="AB57" s="279"/>
+      <c r="AC57" s="279"/>
+      <c r="AD57" s="280"/>
       <c r="AE57" s="275"/>
       <c r="AF57" s="276"/>
       <c r="AG57" s="276"/>
       <c r="AH57" s="276"/>
       <c r="AI57" s="277"/>
-      <c r="AJ57" s="272"/>
-      <c r="AK57" s="273"/>
-      <c r="AL57" s="273"/>
-      <c r="AM57" s="274"/>
+      <c r="AJ57" s="278"/>
+      <c r="AK57" s="279"/>
+      <c r="AL57" s="279"/>
+      <c r="AM57" s="280"/>
       <c r="AN57" s="275"/>
       <c r="AO57" s="276"/>
       <c r="AP57" s="276"/>
       <c r="AQ57" s="276"/>
       <c r="AR57" s="277"/>
-      <c r="AS57" s="272"/>
-      <c r="AT57" s="273"/>
-      <c r="AU57" s="273"/>
-      <c r="AV57" s="274"/>
+      <c r="AS57" s="278"/>
+      <c r="AT57" s="279"/>
+      <c r="AU57" s="279"/>
+      <c r="AV57" s="280"/>
       <c r="AW57" s="163"/>
     </row>
     <row r="58" spans="1:49" ht="13.5" customHeight="1">
       <c r="A58" s="21"/>
-      <c r="B58" s="296"/>
-      <c r="C58" s="297"/>
+      <c r="B58" s="286"/>
+      <c r="C58" s="287"/>
       <c r="D58" s="275"/>
       <c r="E58" s="276"/>
       <c r="F58" s="276"/>
       <c r="G58" s="276"/>
       <c r="H58" s="277"/>
-      <c r="I58" s="308"/>
-      <c r="J58" s="309"/>
-      <c r="K58" s="309"/>
-      <c r="L58" s="309"/>
-      <c r="M58" s="309"/>
-      <c r="N58" s="309"/>
-      <c r="O58" s="309"/>
-      <c r="P58" s="309"/>
-      <c r="Q58" s="309"/>
-      <c r="R58" s="309"/>
-      <c r="S58" s="309"/>
-      <c r="T58" s="309"/>
-      <c r="U58" s="309"/>
-      <c r="V58" s="309"/>
-      <c r="W58" s="309"/>
-      <c r="X58" s="309"/>
-      <c r="Y58" s="309"/>
-      <c r="Z58" s="310"/>
-      <c r="AA58" s="272"/>
-      <c r="AB58" s="273"/>
-      <c r="AC58" s="273"/>
-      <c r="AD58" s="274"/>
+      <c r="I58" s="281"/>
+      <c r="J58" s="282"/>
+      <c r="K58" s="282"/>
+      <c r="L58" s="282"/>
+      <c r="M58" s="282"/>
+      <c r="N58" s="282"/>
+      <c r="O58" s="282"/>
+      <c r="P58" s="282"/>
+      <c r="Q58" s="282"/>
+      <c r="R58" s="282"/>
+      <c r="S58" s="282"/>
+      <c r="T58" s="282"/>
+      <c r="U58" s="282"/>
+      <c r="V58" s="282"/>
+      <c r="W58" s="282"/>
+      <c r="X58" s="282"/>
+      <c r="Y58" s="282"/>
+      <c r="Z58" s="283"/>
+      <c r="AA58" s="278"/>
+      <c r="AB58" s="279"/>
+      <c r="AC58" s="279"/>
+      <c r="AD58" s="280"/>
       <c r="AE58" s="275"/>
       <c r="AF58" s="276"/>
       <c r="AG58" s="276"/>
       <c r="AH58" s="276"/>
       <c r="AI58" s="277"/>
-      <c r="AJ58" s="272"/>
-      <c r="AK58" s="273"/>
-      <c r="AL58" s="273"/>
-      <c r="AM58" s="274"/>
+      <c r="AJ58" s="278"/>
+      <c r="AK58" s="279"/>
+      <c r="AL58" s="279"/>
+      <c r="AM58" s="280"/>
       <c r="AN58" s="275"/>
       <c r="AO58" s="276"/>
       <c r="AP58" s="276"/>
       <c r="AQ58" s="276"/>
       <c r="AR58" s="277"/>
-      <c r="AS58" s="272"/>
-      <c r="AT58" s="273"/>
-      <c r="AU58" s="273"/>
-      <c r="AV58" s="274"/>
+      <c r="AS58" s="278"/>
+      <c r="AT58" s="279"/>
+      <c r="AU58" s="279"/>
+      <c r="AV58" s="280"/>
       <c r="AW58" s="163"/>
     </row>
     <row r="59" spans="1:49" ht="13.5" customHeight="1">
       <c r="A59" s="21"/>
-      <c r="B59" s="210"/>
-      <c r="C59" s="211"/>
-      <c r="D59" s="198"/>
-      <c r="E59" s="199"/>
-      <c r="F59" s="199"/>
-      <c r="G59" s="199"/>
-      <c r="H59" s="200"/>
-      <c r="I59" s="212"/>
-      <c r="J59" s="213"/>
-      <c r="K59" s="213"/>
-      <c r="L59" s="213"/>
-      <c r="M59" s="213"/>
-      <c r="N59" s="213"/>
-      <c r="O59" s="213"/>
-      <c r="P59" s="213"/>
-      <c r="Q59" s="213"/>
-      <c r="R59" s="213"/>
-      <c r="S59" s="213"/>
-      <c r="T59" s="213"/>
-      <c r="U59" s="213"/>
-      <c r="V59" s="213"/>
-      <c r="W59" s="213"/>
-      <c r="X59" s="213"/>
-      <c r="Y59" s="213"/>
-      <c r="Z59" s="214"/>
-      <c r="AA59" s="204"/>
-      <c r="AB59" s="205"/>
-      <c r="AC59" s="205"/>
-      <c r="AD59" s="206"/>
-      <c r="AE59" s="198"/>
-      <c r="AF59" s="199"/>
-      <c r="AG59" s="199"/>
-      <c r="AH59" s="199"/>
-      <c r="AI59" s="200"/>
-      <c r="AJ59" s="204"/>
-      <c r="AK59" s="205"/>
-      <c r="AL59" s="205"/>
-      <c r="AM59" s="206"/>
-      <c r="AN59" s="198"/>
-      <c r="AO59" s="199"/>
-      <c r="AP59" s="199"/>
-      <c r="AQ59" s="199"/>
-      <c r="AR59" s="200"/>
-      <c r="AS59" s="204"/>
-      <c r="AT59" s="205"/>
-      <c r="AU59" s="205"/>
-      <c r="AV59" s="206"/>
+      <c r="B59" s="284"/>
+      <c r="C59" s="285"/>
+      <c r="D59" s="272"/>
+      <c r="E59" s="273"/>
+      <c r="F59" s="273"/>
+      <c r="G59" s="273"/>
+      <c r="H59" s="274"/>
+      <c r="I59" s="300"/>
+      <c r="J59" s="301"/>
+      <c r="K59" s="301"/>
+      <c r="L59" s="301"/>
+      <c r="M59" s="301"/>
+      <c r="N59" s="301"/>
+      <c r="O59" s="301"/>
+      <c r="P59" s="301"/>
+      <c r="Q59" s="301"/>
+      <c r="R59" s="301"/>
+      <c r="S59" s="301"/>
+      <c r="T59" s="301"/>
+      <c r="U59" s="301"/>
+      <c r="V59" s="301"/>
+      <c r="W59" s="301"/>
+      <c r="X59" s="301"/>
+      <c r="Y59" s="301"/>
+      <c r="Z59" s="302"/>
+      <c r="AA59" s="288"/>
+      <c r="AB59" s="289"/>
+      <c r="AC59" s="289"/>
+      <c r="AD59" s="290"/>
+      <c r="AE59" s="272"/>
+      <c r="AF59" s="273"/>
+      <c r="AG59" s="273"/>
+      <c r="AH59" s="273"/>
+      <c r="AI59" s="274"/>
+      <c r="AJ59" s="288"/>
+      <c r="AK59" s="289"/>
+      <c r="AL59" s="289"/>
+      <c r="AM59" s="290"/>
+      <c r="AN59" s="272"/>
+      <c r="AO59" s="273"/>
+      <c r="AP59" s="273"/>
+      <c r="AQ59" s="273"/>
+      <c r="AR59" s="274"/>
+      <c r="AS59" s="288"/>
+      <c r="AT59" s="289"/>
+      <c r="AU59" s="289"/>
+      <c r="AV59" s="290"/>
       <c r="AW59" s="163"/>
     </row>
     <row r="60" spans="1:49" ht="13.5" customHeight="1">
       <c r="A60" s="21"/>
-      <c r="B60" s="210"/>
-      <c r="C60" s="211"/>
-      <c r="D60" s="198"/>
-      <c r="E60" s="199"/>
-      <c r="F60" s="199"/>
-      <c r="G60" s="199"/>
-      <c r="H60" s="200"/>
-      <c r="I60" s="212"/>
-      <c r="J60" s="213"/>
-      <c r="K60" s="213"/>
-      <c r="L60" s="213"/>
-      <c r="M60" s="213"/>
-      <c r="N60" s="213"/>
-      <c r="O60" s="213"/>
-      <c r="P60" s="213"/>
-      <c r="Q60" s="213"/>
-      <c r="R60" s="213"/>
-      <c r="S60" s="213"/>
-      <c r="T60" s="213"/>
-      <c r="U60" s="213"/>
-      <c r="V60" s="213"/>
-      <c r="W60" s="213"/>
-      <c r="X60" s="213"/>
-      <c r="Y60" s="213"/>
-      <c r="Z60" s="214"/>
-      <c r="AA60" s="204"/>
-      <c r="AB60" s="205"/>
-      <c r="AC60" s="205"/>
-      <c r="AD60" s="206"/>
-      <c r="AE60" s="198"/>
-      <c r="AF60" s="199"/>
-      <c r="AG60" s="199"/>
-      <c r="AH60" s="199"/>
-      <c r="AI60" s="200"/>
-      <c r="AJ60" s="204"/>
-      <c r="AK60" s="205"/>
-      <c r="AL60" s="205"/>
-      <c r="AM60" s="206"/>
-      <c r="AN60" s="198"/>
-      <c r="AO60" s="199"/>
-      <c r="AP60" s="199"/>
-      <c r="AQ60" s="199"/>
-      <c r="AR60" s="200"/>
-      <c r="AS60" s="204"/>
-      <c r="AT60" s="205"/>
-      <c r="AU60" s="205"/>
-      <c r="AV60" s="206"/>
+      <c r="B60" s="284"/>
+      <c r="C60" s="285"/>
+      <c r="D60" s="272"/>
+      <c r="E60" s="273"/>
+      <c r="F60" s="273"/>
+      <c r="G60" s="273"/>
+      <c r="H60" s="274"/>
+      <c r="I60" s="300"/>
+      <c r="J60" s="301"/>
+      <c r="K60" s="301"/>
+      <c r="L60" s="301"/>
+      <c r="M60" s="301"/>
+      <c r="N60" s="301"/>
+      <c r="O60" s="301"/>
+      <c r="P60" s="301"/>
+      <c r="Q60" s="301"/>
+      <c r="R60" s="301"/>
+      <c r="S60" s="301"/>
+      <c r="T60" s="301"/>
+      <c r="U60" s="301"/>
+      <c r="V60" s="301"/>
+      <c r="W60" s="301"/>
+      <c r="X60" s="301"/>
+      <c r="Y60" s="301"/>
+      <c r="Z60" s="302"/>
+      <c r="AA60" s="288"/>
+      <c r="AB60" s="289"/>
+      <c r="AC60" s="289"/>
+      <c r="AD60" s="290"/>
+      <c r="AE60" s="272"/>
+      <c r="AF60" s="273"/>
+      <c r="AG60" s="273"/>
+      <c r="AH60" s="273"/>
+      <c r="AI60" s="274"/>
+      <c r="AJ60" s="288"/>
+      <c r="AK60" s="289"/>
+      <c r="AL60" s="289"/>
+      <c r="AM60" s="290"/>
+      <c r="AN60" s="272"/>
+      <c r="AO60" s="273"/>
+      <c r="AP60" s="273"/>
+      <c r="AQ60" s="273"/>
+      <c r="AR60" s="274"/>
+      <c r="AS60" s="288"/>
+      <c r="AT60" s="289"/>
+      <c r="AU60" s="289"/>
+      <c r="AV60" s="290"/>
       <c r="AW60" s="163"/>
     </row>
     <row r="61" spans="1:49" ht="13.5" customHeight="1">
       <c r="A61" s="21"/>
-      <c r="B61" s="210"/>
-      <c r="C61" s="211"/>
-      <c r="D61" s="198"/>
-      <c r="E61" s="199"/>
-      <c r="F61" s="199"/>
-      <c r="G61" s="199"/>
-      <c r="H61" s="200"/>
-      <c r="I61" s="212"/>
-      <c r="J61" s="213"/>
-      <c r="K61" s="213"/>
-      <c r="L61" s="213"/>
-      <c r="M61" s="213"/>
-      <c r="N61" s="213"/>
-      <c r="O61" s="213"/>
-      <c r="P61" s="213"/>
-      <c r="Q61" s="213"/>
-      <c r="R61" s="213"/>
-      <c r="S61" s="213"/>
-      <c r="T61" s="213"/>
-      <c r="U61" s="213"/>
-      <c r="V61" s="213"/>
-      <c r="W61" s="213"/>
-      <c r="X61" s="213"/>
-      <c r="Y61" s="213"/>
-      <c r="Z61" s="214"/>
-      <c r="AA61" s="204"/>
-      <c r="AB61" s="205"/>
-      <c r="AC61" s="205"/>
-      <c r="AD61" s="206"/>
-      <c r="AE61" s="198"/>
-      <c r="AF61" s="199"/>
-      <c r="AG61" s="199"/>
-      <c r="AH61" s="199"/>
-      <c r="AI61" s="200"/>
-      <c r="AJ61" s="204"/>
-      <c r="AK61" s="205"/>
-      <c r="AL61" s="205"/>
-      <c r="AM61" s="206"/>
-      <c r="AN61" s="198"/>
-      <c r="AO61" s="199"/>
-      <c r="AP61" s="199"/>
-      <c r="AQ61" s="199"/>
-      <c r="AR61" s="200"/>
-      <c r="AS61" s="204"/>
-      <c r="AT61" s="205"/>
-      <c r="AU61" s="205"/>
-      <c r="AV61" s="206"/>
+      <c r="B61" s="284"/>
+      <c r="C61" s="285"/>
+      <c r="D61" s="272"/>
+      <c r="E61" s="273"/>
+      <c r="F61" s="273"/>
+      <c r="G61" s="273"/>
+      <c r="H61" s="274"/>
+      <c r="I61" s="300"/>
+      <c r="J61" s="301"/>
+      <c r="K61" s="301"/>
+      <c r="L61" s="301"/>
+      <c r="M61" s="301"/>
+      <c r="N61" s="301"/>
+      <c r="O61" s="301"/>
+      <c r="P61" s="301"/>
+      <c r="Q61" s="301"/>
+      <c r="R61" s="301"/>
+      <c r="S61" s="301"/>
+      <c r="T61" s="301"/>
+      <c r="U61" s="301"/>
+      <c r="V61" s="301"/>
+      <c r="W61" s="301"/>
+      <c r="X61" s="301"/>
+      <c r="Y61" s="301"/>
+      <c r="Z61" s="302"/>
+      <c r="AA61" s="288"/>
+      <c r="AB61" s="289"/>
+      <c r="AC61" s="289"/>
+      <c r="AD61" s="290"/>
+      <c r="AE61" s="272"/>
+      <c r="AF61" s="273"/>
+      <c r="AG61" s="273"/>
+      <c r="AH61" s="273"/>
+      <c r="AI61" s="274"/>
+      <c r="AJ61" s="288"/>
+      <c r="AK61" s="289"/>
+      <c r="AL61" s="289"/>
+      <c r="AM61" s="290"/>
+      <c r="AN61" s="272"/>
+      <c r="AO61" s="273"/>
+      <c r="AP61" s="273"/>
+      <c r="AQ61" s="273"/>
+      <c r="AR61" s="274"/>
+      <c r="AS61" s="288"/>
+      <c r="AT61" s="289"/>
+      <c r="AU61" s="289"/>
+      <c r="AV61" s="290"/>
       <c r="AW61" s="163"/>
     </row>
     <row r="62" spans="1:49" ht="13.5" customHeight="1">
       <c r="A62" s="21"/>
-      <c r="B62" s="210"/>
-      <c r="C62" s="211"/>
-      <c r="D62" s="198"/>
-      <c r="E62" s="199"/>
-      <c r="F62" s="199"/>
-      <c r="G62" s="199"/>
-      <c r="H62" s="200"/>
-      <c r="I62" s="212"/>
-      <c r="J62" s="213"/>
-      <c r="K62" s="213"/>
-      <c r="L62" s="213"/>
-      <c r="M62" s="213"/>
-      <c r="N62" s="213"/>
-      <c r="O62" s="213"/>
-      <c r="P62" s="213"/>
-      <c r="Q62" s="213"/>
-      <c r="R62" s="213"/>
-      <c r="S62" s="213"/>
-      <c r="T62" s="213"/>
-      <c r="U62" s="213"/>
-      <c r="V62" s="213"/>
-      <c r="W62" s="213"/>
-      <c r="X62" s="213"/>
-      <c r="Y62" s="213"/>
-      <c r="Z62" s="214"/>
-      <c r="AA62" s="204"/>
-      <c r="AB62" s="205"/>
-      <c r="AC62" s="205"/>
-      <c r="AD62" s="206"/>
-      <c r="AE62" s="198"/>
-      <c r="AF62" s="199"/>
-      <c r="AG62" s="199"/>
-      <c r="AH62" s="199"/>
-      <c r="AI62" s="200"/>
-      <c r="AJ62" s="204"/>
-      <c r="AK62" s="205"/>
-      <c r="AL62" s="205"/>
-      <c r="AM62" s="206"/>
-      <c r="AN62" s="198"/>
-      <c r="AO62" s="199"/>
-      <c r="AP62" s="199"/>
-      <c r="AQ62" s="199"/>
-      <c r="AR62" s="200"/>
-      <c r="AS62" s="204"/>
-      <c r="AT62" s="205"/>
-      <c r="AU62" s="205"/>
-      <c r="AV62" s="206"/>
+      <c r="B62" s="284"/>
+      <c r="C62" s="285"/>
+      <c r="D62" s="272"/>
+      <c r="E62" s="273"/>
+      <c r="F62" s="273"/>
+      <c r="G62" s="273"/>
+      <c r="H62" s="274"/>
+      <c r="I62" s="300"/>
+      <c r="J62" s="301"/>
+      <c r="K62" s="301"/>
+      <c r="L62" s="301"/>
+      <c r="M62" s="301"/>
+      <c r="N62" s="301"/>
+      <c r="O62" s="301"/>
+      <c r="P62" s="301"/>
+      <c r="Q62" s="301"/>
+      <c r="R62" s="301"/>
+      <c r="S62" s="301"/>
+      <c r="T62" s="301"/>
+      <c r="U62" s="301"/>
+      <c r="V62" s="301"/>
+      <c r="W62" s="301"/>
+      <c r="X62" s="301"/>
+      <c r="Y62" s="301"/>
+      <c r="Z62" s="302"/>
+      <c r="AA62" s="288"/>
+      <c r="AB62" s="289"/>
+      <c r="AC62" s="289"/>
+      <c r="AD62" s="290"/>
+      <c r="AE62" s="272"/>
+      <c r="AF62" s="273"/>
+      <c r="AG62" s="273"/>
+      <c r="AH62" s="273"/>
+      <c r="AI62" s="274"/>
+      <c r="AJ62" s="288"/>
+      <c r="AK62" s="289"/>
+      <c r="AL62" s="289"/>
+      <c r="AM62" s="290"/>
+      <c r="AN62" s="272"/>
+      <c r="AO62" s="273"/>
+      <c r="AP62" s="273"/>
+      <c r="AQ62" s="273"/>
+      <c r="AR62" s="274"/>
+      <c r="AS62" s="288"/>
+      <c r="AT62" s="289"/>
+      <c r="AU62" s="289"/>
+      <c r="AV62" s="290"/>
       <c r="AW62" s="163"/>
     </row>
     <row r="63" spans="1:49" ht="13.5" customHeight="1">
       <c r="A63" s="21"/>
-      <c r="B63" s="210"/>
-      <c r="C63" s="211"/>
-      <c r="D63" s="198"/>
-      <c r="E63" s="199"/>
-      <c r="F63" s="199"/>
-      <c r="G63" s="199"/>
-      <c r="H63" s="200"/>
-      <c r="I63" s="212"/>
-      <c r="J63" s="213"/>
-      <c r="K63" s="213"/>
-      <c r="L63" s="213"/>
-      <c r="M63" s="213"/>
-      <c r="N63" s="213"/>
-      <c r="O63" s="213"/>
-      <c r="P63" s="213"/>
-      <c r="Q63" s="213"/>
-      <c r="R63" s="213"/>
-      <c r="S63" s="213"/>
-      <c r="T63" s="213"/>
-      <c r="U63" s="213"/>
-      <c r="V63" s="213"/>
-      <c r="W63" s="213"/>
-      <c r="X63" s="213"/>
-      <c r="Y63" s="213"/>
-      <c r="Z63" s="214"/>
-      <c r="AA63" s="204"/>
-      <c r="AB63" s="205"/>
-      <c r="AC63" s="205"/>
-      <c r="AD63" s="206"/>
-      <c r="AE63" s="198"/>
-      <c r="AF63" s="199"/>
-      <c r="AG63" s="199"/>
-      <c r="AH63" s="199"/>
-      <c r="AI63" s="200"/>
-      <c r="AJ63" s="204"/>
-      <c r="AK63" s="205"/>
-      <c r="AL63" s="205"/>
-      <c r="AM63" s="206"/>
-      <c r="AN63" s="198"/>
-      <c r="AO63" s="199"/>
-      <c r="AP63" s="199"/>
-      <c r="AQ63" s="199"/>
-      <c r="AR63" s="200"/>
-      <c r="AS63" s="204"/>
-      <c r="AT63" s="205"/>
-      <c r="AU63" s="205"/>
-      <c r="AV63" s="206"/>
+      <c r="B63" s="284"/>
+      <c r="C63" s="285"/>
+      <c r="D63" s="272"/>
+      <c r="E63" s="273"/>
+      <c r="F63" s="273"/>
+      <c r="G63" s="273"/>
+      <c r="H63" s="274"/>
+      <c r="I63" s="300"/>
+      <c r="J63" s="301"/>
+      <c r="K63" s="301"/>
+      <c r="L63" s="301"/>
+      <c r="M63" s="301"/>
+      <c r="N63" s="301"/>
+      <c r="O63" s="301"/>
+      <c r="P63" s="301"/>
+      <c r="Q63" s="301"/>
+      <c r="R63" s="301"/>
+      <c r="S63" s="301"/>
+      <c r="T63" s="301"/>
+      <c r="U63" s="301"/>
+      <c r="V63" s="301"/>
+      <c r="W63" s="301"/>
+      <c r="X63" s="301"/>
+      <c r="Y63" s="301"/>
+      <c r="Z63" s="302"/>
+      <c r="AA63" s="288"/>
+      <c r="AB63" s="289"/>
+      <c r="AC63" s="289"/>
+      <c r="AD63" s="290"/>
+      <c r="AE63" s="272"/>
+      <c r="AF63" s="273"/>
+      <c r="AG63" s="273"/>
+      <c r="AH63" s="273"/>
+      <c r="AI63" s="274"/>
+      <c r="AJ63" s="288"/>
+      <c r="AK63" s="289"/>
+      <c r="AL63" s="289"/>
+      <c r="AM63" s="290"/>
+      <c r="AN63" s="272"/>
+      <c r="AO63" s="273"/>
+      <c r="AP63" s="273"/>
+      <c r="AQ63" s="273"/>
+      <c r="AR63" s="274"/>
+      <c r="AS63" s="288"/>
+      <c r="AT63" s="289"/>
+      <c r="AU63" s="289"/>
+      <c r="AV63" s="290"/>
       <c r="AW63" s="163"/>
     </row>
     <row r="64" spans="1:49" ht="13.5" customHeight="1">
       <c r="A64" s="21"/>
-      <c r="B64" s="210"/>
-      <c r="C64" s="211"/>
-      <c r="D64" s="198"/>
-      <c r="E64" s="199"/>
-      <c r="F64" s="199"/>
-      <c r="G64" s="199"/>
-      <c r="H64" s="200"/>
-      <c r="I64" s="212"/>
-      <c r="J64" s="213"/>
-      <c r="K64" s="213"/>
-      <c r="L64" s="213"/>
-      <c r="M64" s="213"/>
-      <c r="N64" s="213"/>
-      <c r="O64" s="213"/>
-      <c r="P64" s="213"/>
-      <c r="Q64" s="213"/>
-      <c r="R64" s="213"/>
-      <c r="S64" s="213"/>
-      <c r="T64" s="213"/>
-      <c r="U64" s="213"/>
-      <c r="V64" s="213"/>
-      <c r="W64" s="213"/>
-      <c r="X64" s="213"/>
-      <c r="Y64" s="213"/>
-      <c r="Z64" s="214"/>
-      <c r="AA64" s="204"/>
-      <c r="AB64" s="205"/>
-      <c r="AC64" s="205"/>
-      <c r="AD64" s="206"/>
-      <c r="AE64" s="198"/>
-      <c r="AF64" s="199"/>
-      <c r="AG64" s="199"/>
-      <c r="AH64" s="199"/>
-      <c r="AI64" s="200"/>
-      <c r="AJ64" s="204"/>
-      <c r="AK64" s="205"/>
-      <c r="AL64" s="205"/>
-      <c r="AM64" s="206"/>
-      <c r="AN64" s="198"/>
-      <c r="AO64" s="199"/>
-      <c r="AP64" s="199"/>
-      <c r="AQ64" s="199"/>
-      <c r="AR64" s="200"/>
-      <c r="AS64" s="204"/>
-      <c r="AT64" s="205"/>
-      <c r="AU64" s="205"/>
-      <c r="AV64" s="206"/>
+      <c r="B64" s="284"/>
+      <c r="C64" s="285"/>
+      <c r="D64" s="272"/>
+      <c r="E64" s="273"/>
+      <c r="F64" s="273"/>
+      <c r="G64" s="273"/>
+      <c r="H64" s="274"/>
+      <c r="I64" s="300"/>
+      <c r="J64" s="301"/>
+      <c r="K64" s="301"/>
+      <c r="L64" s="301"/>
+      <c r="M64" s="301"/>
+      <c r="N64" s="301"/>
+      <c r="O64" s="301"/>
+      <c r="P64" s="301"/>
+      <c r="Q64" s="301"/>
+      <c r="R64" s="301"/>
+      <c r="S64" s="301"/>
+      <c r="T64" s="301"/>
+      <c r="U64" s="301"/>
+      <c r="V64" s="301"/>
+      <c r="W64" s="301"/>
+      <c r="X64" s="301"/>
+      <c r="Y64" s="301"/>
+      <c r="Z64" s="302"/>
+      <c r="AA64" s="288"/>
+      <c r="AB64" s="289"/>
+      <c r="AC64" s="289"/>
+      <c r="AD64" s="290"/>
+      <c r="AE64" s="272"/>
+      <c r="AF64" s="273"/>
+      <c r="AG64" s="273"/>
+      <c r="AH64" s="273"/>
+      <c r="AI64" s="274"/>
+      <c r="AJ64" s="288"/>
+      <c r="AK64" s="289"/>
+      <c r="AL64" s="289"/>
+      <c r="AM64" s="290"/>
+      <c r="AN64" s="272"/>
+      <c r="AO64" s="273"/>
+      <c r="AP64" s="273"/>
+      <c r="AQ64" s="273"/>
+      <c r="AR64" s="274"/>
+      <c r="AS64" s="288"/>
+      <c r="AT64" s="289"/>
+      <c r="AU64" s="289"/>
+      <c r="AV64" s="290"/>
       <c r="AW64" s="163"/>
     </row>
     <row r="65" spans="1:49" ht="13.5" customHeight="1">
       <c r="A65" s="21"/>
-      <c r="B65" s="210"/>
-      <c r="C65" s="211"/>
-      <c r="D65" s="198"/>
-      <c r="E65" s="199"/>
-      <c r="F65" s="199"/>
-      <c r="G65" s="199"/>
-      <c r="H65" s="200"/>
-      <c r="I65" s="212"/>
-      <c r="J65" s="213"/>
-      <c r="K65" s="213"/>
-      <c r="L65" s="213"/>
-      <c r="M65" s="213"/>
-      <c r="N65" s="213"/>
-      <c r="O65" s="213"/>
-      <c r="P65" s="213"/>
-      <c r="Q65" s="213"/>
-      <c r="R65" s="213"/>
-      <c r="S65" s="213"/>
-      <c r="T65" s="213"/>
-      <c r="U65" s="213"/>
-      <c r="V65" s="213"/>
-      <c r="W65" s="213"/>
-      <c r="X65" s="213"/>
-      <c r="Y65" s="213"/>
-      <c r="Z65" s="214"/>
-      <c r="AA65" s="204"/>
-      <c r="AB65" s="205"/>
-      <c r="AC65" s="205"/>
-      <c r="AD65" s="206"/>
-      <c r="AE65" s="198"/>
-      <c r="AF65" s="199"/>
-      <c r="AG65" s="199"/>
-      <c r="AH65" s="199"/>
-      <c r="AI65" s="200"/>
-      <c r="AJ65" s="204"/>
-      <c r="AK65" s="205"/>
-      <c r="AL65" s="205"/>
-      <c r="AM65" s="206"/>
-      <c r="AN65" s="198"/>
-      <c r="AO65" s="199"/>
-      <c r="AP65" s="199"/>
-      <c r="AQ65" s="199"/>
-      <c r="AR65" s="200"/>
-      <c r="AS65" s="204"/>
-      <c r="AT65" s="205"/>
-      <c r="AU65" s="205"/>
-      <c r="AV65" s="206"/>
+      <c r="B65" s="284"/>
+      <c r="C65" s="285"/>
+      <c r="D65" s="272"/>
+      <c r="E65" s="273"/>
+      <c r="F65" s="273"/>
+      <c r="G65" s="273"/>
+      <c r="H65" s="274"/>
+      <c r="I65" s="300"/>
+      <c r="J65" s="301"/>
+      <c r="K65" s="301"/>
+      <c r="L65" s="301"/>
+      <c r="M65" s="301"/>
+      <c r="N65" s="301"/>
+      <c r="O65" s="301"/>
+      <c r="P65" s="301"/>
+      <c r="Q65" s="301"/>
+      <c r="R65" s="301"/>
+      <c r="S65" s="301"/>
+      <c r="T65" s="301"/>
+      <c r="U65" s="301"/>
+      <c r="V65" s="301"/>
+      <c r="W65" s="301"/>
+      <c r="X65" s="301"/>
+      <c r="Y65" s="301"/>
+      <c r="Z65" s="302"/>
+      <c r="AA65" s="288"/>
+      <c r="AB65" s="289"/>
+      <c r="AC65" s="289"/>
+      <c r="AD65" s="290"/>
+      <c r="AE65" s="272"/>
+      <c r="AF65" s="273"/>
+      <c r="AG65" s="273"/>
+      <c r="AH65" s="273"/>
+      <c r="AI65" s="274"/>
+      <c r="AJ65" s="288"/>
+      <c r="AK65" s="289"/>
+      <c r="AL65" s="289"/>
+      <c r="AM65" s="290"/>
+      <c r="AN65" s="272"/>
+      <c r="AO65" s="273"/>
+      <c r="AP65" s="273"/>
+      <c r="AQ65" s="273"/>
+      <c r="AR65" s="274"/>
+      <c r="AS65" s="288"/>
+      <c r="AT65" s="289"/>
+      <c r="AU65" s="289"/>
+      <c r="AV65" s="290"/>
       <c r="AW65" s="163"/>
     </row>
     <row r="66" spans="1:49" ht="13.5" customHeight="1">
       <c r="A66" s="21"/>
-      <c r="B66" s="210"/>
-      <c r="C66" s="211"/>
-      <c r="D66" s="198"/>
-      <c r="E66" s="199"/>
-      <c r="F66" s="199"/>
-      <c r="G66" s="199"/>
-      <c r="H66" s="200"/>
-      <c r="I66" s="212"/>
-      <c r="J66" s="213"/>
-      <c r="K66" s="213"/>
-      <c r="L66" s="213"/>
-      <c r="M66" s="213"/>
-      <c r="N66" s="213"/>
-      <c r="O66" s="213"/>
-      <c r="P66" s="213"/>
-      <c r="Q66" s="213"/>
-      <c r="R66" s="213"/>
-      <c r="S66" s="213"/>
-      <c r="T66" s="213"/>
-      <c r="U66" s="213"/>
-      <c r="V66" s="213"/>
-      <c r="W66" s="213"/>
-      <c r="X66" s="213"/>
-      <c r="Y66" s="213"/>
-      <c r="Z66" s="214"/>
-      <c r="AA66" s="204"/>
-      <c r="AB66" s="205"/>
-      <c r="AC66" s="205"/>
-      <c r="AD66" s="206"/>
-      <c r="AE66" s="198"/>
-      <c r="AF66" s="199"/>
-      <c r="AG66" s="199"/>
-      <c r="AH66" s="199"/>
-      <c r="AI66" s="200"/>
-      <c r="AJ66" s="204"/>
-      <c r="AK66" s="205"/>
-      <c r="AL66" s="205"/>
-      <c r="AM66" s="206"/>
-      <c r="AN66" s="198"/>
-      <c r="AO66" s="199"/>
-      <c r="AP66" s="199"/>
-      <c r="AQ66" s="199"/>
-      <c r="AR66" s="200"/>
-      <c r="AS66" s="204"/>
-      <c r="AT66" s="205"/>
-      <c r="AU66" s="205"/>
-      <c r="AV66" s="206"/>
+      <c r="B66" s="284"/>
+      <c r="C66" s="285"/>
+      <c r="D66" s="272"/>
+      <c r="E66" s="273"/>
+      <c r="F66" s="273"/>
+      <c r="G66" s="273"/>
+      <c r="H66" s="274"/>
+      <c r="I66" s="300"/>
+      <c r="J66" s="301"/>
+      <c r="K66" s="301"/>
+      <c r="L66" s="301"/>
+      <c r="M66" s="301"/>
+      <c r="N66" s="301"/>
+      <c r="O66" s="301"/>
+      <c r="P66" s="301"/>
+      <c r="Q66" s="301"/>
+      <c r="R66" s="301"/>
+      <c r="S66" s="301"/>
+      <c r="T66" s="301"/>
+      <c r="U66" s="301"/>
+      <c r="V66" s="301"/>
+      <c r="W66" s="301"/>
+      <c r="X66" s="301"/>
+      <c r="Y66" s="301"/>
+      <c r="Z66" s="302"/>
+      <c r="AA66" s="288"/>
+      <c r="AB66" s="289"/>
+      <c r="AC66" s="289"/>
+      <c r="AD66" s="290"/>
+      <c r="AE66" s="272"/>
+      <c r="AF66" s="273"/>
+      <c r="AG66" s="273"/>
+      <c r="AH66" s="273"/>
+      <c r="AI66" s="274"/>
+      <c r="AJ66" s="288"/>
+      <c r="AK66" s="289"/>
+      <c r="AL66" s="289"/>
+      <c r="AM66" s="290"/>
+      <c r="AN66" s="272"/>
+      <c r="AO66" s="273"/>
+      <c r="AP66" s="273"/>
+      <c r="AQ66" s="273"/>
+      <c r="AR66" s="274"/>
+      <c r="AS66" s="288"/>
+      <c r="AT66" s="289"/>
+      <c r="AU66" s="289"/>
+      <c r="AV66" s="290"/>
       <c r="AW66" s="163"/>
     </row>
     <row r="67" spans="1:49" ht="13.5" customHeight="1">
       <c r="A67" s="21"/>
-      <c r="B67" s="210"/>
-      <c r="C67" s="211"/>
-      <c r="D67" s="198"/>
-      <c r="E67" s="199"/>
-      <c r="F67" s="199"/>
-      <c r="G67" s="199"/>
-      <c r="H67" s="200"/>
-      <c r="I67" s="212"/>
-      <c r="J67" s="213"/>
-      <c r="K67" s="213"/>
-      <c r="L67" s="213"/>
-      <c r="M67" s="213"/>
-      <c r="N67" s="213"/>
-      <c r="O67" s="213"/>
-      <c r="P67" s="213"/>
-      <c r="Q67" s="213"/>
-      <c r="R67" s="213"/>
-      <c r="S67" s="213"/>
-      <c r="T67" s="213"/>
-      <c r="U67" s="213"/>
-      <c r="V67" s="213"/>
-      <c r="W67" s="213"/>
-      <c r="X67" s="213"/>
-      <c r="Y67" s="213"/>
-      <c r="Z67" s="214"/>
-      <c r="AA67" s="204"/>
-      <c r="AB67" s="205"/>
-      <c r="AC67" s="205"/>
-      <c r="AD67" s="206"/>
-      <c r="AE67" s="198"/>
-      <c r="AF67" s="199"/>
-      <c r="AG67" s="199"/>
-      <c r="AH67" s="199"/>
-      <c r="AI67" s="200"/>
-      <c r="AJ67" s="204"/>
-      <c r="AK67" s="205"/>
-      <c r="AL67" s="205"/>
-      <c r="AM67" s="206"/>
-      <c r="AN67" s="198"/>
-      <c r="AO67" s="199"/>
-      <c r="AP67" s="199"/>
-      <c r="AQ67" s="199"/>
-      <c r="AR67" s="200"/>
-      <c r="AS67" s="204"/>
-      <c r="AT67" s="205"/>
-      <c r="AU67" s="205"/>
-      <c r="AV67" s="206"/>
+      <c r="B67" s="284"/>
+      <c r="C67" s="285"/>
+      <c r="D67" s="272"/>
+      <c r="E67" s="273"/>
+      <c r="F67" s="273"/>
+      <c r="G67" s="273"/>
+      <c r="H67" s="274"/>
+      <c r="I67" s="300"/>
+      <c r="J67" s="301"/>
+      <c r="K67" s="301"/>
+      <c r="L67" s="301"/>
+      <c r="M67" s="301"/>
+      <c r="N67" s="301"/>
+      <c r="O67" s="301"/>
+      <c r="P67" s="301"/>
+      <c r="Q67" s="301"/>
+      <c r="R67" s="301"/>
+      <c r="S67" s="301"/>
+      <c r="T67" s="301"/>
+      <c r="U67" s="301"/>
+      <c r="V67" s="301"/>
+      <c r="W67" s="301"/>
+      <c r="X67" s="301"/>
+      <c r="Y67" s="301"/>
+      <c r="Z67" s="302"/>
+      <c r="AA67" s="288"/>
+      <c r="AB67" s="289"/>
+      <c r="AC67" s="289"/>
+      <c r="AD67" s="290"/>
+      <c r="AE67" s="272"/>
+      <c r="AF67" s="273"/>
+      <c r="AG67" s="273"/>
+      <c r="AH67" s="273"/>
+      <c r="AI67" s="274"/>
+      <c r="AJ67" s="288"/>
+      <c r="AK67" s="289"/>
+      <c r="AL67" s="289"/>
+      <c r="AM67" s="290"/>
+      <c r="AN67" s="272"/>
+      <c r="AO67" s="273"/>
+      <c r="AP67" s="273"/>
+      <c r="AQ67" s="273"/>
+      <c r="AR67" s="274"/>
+      <c r="AS67" s="288"/>
+      <c r="AT67" s="289"/>
+      <c r="AU67" s="289"/>
+      <c r="AV67" s="290"/>
       <c r="AW67" s="163"/>
     </row>
     <row r="68" spans="1:49" ht="13.5" customHeight="1">
       <c r="A68" s="21"/>
-      <c r="B68" s="210"/>
-      <c r="C68" s="211"/>
-      <c r="D68" s="198"/>
-      <c r="E68" s="199"/>
-      <c r="F68" s="199"/>
-      <c r="G68" s="199"/>
-      <c r="H68" s="200"/>
-      <c r="I68" s="212"/>
-      <c r="J68" s="213"/>
-      <c r="K68" s="213"/>
-      <c r="L68" s="213"/>
-      <c r="M68" s="213"/>
-      <c r="N68" s="213"/>
-      <c r="O68" s="213"/>
-      <c r="P68" s="213"/>
-      <c r="Q68" s="213"/>
-      <c r="R68" s="213"/>
-      <c r="S68" s="213"/>
-      <c r="T68" s="213"/>
-      <c r="U68" s="213"/>
-      <c r="V68" s="213"/>
-      <c r="W68" s="213"/>
-      <c r="X68" s="213"/>
-      <c r="Y68" s="213"/>
-      <c r="Z68" s="214"/>
-      <c r="AA68" s="204"/>
-      <c r="AB68" s="205"/>
-      <c r="AC68" s="205"/>
-      <c r="AD68" s="206"/>
-      <c r="AE68" s="198"/>
-      <c r="AF68" s="199"/>
-      <c r="AG68" s="199"/>
-      <c r="AH68" s="199"/>
-      <c r="AI68" s="200"/>
-      <c r="AJ68" s="204"/>
-      <c r="AK68" s="205"/>
-      <c r="AL68" s="205"/>
-      <c r="AM68" s="206"/>
-      <c r="AN68" s="198"/>
-      <c r="AO68" s="199"/>
-      <c r="AP68" s="199"/>
-      <c r="AQ68" s="199"/>
-      <c r="AR68" s="200"/>
-      <c r="AS68" s="204"/>
-      <c r="AT68" s="205"/>
-      <c r="AU68" s="205"/>
-      <c r="AV68" s="206"/>
+      <c r="B68" s="284"/>
+      <c r="C68" s="285"/>
+      <c r="D68" s="272"/>
+      <c r="E68" s="273"/>
+      <c r="F68" s="273"/>
+      <c r="G68" s="273"/>
+      <c r="H68" s="274"/>
+      <c r="I68" s="300"/>
+      <c r="J68" s="301"/>
+      <c r="K68" s="301"/>
+      <c r="L68" s="301"/>
+      <c r="M68" s="301"/>
+      <c r="N68" s="301"/>
+      <c r="O68" s="301"/>
+      <c r="P68" s="301"/>
+      <c r="Q68" s="301"/>
+      <c r="R68" s="301"/>
+      <c r="S68" s="301"/>
+      <c r="T68" s="301"/>
+      <c r="U68" s="301"/>
+      <c r="V68" s="301"/>
+      <c r="W68" s="301"/>
+      <c r="X68" s="301"/>
+      <c r="Y68" s="301"/>
+      <c r="Z68" s="302"/>
+      <c r="AA68" s="288"/>
+      <c r="AB68" s="289"/>
+      <c r="AC68" s="289"/>
+      <c r="AD68" s="290"/>
+      <c r="AE68" s="272"/>
+      <c r="AF68" s="273"/>
+      <c r="AG68" s="273"/>
+      <c r="AH68" s="273"/>
+      <c r="AI68" s="274"/>
+      <c r="AJ68" s="288"/>
+      <c r="AK68" s="289"/>
+      <c r="AL68" s="289"/>
+      <c r="AM68" s="290"/>
+      <c r="AN68" s="272"/>
+      <c r="AO68" s="273"/>
+      <c r="AP68" s="273"/>
+      <c r="AQ68" s="273"/>
+      <c r="AR68" s="274"/>
+      <c r="AS68" s="288"/>
+      <c r="AT68" s="289"/>
+      <c r="AU68" s="289"/>
+      <c r="AV68" s="290"/>
       <c r="AW68" s="163"/>
     </row>
     <row r="69" spans="1:49" ht="13.5" customHeight="1">
       <c r="A69" s="21"/>
-      <c r="B69" s="210"/>
-      <c r="C69" s="211"/>
-      <c r="D69" s="198"/>
-      <c r="E69" s="199"/>
-      <c r="F69" s="199"/>
-      <c r="G69" s="199"/>
-      <c r="H69" s="200"/>
-      <c r="I69" s="212"/>
-      <c r="J69" s="213"/>
-      <c r="K69" s="213"/>
-      <c r="L69" s="213"/>
-      <c r="M69" s="213"/>
-      <c r="N69" s="213"/>
-      <c r="O69" s="213"/>
-      <c r="P69" s="213"/>
-      <c r="Q69" s="213"/>
-      <c r="R69" s="213"/>
-      <c r="S69" s="213"/>
-      <c r="T69" s="213"/>
-      <c r="U69" s="213"/>
-      <c r="V69" s="213"/>
-      <c r="W69" s="213"/>
-      <c r="X69" s="213"/>
-      <c r="Y69" s="213"/>
-      <c r="Z69" s="214"/>
-      <c r="AA69" s="204"/>
-      <c r="AB69" s="205"/>
-      <c r="AC69" s="205"/>
-      <c r="AD69" s="206"/>
-      <c r="AE69" s="198"/>
-      <c r="AF69" s="199"/>
-      <c r="AG69" s="199"/>
-      <c r="AH69" s="199"/>
-      <c r="AI69" s="200"/>
-      <c r="AJ69" s="204"/>
-      <c r="AK69" s="205"/>
-      <c r="AL69" s="205"/>
-      <c r="AM69" s="206"/>
-      <c r="AN69" s="198"/>
-      <c r="AO69" s="199"/>
-      <c r="AP69" s="199"/>
-      <c r="AQ69" s="199"/>
-      <c r="AR69" s="200"/>
-      <c r="AS69" s="204"/>
-      <c r="AT69" s="205"/>
-      <c r="AU69" s="205"/>
-      <c r="AV69" s="206"/>
+      <c r="B69" s="284"/>
+      <c r="C69" s="285"/>
+      <c r="D69" s="272"/>
+      <c r="E69" s="273"/>
+      <c r="F69" s="273"/>
+      <c r="G69" s="273"/>
+      <c r="H69" s="274"/>
+      <c r="I69" s="300"/>
+      <c r="J69" s="301"/>
+      <c r="K69" s="301"/>
+      <c r="L69" s="301"/>
+      <c r="M69" s="301"/>
+      <c r="N69" s="301"/>
+      <c r="O69" s="301"/>
+      <c r="P69" s="301"/>
+      <c r="Q69" s="301"/>
+      <c r="R69" s="301"/>
+      <c r="S69" s="301"/>
+      <c r="T69" s="301"/>
+      <c r="U69" s="301"/>
+      <c r="V69" s="301"/>
+      <c r="W69" s="301"/>
+      <c r="X69" s="301"/>
+      <c r="Y69" s="301"/>
+      <c r="Z69" s="302"/>
+      <c r="AA69" s="288"/>
+      <c r="AB69" s="289"/>
+      <c r="AC69" s="289"/>
+      <c r="AD69" s="290"/>
+      <c r="AE69" s="272"/>
+      <c r="AF69" s="273"/>
+      <c r="AG69" s="273"/>
+      <c r="AH69" s="273"/>
+      <c r="AI69" s="274"/>
+      <c r="AJ69" s="288"/>
+      <c r="AK69" s="289"/>
+      <c r="AL69" s="289"/>
+      <c r="AM69" s="290"/>
+      <c r="AN69" s="272"/>
+      <c r="AO69" s="273"/>
+      <c r="AP69" s="273"/>
+      <c r="AQ69" s="273"/>
+      <c r="AR69" s="274"/>
+      <c r="AS69" s="288"/>
+      <c r="AT69" s="289"/>
+      <c r="AU69" s="289"/>
+      <c r="AV69" s="290"/>
       <c r="AW69" s="163"/>
     </row>
     <row r="70" spans="1:49" ht="13.5" customHeight="1">
       <c r="A70" s="21"/>
-      <c r="B70" s="210"/>
-      <c r="C70" s="211"/>
-      <c r="D70" s="198"/>
-      <c r="E70" s="199"/>
-      <c r="F70" s="199"/>
-      <c r="G70" s="199"/>
-      <c r="H70" s="200"/>
-      <c r="I70" s="212"/>
-      <c r="J70" s="213"/>
-      <c r="K70" s="213"/>
-      <c r="L70" s="213"/>
-      <c r="M70" s="213"/>
-      <c r="N70" s="213"/>
-      <c r="O70" s="213"/>
-      <c r="P70" s="213"/>
-      <c r="Q70" s="213"/>
-      <c r="R70" s="213"/>
-      <c r="S70" s="213"/>
-      <c r="T70" s="213"/>
-      <c r="U70" s="213"/>
-      <c r="V70" s="213"/>
-      <c r="W70" s="213"/>
-      <c r="X70" s="213"/>
-      <c r="Y70" s="213"/>
-      <c r="Z70" s="214"/>
-      <c r="AA70" s="204"/>
-      <c r="AB70" s="205"/>
-      <c r="AC70" s="205"/>
-      <c r="AD70" s="206"/>
-      <c r="AE70" s="198"/>
-      <c r="AF70" s="199"/>
-      <c r="AG70" s="199"/>
-      <c r="AH70" s="199"/>
-      <c r="AI70" s="200"/>
-      <c r="AJ70" s="204"/>
-      <c r="AK70" s="205"/>
-      <c r="AL70" s="205"/>
-      <c r="AM70" s="206"/>
-      <c r="AN70" s="198"/>
-      <c r="AO70" s="199"/>
-      <c r="AP70" s="199"/>
-      <c r="AQ70" s="199"/>
-      <c r="AR70" s="200"/>
-      <c r="AS70" s="204"/>
-      <c r="AT70" s="205"/>
-      <c r="AU70" s="205"/>
-      <c r="AV70" s="206"/>
+      <c r="B70" s="284"/>
+      <c r="C70" s="285"/>
+      <c r="D70" s="272"/>
+      <c r="E70" s="273"/>
+      <c r="F70" s="273"/>
+      <c r="G70" s="273"/>
+      <c r="H70" s="274"/>
+      <c r="I70" s="300"/>
+      <c r="J70" s="301"/>
+      <c r="K70" s="301"/>
+      <c r="L70" s="301"/>
+      <c r="M70" s="301"/>
+      <c r="N70" s="301"/>
+      <c r="O70" s="301"/>
+      <c r="P70" s="301"/>
+      <c r="Q70" s="301"/>
+      <c r="R70" s="301"/>
+      <c r="S70" s="301"/>
+      <c r="T70" s="301"/>
+      <c r="U70" s="301"/>
+      <c r="V70" s="301"/>
+      <c r="W70" s="301"/>
+      <c r="X70" s="301"/>
+      <c r="Y70" s="301"/>
+      <c r="Z70" s="302"/>
+      <c r="AA70" s="288"/>
+      <c r="AB70" s="289"/>
+      <c r="AC70" s="289"/>
+      <c r="AD70" s="290"/>
+      <c r="AE70" s="272"/>
+      <c r="AF70" s="273"/>
+      <c r="AG70" s="273"/>
+      <c r="AH70" s="273"/>
+      <c r="AI70" s="274"/>
+      <c r="AJ70" s="288"/>
+      <c r="AK70" s="289"/>
+      <c r="AL70" s="289"/>
+      <c r="AM70" s="290"/>
+      <c r="AN70" s="272"/>
+      <c r="AO70" s="273"/>
+      <c r="AP70" s="273"/>
+      <c r="AQ70" s="273"/>
+      <c r="AR70" s="274"/>
+      <c r="AS70" s="288"/>
+      <c r="AT70" s="289"/>
+      <c r="AU70" s="289"/>
+      <c r="AV70" s="290"/>
       <c r="AW70" s="163"/>
     </row>
     <row r="71" spans="1:49" ht="13.5" customHeight="1">
       <c r="A71" s="21"/>
-      <c r="B71" s="210"/>
-      <c r="C71" s="211"/>
-      <c r="D71" s="198"/>
-      <c r="E71" s="199"/>
-      <c r="F71" s="199"/>
-      <c r="G71" s="199"/>
-      <c r="H71" s="200"/>
-      <c r="I71" s="212"/>
-      <c r="J71" s="213"/>
-      <c r="K71" s="213"/>
-      <c r="L71" s="213"/>
-      <c r="M71" s="213"/>
-      <c r="N71" s="213"/>
-      <c r="O71" s="213"/>
-      <c r="P71" s="213"/>
-      <c r="Q71" s="213"/>
-      <c r="R71" s="213"/>
-      <c r="S71" s="213"/>
-      <c r="T71" s="213"/>
-      <c r="U71" s="213"/>
-      <c r="V71" s="213"/>
-      <c r="W71" s="213"/>
-      <c r="X71" s="213"/>
-      <c r="Y71" s="213"/>
-      <c r="Z71" s="214"/>
-      <c r="AA71" s="204"/>
-      <c r="AB71" s="205"/>
-      <c r="AC71" s="205"/>
-      <c r="AD71" s="206"/>
-      <c r="AE71" s="198"/>
-      <c r="AF71" s="199"/>
-      <c r="AG71" s="199"/>
-      <c r="AH71" s="199"/>
-      <c r="AI71" s="200"/>
-      <c r="AJ71" s="204"/>
-      <c r="AK71" s="205"/>
-      <c r="AL71" s="205"/>
-      <c r="AM71" s="206"/>
-      <c r="AN71" s="198"/>
-      <c r="AO71" s="199"/>
-      <c r="AP71" s="199"/>
-      <c r="AQ71" s="199"/>
-      <c r="AR71" s="200"/>
-      <c r="AS71" s="204"/>
-      <c r="AT71" s="205"/>
-      <c r="AU71" s="205"/>
-      <c r="AV71" s="206"/>
+      <c r="B71" s="284"/>
+      <c r="C71" s="285"/>
+      <c r="D71" s="272"/>
+      <c r="E71" s="273"/>
+      <c r="F71" s="273"/>
+      <c r="G71" s="273"/>
+      <c r="H71" s="274"/>
+      <c r="I71" s="300"/>
+      <c r="J71" s="301"/>
+      <c r="K71" s="301"/>
+      <c r="L71" s="301"/>
+      <c r="M71" s="301"/>
+      <c r="N71" s="301"/>
+      <c r="O71" s="301"/>
+      <c r="P71" s="301"/>
+      <c r="Q71" s="301"/>
+      <c r="R71" s="301"/>
+      <c r="S71" s="301"/>
+      <c r="T71" s="301"/>
+      <c r="U71" s="301"/>
+      <c r="V71" s="301"/>
+      <c r="W71" s="301"/>
+      <c r="X71" s="301"/>
+      <c r="Y71" s="301"/>
+      <c r="Z71" s="302"/>
+      <c r="AA71" s="288"/>
+      <c r="AB71" s="289"/>
+      <c r="AC71" s="289"/>
+      <c r="AD71" s="290"/>
+      <c r="AE71" s="272"/>
+      <c r="AF71" s="273"/>
+      <c r="AG71" s="273"/>
+      <c r="AH71" s="273"/>
+      <c r="AI71" s="274"/>
+      <c r="AJ71" s="288"/>
+      <c r="AK71" s="289"/>
+      <c r="AL71" s="289"/>
+      <c r="AM71" s="290"/>
+      <c r="AN71" s="272"/>
+      <c r="AO71" s="273"/>
+      <c r="AP71" s="273"/>
+      <c r="AQ71" s="273"/>
+      <c r="AR71" s="274"/>
+      <c r="AS71" s="288"/>
+      <c r="AT71" s="289"/>
+      <c r="AU71" s="289"/>
+      <c r="AV71" s="290"/>
       <c r="AW71" s="163"/>
     </row>
     <row r="72" spans="1:49" ht="13.5" customHeight="1">
       <c r="A72" s="21"/>
-      <c r="B72" s="210"/>
-      <c r="C72" s="211"/>
-      <c r="D72" s="198"/>
-      <c r="E72" s="199"/>
-      <c r="F72" s="199"/>
-      <c r="G72" s="199"/>
-      <c r="H72" s="200"/>
-      <c r="I72" s="212"/>
-      <c r="J72" s="213"/>
-      <c r="K72" s="213"/>
-      <c r="L72" s="213"/>
-      <c r="M72" s="213"/>
-      <c r="N72" s="213"/>
-      <c r="O72" s="213"/>
-      <c r="P72" s="213"/>
-      <c r="Q72" s="213"/>
-      <c r="R72" s="213"/>
-      <c r="S72" s="213"/>
-      <c r="T72" s="213"/>
-      <c r="U72" s="213"/>
-      <c r="V72" s="213"/>
-      <c r="W72" s="213"/>
-      <c r="X72" s="213"/>
-      <c r="Y72" s="213"/>
-      <c r="Z72" s="214"/>
-      <c r="AA72" s="204"/>
-      <c r="AB72" s="205"/>
-      <c r="AC72" s="205"/>
-      <c r="AD72" s="206"/>
-      <c r="AE72" s="198"/>
-      <c r="AF72" s="199"/>
-      <c r="AG72" s="199"/>
-      <c r="AH72" s="199"/>
-      <c r="AI72" s="200"/>
-      <c r="AJ72" s="204"/>
-      <c r="AK72" s="205"/>
-      <c r="AL72" s="205"/>
-      <c r="AM72" s="206"/>
-      <c r="AN72" s="198"/>
-      <c r="AO72" s="199"/>
-      <c r="AP72" s="199"/>
-      <c r="AQ72" s="199"/>
-      <c r="AR72" s="200"/>
-      <c r="AS72" s="204"/>
-      <c r="AT72" s="205"/>
-      <c r="AU72" s="205"/>
-      <c r="AV72" s="206"/>
+      <c r="B72" s="284"/>
+      <c r="C72" s="285"/>
+      <c r="D72" s="272"/>
+      <c r="E72" s="273"/>
+      <c r="F72" s="273"/>
+      <c r="G72" s="273"/>
+      <c r="H72" s="274"/>
+      <c r="I72" s="300"/>
+      <c r="J72" s="301"/>
+      <c r="K72" s="301"/>
+      <c r="L72" s="301"/>
+      <c r="M72" s="301"/>
+      <c r="N72" s="301"/>
+      <c r="O72" s="301"/>
+      <c r="P72" s="301"/>
+      <c r="Q72" s="301"/>
+      <c r="R72" s="301"/>
+      <c r="S72" s="301"/>
+      <c r="T72" s="301"/>
+      <c r="U72" s="301"/>
+      <c r="V72" s="301"/>
+      <c r="W72" s="301"/>
+      <c r="X72" s="301"/>
+      <c r="Y72" s="301"/>
+      <c r="Z72" s="302"/>
+      <c r="AA72" s="288"/>
+      <c r="AB72" s="289"/>
+      <c r="AC72" s="289"/>
+      <c r="AD72" s="290"/>
+      <c r="AE72" s="272"/>
+      <c r="AF72" s="273"/>
+      <c r="AG72" s="273"/>
+      <c r="AH72" s="273"/>
+      <c r="AI72" s="274"/>
+      <c r="AJ72" s="288"/>
+      <c r="AK72" s="289"/>
+      <c r="AL72" s="289"/>
+      <c r="AM72" s="290"/>
+      <c r="AN72" s="272"/>
+      <c r="AO72" s="273"/>
+      <c r="AP72" s="273"/>
+      <c r="AQ72" s="273"/>
+      <c r="AR72" s="274"/>
+      <c r="AS72" s="288"/>
+      <c r="AT72" s="289"/>
+      <c r="AU72" s="289"/>
+      <c r="AV72" s="290"/>
       <c r="AW72" s="163"/>
     </row>
     <row r="73" spans="1:49" ht="13.5" customHeight="1">
       <c r="A73" s="21"/>
-      <c r="B73" s="210"/>
-      <c r="C73" s="211"/>
-      <c r="D73" s="198"/>
-      <c r="E73" s="199"/>
-      <c r="F73" s="199"/>
-      <c r="G73" s="199"/>
-      <c r="H73" s="200"/>
-      <c r="I73" s="212"/>
-      <c r="J73" s="213"/>
-      <c r="K73" s="213"/>
-      <c r="L73" s="213"/>
-      <c r="M73" s="213"/>
-      <c r="N73" s="213"/>
-      <c r="O73" s="213"/>
-      <c r="P73" s="213"/>
-      <c r="Q73" s="213"/>
-      <c r="R73" s="213"/>
-      <c r="S73" s="213"/>
-      <c r="T73" s="213"/>
-      <c r="U73" s="213"/>
-      <c r="V73" s="213"/>
-      <c r="W73" s="213"/>
-      <c r="X73" s="213"/>
-      <c r="Y73" s="213"/>
-      <c r="Z73" s="214"/>
-      <c r="AA73" s="204"/>
-      <c r="AB73" s="205"/>
-      <c r="AC73" s="205"/>
-      <c r="AD73" s="206"/>
-      <c r="AE73" s="198"/>
-      <c r="AF73" s="199"/>
-      <c r="AG73" s="199"/>
-      <c r="AH73" s="199"/>
-      <c r="AI73" s="200"/>
-      <c r="AJ73" s="204"/>
-      <c r="AK73" s="205"/>
-      <c r="AL73" s="205"/>
-      <c r="AM73" s="206"/>
-      <c r="AN73" s="198"/>
-      <c r="AO73" s="199"/>
-      <c r="AP73" s="199"/>
-      <c r="AQ73" s="199"/>
-      <c r="AR73" s="200"/>
-      <c r="AS73" s="204"/>
-      <c r="AT73" s="205"/>
-      <c r="AU73" s="205"/>
-      <c r="AV73" s="206"/>
+      <c r="B73" s="284"/>
+      <c r="C73" s="285"/>
+      <c r="D73" s="272"/>
+      <c r="E73" s="273"/>
+      <c r="F73" s="273"/>
+      <c r="G73" s="273"/>
+      <c r="H73" s="274"/>
+      <c r="I73" s="300"/>
+      <c r="J73" s="301"/>
+      <c r="K73" s="301"/>
+      <c r="L73" s="301"/>
+      <c r="M73" s="301"/>
+      <c r="N73" s="301"/>
+      <c r="O73" s="301"/>
+      <c r="P73" s="301"/>
+      <c r="Q73" s="301"/>
+      <c r="R73" s="301"/>
+      <c r="S73" s="301"/>
+      <c r="T73" s="301"/>
+      <c r="U73" s="301"/>
+      <c r="V73" s="301"/>
+      <c r="W73" s="301"/>
+      <c r="X73" s="301"/>
+      <c r="Y73" s="301"/>
+      <c r="Z73" s="302"/>
+      <c r="AA73" s="288"/>
+      <c r="AB73" s="289"/>
+      <c r="AC73" s="289"/>
+      <c r="AD73" s="290"/>
+      <c r="AE73" s="272"/>
+      <c r="AF73" s="273"/>
+      <c r="AG73" s="273"/>
+      <c r="AH73" s="273"/>
+      <c r="AI73" s="274"/>
+      <c r="AJ73" s="288"/>
+      <c r="AK73" s="289"/>
+      <c r="AL73" s="289"/>
+      <c r="AM73" s="290"/>
+      <c r="AN73" s="272"/>
+      <c r="AO73" s="273"/>
+      <c r="AP73" s="273"/>
+      <c r="AQ73" s="273"/>
+      <c r="AR73" s="274"/>
+      <c r="AS73" s="288"/>
+      <c r="AT73" s="289"/>
+      <c r="AU73" s="289"/>
+      <c r="AV73" s="290"/>
       <c r="AW73" s="163"/>
     </row>
     <row r="74" spans="1:49" ht="13.5" customHeight="1">
       <c r="A74" s="21"/>
-      <c r="B74" s="210"/>
-      <c r="C74" s="211"/>
-      <c r="D74" s="198"/>
-      <c r="E74" s="199"/>
-      <c r="F74" s="199"/>
-      <c r="G74" s="199"/>
-      <c r="H74" s="200"/>
-      <c r="I74" s="212"/>
-      <c r="J74" s="213"/>
-      <c r="K74" s="213"/>
-      <c r="L74" s="213"/>
-      <c r="M74" s="213"/>
-      <c r="N74" s="213"/>
-      <c r="O74" s="213"/>
-      <c r="P74" s="213"/>
-      <c r="Q74" s="213"/>
-      <c r="R74" s="213"/>
-      <c r="S74" s="213"/>
-      <c r="T74" s="213"/>
-      <c r="U74" s="213"/>
-      <c r="V74" s="213"/>
-      <c r="W74" s="213"/>
-      <c r="X74" s="213"/>
-      <c r="Y74" s="213"/>
-      <c r="Z74" s="214"/>
-      <c r="AA74" s="204"/>
-      <c r="AB74" s="205"/>
-      <c r="AC74" s="205"/>
-      <c r="AD74" s="206"/>
-      <c r="AE74" s="198"/>
-      <c r="AF74" s="199"/>
-      <c r="AG74" s="199"/>
-      <c r="AH74" s="199"/>
-      <c r="AI74" s="200"/>
-      <c r="AJ74" s="204"/>
-      <c r="AK74" s="205"/>
-      <c r="AL74" s="205"/>
-      <c r="AM74" s="206"/>
-      <c r="AN74" s="198"/>
-      <c r="AO74" s="199"/>
-      <c r="AP74" s="199"/>
-      <c r="AQ74" s="199"/>
-      <c r="AR74" s="200"/>
-      <c r="AS74" s="204"/>
-      <c r="AT74" s="205"/>
-      <c r="AU74" s="205"/>
-      <c r="AV74" s="206"/>
+      <c r="B74" s="284"/>
+      <c r="C74" s="285"/>
+      <c r="D74" s="272"/>
+      <c r="E74" s="273"/>
+      <c r="F74" s="273"/>
+      <c r="G74" s="273"/>
+      <c r="H74" s="274"/>
+      <c r="I74" s="300"/>
+      <c r="J74" s="301"/>
+      <c r="K74" s="301"/>
+      <c r="L74" s="301"/>
+      <c r="M74" s="301"/>
+      <c r="N74" s="301"/>
+      <c r="O74" s="301"/>
+      <c r="P74" s="301"/>
+      <c r="Q74" s="301"/>
+      <c r="R74" s="301"/>
+      <c r="S74" s="301"/>
+      <c r="T74" s="301"/>
+      <c r="U74" s="301"/>
+      <c r="V74" s="301"/>
+      <c r="W74" s="301"/>
+      <c r="X74" s="301"/>
+      <c r="Y74" s="301"/>
+      <c r="Z74" s="302"/>
+      <c r="AA74" s="288"/>
+      <c r="AB74" s="289"/>
+      <c r="AC74" s="289"/>
+      <c r="AD74" s="290"/>
+      <c r="AE74" s="272"/>
+      <c r="AF74" s="273"/>
+      <c r="AG74" s="273"/>
+      <c r="AH74" s="273"/>
+      <c r="AI74" s="274"/>
+      <c r="AJ74" s="288"/>
+      <c r="AK74" s="289"/>
+      <c r="AL74" s="289"/>
+      <c r="AM74" s="290"/>
+      <c r="AN74" s="272"/>
+      <c r="AO74" s="273"/>
+      <c r="AP74" s="273"/>
+      <c r="AQ74" s="273"/>
+      <c r="AR74" s="274"/>
+      <c r="AS74" s="288"/>
+      <c r="AT74" s="289"/>
+      <c r="AU74" s="289"/>
+      <c r="AV74" s="290"/>
       <c r="AW74" s="163"/>
     </row>
     <row r="75" spans="1:49" ht="13.5" customHeight="1">
       <c r="A75" s="21"/>
-      <c r="B75" s="210"/>
-      <c r="C75" s="211"/>
-      <c r="D75" s="198"/>
-      <c r="E75" s="199"/>
-      <c r="F75" s="199"/>
-      <c r="G75" s="199"/>
-      <c r="H75" s="200"/>
-      <c r="I75" s="212"/>
-      <c r="J75" s="213"/>
-      <c r="K75" s="213"/>
-      <c r="L75" s="213"/>
-      <c r="M75" s="213"/>
-      <c r="N75" s="213"/>
-      <c r="O75" s="213"/>
-      <c r="P75" s="213"/>
-      <c r="Q75" s="213"/>
-      <c r="R75" s="213"/>
-      <c r="S75" s="213"/>
-      <c r="T75" s="213"/>
-      <c r="U75" s="213"/>
-      <c r="V75" s="213"/>
-      <c r="W75" s="213"/>
-      <c r="X75" s="213"/>
-      <c r="Y75" s="213"/>
-      <c r="Z75" s="214"/>
-      <c r="AA75" s="204"/>
-      <c r="AB75" s="205"/>
-      <c r="AC75" s="205"/>
-      <c r="AD75" s="206"/>
-      <c r="AE75" s="198"/>
-      <c r="AF75" s="199"/>
-      <c r="AG75" s="199"/>
-      <c r="AH75" s="199"/>
-      <c r="AI75" s="200"/>
-      <c r="AJ75" s="204"/>
-      <c r="AK75" s="205"/>
-      <c r="AL75" s="205"/>
-      <c r="AM75" s="206"/>
-      <c r="AN75" s="198"/>
-      <c r="AO75" s="199"/>
-      <c r="AP75" s="199"/>
-      <c r="AQ75" s="199"/>
-      <c r="AR75" s="200"/>
-      <c r="AS75" s="204"/>
-      <c r="AT75" s="205"/>
-      <c r="AU75" s="205"/>
-      <c r="AV75" s="206"/>
+      <c r="B75" s="284"/>
+      <c r="C75" s="285"/>
+      <c r="D75" s="272"/>
+      <c r="E75" s="273"/>
+      <c r="F75" s="273"/>
+      <c r="G75" s="273"/>
+      <c r="H75" s="274"/>
+      <c r="I75" s="300"/>
+      <c r="J75" s="301"/>
+      <c r="K75" s="301"/>
+      <c r="L75" s="301"/>
+      <c r="M75" s="301"/>
+      <c r="N75" s="301"/>
+      <c r="O75" s="301"/>
+      <c r="P75" s="301"/>
+      <c r="Q75" s="301"/>
+      <c r="R75" s="301"/>
+      <c r="S75" s="301"/>
+      <c r="T75" s="301"/>
+      <c r="U75" s="301"/>
+      <c r="V75" s="301"/>
+      <c r="W75" s="301"/>
+      <c r="X75" s="301"/>
+      <c r="Y75" s="301"/>
+      <c r="Z75" s="302"/>
+      <c r="AA75" s="288"/>
+      <c r="AB75" s="289"/>
+      <c r="AC75" s="289"/>
+      <c r="AD75" s="290"/>
+      <c r="AE75" s="272"/>
+      <c r="AF75" s="273"/>
+      <c r="AG75" s="273"/>
+      <c r="AH75" s="273"/>
+      <c r="AI75" s="274"/>
+      <c r="AJ75" s="288"/>
+      <c r="AK75" s="289"/>
+      <c r="AL75" s="289"/>
+      <c r="AM75" s="290"/>
+      <c r="AN75" s="272"/>
+      <c r="AO75" s="273"/>
+      <c r="AP75" s="273"/>
+      <c r="AQ75" s="273"/>
+      <c r="AR75" s="274"/>
+      <c r="AS75" s="288"/>
+      <c r="AT75" s="289"/>
+      <c r="AU75" s="289"/>
+      <c r="AV75" s="290"/>
       <c r="AW75" s="163"/>
     </row>
     <row r="76" spans="1:49" ht="13.5" customHeight="1">
       <c r="A76" s="21"/>
-      <c r="B76" s="210"/>
-      <c r="C76" s="211"/>
-      <c r="D76" s="198"/>
-      <c r="E76" s="199"/>
-      <c r="F76" s="199"/>
-      <c r="G76" s="199"/>
-      <c r="H76" s="200"/>
-      <c r="I76" s="212"/>
-      <c r="J76" s="213"/>
-      <c r="K76" s="213"/>
-      <c r="L76" s="213"/>
-      <c r="M76" s="213"/>
-      <c r="N76" s="213"/>
-      <c r="O76" s="213"/>
-      <c r="P76" s="213"/>
-      <c r="Q76" s="213"/>
-      <c r="R76" s="213"/>
-      <c r="S76" s="213"/>
-      <c r="T76" s="213"/>
-      <c r="U76" s="213"/>
-      <c r="V76" s="213"/>
-      <c r="W76" s="213"/>
-      <c r="X76" s="213"/>
-      <c r="Y76" s="213"/>
-      <c r="Z76" s="214"/>
-      <c r="AA76" s="204"/>
-      <c r="AB76" s="205"/>
-      <c r="AC76" s="205"/>
-      <c r="AD76" s="206"/>
-      <c r="AE76" s="198"/>
-      <c r="AF76" s="199"/>
-      <c r="AG76" s="199"/>
-      <c r="AH76" s="199"/>
-      <c r="AI76" s="200"/>
-      <c r="AJ76" s="204"/>
-      <c r="AK76" s="205"/>
-      <c r="AL76" s="205"/>
-      <c r="AM76" s="206"/>
-      <c r="AN76" s="198"/>
-      <c r="AO76" s="199"/>
-      <c r="AP76" s="199"/>
-      <c r="AQ76" s="199"/>
-      <c r="AR76" s="200"/>
-      <c r="AS76" s="204"/>
-      <c r="AT76" s="205"/>
-      <c r="AU76" s="205"/>
-      <c r="AV76" s="206"/>
+      <c r="B76" s="284"/>
+      <c r="C76" s="285"/>
+      <c r="D76" s="272"/>
+      <c r="E76" s="273"/>
+      <c r="F76" s="273"/>
+      <c r="G76" s="273"/>
+      <c r="H76" s="274"/>
+      <c r="I76" s="300"/>
+      <c r="J76" s="301"/>
+      <c r="K76" s="301"/>
+      <c r="L76" s="301"/>
+      <c r="M76" s="301"/>
+      <c r="N76" s="301"/>
+      <c r="O76" s="301"/>
+      <c r="P76" s="301"/>
+      <c r="Q76" s="301"/>
+      <c r="R76" s="301"/>
+      <c r="S76" s="301"/>
+      <c r="T76" s="301"/>
+      <c r="U76" s="301"/>
+      <c r="V76" s="301"/>
+      <c r="W76" s="301"/>
+      <c r="X76" s="301"/>
+      <c r="Y76" s="301"/>
+      <c r="Z76" s="302"/>
+      <c r="AA76" s="288"/>
+      <c r="AB76" s="289"/>
+      <c r="AC76" s="289"/>
+      <c r="AD76" s="290"/>
+      <c r="AE76" s="272"/>
+      <c r="AF76" s="273"/>
+      <c r="AG76" s="273"/>
+      <c r="AH76" s="273"/>
+      <c r="AI76" s="274"/>
+      <c r="AJ76" s="288"/>
+      <c r="AK76" s="289"/>
+      <c r="AL76" s="289"/>
+      <c r="AM76" s="290"/>
+      <c r="AN76" s="272"/>
+      <c r="AO76" s="273"/>
+      <c r="AP76" s="273"/>
+      <c r="AQ76" s="273"/>
+      <c r="AR76" s="274"/>
+      <c r="AS76" s="288"/>
+      <c r="AT76" s="289"/>
+      <c r="AU76" s="289"/>
+      <c r="AV76" s="290"/>
       <c r="AW76" s="163"/>
     </row>
     <row r="77" spans="1:49" ht="13.5" customHeight="1">
       <c r="A77" s="21"/>
-      <c r="B77" s="210"/>
-      <c r="C77" s="211"/>
-      <c r="D77" s="198"/>
-      <c r="E77" s="199"/>
-      <c r="F77" s="199"/>
-      <c r="G77" s="199"/>
-      <c r="H77" s="200"/>
-      <c r="I77" s="212"/>
-      <c r="J77" s="213"/>
-      <c r="K77" s="213"/>
-      <c r="L77" s="213"/>
-      <c r="M77" s="213"/>
-      <c r="N77" s="213"/>
-      <c r="O77" s="213"/>
-      <c r="P77" s="213"/>
-      <c r="Q77" s="213"/>
-      <c r="R77" s="213"/>
-      <c r="S77" s="213"/>
-      <c r="T77" s="213"/>
-      <c r="U77" s="213"/>
-      <c r="V77" s="213"/>
-      <c r="W77" s="213"/>
-      <c r="X77" s="213"/>
-      <c r="Y77" s="213"/>
-      <c r="Z77" s="214"/>
-      <c r="AA77" s="204"/>
-      <c r="AB77" s="205"/>
-      <c r="AC77" s="205"/>
-      <c r="AD77" s="206"/>
-      <c r="AE77" s="198"/>
-      <c r="AF77" s="199"/>
-      <c r="AG77" s="199"/>
-      <c r="AH77" s="199"/>
-      <c r="AI77" s="200"/>
-      <c r="AJ77" s="204"/>
-      <c r="AK77" s="205"/>
-      <c r="AL77" s="205"/>
-      <c r="AM77" s="206"/>
-      <c r="AN77" s="198"/>
-      <c r="AO77" s="199"/>
-      <c r="AP77" s="199"/>
-      <c r="AQ77" s="199"/>
-      <c r="AR77" s="200"/>
-      <c r="AS77" s="204"/>
-      <c r="AT77" s="205"/>
-      <c r="AU77" s="205"/>
-      <c r="AV77" s="206"/>
+      <c r="B77" s="284"/>
+      <c r="C77" s="285"/>
+      <c r="D77" s="272"/>
+      <c r="E77" s="273"/>
+      <c r="F77" s="273"/>
+      <c r="G77" s="273"/>
+      <c r="H77" s="274"/>
+      <c r="I77" s="300"/>
+      <c r="J77" s="301"/>
+      <c r="K77" s="301"/>
+      <c r="L77" s="301"/>
+      <c r="M77" s="301"/>
+      <c r="N77" s="301"/>
+      <c r="O77" s="301"/>
+      <c r="P77" s="301"/>
+      <c r="Q77" s="301"/>
+      <c r="R77" s="301"/>
+      <c r="S77" s="301"/>
+      <c r="T77" s="301"/>
+      <c r="U77" s="301"/>
+      <c r="V77" s="301"/>
+      <c r="W77" s="301"/>
+      <c r="X77" s="301"/>
+      <c r="Y77" s="301"/>
+      <c r="Z77" s="302"/>
+      <c r="AA77" s="288"/>
+      <c r="AB77" s="289"/>
+      <c r="AC77" s="289"/>
+      <c r="AD77" s="290"/>
+      <c r="AE77" s="272"/>
+      <c r="AF77" s="273"/>
+      <c r="AG77" s="273"/>
+      <c r="AH77" s="273"/>
+      <c r="AI77" s="274"/>
+      <c r="AJ77" s="288"/>
+      <c r="AK77" s="289"/>
+      <c r="AL77" s="289"/>
+      <c r="AM77" s="290"/>
+      <c r="AN77" s="272"/>
+      <c r="AO77" s="273"/>
+      <c r="AP77" s="273"/>
+      <c r="AQ77" s="273"/>
+      <c r="AR77" s="274"/>
+      <c r="AS77" s="288"/>
+      <c r="AT77" s="289"/>
+      <c r="AU77" s="289"/>
+      <c r="AV77" s="290"/>
       <c r="AW77" s="163"/>
     </row>
     <row r="78" spans="1:49" ht="13.5" customHeight="1">
       <c r="A78" s="21"/>
-      <c r="B78" s="215"/>
-      <c r="C78" s="216"/>
-      <c r="D78" s="201"/>
-      <c r="E78" s="202"/>
-      <c r="F78" s="202"/>
-      <c r="G78" s="202"/>
-      <c r="H78" s="203"/>
-      <c r="I78" s="217"/>
-      <c r="J78" s="218"/>
-      <c r="K78" s="218"/>
-      <c r="L78" s="218"/>
-      <c r="M78" s="218"/>
-      <c r="N78" s="218"/>
-      <c r="O78" s="218"/>
-      <c r="P78" s="218"/>
-      <c r="Q78" s="218"/>
-      <c r="R78" s="218"/>
-      <c r="S78" s="218"/>
-      <c r="T78" s="218"/>
-      <c r="U78" s="218"/>
-      <c r="V78" s="218"/>
-      <c r="W78" s="218"/>
-      <c r="X78" s="218"/>
-      <c r="Y78" s="218"/>
-      <c r="Z78" s="219"/>
-      <c r="AA78" s="207"/>
-      <c r="AB78" s="208"/>
-      <c r="AC78" s="208"/>
-      <c r="AD78" s="209"/>
-      <c r="AE78" s="201"/>
-      <c r="AF78" s="202"/>
-      <c r="AG78" s="202"/>
-      <c r="AH78" s="202"/>
-      <c r="AI78" s="203"/>
-      <c r="AJ78" s="207"/>
-      <c r="AK78" s="208"/>
-      <c r="AL78" s="208"/>
-      <c r="AM78" s="209"/>
-      <c r="AN78" s="201"/>
-      <c r="AO78" s="202"/>
-      <c r="AP78" s="202"/>
-      <c r="AQ78" s="202"/>
-      <c r="AR78" s="203"/>
-      <c r="AS78" s="207"/>
-      <c r="AT78" s="208"/>
-      <c r="AU78" s="208"/>
-      <c r="AV78" s="209"/>
+      <c r="B78" s="324"/>
+      <c r="C78" s="325"/>
+      <c r="D78" s="318"/>
+      <c r="E78" s="319"/>
+      <c r="F78" s="319"/>
+      <c r="G78" s="319"/>
+      <c r="H78" s="320"/>
+      <c r="I78" s="326"/>
+      <c r="J78" s="327"/>
+      <c r="K78" s="327"/>
+      <c r="L78" s="327"/>
+      <c r="M78" s="327"/>
+      <c r="N78" s="327"/>
+      <c r="O78" s="327"/>
+      <c r="P78" s="327"/>
+      <c r="Q78" s="327"/>
+      <c r="R78" s="327"/>
+      <c r="S78" s="327"/>
+      <c r="T78" s="327"/>
+      <c r="U78" s="327"/>
+      <c r="V78" s="327"/>
+      <c r="W78" s="327"/>
+      <c r="X78" s="327"/>
+      <c r="Y78" s="327"/>
+      <c r="Z78" s="328"/>
+      <c r="AA78" s="321"/>
+      <c r="AB78" s="322"/>
+      <c r="AC78" s="322"/>
+      <c r="AD78" s="323"/>
+      <c r="AE78" s="318"/>
+      <c r="AF78" s="319"/>
+      <c r="AG78" s="319"/>
+      <c r="AH78" s="319"/>
+      <c r="AI78" s="320"/>
+      <c r="AJ78" s="321"/>
+      <c r="AK78" s="322"/>
+      <c r="AL78" s="322"/>
+      <c r="AM78" s="323"/>
+      <c r="AN78" s="318"/>
+      <c r="AO78" s="319"/>
+      <c r="AP78" s="319"/>
+      <c r="AQ78" s="319"/>
+      <c r="AR78" s="320"/>
+      <c r="AS78" s="321"/>
+      <c r="AT78" s="322"/>
+      <c r="AU78" s="322"/>
+      <c r="AV78" s="323"/>
       <c r="AW78" s="163"/>
     </row>
     <row r="79" spans="1:49" ht="13.5" customHeight="1">
@@ -22907,187 +22913,187 @@
       <c r="AW80" s="166"/>
     </row>
     <row r="81" spans="1:50" s="19" customFormat="1" ht="23.1" customHeight="1" thickTop="1">
-      <c r="A81" s="220" t="s">
+      <c r="A81" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="B81" s="221"/>
-      <c r="C81" s="221"/>
-      <c r="D81" s="221"/>
-      <c r="E81" s="221"/>
-      <c r="F81" s="221"/>
-      <c r="G81" s="221"/>
-      <c r="H81" s="221"/>
-      <c r="I81" s="222"/>
-      <c r="J81" s="229" t="s">
+      <c r="B81" s="202"/>
+      <c r="C81" s="202"/>
+      <c r="D81" s="202"/>
+      <c r="E81" s="202"/>
+      <c r="F81" s="202"/>
+      <c r="G81" s="202"/>
+      <c r="H81" s="202"/>
+      <c r="I81" s="203"/>
+      <c r="J81" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="K81" s="221"/>
-      <c r="L81" s="221"/>
-      <c r="M81" s="221"/>
-      <c r="N81" s="221"/>
-      <c r="O81" s="222"/>
-      <c r="P81" s="229" t="s">
+      <c r="K81" s="202"/>
+      <c r="L81" s="202"/>
+      <c r="M81" s="202"/>
+      <c r="N81" s="202"/>
+      <c r="O81" s="203"/>
+      <c r="P81" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="Q81" s="221"/>
-      <c r="R81" s="221"/>
-      <c r="S81" s="221"/>
-      <c r="T81" s="221"/>
-      <c r="U81" s="222"/>
-      <c r="V81" s="235" t="s">
+      <c r="Q81" s="202"/>
+      <c r="R81" s="202"/>
+      <c r="S81" s="202"/>
+      <c r="T81" s="202"/>
+      <c r="U81" s="203"/>
+      <c r="V81" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="W81" s="236"/>
-      <c r="X81" s="236"/>
-      <c r="Y81" s="236"/>
-      <c r="Z81" s="237"/>
-      <c r="AA81" s="241" t="s">
+      <c r="W81" s="218"/>
+      <c r="X81" s="218"/>
+      <c r="Y81" s="218"/>
+      <c r="Z81" s="219"/>
+      <c r="AA81" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="AB81" s="221"/>
-      <c r="AC81" s="221"/>
-      <c r="AD81" s="221"/>
-      <c r="AE81" s="221"/>
-      <c r="AF81" s="221"/>
-      <c r="AG81" s="221"/>
-      <c r="AH81" s="221"/>
-      <c r="AI81" s="221"/>
-      <c r="AJ81" s="221"/>
-      <c r="AK81" s="221"/>
-      <c r="AL81" s="222"/>
-      <c r="AM81" s="230" t="s">
+      <c r="AB81" s="202"/>
+      <c r="AC81" s="202"/>
+      <c r="AD81" s="202"/>
+      <c r="AE81" s="202"/>
+      <c r="AF81" s="202"/>
+      <c r="AG81" s="202"/>
+      <c r="AH81" s="202"/>
+      <c r="AI81" s="202"/>
+      <c r="AJ81" s="202"/>
+      <c r="AK81" s="202"/>
+      <c r="AL81" s="203"/>
+      <c r="AM81" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="AN81" s="231"/>
+      <c r="AN81" s="238"/>
       <c r="AO81" s="243" t="s">
         <v>124</v>
       </c>
       <c r="AP81" s="244"/>
       <c r="AQ81" s="245"/>
-      <c r="AR81" s="230" t="s">
+      <c r="AR81" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="AS81" s="231"/>
-      <c r="AT81" s="232">
+      <c r="AS81" s="238"/>
+      <c r="AT81" s="254">
         <v>45204</v>
       </c>
-      <c r="AU81" s="233"/>
-      <c r="AV81" s="233"/>
-      <c r="AW81" s="234"/>
+      <c r="AU81" s="255"/>
+      <c r="AV81" s="255"/>
+      <c r="AW81" s="256"/>
     </row>
     <row r="82" spans="1:50" s="19" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A82" s="223"/>
-      <c r="B82" s="224"/>
-      <c r="C82" s="224"/>
-      <c r="D82" s="224"/>
-      <c r="E82" s="224"/>
-      <c r="F82" s="224"/>
-      <c r="G82" s="224"/>
-      <c r="H82" s="224"/>
-      <c r="I82" s="225"/>
-      <c r="J82" s="223"/>
-      <c r="K82" s="224"/>
-      <c r="L82" s="224"/>
-      <c r="M82" s="224"/>
-      <c r="N82" s="224"/>
-      <c r="O82" s="225"/>
-      <c r="P82" s="223"/>
-      <c r="Q82" s="224"/>
-      <c r="R82" s="224"/>
-      <c r="S82" s="224"/>
-      <c r="T82" s="224"/>
-      <c r="U82" s="225"/>
-      <c r="V82" s="238"/>
-      <c r="W82" s="239"/>
-      <c r="X82" s="239"/>
-      <c r="Y82" s="239"/>
-      <c r="Z82" s="240"/>
-      <c r="AA82" s="242"/>
-      <c r="AB82" s="224"/>
-      <c r="AC82" s="224"/>
-      <c r="AD82" s="224"/>
-      <c r="AE82" s="224"/>
-      <c r="AF82" s="224"/>
-      <c r="AG82" s="224"/>
-      <c r="AH82" s="224"/>
-      <c r="AI82" s="224"/>
-      <c r="AJ82" s="224"/>
-      <c r="AK82" s="224"/>
-      <c r="AL82" s="225"/>
-      <c r="AM82" s="256" t="s">
+      <c r="A82" s="204"/>
+      <c r="B82" s="205"/>
+      <c r="C82" s="205"/>
+      <c r="D82" s="205"/>
+      <c r="E82" s="205"/>
+      <c r="F82" s="205"/>
+      <c r="G82" s="205"/>
+      <c r="H82" s="205"/>
+      <c r="I82" s="206"/>
+      <c r="J82" s="204"/>
+      <c r="K82" s="205"/>
+      <c r="L82" s="205"/>
+      <c r="M82" s="205"/>
+      <c r="N82" s="205"/>
+      <c r="O82" s="206"/>
+      <c r="P82" s="204"/>
+      <c r="Q82" s="205"/>
+      <c r="R82" s="205"/>
+      <c r="S82" s="205"/>
+      <c r="T82" s="205"/>
+      <c r="U82" s="206"/>
+      <c r="V82" s="220"/>
+      <c r="W82" s="221"/>
+      <c r="X82" s="221"/>
+      <c r="Y82" s="221"/>
+      <c r="Z82" s="222"/>
+      <c r="AA82" s="224"/>
+      <c r="AB82" s="205"/>
+      <c r="AC82" s="205"/>
+      <c r="AD82" s="205"/>
+      <c r="AE82" s="205"/>
+      <c r="AF82" s="205"/>
+      <c r="AG82" s="205"/>
+      <c r="AH82" s="205"/>
+      <c r="AI82" s="205"/>
+      <c r="AJ82" s="205"/>
+      <c r="AK82" s="205"/>
+      <c r="AL82" s="206"/>
+      <c r="AM82" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AN82" s="257"/>
-      <c r="AO82" s="258"/>
-      <c r="AP82" s="259"/>
-      <c r="AQ82" s="260"/>
-      <c r="AR82" s="256" t="s">
+      <c r="AN82" s="247"/>
+      <c r="AO82" s="248"/>
+      <c r="AP82" s="249"/>
+      <c r="AQ82" s="250"/>
+      <c r="AR82" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="AS82" s="257"/>
-      <c r="AT82" s="261"/>
-      <c r="AU82" s="262"/>
-      <c r="AV82" s="262"/>
-      <c r="AW82" s="263"/>
+      <c r="AS82" s="247"/>
+      <c r="AT82" s="251"/>
+      <c r="AU82" s="252"/>
+      <c r="AV82" s="252"/>
+      <c r="AW82" s="253"/>
     </row>
     <row r="83" spans="1:50" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A83" s="226"/>
-      <c r="B83" s="227"/>
-      <c r="C83" s="227"/>
-      <c r="D83" s="227"/>
-      <c r="E83" s="227"/>
-      <c r="F83" s="227"/>
-      <c r="G83" s="227"/>
-      <c r="H83" s="227"/>
-      <c r="I83" s="228"/>
-      <c r="J83" s="226"/>
-      <c r="K83" s="227"/>
-      <c r="L83" s="227"/>
-      <c r="M83" s="227"/>
-      <c r="N83" s="227"/>
-      <c r="O83" s="228"/>
-      <c r="P83" s="226"/>
-      <c r="Q83" s="227"/>
-      <c r="R83" s="227"/>
-      <c r="S83" s="227"/>
-      <c r="T83" s="227"/>
-      <c r="U83" s="228"/>
-      <c r="V83" s="246" t="s">
+      <c r="A83" s="207"/>
+      <c r="B83" s="208"/>
+      <c r="C83" s="208"/>
+      <c r="D83" s="208"/>
+      <c r="E83" s="208"/>
+      <c r="F83" s="208"/>
+      <c r="G83" s="208"/>
+      <c r="H83" s="208"/>
+      <c r="I83" s="209"/>
+      <c r="J83" s="207"/>
+      <c r="K83" s="208"/>
+      <c r="L83" s="208"/>
+      <c r="M83" s="208"/>
+      <c r="N83" s="208"/>
+      <c r="O83" s="209"/>
+      <c r="P83" s="207"/>
+      <c r="Q83" s="208"/>
+      <c r="R83" s="208"/>
+      <c r="S83" s="208"/>
+      <c r="T83" s="208"/>
+      <c r="U83" s="209"/>
+      <c r="V83" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="W83" s="247"/>
-      <c r="X83" s="247"/>
-      <c r="Y83" s="247"/>
-      <c r="Z83" s="248"/>
-      <c r="AA83" s="249" t="s">
+      <c r="W83" s="215"/>
+      <c r="X83" s="215"/>
+      <c r="Y83" s="215"/>
+      <c r="Z83" s="216"/>
+      <c r="AA83" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="AB83" s="250"/>
-      <c r="AC83" s="250"/>
-      <c r="AD83" s="250"/>
-      <c r="AE83" s="250"/>
-      <c r="AF83" s="250"/>
-      <c r="AG83" s="251"/>
-      <c r="AH83" s="252" t="s">
+      <c r="AB83" s="212"/>
+      <c r="AC83" s="212"/>
+      <c r="AD83" s="212"/>
+      <c r="AE83" s="212"/>
+      <c r="AF83" s="212"/>
+      <c r="AG83" s="213"/>
+      <c r="AH83" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="AI83" s="253"/>
-      <c r="AJ83" s="253"/>
-      <c r="AK83" s="253"/>
-      <c r="AL83" s="254"/>
-      <c r="AM83" s="249" t="s">
+      <c r="AI83" s="240"/>
+      <c r="AJ83" s="240"/>
+      <c r="AK83" s="240"/>
+      <c r="AL83" s="241"/>
+      <c r="AM83" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="AN83" s="250"/>
-      <c r="AO83" s="250"/>
-      <c r="AP83" s="250"/>
-      <c r="AQ83" s="250"/>
-      <c r="AR83" s="250"/>
-      <c r="AS83" s="250"/>
-      <c r="AT83" s="250"/>
-      <c r="AU83" s="250"/>
-      <c r="AV83" s="250"/>
-      <c r="AW83" s="255"/>
+      <c r="AN83" s="212"/>
+      <c r="AO83" s="212"/>
+      <c r="AP83" s="212"/>
+      <c r="AQ83" s="212"/>
+      <c r="AR83" s="212"/>
+      <c r="AS83" s="212"/>
+      <c r="AT83" s="212"/>
+      <c r="AU83" s="212"/>
+      <c r="AV83" s="212"/>
+      <c r="AW83" s="242"/>
     </row>
     <row r="84" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A84" s="21"/>
@@ -24959,187 +24965,187 @@
       <c r="AW120" s="166"/>
     </row>
     <row r="121" spans="1:50" s="19" customFormat="1" ht="21" customHeight="1" thickTop="1">
-      <c r="A121" s="220" t="s">
+      <c r="A121" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="B121" s="221"/>
-      <c r="C121" s="221"/>
-      <c r="D121" s="221"/>
-      <c r="E121" s="221"/>
-      <c r="F121" s="221"/>
-      <c r="G121" s="221"/>
-      <c r="H121" s="221"/>
-      <c r="I121" s="222"/>
-      <c r="J121" s="229" t="s">
+      <c r="B121" s="202"/>
+      <c r="C121" s="202"/>
+      <c r="D121" s="202"/>
+      <c r="E121" s="202"/>
+      <c r="F121" s="202"/>
+      <c r="G121" s="202"/>
+      <c r="H121" s="202"/>
+      <c r="I121" s="203"/>
+      <c r="J121" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="K121" s="221"/>
-      <c r="L121" s="221"/>
-      <c r="M121" s="221"/>
-      <c r="N121" s="221"/>
-      <c r="O121" s="222"/>
-      <c r="P121" s="229" t="s">
+      <c r="K121" s="202"/>
+      <c r="L121" s="202"/>
+      <c r="M121" s="202"/>
+      <c r="N121" s="202"/>
+      <c r="O121" s="203"/>
+      <c r="P121" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="Q121" s="221"/>
-      <c r="R121" s="221"/>
-      <c r="S121" s="221"/>
-      <c r="T121" s="221"/>
-      <c r="U121" s="222"/>
-      <c r="V121" s="235" t="s">
+      <c r="Q121" s="202"/>
+      <c r="R121" s="202"/>
+      <c r="S121" s="202"/>
+      <c r="T121" s="202"/>
+      <c r="U121" s="203"/>
+      <c r="V121" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="W121" s="236"/>
-      <c r="X121" s="236"/>
-      <c r="Y121" s="236"/>
-      <c r="Z121" s="237"/>
-      <c r="AA121" s="241" t="s">
+      <c r="W121" s="218"/>
+      <c r="X121" s="218"/>
+      <c r="Y121" s="218"/>
+      <c r="Z121" s="219"/>
+      <c r="AA121" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="AB121" s="221"/>
-      <c r="AC121" s="221"/>
-      <c r="AD121" s="221"/>
-      <c r="AE121" s="221"/>
-      <c r="AF121" s="221"/>
-      <c r="AG121" s="221"/>
-      <c r="AH121" s="221"/>
-      <c r="AI121" s="221"/>
-      <c r="AJ121" s="221"/>
-      <c r="AK121" s="221"/>
-      <c r="AL121" s="222"/>
-      <c r="AM121" s="230" t="s">
+      <c r="AB121" s="202"/>
+      <c r="AC121" s="202"/>
+      <c r="AD121" s="202"/>
+      <c r="AE121" s="202"/>
+      <c r="AF121" s="202"/>
+      <c r="AG121" s="202"/>
+      <c r="AH121" s="202"/>
+      <c r="AI121" s="202"/>
+      <c r="AJ121" s="202"/>
+      <c r="AK121" s="202"/>
+      <c r="AL121" s="203"/>
+      <c r="AM121" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="AN121" s="231"/>
+      <c r="AN121" s="238"/>
       <c r="AO121" s="243" t="s">
         <v>124</v>
       </c>
       <c r="AP121" s="244"/>
       <c r="AQ121" s="245"/>
-      <c r="AR121" s="230" t="s">
+      <c r="AR121" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="AS121" s="231"/>
-      <c r="AT121" s="232">
+      <c r="AS121" s="238"/>
+      <c r="AT121" s="254">
         <v>45204</v>
       </c>
-      <c r="AU121" s="233"/>
-      <c r="AV121" s="233"/>
-      <c r="AW121" s="234"/>
+      <c r="AU121" s="255"/>
+      <c r="AV121" s="255"/>
+      <c r="AW121" s="256"/>
     </row>
     <row r="122" spans="1:50" s="19" customFormat="1" ht="21" customHeight="1">
-      <c r="A122" s="223"/>
-      <c r="B122" s="224"/>
-      <c r="C122" s="224"/>
-      <c r="D122" s="224"/>
-      <c r="E122" s="224"/>
-      <c r="F122" s="224"/>
-      <c r="G122" s="224"/>
-      <c r="H122" s="224"/>
-      <c r="I122" s="225"/>
-      <c r="J122" s="223"/>
-      <c r="K122" s="224"/>
-      <c r="L122" s="224"/>
-      <c r="M122" s="224"/>
-      <c r="N122" s="224"/>
-      <c r="O122" s="225"/>
-      <c r="P122" s="223"/>
-      <c r="Q122" s="224"/>
-      <c r="R122" s="224"/>
-      <c r="S122" s="224"/>
-      <c r="T122" s="224"/>
-      <c r="U122" s="225"/>
-      <c r="V122" s="238"/>
-      <c r="W122" s="239"/>
-      <c r="X122" s="239"/>
-      <c r="Y122" s="239"/>
-      <c r="Z122" s="240"/>
-      <c r="AA122" s="242"/>
-      <c r="AB122" s="224"/>
-      <c r="AC122" s="224"/>
-      <c r="AD122" s="224"/>
-      <c r="AE122" s="224"/>
-      <c r="AF122" s="224"/>
-      <c r="AG122" s="224"/>
-      <c r="AH122" s="224"/>
-      <c r="AI122" s="224"/>
-      <c r="AJ122" s="224"/>
-      <c r="AK122" s="224"/>
-      <c r="AL122" s="225"/>
-      <c r="AM122" s="256" t="s">
+      <c r="A122" s="204"/>
+      <c r="B122" s="205"/>
+      <c r="C122" s="205"/>
+      <c r="D122" s="205"/>
+      <c r="E122" s="205"/>
+      <c r="F122" s="205"/>
+      <c r="G122" s="205"/>
+      <c r="H122" s="205"/>
+      <c r="I122" s="206"/>
+      <c r="J122" s="204"/>
+      <c r="K122" s="205"/>
+      <c r="L122" s="205"/>
+      <c r="M122" s="205"/>
+      <c r="N122" s="205"/>
+      <c r="O122" s="206"/>
+      <c r="P122" s="204"/>
+      <c r="Q122" s="205"/>
+      <c r="R122" s="205"/>
+      <c r="S122" s="205"/>
+      <c r="T122" s="205"/>
+      <c r="U122" s="206"/>
+      <c r="V122" s="220"/>
+      <c r="W122" s="221"/>
+      <c r="X122" s="221"/>
+      <c r="Y122" s="221"/>
+      <c r="Z122" s="222"/>
+      <c r="AA122" s="224"/>
+      <c r="AB122" s="205"/>
+      <c r="AC122" s="205"/>
+      <c r="AD122" s="205"/>
+      <c r="AE122" s="205"/>
+      <c r="AF122" s="205"/>
+      <c r="AG122" s="205"/>
+      <c r="AH122" s="205"/>
+      <c r="AI122" s="205"/>
+      <c r="AJ122" s="205"/>
+      <c r="AK122" s="205"/>
+      <c r="AL122" s="206"/>
+      <c r="AM122" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AN122" s="257"/>
-      <c r="AO122" s="258"/>
-      <c r="AP122" s="259"/>
-      <c r="AQ122" s="260"/>
-      <c r="AR122" s="256" t="s">
+      <c r="AN122" s="247"/>
+      <c r="AO122" s="248"/>
+      <c r="AP122" s="249"/>
+      <c r="AQ122" s="250"/>
+      <c r="AR122" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="AS122" s="257"/>
-      <c r="AT122" s="261"/>
-      <c r="AU122" s="262"/>
-      <c r="AV122" s="262"/>
-      <c r="AW122" s="263"/>
+      <c r="AS122" s="247"/>
+      <c r="AT122" s="251"/>
+      <c r="AU122" s="252"/>
+      <c r="AV122" s="252"/>
+      <c r="AW122" s="253"/>
     </row>
     <row r="123" spans="1:50" ht="21" customHeight="1" thickBot="1">
-      <c r="A123" s="226"/>
-      <c r="B123" s="227"/>
-      <c r="C123" s="227"/>
-      <c r="D123" s="227"/>
-      <c r="E123" s="227"/>
-      <c r="F123" s="227"/>
-      <c r="G123" s="227"/>
-      <c r="H123" s="227"/>
-      <c r="I123" s="228"/>
-      <c r="J123" s="226"/>
-      <c r="K123" s="227"/>
-      <c r="L123" s="227"/>
-      <c r="M123" s="227"/>
-      <c r="N123" s="227"/>
-      <c r="O123" s="228"/>
-      <c r="P123" s="226"/>
-      <c r="Q123" s="227"/>
-      <c r="R123" s="227"/>
-      <c r="S123" s="227"/>
-      <c r="T123" s="227"/>
-      <c r="U123" s="228"/>
-      <c r="V123" s="246" t="s">
+      <c r="A123" s="207"/>
+      <c r="B123" s="208"/>
+      <c r="C123" s="208"/>
+      <c r="D123" s="208"/>
+      <c r="E123" s="208"/>
+      <c r="F123" s="208"/>
+      <c r="G123" s="208"/>
+      <c r="H123" s="208"/>
+      <c r="I123" s="209"/>
+      <c r="J123" s="207"/>
+      <c r="K123" s="208"/>
+      <c r="L123" s="208"/>
+      <c r="M123" s="208"/>
+      <c r="N123" s="208"/>
+      <c r="O123" s="209"/>
+      <c r="P123" s="207"/>
+      <c r="Q123" s="208"/>
+      <c r="R123" s="208"/>
+      <c r="S123" s="208"/>
+      <c r="T123" s="208"/>
+      <c r="U123" s="209"/>
+      <c r="V123" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="W123" s="247"/>
-      <c r="X123" s="247"/>
-      <c r="Y123" s="247"/>
-      <c r="Z123" s="248"/>
-      <c r="AA123" s="249" t="s">
+      <c r="W123" s="215"/>
+      <c r="X123" s="215"/>
+      <c r="Y123" s="215"/>
+      <c r="Z123" s="216"/>
+      <c r="AA123" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="AB123" s="250"/>
-      <c r="AC123" s="250"/>
-      <c r="AD123" s="250"/>
-      <c r="AE123" s="250"/>
-      <c r="AF123" s="250"/>
-      <c r="AG123" s="251"/>
-      <c r="AH123" s="252" t="s">
+      <c r="AB123" s="212"/>
+      <c r="AC123" s="212"/>
+      <c r="AD123" s="212"/>
+      <c r="AE123" s="212"/>
+      <c r="AF123" s="212"/>
+      <c r="AG123" s="213"/>
+      <c r="AH123" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="AI123" s="253"/>
-      <c r="AJ123" s="253"/>
-      <c r="AK123" s="253"/>
-      <c r="AL123" s="254"/>
-      <c r="AM123" s="249" t="s">
+      <c r="AI123" s="240"/>
+      <c r="AJ123" s="240"/>
+      <c r="AK123" s="240"/>
+      <c r="AL123" s="241"/>
+      <c r="AM123" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="AN123" s="250"/>
-      <c r="AO123" s="250"/>
-      <c r="AP123" s="250"/>
-      <c r="AQ123" s="250"/>
-      <c r="AR123" s="250"/>
-      <c r="AS123" s="250"/>
-      <c r="AT123" s="250"/>
-      <c r="AU123" s="250"/>
-      <c r="AV123" s="250"/>
-      <c r="AW123" s="255"/>
+      <c r="AN123" s="212"/>
+      <c r="AO123" s="212"/>
+      <c r="AP123" s="212"/>
+      <c r="AQ123" s="212"/>
+      <c r="AR123" s="212"/>
+      <c r="AS123" s="212"/>
+      <c r="AT123" s="212"/>
+      <c r="AU123" s="212"/>
+      <c r="AV123" s="212"/>
+      <c r="AW123" s="242"/>
     </row>
     <row r="124" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A124" s="21"/>
@@ -26393,10 +26399,10 @@
       <c r="D148" s="55">
         <v>2</v>
       </c>
-      <c r="E148" s="381" t="s">
+      <c r="E148" s="199" t="s">
         <v>146</v>
       </c>
-      <c r="F148" s="382"/>
+      <c r="F148" s="200"/>
       <c r="G148" s="58" t="s">
         <v>148</v>
       </c>
@@ -26416,10 +26422,10 @@
       <c r="S148" s="59"/>
       <c r="T148" s="59"/>
       <c r="U148" s="62"/>
-      <c r="V148" s="381" t="s">
+      <c r="V148" s="199" t="s">
         <v>150</v>
       </c>
-      <c r="W148" s="382"/>
+      <c r="W148" s="200"/>
       <c r="X148" s="58"/>
       <c r="Y148" s="59"/>
       <c r="Z148" s="59"/>
@@ -27078,48 +27084,136 @@
     <row r="161" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="V148:W148"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="AJ49:AM50"/>
-    <mergeCell ref="AN49:AR50"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AW3"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="B13:AV17"/>
-    <mergeCell ref="B23:AV26"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="D47:H48"/>
-    <mergeCell ref="I47:Z48"/>
-    <mergeCell ref="AA49:AD50"/>
-    <mergeCell ref="AE49:AI50"/>
-    <mergeCell ref="AE65:AI66"/>
-    <mergeCell ref="AE53:AI54"/>
-    <mergeCell ref="AE55:AI56"/>
-    <mergeCell ref="AE57:AI58"/>
-    <mergeCell ref="AA55:AD56"/>
-    <mergeCell ref="I55:Z56"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="B57:C58"/>
-    <mergeCell ref="D57:H58"/>
-    <mergeCell ref="I57:Z58"/>
-    <mergeCell ref="AA57:AD58"/>
-    <mergeCell ref="AA63:AD64"/>
-    <mergeCell ref="AE63:AI64"/>
-    <mergeCell ref="AE51:AI52"/>
+    <mergeCell ref="AN71:AR72"/>
+    <mergeCell ref="AS71:AV72"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="D63:H64"/>
+    <mergeCell ref="I63:Z64"/>
+    <mergeCell ref="B77:C78"/>
+    <mergeCell ref="D77:H78"/>
+    <mergeCell ref="I77:Z78"/>
+    <mergeCell ref="AA77:AD78"/>
+    <mergeCell ref="AE75:AI76"/>
+    <mergeCell ref="AJ75:AM76"/>
+    <mergeCell ref="AN75:AR76"/>
+    <mergeCell ref="AS75:AV76"/>
+    <mergeCell ref="B75:C76"/>
+    <mergeCell ref="D75:H76"/>
+    <mergeCell ref="I75:Z76"/>
+    <mergeCell ref="AA75:AD76"/>
+    <mergeCell ref="AJ63:AM64"/>
+    <mergeCell ref="AN63:AR64"/>
+    <mergeCell ref="A121:I123"/>
+    <mergeCell ref="J121:O123"/>
+    <mergeCell ref="P121:U123"/>
+    <mergeCell ref="AR121:AS121"/>
+    <mergeCell ref="AT121:AW121"/>
+    <mergeCell ref="V121:Z122"/>
+    <mergeCell ref="AA121:AL122"/>
+    <mergeCell ref="AM121:AN121"/>
+    <mergeCell ref="AO121:AQ121"/>
+    <mergeCell ref="V123:Z123"/>
+    <mergeCell ref="AA123:AG123"/>
+    <mergeCell ref="AH123:AL123"/>
+    <mergeCell ref="AM123:AW123"/>
+    <mergeCell ref="AM122:AN122"/>
+    <mergeCell ref="AO122:AQ122"/>
+    <mergeCell ref="AR122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AA41:AL42"/>
+    <mergeCell ref="AA43:AG43"/>
+    <mergeCell ref="AH43:AL43"/>
+    <mergeCell ref="AM43:AW43"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AA83:AG83"/>
+    <mergeCell ref="AH83:AL83"/>
+    <mergeCell ref="AM83:AW83"/>
+    <mergeCell ref="AA81:AL82"/>
+    <mergeCell ref="AM81:AN81"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="AM82:AN82"/>
+    <mergeCell ref="AO82:AQ82"/>
+    <mergeCell ref="AR82:AS82"/>
+    <mergeCell ref="AT82:AW82"/>
+    <mergeCell ref="AO81:AQ81"/>
+    <mergeCell ref="AR81:AS81"/>
+    <mergeCell ref="AE77:AI78"/>
+    <mergeCell ref="AJ77:AM78"/>
+    <mergeCell ref="AN77:AR78"/>
+    <mergeCell ref="AS77:AV78"/>
+    <mergeCell ref="AJ71:AM72"/>
+    <mergeCell ref="A81:I83"/>
+    <mergeCell ref="J81:O83"/>
+    <mergeCell ref="A41:I43"/>
+    <mergeCell ref="J41:O43"/>
+    <mergeCell ref="P41:U43"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="V43:Z43"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:H52"/>
+    <mergeCell ref="I51:Z52"/>
+    <mergeCell ref="P81:U83"/>
+    <mergeCell ref="V81:Z82"/>
+    <mergeCell ref="V83:Z83"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="D67:H68"/>
+    <mergeCell ref="I67:Z68"/>
+    <mergeCell ref="AJ51:AM52"/>
+    <mergeCell ref="AN51:AR52"/>
+    <mergeCell ref="AE73:AI74"/>
+    <mergeCell ref="AJ73:AM74"/>
+    <mergeCell ref="AN73:AR74"/>
+    <mergeCell ref="AS73:AV74"/>
+    <mergeCell ref="B73:C74"/>
+    <mergeCell ref="D73:H74"/>
+    <mergeCell ref="I73:Z74"/>
+    <mergeCell ref="AA73:AD74"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="D69:H70"/>
+    <mergeCell ref="I69:Z70"/>
+    <mergeCell ref="AA69:AD70"/>
+    <mergeCell ref="AE69:AI70"/>
+    <mergeCell ref="AJ69:AM70"/>
+    <mergeCell ref="AN69:AR70"/>
+    <mergeCell ref="AS69:AV70"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="D71:H72"/>
+    <mergeCell ref="I71:Z72"/>
+    <mergeCell ref="AA71:AD72"/>
+    <mergeCell ref="AE71:AI72"/>
+    <mergeCell ref="AS63:AV64"/>
+    <mergeCell ref="AA67:AD68"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="D65:H66"/>
+    <mergeCell ref="I65:Z66"/>
+    <mergeCell ref="AA65:AD66"/>
+    <mergeCell ref="AJ67:AM68"/>
+    <mergeCell ref="AN67:AR68"/>
+    <mergeCell ref="AS67:AV68"/>
+    <mergeCell ref="AJ65:AM66"/>
+    <mergeCell ref="AN65:AR66"/>
+    <mergeCell ref="AS65:AV66"/>
+    <mergeCell ref="AE67:AI68"/>
+    <mergeCell ref="AJ57:AM58"/>
+    <mergeCell ref="AN57:AR58"/>
+    <mergeCell ref="AS57:AV58"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="D61:H62"/>
+    <mergeCell ref="I61:Z62"/>
+    <mergeCell ref="AA61:AD62"/>
+    <mergeCell ref="AE61:AI62"/>
+    <mergeCell ref="AJ61:AM62"/>
+    <mergeCell ref="AN61:AR62"/>
+    <mergeCell ref="AS61:AV62"/>
+    <mergeCell ref="D59:H60"/>
+    <mergeCell ref="I59:Z60"/>
+    <mergeCell ref="AA59:AD60"/>
+    <mergeCell ref="AE59:AI60"/>
+    <mergeCell ref="AJ59:AM60"/>
+    <mergeCell ref="AN59:AR60"/>
+    <mergeCell ref="AS59:AV60"/>
     <mergeCell ref="AA51:AD52"/>
     <mergeCell ref="AA47:AD48"/>
     <mergeCell ref="AE47:AM47"/>
@@ -27144,142 +27238,54 @@
     <mergeCell ref="D55:H56"/>
     <mergeCell ref="B49:C50"/>
     <mergeCell ref="D49:H50"/>
+    <mergeCell ref="AN49:AR50"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AW3"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="B13:AV17"/>
+    <mergeCell ref="B23:AV26"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="D47:H48"/>
+    <mergeCell ref="I47:Z48"/>
+    <mergeCell ref="AA49:AD50"/>
+    <mergeCell ref="AE49:AI50"/>
     <mergeCell ref="I49:Z50"/>
-    <mergeCell ref="AJ57:AM58"/>
-    <mergeCell ref="AN57:AR58"/>
-    <mergeCell ref="AS57:AV58"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="D61:H62"/>
-    <mergeCell ref="I61:Z62"/>
-    <mergeCell ref="AA61:AD62"/>
-    <mergeCell ref="AE61:AI62"/>
-    <mergeCell ref="AJ61:AM62"/>
-    <mergeCell ref="AN61:AR62"/>
-    <mergeCell ref="AS61:AV62"/>
-    <mergeCell ref="D59:H60"/>
-    <mergeCell ref="I59:Z60"/>
-    <mergeCell ref="AA59:AD60"/>
-    <mergeCell ref="AE59:AI60"/>
-    <mergeCell ref="AJ59:AM60"/>
-    <mergeCell ref="AN59:AR60"/>
-    <mergeCell ref="AS59:AV60"/>
-    <mergeCell ref="AA67:AD68"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="D65:H66"/>
-    <mergeCell ref="I65:Z66"/>
-    <mergeCell ref="AA65:AD66"/>
-    <mergeCell ref="AJ67:AM68"/>
-    <mergeCell ref="AN67:AR68"/>
-    <mergeCell ref="AS67:AV68"/>
-    <mergeCell ref="AJ65:AM66"/>
-    <mergeCell ref="AN65:AR66"/>
-    <mergeCell ref="AS65:AV66"/>
-    <mergeCell ref="AE67:AI68"/>
-    <mergeCell ref="AJ51:AM52"/>
-    <mergeCell ref="AN51:AR52"/>
-    <mergeCell ref="AE73:AI74"/>
-    <mergeCell ref="AJ73:AM74"/>
-    <mergeCell ref="AN73:AR74"/>
-    <mergeCell ref="AS73:AV74"/>
-    <mergeCell ref="B73:C74"/>
-    <mergeCell ref="D73:H74"/>
-    <mergeCell ref="I73:Z74"/>
-    <mergeCell ref="AA73:AD74"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="D69:H70"/>
-    <mergeCell ref="I69:Z70"/>
-    <mergeCell ref="AA69:AD70"/>
-    <mergeCell ref="AE69:AI70"/>
-    <mergeCell ref="AJ69:AM70"/>
-    <mergeCell ref="AN69:AR70"/>
-    <mergeCell ref="AS69:AV70"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="D71:H72"/>
-    <mergeCell ref="I71:Z72"/>
-    <mergeCell ref="AA71:AD72"/>
-    <mergeCell ref="AE71:AI72"/>
-    <mergeCell ref="AS63:AV64"/>
-    <mergeCell ref="A81:I83"/>
-    <mergeCell ref="J81:O83"/>
-    <mergeCell ref="A41:I43"/>
-    <mergeCell ref="J41:O43"/>
-    <mergeCell ref="P41:U43"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="V43:Z43"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:H52"/>
-    <mergeCell ref="I51:Z52"/>
-    <mergeCell ref="P81:U83"/>
-    <mergeCell ref="V81:Z82"/>
-    <mergeCell ref="V83:Z83"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="D67:H68"/>
-    <mergeCell ref="I67:Z68"/>
     <mergeCell ref="AT41:AW41"/>
     <mergeCell ref="AM42:AN42"/>
     <mergeCell ref="AO42:AQ42"/>
     <mergeCell ref="AR42:AS42"/>
     <mergeCell ref="AT42:AW42"/>
-    <mergeCell ref="AA41:AL42"/>
-    <mergeCell ref="AA43:AG43"/>
-    <mergeCell ref="AH43:AL43"/>
-    <mergeCell ref="AM43:AW43"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AA83:AG83"/>
-    <mergeCell ref="AH83:AL83"/>
-    <mergeCell ref="AM83:AW83"/>
-    <mergeCell ref="AA81:AL82"/>
-    <mergeCell ref="AM81:AN81"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="AM82:AN82"/>
-    <mergeCell ref="AO82:AQ82"/>
-    <mergeCell ref="AR82:AS82"/>
-    <mergeCell ref="AT82:AW82"/>
-    <mergeCell ref="AO81:AQ81"/>
-    <mergeCell ref="AR81:AS81"/>
-    <mergeCell ref="A121:I123"/>
-    <mergeCell ref="J121:O123"/>
-    <mergeCell ref="P121:U123"/>
-    <mergeCell ref="AR121:AS121"/>
-    <mergeCell ref="AT121:AW121"/>
-    <mergeCell ref="V121:Z122"/>
-    <mergeCell ref="AA121:AL122"/>
-    <mergeCell ref="AM121:AN121"/>
-    <mergeCell ref="AO121:AQ121"/>
-    <mergeCell ref="V123:Z123"/>
-    <mergeCell ref="AA123:AG123"/>
-    <mergeCell ref="AH123:AL123"/>
-    <mergeCell ref="AM123:AW123"/>
-    <mergeCell ref="AM122:AN122"/>
-    <mergeCell ref="AO122:AQ122"/>
-    <mergeCell ref="AR122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AE77:AI78"/>
-    <mergeCell ref="AJ77:AM78"/>
-    <mergeCell ref="AN77:AR78"/>
-    <mergeCell ref="AS77:AV78"/>
-    <mergeCell ref="AJ71:AM72"/>
-    <mergeCell ref="AN71:AR72"/>
-    <mergeCell ref="AS71:AV72"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="D63:H64"/>
-    <mergeCell ref="I63:Z64"/>
-    <mergeCell ref="B77:C78"/>
-    <mergeCell ref="D77:H78"/>
-    <mergeCell ref="I77:Z78"/>
-    <mergeCell ref="AA77:AD78"/>
-    <mergeCell ref="AE75:AI76"/>
-    <mergeCell ref="AJ75:AM76"/>
-    <mergeCell ref="AN75:AR76"/>
-    <mergeCell ref="AS75:AV76"/>
-    <mergeCell ref="B75:C76"/>
-    <mergeCell ref="D75:H76"/>
-    <mergeCell ref="I75:Z76"/>
-    <mergeCell ref="AA75:AD76"/>
-    <mergeCell ref="AJ63:AM64"/>
-    <mergeCell ref="AN63:AR64"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="V148:W148"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="AJ49:AM50"/>
+    <mergeCell ref="AE65:AI66"/>
+    <mergeCell ref="AE53:AI54"/>
+    <mergeCell ref="AE55:AI56"/>
+    <mergeCell ref="AE57:AI58"/>
+    <mergeCell ref="AA55:AD56"/>
+    <mergeCell ref="I55:Z56"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="D57:H58"/>
+    <mergeCell ref="I57:Z58"/>
+    <mergeCell ref="AA57:AD58"/>
+    <mergeCell ref="AA63:AD64"/>
+    <mergeCell ref="AE63:AI64"/>
+    <mergeCell ref="AE51:AI52"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -27299,8 +27305,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:BJ163"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A123" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148:AU148"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A141" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AN140" sqref="AN140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -27313,187 +27319,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="229" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="222"/>
-      <c r="P1" s="229" t="s">
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="221"/>
-      <c r="S1" s="221"/>
-      <c r="T1" s="221"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="235" t="s">
+      <c r="Q1" s="202"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="236"/>
-      <c r="X1" s="236"/>
-      <c r="Y1" s="236"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="241" t="s">
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="221"/>
-      <c r="AC1" s="221"/>
-      <c r="AD1" s="221"/>
-      <c r="AE1" s="221"/>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="221"/>
-      <c r="AH1" s="221"/>
-      <c r="AI1" s="221"/>
-      <c r="AJ1" s="221"/>
-      <c r="AK1" s="221"/>
-      <c r="AL1" s="222"/>
-      <c r="AM1" s="230" t="s">
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="202"/>
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="202"/>
+      <c r="AG1" s="202"/>
+      <c r="AH1" s="202"/>
+      <c r="AI1" s="202"/>
+      <c r="AJ1" s="202"/>
+      <c r="AK1" s="202"/>
+      <c r="AL1" s="203"/>
+      <c r="AM1" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="AN1" s="231"/>
+      <c r="AN1" s="238"/>
       <c r="AO1" s="243" t="s">
         <v>130</v>
       </c>
       <c r="AP1" s="244"/>
       <c r="AQ1" s="245"/>
-      <c r="AR1" s="230" t="s">
+      <c r="AR1" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="AS1" s="231"/>
-      <c r="AT1" s="232">
+      <c r="AS1" s="238"/>
+      <c r="AT1" s="254">
         <v>45204</v>
       </c>
-      <c r="AU1" s="233"/>
-      <c r="AV1" s="233"/>
-      <c r="AW1" s="234"/>
+      <c r="AU1" s="255"/>
+      <c r="AV1" s="255"/>
+      <c r="AW1" s="256"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="223"/>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="225"/>
-      <c r="P2" s="223"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="239"/>
-      <c r="X2" s="239"/>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="240"/>
-      <c r="AA2" s="242"/>
-      <c r="AB2" s="224"/>
-      <c r="AC2" s="224"/>
-      <c r="AD2" s="224"/>
-      <c r="AE2" s="224"/>
-      <c r="AF2" s="224"/>
-      <c r="AG2" s="224"/>
-      <c r="AH2" s="224"/>
-      <c r="AI2" s="224"/>
-      <c r="AJ2" s="224"/>
-      <c r="AK2" s="224"/>
-      <c r="AL2" s="225"/>
-      <c r="AM2" s="256" t="s">
+      <c r="A2" s="204"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="224"/>
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="205"/>
+      <c r="AG2" s="205"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="205"/>
+      <c r="AJ2" s="205"/>
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AN2" s="257"/>
-      <c r="AO2" s="258"/>
-      <c r="AP2" s="259"/>
-      <c r="AQ2" s="260"/>
-      <c r="AR2" s="256" t="s">
+      <c r="AN2" s="247"/>
+      <c r="AO2" s="248"/>
+      <c r="AP2" s="249"/>
+      <c r="AQ2" s="250"/>
+      <c r="AR2" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="257"/>
-      <c r="AT2" s="261"/>
-      <c r="AU2" s="262"/>
-      <c r="AV2" s="262"/>
-      <c r="AW2" s="263"/>
+      <c r="AS2" s="247"/>
+      <c r="AT2" s="251"/>
+      <c r="AU2" s="252"/>
+      <c r="AV2" s="252"/>
+      <c r="AW2" s="253"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="226"/>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="228"/>
-      <c r="P3" s="226"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="227"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="227"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="246" t="s">
+      <c r="A3" s="207"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="249" t="s">
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="250"/>
-      <c r="AC3" s="250"/>
-      <c r="AD3" s="250"/>
-      <c r="AE3" s="250"/>
-      <c r="AF3" s="250"/>
-      <c r="AG3" s="251"/>
-      <c r="AH3" s="252" t="s">
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="212"/>
+      <c r="AD3" s="212"/>
+      <c r="AE3" s="212"/>
+      <c r="AF3" s="212"/>
+      <c r="AG3" s="213"/>
+      <c r="AH3" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="AI3" s="253"/>
-      <c r="AJ3" s="253"/>
-      <c r="AK3" s="253"/>
-      <c r="AL3" s="254"/>
-      <c r="AM3" s="249" t="s">
+      <c r="AI3" s="240"/>
+      <c r="AJ3" s="240"/>
+      <c r="AK3" s="240"/>
+      <c r="AL3" s="241"/>
+      <c r="AM3" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="AN3" s="250"/>
-      <c r="AO3" s="250"/>
-      <c r="AP3" s="250"/>
-      <c r="AQ3" s="250"/>
-      <c r="AR3" s="250"/>
-      <c r="AS3" s="250"/>
-      <c r="AT3" s="250"/>
-      <c r="AU3" s="250"/>
-      <c r="AV3" s="250"/>
-      <c r="AW3" s="255"/>
+      <c r="AN3" s="212"/>
+      <c r="AO3" s="212"/>
+      <c r="AP3" s="212"/>
+      <c r="AQ3" s="212"/>
+      <c r="AR3" s="212"/>
+      <c r="AS3" s="212"/>
+      <c r="AT3" s="212"/>
+      <c r="AU3" s="212"/>
+      <c r="AV3" s="212"/>
+      <c r="AW3" s="242"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="21"/>
@@ -28950,187 +28956,187 @@
       <c r="AW55" s="163"/>
     </row>
     <row r="56" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A56" s="220" t="s">
+      <c r="A56" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="221"/>
-      <c r="C56" s="221"/>
-      <c r="D56" s="221"/>
-      <c r="E56" s="221"/>
-      <c r="F56" s="221"/>
-      <c r="G56" s="221"/>
-      <c r="H56" s="221"/>
-      <c r="I56" s="222"/>
-      <c r="J56" s="229" t="s">
+      <c r="B56" s="202"/>
+      <c r="C56" s="202"/>
+      <c r="D56" s="202"/>
+      <c r="E56" s="202"/>
+      <c r="F56" s="202"/>
+      <c r="G56" s="202"/>
+      <c r="H56" s="202"/>
+      <c r="I56" s="203"/>
+      <c r="J56" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="K56" s="221"/>
-      <c r="L56" s="221"/>
-      <c r="M56" s="221"/>
-      <c r="N56" s="221"/>
-      <c r="O56" s="222"/>
-      <c r="P56" s="229" t="s">
+      <c r="K56" s="202"/>
+      <c r="L56" s="202"/>
+      <c r="M56" s="202"/>
+      <c r="N56" s="202"/>
+      <c r="O56" s="203"/>
+      <c r="P56" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="Q56" s="221"/>
-      <c r="R56" s="221"/>
-      <c r="S56" s="221"/>
-      <c r="T56" s="221"/>
-      <c r="U56" s="222"/>
-      <c r="V56" s="235" t="s">
+      <c r="Q56" s="202"/>
+      <c r="R56" s="202"/>
+      <c r="S56" s="202"/>
+      <c r="T56" s="202"/>
+      <c r="U56" s="203"/>
+      <c r="V56" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="W56" s="236"/>
-      <c r="X56" s="236"/>
-      <c r="Y56" s="236"/>
-      <c r="Z56" s="237"/>
-      <c r="AA56" s="241" t="s">
+      <c r="W56" s="218"/>
+      <c r="X56" s="218"/>
+      <c r="Y56" s="218"/>
+      <c r="Z56" s="219"/>
+      <c r="AA56" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="AB56" s="221"/>
-      <c r="AC56" s="221"/>
-      <c r="AD56" s="221"/>
-      <c r="AE56" s="221"/>
-      <c r="AF56" s="221"/>
-      <c r="AG56" s="221"/>
-      <c r="AH56" s="221"/>
-      <c r="AI56" s="221"/>
-      <c r="AJ56" s="221"/>
-      <c r="AK56" s="221"/>
-      <c r="AL56" s="222"/>
-      <c r="AM56" s="230" t="s">
+      <c r="AB56" s="202"/>
+      <c r="AC56" s="202"/>
+      <c r="AD56" s="202"/>
+      <c r="AE56" s="202"/>
+      <c r="AF56" s="202"/>
+      <c r="AG56" s="202"/>
+      <c r="AH56" s="202"/>
+      <c r="AI56" s="202"/>
+      <c r="AJ56" s="202"/>
+      <c r="AK56" s="202"/>
+      <c r="AL56" s="203"/>
+      <c r="AM56" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="AN56" s="231"/>
+      <c r="AN56" s="238"/>
       <c r="AO56" s="243" t="s">
         <v>130</v>
       </c>
       <c r="AP56" s="244"/>
       <c r="AQ56" s="245"/>
-      <c r="AR56" s="230" t="s">
+      <c r="AR56" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="AS56" s="231"/>
-      <c r="AT56" s="232">
+      <c r="AS56" s="238"/>
+      <c r="AT56" s="254">
         <v>45204</v>
       </c>
-      <c r="AU56" s="233"/>
-      <c r="AV56" s="233"/>
-      <c r="AW56" s="234"/>
+      <c r="AU56" s="255"/>
+      <c r="AV56" s="255"/>
+      <c r="AW56" s="256"/>
     </row>
     <row r="57" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A57" s="223"/>
-      <c r="B57" s="224"/>
-      <c r="C57" s="224"/>
-      <c r="D57" s="224"/>
-      <c r="E57" s="224"/>
-      <c r="F57" s="224"/>
-      <c r="G57" s="224"/>
-      <c r="H57" s="224"/>
-      <c r="I57" s="225"/>
-      <c r="J57" s="223"/>
-      <c r="K57" s="224"/>
-      <c r="L57" s="224"/>
-      <c r="M57" s="224"/>
-      <c r="N57" s="224"/>
-      <c r="O57" s="225"/>
-      <c r="P57" s="223"/>
-      <c r="Q57" s="224"/>
-      <c r="R57" s="224"/>
-      <c r="S57" s="224"/>
-      <c r="T57" s="224"/>
-      <c r="U57" s="225"/>
-      <c r="V57" s="238"/>
-      <c r="W57" s="239"/>
-      <c r="X57" s="239"/>
-      <c r="Y57" s="239"/>
-      <c r="Z57" s="240"/>
-      <c r="AA57" s="242"/>
-      <c r="AB57" s="224"/>
-      <c r="AC57" s="224"/>
-      <c r="AD57" s="224"/>
-      <c r="AE57" s="224"/>
-      <c r="AF57" s="224"/>
-      <c r="AG57" s="224"/>
-      <c r="AH57" s="224"/>
-      <c r="AI57" s="224"/>
-      <c r="AJ57" s="224"/>
-      <c r="AK57" s="224"/>
-      <c r="AL57" s="225"/>
-      <c r="AM57" s="256" t="s">
+      <c r="A57" s="204"/>
+      <c r="B57" s="205"/>
+      <c r="C57" s="205"/>
+      <c r="D57" s="205"/>
+      <c r="E57" s="205"/>
+      <c r="F57" s="205"/>
+      <c r="G57" s="205"/>
+      <c r="H57" s="205"/>
+      <c r="I57" s="206"/>
+      <c r="J57" s="204"/>
+      <c r="K57" s="205"/>
+      <c r="L57" s="205"/>
+      <c r="M57" s="205"/>
+      <c r="N57" s="205"/>
+      <c r="O57" s="206"/>
+      <c r="P57" s="204"/>
+      <c r="Q57" s="205"/>
+      <c r="R57" s="205"/>
+      <c r="S57" s="205"/>
+      <c r="T57" s="205"/>
+      <c r="U57" s="206"/>
+      <c r="V57" s="220"/>
+      <c r="W57" s="221"/>
+      <c r="X57" s="221"/>
+      <c r="Y57" s="221"/>
+      <c r="Z57" s="222"/>
+      <c r="AA57" s="224"/>
+      <c r="AB57" s="205"/>
+      <c r="AC57" s="205"/>
+      <c r="AD57" s="205"/>
+      <c r="AE57" s="205"/>
+      <c r="AF57" s="205"/>
+      <c r="AG57" s="205"/>
+      <c r="AH57" s="205"/>
+      <c r="AI57" s="205"/>
+      <c r="AJ57" s="205"/>
+      <c r="AK57" s="205"/>
+      <c r="AL57" s="206"/>
+      <c r="AM57" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AN57" s="257"/>
-      <c r="AO57" s="258"/>
-      <c r="AP57" s="259"/>
-      <c r="AQ57" s="260"/>
-      <c r="AR57" s="256" t="s">
+      <c r="AN57" s="247"/>
+      <c r="AO57" s="248"/>
+      <c r="AP57" s="249"/>
+      <c r="AQ57" s="250"/>
+      <c r="AR57" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="AS57" s="257"/>
-      <c r="AT57" s="261"/>
-      <c r="AU57" s="262"/>
-      <c r="AV57" s="262"/>
-      <c r="AW57" s="263"/>
+      <c r="AS57" s="247"/>
+      <c r="AT57" s="251"/>
+      <c r="AU57" s="252"/>
+      <c r="AV57" s="252"/>
+      <c r="AW57" s="253"/>
     </row>
     <row r="58" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A58" s="226"/>
-      <c r="B58" s="227"/>
-      <c r="C58" s="227"/>
-      <c r="D58" s="227"/>
-      <c r="E58" s="227"/>
-      <c r="F58" s="227"/>
-      <c r="G58" s="227"/>
-      <c r="H58" s="227"/>
-      <c r="I58" s="228"/>
-      <c r="J58" s="226"/>
-      <c r="K58" s="227"/>
-      <c r="L58" s="227"/>
-      <c r="M58" s="227"/>
-      <c r="N58" s="227"/>
-      <c r="O58" s="228"/>
-      <c r="P58" s="226"/>
-      <c r="Q58" s="227"/>
-      <c r="R58" s="227"/>
-      <c r="S58" s="227"/>
-      <c r="T58" s="227"/>
-      <c r="U58" s="228"/>
-      <c r="V58" s="246" t="s">
+      <c r="A58" s="207"/>
+      <c r="B58" s="208"/>
+      <c r="C58" s="208"/>
+      <c r="D58" s="208"/>
+      <c r="E58" s="208"/>
+      <c r="F58" s="208"/>
+      <c r="G58" s="208"/>
+      <c r="H58" s="208"/>
+      <c r="I58" s="209"/>
+      <c r="J58" s="207"/>
+      <c r="K58" s="208"/>
+      <c r="L58" s="208"/>
+      <c r="M58" s="208"/>
+      <c r="N58" s="208"/>
+      <c r="O58" s="209"/>
+      <c r="P58" s="207"/>
+      <c r="Q58" s="208"/>
+      <c r="R58" s="208"/>
+      <c r="S58" s="208"/>
+      <c r="T58" s="208"/>
+      <c r="U58" s="209"/>
+      <c r="V58" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="W58" s="247"/>
-      <c r="X58" s="247"/>
-      <c r="Y58" s="247"/>
-      <c r="Z58" s="248"/>
-      <c r="AA58" s="249" t="s">
+      <c r="W58" s="215"/>
+      <c r="X58" s="215"/>
+      <c r="Y58" s="215"/>
+      <c r="Z58" s="216"/>
+      <c r="AA58" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="AB58" s="250"/>
-      <c r="AC58" s="250"/>
-      <c r="AD58" s="250"/>
-      <c r="AE58" s="250"/>
-      <c r="AF58" s="250"/>
-      <c r="AG58" s="251"/>
-      <c r="AH58" s="252" t="s">
+      <c r="AB58" s="212"/>
+      <c r="AC58" s="212"/>
+      <c r="AD58" s="212"/>
+      <c r="AE58" s="212"/>
+      <c r="AF58" s="212"/>
+      <c r="AG58" s="213"/>
+      <c r="AH58" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="AI58" s="253"/>
-      <c r="AJ58" s="253"/>
-      <c r="AK58" s="253"/>
-      <c r="AL58" s="254"/>
-      <c r="AM58" s="249" t="s">
+      <c r="AI58" s="240"/>
+      <c r="AJ58" s="240"/>
+      <c r="AK58" s="240"/>
+      <c r="AL58" s="241"/>
+      <c r="AM58" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="AN58" s="250"/>
-      <c r="AO58" s="250"/>
-      <c r="AP58" s="250"/>
-      <c r="AQ58" s="250"/>
-      <c r="AR58" s="250"/>
-      <c r="AS58" s="250"/>
-      <c r="AT58" s="250"/>
-      <c r="AU58" s="250"/>
-      <c r="AV58" s="250"/>
-      <c r="AW58" s="255"/>
+      <c r="AN58" s="212"/>
+      <c r="AO58" s="212"/>
+      <c r="AP58" s="212"/>
+      <c r="AQ58" s="212"/>
+      <c r="AR58" s="212"/>
+      <c r="AS58" s="212"/>
+      <c r="AT58" s="212"/>
+      <c r="AU58" s="212"/>
+      <c r="AV58" s="212"/>
+      <c r="AW58" s="242"/>
     </row>
     <row r="59" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A59" s="21"/>
@@ -30735,187 +30741,187 @@
       <c r="AW92" s="163"/>
     </row>
     <row r="93" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A93" s="220" t="s">
+      <c r="A93" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="221"/>
-      <c r="C93" s="221"/>
-      <c r="D93" s="221"/>
-      <c r="E93" s="221"/>
-      <c r="F93" s="221"/>
-      <c r="G93" s="221"/>
-      <c r="H93" s="221"/>
-      <c r="I93" s="222"/>
-      <c r="J93" s="229" t="s">
+      <c r="B93" s="202"/>
+      <c r="C93" s="202"/>
+      <c r="D93" s="202"/>
+      <c r="E93" s="202"/>
+      <c r="F93" s="202"/>
+      <c r="G93" s="202"/>
+      <c r="H93" s="202"/>
+      <c r="I93" s="203"/>
+      <c r="J93" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="K93" s="221"/>
-      <c r="L93" s="221"/>
-      <c r="M93" s="221"/>
-      <c r="N93" s="221"/>
-      <c r="O93" s="222"/>
-      <c r="P93" s="229" t="s">
+      <c r="K93" s="202"/>
+      <c r="L93" s="202"/>
+      <c r="M93" s="202"/>
+      <c r="N93" s="202"/>
+      <c r="O93" s="203"/>
+      <c r="P93" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="Q93" s="221"/>
-      <c r="R93" s="221"/>
-      <c r="S93" s="221"/>
-      <c r="T93" s="221"/>
-      <c r="U93" s="222"/>
-      <c r="V93" s="235" t="s">
+      <c r="Q93" s="202"/>
+      <c r="R93" s="202"/>
+      <c r="S93" s="202"/>
+      <c r="T93" s="202"/>
+      <c r="U93" s="203"/>
+      <c r="V93" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="W93" s="236"/>
-      <c r="X93" s="236"/>
-      <c r="Y93" s="236"/>
-      <c r="Z93" s="237"/>
-      <c r="AA93" s="241" t="s">
+      <c r="W93" s="218"/>
+      <c r="X93" s="218"/>
+      <c r="Y93" s="218"/>
+      <c r="Z93" s="219"/>
+      <c r="AA93" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="AB93" s="221"/>
-      <c r="AC93" s="221"/>
-      <c r="AD93" s="221"/>
-      <c r="AE93" s="221"/>
-      <c r="AF93" s="221"/>
-      <c r="AG93" s="221"/>
-      <c r="AH93" s="221"/>
-      <c r="AI93" s="221"/>
-      <c r="AJ93" s="221"/>
-      <c r="AK93" s="221"/>
-      <c r="AL93" s="222"/>
-      <c r="AM93" s="230" t="s">
+      <c r="AB93" s="202"/>
+      <c r="AC93" s="202"/>
+      <c r="AD93" s="202"/>
+      <c r="AE93" s="202"/>
+      <c r="AF93" s="202"/>
+      <c r="AG93" s="202"/>
+      <c r="AH93" s="202"/>
+      <c r="AI93" s="202"/>
+      <c r="AJ93" s="202"/>
+      <c r="AK93" s="202"/>
+      <c r="AL93" s="203"/>
+      <c r="AM93" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="AN93" s="231"/>
+      <c r="AN93" s="238"/>
       <c r="AO93" s="243" t="s">
         <v>130</v>
       </c>
       <c r="AP93" s="244"/>
       <c r="AQ93" s="245"/>
-      <c r="AR93" s="230" t="s">
+      <c r="AR93" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="AS93" s="231"/>
-      <c r="AT93" s="232">
+      <c r="AS93" s="238"/>
+      <c r="AT93" s="254">
         <v>45204</v>
       </c>
-      <c r="AU93" s="233"/>
-      <c r="AV93" s="233"/>
-      <c r="AW93" s="234"/>
+      <c r="AU93" s="255"/>
+      <c r="AV93" s="255"/>
+      <c r="AW93" s="256"/>
     </row>
     <row r="94" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A94" s="223"/>
-      <c r="B94" s="224"/>
-      <c r="C94" s="224"/>
-      <c r="D94" s="224"/>
-      <c r="E94" s="224"/>
-      <c r="F94" s="224"/>
-      <c r="G94" s="224"/>
-      <c r="H94" s="224"/>
-      <c r="I94" s="225"/>
-      <c r="J94" s="223"/>
-      <c r="K94" s="224"/>
-      <c r="L94" s="224"/>
-      <c r="M94" s="224"/>
-      <c r="N94" s="224"/>
-      <c r="O94" s="225"/>
-      <c r="P94" s="223"/>
-      <c r="Q94" s="224"/>
-      <c r="R94" s="224"/>
-      <c r="S94" s="224"/>
-      <c r="T94" s="224"/>
-      <c r="U94" s="225"/>
-      <c r="V94" s="238"/>
-      <c r="W94" s="239"/>
-      <c r="X94" s="239"/>
-      <c r="Y94" s="239"/>
-      <c r="Z94" s="240"/>
-      <c r="AA94" s="242"/>
-      <c r="AB94" s="224"/>
-      <c r="AC94" s="224"/>
-      <c r="AD94" s="224"/>
-      <c r="AE94" s="224"/>
-      <c r="AF94" s="224"/>
-      <c r="AG94" s="224"/>
-      <c r="AH94" s="224"/>
-      <c r="AI94" s="224"/>
-      <c r="AJ94" s="224"/>
-      <c r="AK94" s="224"/>
-      <c r="AL94" s="225"/>
-      <c r="AM94" s="256" t="s">
+      <c r="A94" s="204"/>
+      <c r="B94" s="205"/>
+      <c r="C94" s="205"/>
+      <c r="D94" s="205"/>
+      <c r="E94" s="205"/>
+      <c r="F94" s="205"/>
+      <c r="G94" s="205"/>
+      <c r="H94" s="205"/>
+      <c r="I94" s="206"/>
+      <c r="J94" s="204"/>
+      <c r="K94" s="205"/>
+      <c r="L94" s="205"/>
+      <c r="M94" s="205"/>
+      <c r="N94" s="205"/>
+      <c r="O94" s="206"/>
+      <c r="P94" s="204"/>
+      <c r="Q94" s="205"/>
+      <c r="R94" s="205"/>
+      <c r="S94" s="205"/>
+      <c r="T94" s="205"/>
+      <c r="U94" s="206"/>
+      <c r="V94" s="220"/>
+      <c r="W94" s="221"/>
+      <c r="X94" s="221"/>
+      <c r="Y94" s="221"/>
+      <c r="Z94" s="222"/>
+      <c r="AA94" s="224"/>
+      <c r="AB94" s="205"/>
+      <c r="AC94" s="205"/>
+      <c r="AD94" s="205"/>
+      <c r="AE94" s="205"/>
+      <c r="AF94" s="205"/>
+      <c r="AG94" s="205"/>
+      <c r="AH94" s="205"/>
+      <c r="AI94" s="205"/>
+      <c r="AJ94" s="205"/>
+      <c r="AK94" s="205"/>
+      <c r="AL94" s="206"/>
+      <c r="AM94" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AN94" s="257"/>
-      <c r="AO94" s="258"/>
-      <c r="AP94" s="259"/>
-      <c r="AQ94" s="260"/>
-      <c r="AR94" s="256" t="s">
+      <c r="AN94" s="247"/>
+      <c r="AO94" s="248"/>
+      <c r="AP94" s="249"/>
+      <c r="AQ94" s="250"/>
+      <c r="AR94" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="AS94" s="257"/>
-      <c r="AT94" s="261"/>
-      <c r="AU94" s="262"/>
-      <c r="AV94" s="262"/>
-      <c r="AW94" s="263"/>
+      <c r="AS94" s="247"/>
+      <c r="AT94" s="251"/>
+      <c r="AU94" s="252"/>
+      <c r="AV94" s="252"/>
+      <c r="AW94" s="253"/>
     </row>
     <row r="95" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A95" s="226"/>
-      <c r="B95" s="227"/>
-      <c r="C95" s="227"/>
-      <c r="D95" s="227"/>
-      <c r="E95" s="227"/>
-      <c r="F95" s="227"/>
-      <c r="G95" s="227"/>
-      <c r="H95" s="227"/>
-      <c r="I95" s="228"/>
-      <c r="J95" s="226"/>
-      <c r="K95" s="227"/>
-      <c r="L95" s="227"/>
-      <c r="M95" s="227"/>
-      <c r="N95" s="227"/>
-      <c r="O95" s="228"/>
-      <c r="P95" s="226"/>
-      <c r="Q95" s="227"/>
-      <c r="R95" s="227"/>
-      <c r="S95" s="227"/>
-      <c r="T95" s="227"/>
-      <c r="U95" s="228"/>
-      <c r="V95" s="246" t="s">
+      <c r="A95" s="207"/>
+      <c r="B95" s="208"/>
+      <c r="C95" s="208"/>
+      <c r="D95" s="208"/>
+      <c r="E95" s="208"/>
+      <c r="F95" s="208"/>
+      <c r="G95" s="208"/>
+      <c r="H95" s="208"/>
+      <c r="I95" s="209"/>
+      <c r="J95" s="207"/>
+      <c r="K95" s="208"/>
+      <c r="L95" s="208"/>
+      <c r="M95" s="208"/>
+      <c r="N95" s="208"/>
+      <c r="O95" s="209"/>
+      <c r="P95" s="207"/>
+      <c r="Q95" s="208"/>
+      <c r="R95" s="208"/>
+      <c r="S95" s="208"/>
+      <c r="T95" s="208"/>
+      <c r="U95" s="209"/>
+      <c r="V95" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="W95" s="247"/>
-      <c r="X95" s="247"/>
-      <c r="Y95" s="247"/>
-      <c r="Z95" s="248"/>
-      <c r="AA95" s="249" t="s">
+      <c r="W95" s="215"/>
+      <c r="X95" s="215"/>
+      <c r="Y95" s="215"/>
+      <c r="Z95" s="216"/>
+      <c r="AA95" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="AB95" s="250"/>
-      <c r="AC95" s="250"/>
-      <c r="AD95" s="250"/>
-      <c r="AE95" s="250"/>
-      <c r="AF95" s="250"/>
-      <c r="AG95" s="251"/>
-      <c r="AH95" s="252" t="s">
+      <c r="AB95" s="212"/>
+      <c r="AC95" s="212"/>
+      <c r="AD95" s="212"/>
+      <c r="AE95" s="212"/>
+      <c r="AF95" s="212"/>
+      <c r="AG95" s="213"/>
+      <c r="AH95" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="AI95" s="253"/>
-      <c r="AJ95" s="253"/>
-      <c r="AK95" s="253"/>
-      <c r="AL95" s="254"/>
-      <c r="AM95" s="249" t="s">
+      <c r="AI95" s="240"/>
+      <c r="AJ95" s="240"/>
+      <c r="AK95" s="240"/>
+      <c r="AL95" s="241"/>
+      <c r="AM95" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="AN95" s="250"/>
-      <c r="AO95" s="250"/>
-      <c r="AP95" s="250"/>
-      <c r="AQ95" s="250"/>
-      <c r="AR95" s="250"/>
-      <c r="AS95" s="250"/>
-      <c r="AT95" s="250"/>
-      <c r="AU95" s="250"/>
-      <c r="AV95" s="250"/>
-      <c r="AW95" s="255"/>
+      <c r="AN95" s="212"/>
+      <c r="AO95" s="212"/>
+      <c r="AP95" s="212"/>
+      <c r="AQ95" s="212"/>
+      <c r="AR95" s="212"/>
+      <c r="AS95" s="212"/>
+      <c r="AT95" s="212"/>
+      <c r="AU95" s="212"/>
+      <c r="AV95" s="212"/>
+      <c r="AW95" s="242"/>
     </row>
     <row r="96" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A96" s="21"/>
@@ -31369,187 +31375,187 @@
       <c r="AW110" s="163"/>
     </row>
     <row r="111" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A111" s="220" t="s">
+      <c r="A111" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="B111" s="221"/>
-      <c r="C111" s="221"/>
-      <c r="D111" s="221"/>
-      <c r="E111" s="221"/>
-      <c r="F111" s="221"/>
-      <c r="G111" s="221"/>
-      <c r="H111" s="221"/>
-      <c r="I111" s="222"/>
-      <c r="J111" s="229" t="s">
+      <c r="B111" s="202"/>
+      <c r="C111" s="202"/>
+      <c r="D111" s="202"/>
+      <c r="E111" s="202"/>
+      <c r="F111" s="202"/>
+      <c r="G111" s="202"/>
+      <c r="H111" s="202"/>
+      <c r="I111" s="203"/>
+      <c r="J111" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="K111" s="221"/>
-      <c r="L111" s="221"/>
-      <c r="M111" s="221"/>
-      <c r="N111" s="221"/>
-      <c r="O111" s="222"/>
-      <c r="P111" s="229" t="s">
+      <c r="K111" s="202"/>
+      <c r="L111" s="202"/>
+      <c r="M111" s="202"/>
+      <c r="N111" s="202"/>
+      <c r="O111" s="203"/>
+      <c r="P111" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="Q111" s="221"/>
-      <c r="R111" s="221"/>
-      <c r="S111" s="221"/>
-      <c r="T111" s="221"/>
-      <c r="U111" s="222"/>
-      <c r="V111" s="235" t="s">
+      <c r="Q111" s="202"/>
+      <c r="R111" s="202"/>
+      <c r="S111" s="202"/>
+      <c r="T111" s="202"/>
+      <c r="U111" s="203"/>
+      <c r="V111" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="W111" s="236"/>
-      <c r="X111" s="236"/>
-      <c r="Y111" s="236"/>
-      <c r="Z111" s="237"/>
-      <c r="AA111" s="241" t="s">
+      <c r="W111" s="218"/>
+      <c r="X111" s="218"/>
+      <c r="Y111" s="218"/>
+      <c r="Z111" s="219"/>
+      <c r="AA111" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="AB111" s="221"/>
-      <c r="AC111" s="221"/>
-      <c r="AD111" s="221"/>
-      <c r="AE111" s="221"/>
-      <c r="AF111" s="221"/>
-      <c r="AG111" s="221"/>
-      <c r="AH111" s="221"/>
-      <c r="AI111" s="221"/>
-      <c r="AJ111" s="221"/>
-      <c r="AK111" s="221"/>
-      <c r="AL111" s="222"/>
-      <c r="AM111" s="230" t="s">
+      <c r="AB111" s="202"/>
+      <c r="AC111" s="202"/>
+      <c r="AD111" s="202"/>
+      <c r="AE111" s="202"/>
+      <c r="AF111" s="202"/>
+      <c r="AG111" s="202"/>
+      <c r="AH111" s="202"/>
+      <c r="AI111" s="202"/>
+      <c r="AJ111" s="202"/>
+      <c r="AK111" s="202"/>
+      <c r="AL111" s="203"/>
+      <c r="AM111" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="AN111" s="231"/>
+      <c r="AN111" s="238"/>
       <c r="AO111" s="243" t="s">
         <v>130</v>
       </c>
       <c r="AP111" s="244"/>
       <c r="AQ111" s="245"/>
-      <c r="AR111" s="230" t="s">
+      <c r="AR111" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="AS111" s="231"/>
-      <c r="AT111" s="232">
+      <c r="AS111" s="238"/>
+      <c r="AT111" s="254">
         <v>45204</v>
       </c>
-      <c r="AU111" s="233"/>
-      <c r="AV111" s="233"/>
-      <c r="AW111" s="234"/>
+      <c r="AU111" s="255"/>
+      <c r="AV111" s="255"/>
+      <c r="AW111" s="256"/>
     </row>
     <row r="112" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A112" s="223"/>
-      <c r="B112" s="224"/>
-      <c r="C112" s="224"/>
-      <c r="D112" s="224"/>
-      <c r="E112" s="224"/>
-      <c r="F112" s="224"/>
-      <c r="G112" s="224"/>
-      <c r="H112" s="224"/>
-      <c r="I112" s="225"/>
-      <c r="J112" s="223"/>
-      <c r="K112" s="224"/>
-      <c r="L112" s="224"/>
-      <c r="M112" s="224"/>
-      <c r="N112" s="224"/>
-      <c r="O112" s="225"/>
-      <c r="P112" s="223"/>
-      <c r="Q112" s="224"/>
-      <c r="R112" s="224"/>
-      <c r="S112" s="224"/>
-      <c r="T112" s="224"/>
-      <c r="U112" s="225"/>
-      <c r="V112" s="238"/>
-      <c r="W112" s="239"/>
-      <c r="X112" s="239"/>
-      <c r="Y112" s="239"/>
-      <c r="Z112" s="240"/>
-      <c r="AA112" s="242"/>
-      <c r="AB112" s="224"/>
-      <c r="AC112" s="224"/>
-      <c r="AD112" s="224"/>
-      <c r="AE112" s="224"/>
-      <c r="AF112" s="224"/>
-      <c r="AG112" s="224"/>
-      <c r="AH112" s="224"/>
-      <c r="AI112" s="224"/>
-      <c r="AJ112" s="224"/>
-      <c r="AK112" s="224"/>
-      <c r="AL112" s="225"/>
-      <c r="AM112" s="256" t="s">
+      <c r="A112" s="204"/>
+      <c r="B112" s="205"/>
+      <c r="C112" s="205"/>
+      <c r="D112" s="205"/>
+      <c r="E112" s="205"/>
+      <c r="F112" s="205"/>
+      <c r="G112" s="205"/>
+      <c r="H112" s="205"/>
+      <c r="I112" s="206"/>
+      <c r="J112" s="204"/>
+      <c r="K112" s="205"/>
+      <c r="L112" s="205"/>
+      <c r="M112" s="205"/>
+      <c r="N112" s="205"/>
+      <c r="O112" s="206"/>
+      <c r="P112" s="204"/>
+      <c r="Q112" s="205"/>
+      <c r="R112" s="205"/>
+      <c r="S112" s="205"/>
+      <c r="T112" s="205"/>
+      <c r="U112" s="206"/>
+      <c r="V112" s="220"/>
+      <c r="W112" s="221"/>
+      <c r="X112" s="221"/>
+      <c r="Y112" s="221"/>
+      <c r="Z112" s="222"/>
+      <c r="AA112" s="224"/>
+      <c r="AB112" s="205"/>
+      <c r="AC112" s="205"/>
+      <c r="AD112" s="205"/>
+      <c r="AE112" s="205"/>
+      <c r="AF112" s="205"/>
+      <c r="AG112" s="205"/>
+      <c r="AH112" s="205"/>
+      <c r="AI112" s="205"/>
+      <c r="AJ112" s="205"/>
+      <c r="AK112" s="205"/>
+      <c r="AL112" s="206"/>
+      <c r="AM112" s="246" t="s">
         <v>25</v>
       </c>
-      <c r="AN112" s="257"/>
-      <c r="AO112" s="258"/>
-      <c r="AP112" s="259"/>
-      <c r="AQ112" s="260"/>
-      <c r="AR112" s="256" t="s">
+      <c r="AN112" s="247"/>
+      <c r="AO112" s="248"/>
+      <c r="AP112" s="249"/>
+      <c r="AQ112" s="250"/>
+      <c r="AR112" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="AS112" s="257"/>
-      <c r="AT112" s="261"/>
-      <c r="AU112" s="262"/>
-      <c r="AV112" s="262"/>
-      <c r="AW112" s="263"/>
+      <c r="AS112" s="247"/>
+      <c r="AT112" s="251"/>
+      <c r="AU112" s="252"/>
+      <c r="AV112" s="252"/>
+      <c r="AW112" s="253"/>
     </row>
     <row r="113" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A113" s="226"/>
-      <c r="B113" s="227"/>
-      <c r="C113" s="227"/>
-      <c r="D113" s="227"/>
-      <c r="E113" s="227"/>
-      <c r="F113" s="227"/>
-      <c r="G113" s="227"/>
-      <c r="H113" s="227"/>
-      <c r="I113" s="228"/>
-      <c r="J113" s="226"/>
-      <c r="K113" s="227"/>
-      <c r="L113" s="227"/>
-      <c r="M113" s="227"/>
-      <c r="N113" s="227"/>
-      <c r="O113" s="228"/>
-      <c r="P113" s="226"/>
-      <c r="Q113" s="227"/>
-      <c r="R113" s="227"/>
-      <c r="S113" s="227"/>
-      <c r="T113" s="227"/>
-      <c r="U113" s="228"/>
-      <c r="V113" s="246" t="s">
+      <c r="A113" s="207"/>
+      <c r="B113" s="208"/>
+      <c r="C113" s="208"/>
+      <c r="D113" s="208"/>
+      <c r="E113" s="208"/>
+      <c r="F113" s="208"/>
+      <c r="G113" s="208"/>
+      <c r="H113" s="208"/>
+      <c r="I113" s="209"/>
+      <c r="J113" s="207"/>
+      <c r="K113" s="208"/>
+      <c r="L113" s="208"/>
+      <c r="M113" s="208"/>
+      <c r="N113" s="208"/>
+      <c r="O113" s="209"/>
+      <c r="P113" s="207"/>
+      <c r="Q113" s="208"/>
+      <c r="R113" s="208"/>
+      <c r="S113" s="208"/>
+      <c r="T113" s="208"/>
+      <c r="U113" s="209"/>
+      <c r="V113" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="W113" s="247"/>
-      <c r="X113" s="247"/>
-      <c r="Y113" s="247"/>
-      <c r="Z113" s="248"/>
-      <c r="AA113" s="249" t="s">
+      <c r="W113" s="215"/>
+      <c r="X113" s="215"/>
+      <c r="Y113" s="215"/>
+      <c r="Z113" s="216"/>
+      <c r="AA113" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="AB113" s="250"/>
-      <c r="AC113" s="250"/>
-      <c r="AD113" s="250"/>
-      <c r="AE113" s="250"/>
-      <c r="AF113" s="250"/>
-      <c r="AG113" s="251"/>
-      <c r="AH113" s="252" t="s">
+      <c r="AB113" s="212"/>
+      <c r="AC113" s="212"/>
+      <c r="AD113" s="212"/>
+      <c r="AE113" s="212"/>
+      <c r="AF113" s="212"/>
+      <c r="AG113" s="213"/>
+      <c r="AH113" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="AI113" s="253"/>
-      <c r="AJ113" s="253"/>
-      <c r="AK113" s="253"/>
-      <c r="AL113" s="254"/>
-      <c r="AM113" s="249" t="s">
+      <c r="AI113" s="240"/>
+      <c r="AJ113" s="240"/>
+      <c r="AK113" s="240"/>
+      <c r="AL113" s="241"/>
+      <c r="AM113" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="AN113" s="250"/>
-      <c r="AO113" s="250"/>
-      <c r="AP113" s="250"/>
-      <c r="AQ113" s="250"/>
-      <c r="AR113" s="250"/>
-      <c r="AS113" s="250"/>
-      <c r="AT113" s="250"/>
-      <c r="AU113" s="250"/>
-      <c r="AV113" s="250"/>
-      <c r="AW113" s="255"/>
+      <c r="AN113" s="212"/>
+      <c r="AO113" s="212"/>
+      <c r="AP113" s="212"/>
+      <c r="AQ113" s="212"/>
+      <c r="AR113" s="212"/>
+      <c r="AS113" s="212"/>
+      <c r="AT113" s="212"/>
+      <c r="AU113" s="212"/>
+      <c r="AV113" s="212"/>
+      <c r="AW113" s="242"/>
     </row>
     <row r="114" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A114" s="21"/>
@@ -32496,7 +32502,7 @@
       <c r="AG134" s="146"/>
       <c r="AH134" s="146"/>
       <c r="AI134" s="151"/>
-      <c r="AJ134" s="380" t="s">
+      <c r="AJ134" s="198" t="s">
         <v>141</v>
       </c>
       <c r="AK134" s="147"/>
@@ -32554,7 +32560,7 @@
       <c r="AG135" s="139"/>
       <c r="AH135" s="139"/>
       <c r="AI135" s="152"/>
-      <c r="AJ135" s="380" t="s">
+      <c r="AJ135" s="198" t="s">
         <v>142</v>
       </c>
       <c r="AK135" s="140"/>
@@ -32612,7 +32618,7 @@
       <c r="AG136" s="139"/>
       <c r="AH136" s="139"/>
       <c r="AI136" s="152"/>
-      <c r="AJ136" s="380" t="s">
+      <c r="AJ136" s="390" t="s">
         <v>143</v>
       </c>
       <c r="AK136" s="140"/>
@@ -32642,28 +32648,28 @@
       <c r="K137" s="161"/>
       <c r="L137" s="161"/>
       <c r="M137" s="178"/>
-      <c r="N137" s="339"/>
-      <c r="O137" s="340"/>
-      <c r="P137" s="340"/>
-      <c r="Q137" s="340"/>
-      <c r="R137" s="340"/>
-      <c r="S137" s="340"/>
-      <c r="T137" s="340"/>
-      <c r="U137" s="340"/>
-      <c r="V137" s="340"/>
-      <c r="W137" s="340"/>
-      <c r="X137" s="340"/>
-      <c r="Y137" s="340"/>
-      <c r="Z137" s="340"/>
-      <c r="AA137" s="340"/>
-      <c r="AB137" s="340"/>
-      <c r="AC137" s="340"/>
-      <c r="AD137" s="340"/>
-      <c r="AE137" s="340"/>
-      <c r="AF137" s="340"/>
-      <c r="AG137" s="340"/>
-      <c r="AH137" s="340"/>
-      <c r="AI137" s="341"/>
+      <c r="N137" s="338"/>
+      <c r="O137" s="339"/>
+      <c r="P137" s="339"/>
+      <c r="Q137" s="339"/>
+      <c r="R137" s="339"/>
+      <c r="S137" s="339"/>
+      <c r="T137" s="339"/>
+      <c r="U137" s="339"/>
+      <c r="V137" s="339"/>
+      <c r="W137" s="339"/>
+      <c r="X137" s="339"/>
+      <c r="Y137" s="339"/>
+      <c r="Z137" s="339"/>
+      <c r="AA137" s="339"/>
+      <c r="AB137" s="339"/>
+      <c r="AC137" s="339"/>
+      <c r="AD137" s="339"/>
+      <c r="AE137" s="339"/>
+      <c r="AF137" s="339"/>
+      <c r="AG137" s="339"/>
+      <c r="AH137" s="339"/>
+      <c r="AI137" s="340"/>
       <c r="AJ137" s="179"/>
       <c r="AK137" s="180"/>
       <c r="AL137" s="180"/>
@@ -32678,18 +32684,18 @@
       <c r="AU137" s="181"/>
       <c r="AV137" s="23"/>
       <c r="AW137" s="163"/>
-      <c r="AY137" s="320"/>
-      <c r="AZ137" s="320"/>
-      <c r="BA137" s="320"/>
-      <c r="BB137" s="320"/>
-      <c r="BC137" s="320"/>
-      <c r="BD137" s="320"/>
-      <c r="BE137" s="320"/>
-      <c r="BF137" s="320"/>
-      <c r="BG137" s="320"/>
-      <c r="BH137" s="320"/>
-      <c r="BI137" s="320"/>
-      <c r="BJ137" s="320"/>
+      <c r="AY137" s="342"/>
+      <c r="AZ137" s="342"/>
+      <c r="BA137" s="342"/>
+      <c r="BB137" s="342"/>
+      <c r="BC137" s="342"/>
+      <c r="BD137" s="342"/>
+      <c r="BE137" s="342"/>
+      <c r="BF137" s="342"/>
+      <c r="BG137" s="342"/>
+      <c r="BH137" s="342"/>
+      <c r="BI137" s="342"/>
+      <c r="BJ137" s="342"/>
     </row>
     <row r="138" spans="1:62" ht="13.5" customHeight="1">
       <c r="A138" s="21"/>
@@ -32892,68 +32898,68 @@
     <row r="142" spans="1:62" ht="13.5" customHeight="1">
       <c r="A142" s="21"/>
       <c r="D142" s="23"/>
-      <c r="E142" s="321" t="s">
+      <c r="E142" s="329" t="s">
         <v>103</v>
       </c>
-      <c r="F142" s="322"/>
-      <c r="G142" s="322"/>
-      <c r="H142" s="322"/>
-      <c r="I142" s="322"/>
-      <c r="J142" s="322"/>
-      <c r="K142" s="323"/>
-      <c r="L142" s="330" t="s">
+      <c r="F142" s="330"/>
+      <c r="G142" s="330"/>
+      <c r="H142" s="330"/>
+      <c r="I142" s="330"/>
+      <c r="J142" s="330"/>
+      <c r="K142" s="331"/>
+      <c r="L142" s="349" t="s">
         <v>104</v>
       </c>
-      <c r="M142" s="331"/>
-      <c r="N142" s="331"/>
-      <c r="O142" s="331"/>
-      <c r="P142" s="331"/>
-      <c r="Q142" s="331"/>
-      <c r="R142" s="331"/>
-      <c r="S142" s="331"/>
-      <c r="T142" s="331"/>
-      <c r="U142" s="331"/>
-      <c r="V142" s="331"/>
-      <c r="W142" s="331"/>
-      <c r="X142" s="331"/>
-      <c r="Y142" s="331"/>
-      <c r="Z142" s="331"/>
-      <c r="AA142" s="331"/>
-      <c r="AB142" s="331"/>
-      <c r="AC142" s="331"/>
-      <c r="AD142" s="331"/>
-      <c r="AE142" s="331"/>
-      <c r="AF142" s="331"/>
-      <c r="AG142" s="331"/>
-      <c r="AH142" s="331"/>
-      <c r="AI142" s="331"/>
-      <c r="AJ142" s="331"/>
-      <c r="AK142" s="331"/>
-      <c r="AL142" s="331"/>
-      <c r="AM142" s="331"/>
-      <c r="AN142" s="331"/>
-      <c r="AO142" s="331"/>
-      <c r="AP142" s="331"/>
-      <c r="AQ142" s="331"/>
-      <c r="AR142" s="331"/>
-      <c r="AS142" s="331"/>
-      <c r="AT142" s="331"/>
-      <c r="AU142" s="332"/>
+      <c r="M142" s="350"/>
+      <c r="N142" s="350"/>
+      <c r="O142" s="350"/>
+      <c r="P142" s="350"/>
+      <c r="Q142" s="350"/>
+      <c r="R142" s="350"/>
+      <c r="S142" s="350"/>
+      <c r="T142" s="350"/>
+      <c r="U142" s="350"/>
+      <c r="V142" s="350"/>
+      <c r="W142" s="350"/>
+      <c r="X142" s="350"/>
+      <c r="Y142" s="350"/>
+      <c r="Z142" s="350"/>
+      <c r="AA142" s="350"/>
+      <c r="AB142" s="350"/>
+      <c r="AC142" s="350"/>
+      <c r="AD142" s="350"/>
+      <c r="AE142" s="350"/>
+      <c r="AF142" s="350"/>
+      <c r="AG142" s="350"/>
+      <c r="AH142" s="350"/>
+      <c r="AI142" s="350"/>
+      <c r="AJ142" s="350"/>
+      <c r="AK142" s="350"/>
+      <c r="AL142" s="350"/>
+      <c r="AM142" s="350"/>
+      <c r="AN142" s="350"/>
+      <c r="AO142" s="350"/>
+      <c r="AP142" s="350"/>
+      <c r="AQ142" s="350"/>
+      <c r="AR142" s="350"/>
+      <c r="AS142" s="350"/>
+      <c r="AT142" s="350"/>
+      <c r="AU142" s="351"/>
       <c r="AV142" s="23"/>
       <c r="AW142" s="163"/>
     </row>
     <row r="143" spans="1:62" ht="13.5" customHeight="1">
       <c r="A143" s="21"/>
       <c r="D143" s="23"/>
-      <c r="E143" s="324" t="s">
+      <c r="E143" s="343" t="s">
         <v>120</v>
       </c>
-      <c r="F143" s="325"/>
-      <c r="G143" s="325"/>
-      <c r="H143" s="325"/>
-      <c r="I143" s="325"/>
-      <c r="J143" s="325"/>
-      <c r="K143" s="326"/>
+      <c r="F143" s="344"/>
+      <c r="G143" s="344"/>
+      <c r="H143" s="344"/>
+      <c r="I143" s="344"/>
+      <c r="J143" s="344"/>
+      <c r="K143" s="345"/>
       <c r="L143" s="159"/>
       <c r="M143" s="144"/>
       <c r="N143" s="144" t="s">
@@ -33002,13 +33008,13 @@
     <row r="144" spans="1:62" ht="13.5" customHeight="1">
       <c r="A144" s="21"/>
       <c r="D144" s="23"/>
-      <c r="E144" s="327"/>
-      <c r="F144" s="328"/>
-      <c r="G144" s="328"/>
-      <c r="H144" s="328"/>
-      <c r="I144" s="328"/>
-      <c r="J144" s="328"/>
-      <c r="K144" s="329"/>
+      <c r="E144" s="346"/>
+      <c r="F144" s="347"/>
+      <c r="G144" s="347"/>
+      <c r="H144" s="347"/>
+      <c r="I144" s="347"/>
+      <c r="J144" s="347"/>
+      <c r="K144" s="348"/>
       <c r="L144" s="160"/>
       <c r="M144" s="161"/>
       <c r="N144" s="161" t="s">
@@ -33209,50 +33215,50 @@
       <c r="A148" s="21"/>
       <c r="D148" s="129"/>
       <c r="E148" s="113"/>
-      <c r="F148" s="342" t="s">
+      <c r="F148" s="341" t="s">
         <v>140</v>
       </c>
-      <c r="G148" s="342"/>
-      <c r="H148" s="342"/>
-      <c r="I148" s="342"/>
-      <c r="J148" s="342"/>
-      <c r="K148" s="342"/>
-      <c r="L148" s="342"/>
-      <c r="M148" s="342"/>
-      <c r="N148" s="342"/>
-      <c r="O148" s="342"/>
-      <c r="P148" s="342"/>
-      <c r="Q148" s="342"/>
-      <c r="R148" s="342"/>
-      <c r="S148" s="342"/>
-      <c r="T148" s="342"/>
-      <c r="U148" s="342"/>
-      <c r="V148" s="342"/>
-      <c r="W148" s="342"/>
-      <c r="X148" s="342"/>
-      <c r="Y148" s="342"/>
-      <c r="Z148" s="342"/>
-      <c r="AA148" s="342"/>
-      <c r="AB148" s="342"/>
-      <c r="AC148" s="342"/>
-      <c r="AD148" s="342"/>
-      <c r="AE148" s="342"/>
-      <c r="AF148" s="342"/>
-      <c r="AG148" s="342"/>
-      <c r="AH148" s="342"/>
-      <c r="AI148" s="342"/>
-      <c r="AJ148" s="342"/>
-      <c r="AK148" s="342"/>
-      <c r="AL148" s="342"/>
-      <c r="AM148" s="342"/>
-      <c r="AN148" s="342"/>
-      <c r="AO148" s="342"/>
-      <c r="AP148" s="342"/>
-      <c r="AQ148" s="342"/>
-      <c r="AR148" s="342"/>
-      <c r="AS148" s="342"/>
-      <c r="AT148" s="342"/>
-      <c r="AU148" s="342"/>
+      <c r="G148" s="341"/>
+      <c r="H148" s="341"/>
+      <c r="I148" s="341"/>
+      <c r="J148" s="341"/>
+      <c r="K148" s="341"/>
+      <c r="L148" s="341"/>
+      <c r="M148" s="341"/>
+      <c r="N148" s="341"/>
+      <c r="O148" s="341"/>
+      <c r="P148" s="341"/>
+      <c r="Q148" s="341"/>
+      <c r="R148" s="341"/>
+      <c r="S148" s="341"/>
+      <c r="T148" s="341"/>
+      <c r="U148" s="341"/>
+      <c r="V148" s="341"/>
+      <c r="W148" s="341"/>
+      <c r="X148" s="341"/>
+      <c r="Y148" s="341"/>
+      <c r="Z148" s="341"/>
+      <c r="AA148" s="341"/>
+      <c r="AB148" s="341"/>
+      <c r="AC148" s="341"/>
+      <c r="AD148" s="341"/>
+      <c r="AE148" s="341"/>
+      <c r="AF148" s="341"/>
+      <c r="AG148" s="341"/>
+      <c r="AH148" s="341"/>
+      <c r="AI148" s="341"/>
+      <c r="AJ148" s="341"/>
+      <c r="AK148" s="341"/>
+      <c r="AL148" s="341"/>
+      <c r="AM148" s="341"/>
+      <c r="AN148" s="341"/>
+      <c r="AO148" s="341"/>
+      <c r="AP148" s="341"/>
+      <c r="AQ148" s="341"/>
+      <c r="AR148" s="341"/>
+      <c r="AS148" s="341"/>
+      <c r="AT148" s="341"/>
+      <c r="AU148" s="341"/>
       <c r="AV148" s="23"/>
       <c r="AW148" s="163"/>
     </row>
@@ -33366,48 +33372,48 @@
       <c r="F151" s="182"/>
       <c r="G151" s="182"/>
       <c r="H151" s="183"/>
-      <c r="I151" s="321" t="s">
+      <c r="I151" s="329" t="s">
         <v>108</v>
       </c>
-      <c r="J151" s="322"/>
-      <c r="K151" s="322"/>
-      <c r="L151" s="322"/>
-      <c r="M151" s="322"/>
-      <c r="N151" s="322"/>
-      <c r="O151" s="322"/>
-      <c r="P151" s="322"/>
-      <c r="Q151" s="322"/>
-      <c r="R151" s="322"/>
-      <c r="S151" s="322"/>
-      <c r="T151" s="322"/>
-      <c r="U151" s="322"/>
-      <c r="V151" s="322"/>
-      <c r="W151" s="322"/>
-      <c r="X151" s="322"/>
-      <c r="Y151" s="322"/>
-      <c r="Z151" s="322"/>
-      <c r="AA151" s="322"/>
-      <c r="AB151" s="322"/>
-      <c r="AC151" s="322"/>
-      <c r="AD151" s="322"/>
-      <c r="AE151" s="322"/>
-      <c r="AF151" s="322"/>
-      <c r="AG151" s="322"/>
-      <c r="AH151" s="322"/>
-      <c r="AI151" s="323"/>
-      <c r="AJ151" s="321" t="s">
+      <c r="J151" s="330"/>
+      <c r="K151" s="330"/>
+      <c r="L151" s="330"/>
+      <c r="M151" s="330"/>
+      <c r="N151" s="330"/>
+      <c r="O151" s="330"/>
+      <c r="P151" s="330"/>
+      <c r="Q151" s="330"/>
+      <c r="R151" s="330"/>
+      <c r="S151" s="330"/>
+      <c r="T151" s="330"/>
+      <c r="U151" s="330"/>
+      <c r="V151" s="330"/>
+      <c r="W151" s="330"/>
+      <c r="X151" s="330"/>
+      <c r="Y151" s="330"/>
+      <c r="Z151" s="330"/>
+      <c r="AA151" s="330"/>
+      <c r="AB151" s="330"/>
+      <c r="AC151" s="330"/>
+      <c r="AD151" s="330"/>
+      <c r="AE151" s="330"/>
+      <c r="AF151" s="330"/>
+      <c r="AG151" s="330"/>
+      <c r="AH151" s="330"/>
+      <c r="AI151" s="331"/>
+      <c r="AJ151" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="AK151" s="322"/>
-      <c r="AL151" s="322"/>
-      <c r="AM151" s="322"/>
-      <c r="AN151" s="322"/>
-      <c r="AO151" s="322"/>
-      <c r="AP151" s="322"/>
-      <c r="AQ151" s="322"/>
-      <c r="AR151" s="322"/>
-      <c r="AS151" s="322"/>
-      <c r="AT151" s="323"/>
+      <c r="AK151" s="330"/>
+      <c r="AL151" s="330"/>
+      <c r="AM151" s="330"/>
+      <c r="AN151" s="330"/>
+      <c r="AO151" s="330"/>
+      <c r="AP151" s="330"/>
+      <c r="AQ151" s="330"/>
+      <c r="AR151" s="330"/>
+      <c r="AS151" s="330"/>
+      <c r="AT151" s="331"/>
       <c r="AU151" s="23"/>
       <c r="AV151" s="23"/>
       <c r="AW151" s="163"/>
@@ -33415,12 +33421,12 @@
     <row r="152" spans="1:49" ht="13.5" customHeight="1">
       <c r="A152" s="21"/>
       <c r="D152" s="129"/>
-      <c r="E152" s="333" t="s">
+      <c r="E152" s="332" t="s">
         <v>110</v>
       </c>
-      <c r="F152" s="334"/>
-      <c r="G152" s="334"/>
-      <c r="H152" s="335"/>
+      <c r="F152" s="333"/>
+      <c r="G152" s="333"/>
+      <c r="H152" s="334"/>
       <c r="I152" s="111" t="s">
         <v>113</v>
       </c>
@@ -33468,12 +33474,12 @@
     <row r="153" spans="1:49" ht="13.5" customHeight="1">
       <c r="A153" s="21"/>
       <c r="D153" s="129"/>
-      <c r="E153" s="336" t="s">
+      <c r="E153" s="335" t="s">
         <v>111</v>
       </c>
-      <c r="F153" s="337"/>
-      <c r="G153" s="337"/>
-      <c r="H153" s="338"/>
+      <c r="F153" s="336"/>
+      <c r="G153" s="336"/>
+      <c r="H153" s="337"/>
       <c r="I153" s="118" t="s">
         <v>112</v>
       </c>
@@ -33503,7 +33509,7 @@
       <c r="AG153" s="116"/>
       <c r="AH153" s="116"/>
       <c r="AI153" s="117"/>
-      <c r="AJ153" s="380" t="s">
+      <c r="AJ153" s="389" t="s">
         <v>144</v>
       </c>
       <c r="AK153" s="116"/>
@@ -34007,35 +34013,39 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="I151:AI151"/>
-    <mergeCell ref="AJ151:AT151"/>
-    <mergeCell ref="E152:H152"/>
-    <mergeCell ref="E153:H153"/>
-    <mergeCell ref="N137:AI137"/>
-    <mergeCell ref="F148:AU148"/>
-    <mergeCell ref="AY137:BJ137"/>
-    <mergeCell ref="E142:K142"/>
-    <mergeCell ref="E143:K144"/>
-    <mergeCell ref="L142:AU142"/>
-    <mergeCell ref="AM113:AW113"/>
-    <mergeCell ref="AH95:AL95"/>
-    <mergeCell ref="AM95:AW95"/>
-    <mergeCell ref="AM111:AN111"/>
-    <mergeCell ref="AO111:AQ111"/>
-    <mergeCell ref="AR111:AS111"/>
-    <mergeCell ref="AT111:AW111"/>
-    <mergeCell ref="AM112:AN112"/>
-    <mergeCell ref="AO112:AQ112"/>
-    <mergeCell ref="AR112:AS112"/>
-    <mergeCell ref="AT112:AW112"/>
-    <mergeCell ref="A111:I113"/>
-    <mergeCell ref="J111:O113"/>
-    <mergeCell ref="P111:U113"/>
-    <mergeCell ref="V111:Z112"/>
-    <mergeCell ref="AA111:AL112"/>
-    <mergeCell ref="V113:Z113"/>
-    <mergeCell ref="AA113:AG113"/>
-    <mergeCell ref="AH113:AL113"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AM3:AW3"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="A56:I58"/>
+    <mergeCell ref="J56:O58"/>
+    <mergeCell ref="P56:U58"/>
+    <mergeCell ref="V56:Z57"/>
+    <mergeCell ref="AA56:AL57"/>
+    <mergeCell ref="V58:Z58"/>
+    <mergeCell ref="AA58:AG58"/>
+    <mergeCell ref="AH58:AL58"/>
+    <mergeCell ref="AM56:AN56"/>
+    <mergeCell ref="AO56:AQ56"/>
+    <mergeCell ref="AR56:AS56"/>
+    <mergeCell ref="AT56:AW56"/>
+    <mergeCell ref="AM57:AN57"/>
+    <mergeCell ref="AO57:AQ57"/>
+    <mergeCell ref="AR57:AS57"/>
+    <mergeCell ref="AT57:AW57"/>
     <mergeCell ref="AM58:AW58"/>
     <mergeCell ref="A93:I95"/>
     <mergeCell ref="J93:O95"/>
@@ -34052,39 +34062,35 @@
     <mergeCell ref="AT94:AW94"/>
     <mergeCell ref="V95:Z95"/>
     <mergeCell ref="AA95:AG95"/>
-    <mergeCell ref="AM56:AN56"/>
-    <mergeCell ref="AO56:AQ56"/>
-    <mergeCell ref="AR56:AS56"/>
-    <mergeCell ref="AT56:AW56"/>
-    <mergeCell ref="AM57:AN57"/>
-    <mergeCell ref="AO57:AQ57"/>
-    <mergeCell ref="AR57:AS57"/>
-    <mergeCell ref="AT57:AW57"/>
-    <mergeCell ref="A56:I58"/>
-    <mergeCell ref="J56:O58"/>
-    <mergeCell ref="P56:U58"/>
-    <mergeCell ref="V56:Z57"/>
-    <mergeCell ref="AA56:AL57"/>
-    <mergeCell ref="V58:Z58"/>
-    <mergeCell ref="AA58:AG58"/>
-    <mergeCell ref="AH58:AL58"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AM3:AW3"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AM112:AN112"/>
+    <mergeCell ref="AO112:AQ112"/>
+    <mergeCell ref="AR112:AS112"/>
+    <mergeCell ref="AT112:AW112"/>
+    <mergeCell ref="A111:I113"/>
+    <mergeCell ref="J111:O113"/>
+    <mergeCell ref="P111:U113"/>
+    <mergeCell ref="V111:Z112"/>
+    <mergeCell ref="AA111:AL112"/>
+    <mergeCell ref="V113:Z113"/>
+    <mergeCell ref="AA113:AG113"/>
+    <mergeCell ref="AH113:AL113"/>
+    <mergeCell ref="AH95:AL95"/>
+    <mergeCell ref="AM95:AW95"/>
+    <mergeCell ref="AM111:AN111"/>
+    <mergeCell ref="AO111:AQ111"/>
+    <mergeCell ref="AR111:AS111"/>
+    <mergeCell ref="AT111:AW111"/>
+    <mergeCell ref="AY137:BJ137"/>
+    <mergeCell ref="E142:K142"/>
+    <mergeCell ref="E143:K144"/>
+    <mergeCell ref="L142:AU142"/>
+    <mergeCell ref="AM113:AW113"/>
+    <mergeCell ref="I151:AI151"/>
+    <mergeCell ref="AJ151:AT151"/>
+    <mergeCell ref="E152:H152"/>
+    <mergeCell ref="E153:H153"/>
+    <mergeCell ref="N137:AI137"/>
+    <mergeCell ref="F148:AU148"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -34106,130 +34112,130 @@
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:49" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="343"/>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="344"/>
-      <c r="G1" s="344"/>
-      <c r="H1" s="344"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="349" t="s">
+      <c r="A1" s="352"/>
+      <c r="B1" s="353"/>
+      <c r="C1" s="353"/>
+      <c r="D1" s="353"/>
+      <c r="E1" s="353"/>
+      <c r="F1" s="353"/>
+      <c r="G1" s="353"/>
+      <c r="H1" s="353"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="358" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
-      <c r="M1" s="350"/>
-      <c r="N1" s="350"/>
-      <c r="O1" s="351"/>
-      <c r="P1" s="349" t="s">
+      <c r="K1" s="359"/>
+      <c r="L1" s="359"/>
+      <c r="M1" s="359"/>
+      <c r="N1" s="359"/>
+      <c r="O1" s="360"/>
+      <c r="P1" s="358" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="350"/>
-      <c r="R1" s="350"/>
-      <c r="S1" s="350"/>
-      <c r="T1" s="350"/>
-      <c r="U1" s="351"/>
-      <c r="V1" s="355" t="s">
+      <c r="Q1" s="359"/>
+      <c r="R1" s="359"/>
+      <c r="S1" s="359"/>
+      <c r="T1" s="359"/>
+      <c r="U1" s="360"/>
+      <c r="V1" s="364" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="356"/>
-      <c r="X1" s="356"/>
-      <c r="Y1" s="356"/>
-      <c r="Z1" s="357"/>
-      <c r="AA1" s="372" t="s">
+      <c r="W1" s="365"/>
+      <c r="X1" s="365"/>
+      <c r="Y1" s="365"/>
+      <c r="Z1" s="366"/>
+      <c r="AA1" s="381" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="350"/>
-      <c r="AC1" s="350"/>
-      <c r="AD1" s="350"/>
-      <c r="AE1" s="350"/>
-      <c r="AF1" s="350"/>
-      <c r="AG1" s="350"/>
-      <c r="AH1" s="350"/>
-      <c r="AI1" s="350"/>
-      <c r="AJ1" s="350"/>
-      <c r="AK1" s="350"/>
-      <c r="AL1" s="351"/>
-      <c r="AM1" s="374" t="s">
+      <c r="AB1" s="359"/>
+      <c r="AC1" s="359"/>
+      <c r="AD1" s="359"/>
+      <c r="AE1" s="359"/>
+      <c r="AF1" s="359"/>
+      <c r="AG1" s="359"/>
+      <c r="AH1" s="359"/>
+      <c r="AI1" s="359"/>
+      <c r="AJ1" s="359"/>
+      <c r="AK1" s="359"/>
+      <c r="AL1" s="360"/>
+      <c r="AM1" s="383" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="375"/>
-      <c r="AO1" s="376" t="s">
+      <c r="AN1" s="384"/>
+      <c r="AO1" s="385" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="377"/>
-      <c r="AQ1" s="378"/>
-      <c r="AR1" s="379" t="s">
+      <c r="AP1" s="386"/>
+      <c r="AQ1" s="387"/>
+      <c r="AR1" s="388" t="s">
         <v>1</v>
       </c>
-      <c r="AS1" s="375"/>
-      <c r="AT1" s="361" t="s">
+      <c r="AS1" s="384"/>
+      <c r="AT1" s="370" t="s">
         <v>5</v>
       </c>
-      <c r="AU1" s="362"/>
-      <c r="AV1" s="362"/>
-      <c r="AW1" s="363"/>
+      <c r="AU1" s="371"/>
+      <c r="AV1" s="371"/>
+      <c r="AW1" s="372"/>
     </row>
     <row r="2" spans="1:49" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A2" s="346"/>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="352"/>
-      <c r="K2" s="353"/>
-      <c r="L2" s="353"/>
-      <c r="M2" s="353"/>
-      <c r="N2" s="353"/>
-      <c r="O2" s="354"/>
-      <c r="P2" s="352"/>
-      <c r="Q2" s="353"/>
-      <c r="R2" s="353"/>
-      <c r="S2" s="353"/>
-      <c r="T2" s="353"/>
-      <c r="U2" s="354"/>
-      <c r="V2" s="358"/>
-      <c r="W2" s="359"/>
-      <c r="X2" s="359"/>
-      <c r="Y2" s="359"/>
-      <c r="Z2" s="360"/>
-      <c r="AA2" s="373"/>
-      <c r="AB2" s="353"/>
-      <c r="AC2" s="353"/>
-      <c r="AD2" s="353"/>
-      <c r="AE2" s="353"/>
-      <c r="AF2" s="353"/>
-      <c r="AG2" s="353"/>
-      <c r="AH2" s="353"/>
-      <c r="AI2" s="353"/>
-      <c r="AJ2" s="353"/>
-      <c r="AK2" s="353"/>
-      <c r="AL2" s="354"/>
-      <c r="AM2" s="364" t="s">
+      <c r="A2" s="355"/>
+      <c r="B2" s="356"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="356"/>
+      <c r="F2" s="356"/>
+      <c r="G2" s="356"/>
+      <c r="H2" s="356"/>
+      <c r="I2" s="357"/>
+      <c r="J2" s="361"/>
+      <c r="K2" s="362"/>
+      <c r="L2" s="362"/>
+      <c r="M2" s="362"/>
+      <c r="N2" s="362"/>
+      <c r="O2" s="363"/>
+      <c r="P2" s="361"/>
+      <c r="Q2" s="362"/>
+      <c r="R2" s="362"/>
+      <c r="S2" s="362"/>
+      <c r="T2" s="362"/>
+      <c r="U2" s="363"/>
+      <c r="V2" s="367"/>
+      <c r="W2" s="368"/>
+      <c r="X2" s="368"/>
+      <c r="Y2" s="368"/>
+      <c r="Z2" s="369"/>
+      <c r="AA2" s="382"/>
+      <c r="AB2" s="362"/>
+      <c r="AC2" s="362"/>
+      <c r="AD2" s="362"/>
+      <c r="AE2" s="362"/>
+      <c r="AF2" s="362"/>
+      <c r="AG2" s="362"/>
+      <c r="AH2" s="362"/>
+      <c r="AI2" s="362"/>
+      <c r="AJ2" s="362"/>
+      <c r="AK2" s="362"/>
+      <c r="AL2" s="363"/>
+      <c r="AM2" s="373" t="s">
         <v>4</v>
       </c>
-      <c r="AN2" s="365"/>
-      <c r="AO2" s="366" t="s">
+      <c r="AN2" s="374"/>
+      <c r="AO2" s="375" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="367"/>
-      <c r="AQ2" s="368"/>
-      <c r="AR2" s="364" t="s">
+      <c r="AP2" s="376"/>
+      <c r="AQ2" s="377"/>
+      <c r="AR2" s="373" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="365"/>
-      <c r="AT2" s="369" t="s">
+      <c r="AS2" s="374"/>
+      <c r="AT2" s="378" t="s">
         <v>5</v>
       </c>
-      <c r="AU2" s="370"/>
-      <c r="AV2" s="370"/>
-      <c r="AW2" s="371"/>
+      <c r="AU2" s="379"/>
+      <c r="AV2" s="379"/>
+      <c r="AW2" s="380"/>
     </row>
     <row r="3" spans="1:49" s="5" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
       <c r="A3" s="2"/>
